--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="2404">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -4563,9 +4563,6 @@
     <t>From: Dad (Neihardt sEnidng for some diamond dust To re-charge his drills)</t>
   </si>
   <si>
-    <t>From: Mama (Getting ready To see Endi &amp; Ollie when Enid has her baby)</t>
-  </si>
-  <si>
     <t>From: N. N. Neihardt (John's father writing From Honolulu)</t>
   </si>
   <si>
@@ -7222,6 +7219,18 @@
   </si>
   <si>
     <t>Form: Ollie &amp; Enid</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>From: Mama (Getting ready To see Enid &amp; Ollie when Enid has her baby)</t>
+  </si>
+  <si>
+    <t>same as J4b.17a.49</t>
+  </si>
+  <si>
+    <t>AM (no xml)</t>
   </si>
 </sst>
 </file>
@@ -8043,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1507" workbookViewId="0">
-      <selection activeCell="D1539" sqref="D1539"/>
+    <sheetView tabSelected="1" topLeftCell="B829" workbookViewId="0">
+      <selection activeCell="F853" sqref="F853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8116,7 +8125,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8183,7 +8192,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8197,7 +8206,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8421,7 +8430,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8911,7 +8920,7 @@
         <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -9034,7 +9043,7 @@
         <v>8421</v>
       </c>
       <c r="C69" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D69" t="s">
         <v>143</v>
@@ -9090,7 +9099,7 @@
         <v>8426</v>
       </c>
       <c r="C73" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D73" t="s">
         <v>152</v>
@@ -9191,7 +9200,7 @@
         <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -9261,7 +9270,7 @@
         <v>149</v>
       </c>
       <c r="D85" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -9275,7 +9284,7 @@
         <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -9303,7 +9312,7 @@
         <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -9387,7 +9396,7 @@
         <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -9457,7 +9466,7 @@
         <v>55</v>
       </c>
       <c r="D99" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -9499,7 +9508,7 @@
         <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -9555,7 +9564,7 @@
         <v>184</v>
       </c>
       <c r="D106" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -9863,7 +9872,7 @@
         <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -11487,7 +11496,7 @@
         <v>446</v>
       </c>
       <c r="D244" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -11543,7 +11552,7 @@
         <v>446</v>
       </c>
       <c r="D248" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -11557,7 +11566,7 @@
         <v>446</v>
       </c>
       <c r="D249" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -11571,7 +11580,7 @@
         <v>55</v>
       </c>
       <c r="D250" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -11641,7 +11650,7 @@
         <v>446</v>
       </c>
       <c r="D255" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -11753,7 +11762,7 @@
         <v>446</v>
       </c>
       <c r="D263" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -11781,7 +11790,7 @@
         <v>446</v>
       </c>
       <c r="D265" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -11795,7 +11804,7 @@
         <v>446</v>
       </c>
       <c r="D266" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -12005,7 +12014,7 @@
         <v>486</v>
       </c>
       <c r="D281" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -12019,7 +12028,7 @@
         <v>385</v>
       </c>
       <c r="D282" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -14287,7 +14296,7 @@
         <v>737</v>
       </c>
       <c r="D444" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -14427,7 +14436,7 @@
         <v>784</v>
       </c>
       <c r="D454" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -14749,7 +14758,7 @@
         <v>726</v>
       </c>
       <c r="D477" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -14861,7 +14870,7 @@
         <v>149</v>
       </c>
       <c r="D485" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -14942,7 +14951,7 @@
         <v>14366</v>
       </c>
       <c r="C491" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D491" t="s">
         <v>351</v>
@@ -15099,7 +15108,7 @@
         <v>831</v>
       </c>
       <c r="D502" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -15376,7 +15385,7 @@
         <v>14473</v>
       </c>
       <c r="C522" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D522" t="s">
         <v>351</v>
@@ -16174,7 +16183,7 @@
         <v>14608</v>
       </c>
       <c r="C579" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D579" t="s">
         <v>351</v>
@@ -16230,7 +16239,7 @@
         <v>967</v>
       </c>
       <c r="C583" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D583" t="s">
         <v>494</v>
@@ -16303,7 +16312,7 @@
         <v>786</v>
       </c>
       <c r="D588" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
@@ -16384,7 +16393,7 @@
         <v>14640</v>
       </c>
       <c r="C594" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D594" t="s">
         <v>351</v>
@@ -16681,7 +16690,7 @@
         <v>385</v>
       </c>
       <c r="D615" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
@@ -16779,7 +16788,7 @@
         <v>991</v>
       </c>
       <c r="D622" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
@@ -17672,7 +17681,7 @@
         <v>14862</v>
       </c>
       <c r="C686" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D686" t="s">
         <v>1129</v>
@@ -17745,7 +17754,7 @@
         <v>385</v>
       </c>
       <c r="D691" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -17812,7 +17821,7 @@
         <v>14889</v>
       </c>
       <c r="C696" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D696" t="s">
         <v>494</v>
@@ -17857,7 +17866,7 @@
         <v>531</v>
       </c>
       <c r="D699" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -17994,7 +18003,7 @@
         <v>14911</v>
       </c>
       <c r="C709" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D709" t="s">
         <v>1143</v>
@@ -18008,7 +18017,7 @@
         <v>14916</v>
       </c>
       <c r="C710" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D710" t="s">
         <v>494</v>
@@ -18207,7 +18216,7 @@
         <v>55</v>
       </c>
       <c r="D724" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
@@ -18274,7 +18283,7 @@
         <v>1199</v>
       </c>
       <c r="C729" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D729" t="s">
         <v>351</v>
@@ -18753,7 +18762,7 @@
         <v>162</v>
       </c>
       <c r="D763" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -18837,7 +18846,7 @@
         <v>162</v>
       </c>
       <c r="D769" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
@@ -18848,7 +18857,7 @@
         <v>15067</v>
       </c>
       <c r="C770" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D770" t="s">
         <v>1132</v>
@@ -18862,7 +18871,7 @@
         <v>15068</v>
       </c>
       <c r="C771" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D771" t="s">
         <v>494</v>
@@ -18932,7 +18941,7 @@
         <v>15072</v>
       </c>
       <c r="C776" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D776" t="s">
         <v>351</v>
@@ -18946,7 +18955,7 @@
         <v>15072</v>
       </c>
       <c r="C777" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D777" t="s">
         <v>494</v>
@@ -19212,7 +19221,7 @@
         <v>15117</v>
       </c>
       <c r="C796" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D796" t="s">
         <v>975</v>
@@ -19352,7 +19361,7 @@
         <v>15130</v>
       </c>
       <c r="C806" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D806" t="s">
         <v>351</v>
@@ -19422,7 +19431,7 @@
         <v>15137</v>
       </c>
       <c r="C811" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D811" t="s">
         <v>494</v>
@@ -19604,7 +19613,7 @@
         <v>15164</v>
       </c>
       <c r="C824" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D824" t="s">
         <v>1326</v>
@@ -19618,7 +19627,7 @@
         <v>15167</v>
       </c>
       <c r="C825" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D825" t="s">
         <v>351</v>
@@ -19716,13 +19725,13 @@
         <v>15173</v>
       </c>
       <c r="C832" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D832" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1308</v>
       </c>
@@ -19736,7 +19745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1309</v>
       </c>
@@ -19750,7 +19759,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1310</v>
       </c>
@@ -19764,7 +19773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1311</v>
       </c>
@@ -19772,13 +19781,13 @@
         <v>15183</v>
       </c>
       <c r="C836" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D836" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1312</v>
       </c>
@@ -19792,7 +19801,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1313</v>
       </c>
@@ -19800,13 +19809,13 @@
         <v>15191</v>
       </c>
       <c r="C838" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D838" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1314</v>
       </c>
@@ -19820,7 +19829,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1315</v>
       </c>
@@ -19834,7 +19843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1316</v>
       </c>
@@ -19848,7 +19857,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1317</v>
       </c>
@@ -19861,8 +19870,11 @@
       <c r="D842" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F842" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1318</v>
       </c>
@@ -19873,10 +19885,13 @@
         <v>162</v>
       </c>
       <c r="D843" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2401</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1319</v>
       </c>
@@ -19889,8 +19904,11 @@
       <c r="D844" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F844" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1320</v>
       </c>
@@ -19898,13 +19916,16 @@
         <v>15214</v>
       </c>
       <c r="C845" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D845" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F845" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1321</v>
       </c>
@@ -19917,8 +19938,11 @@
       <c r="D846" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F846" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1322</v>
       </c>
@@ -19931,8 +19955,11 @@
       <c r="D847" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F847" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1332</v>
       </c>
@@ -19945,8 +19972,11 @@
       <c r="D848" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F848" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1333</v>
       </c>
@@ -19959,8 +19989,14 @@
       <c r="D849" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F849" t="s">
+        <v>2403</v>
+      </c>
+      <c r="I849" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1334</v>
       </c>
@@ -19973,8 +20009,11 @@
       <c r="D850" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F850" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1335</v>
       </c>
@@ -19987,8 +20026,11 @@
       <c r="D851" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F851" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1336</v>
       </c>
@@ -20001,8 +20043,11 @@
       <c r="D852" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F852" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1337</v>
       </c>
@@ -20010,13 +20055,13 @@
         <v>15252</v>
       </c>
       <c r="C853" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D853" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1338</v>
       </c>
@@ -20024,13 +20069,13 @@
         <v>15253</v>
       </c>
       <c r="C854" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D854" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1339</v>
       </c>
@@ -20044,7 +20089,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1340</v>
       </c>
@@ -20058,7 +20103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1341</v>
       </c>
@@ -20072,7 +20117,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1342</v>
       </c>
@@ -20086,7 +20131,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1343</v>
       </c>
@@ -20094,13 +20139,13 @@
         <v>15292</v>
       </c>
       <c r="C859" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D859" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1344</v>
       </c>
@@ -20114,7 +20159,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1345</v>
       </c>
@@ -20128,7 +20173,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1346</v>
       </c>
@@ -20139,10 +20184,10 @@
         <v>1357</v>
       </c>
       <c r="D862" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1347</v>
       </c>
@@ -20156,7 +20201,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1348</v>
       </c>
@@ -20206,7 +20251,7 @@
         <v>15317</v>
       </c>
       <c r="C867" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D867" t="s">
         <v>494</v>
@@ -20290,7 +20335,7 @@
         <v>15345</v>
       </c>
       <c r="C873" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D873" t="s">
         <v>351</v>
@@ -20304,7 +20349,7 @@
         <v>15348</v>
       </c>
       <c r="C874" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D874" t="s">
         <v>1405</v>
@@ -20318,7 +20363,7 @@
         <v>1398</v>
       </c>
       <c r="C875" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D875" t="s">
         <v>494</v>
@@ -20542,7 +20587,7 @@
         <v>15454</v>
       </c>
       <c r="C891" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D891" t="s">
         <v>1407</v>
@@ -20556,7 +20601,7 @@
         <v>15456</v>
       </c>
       <c r="C892" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D892" t="s">
         <v>1407</v>
@@ -20682,7 +20727,7 @@
         <v>15473</v>
       </c>
       <c r="C901" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D901" t="s">
         <v>1405</v>
@@ -20696,7 +20741,7 @@
         <v>15475</v>
       </c>
       <c r="C902" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D902" t="s">
         <v>1326</v>
@@ -20710,7 +20755,7 @@
         <v>15476</v>
       </c>
       <c r="C903" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D903" t="s">
         <v>1446</v>
@@ -20752,7 +20797,7 @@
         <v>15493</v>
       </c>
       <c r="C906" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D906" t="s">
         <v>1405</v>
@@ -20836,7 +20881,7 @@
         <v>15511</v>
       </c>
       <c r="C912" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D912" t="s">
         <v>1447</v>
@@ -20864,7 +20909,7 @@
         <v>15512</v>
       </c>
       <c r="C914" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D914" t="s">
         <v>494</v>
@@ -20920,7 +20965,7 @@
         <v>15515</v>
       </c>
       <c r="C918" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D918" t="s">
         <v>42</v>
@@ -20934,7 +20979,7 @@
         <v>15515</v>
       </c>
       <c r="C919" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D919" t="s">
         <v>1405</v>
@@ -20976,7 +21021,7 @@
         <v>15517</v>
       </c>
       <c r="C922" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D922" t="s">
         <v>42</v>
@@ -21046,7 +21091,7 @@
         <v>15526</v>
       </c>
       <c r="C927" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D927" t="s">
         <v>1326</v>
@@ -21088,7 +21133,7 @@
         <v>15528</v>
       </c>
       <c r="C930" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D930" t="s">
         <v>145</v>
@@ -21161,7 +21206,7 @@
         <v>1477</v>
       </c>
       <c r="D935" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
@@ -21175,7 +21220,7 @@
         <v>1478</v>
       </c>
       <c r="D936" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
@@ -21186,7 +21231,7 @@
         <v>15533</v>
       </c>
       <c r="C937" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D937" t="s">
         <v>351</v>
@@ -21214,10 +21259,10 @@
         <v>15535</v>
       </c>
       <c r="C939" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D939" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
@@ -21242,10 +21287,10 @@
         <v>15538</v>
       </c>
       <c r="C941" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D941" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
@@ -21287,7 +21332,7 @@
         <v>789</v>
       </c>
       <c r="D944" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
@@ -21301,7 +21346,7 @@
         <v>968</v>
       </c>
       <c r="D945" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
@@ -21315,7 +21360,7 @@
         <v>531</v>
       </c>
       <c r="D946" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
@@ -21340,7 +21385,7 @@
         <v>15543</v>
       </c>
       <c r="C948" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D948" t="s">
         <v>1405</v>
@@ -21385,7 +21430,7 @@
         <v>968</v>
       </c>
       <c r="D951" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
@@ -21410,10 +21455,10 @@
         <v>15547</v>
       </c>
       <c r="C953" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D953" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
@@ -21427,7 +21472,7 @@
         <v>968</v>
       </c>
       <c r="D954" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
@@ -21446,52 +21491,52 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B956" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C956" t="s">
         <v>1477</v>
       </c>
       <c r="D956" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B957" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C957" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D957" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B958" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C958" t="s">
         <v>725</v>
       </c>
       <c r="D958" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B959" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C959" t="s">
         <v>681</v>
@@ -21502,21 +21547,21 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B960" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C960" t="s">
         <v>1201</v>
       </c>
       <c r="D960" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B961" s="2">
         <v>15554</v>
@@ -21530,13 +21575,13 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B962" s="2">
         <v>15555</v>
       </c>
       <c r="C962" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D962" t="s">
         <v>351</v>
@@ -21544,7 +21589,7 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B963" s="2">
         <v>15556</v>
@@ -21558,7 +21603,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B964" s="2">
         <v>15557</v>
@@ -21572,13 +21617,13 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B965" s="2">
         <v>15558</v>
       </c>
       <c r="C965" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D965" t="s">
         <v>351</v>
@@ -21586,7 +21631,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B966" s="2">
         <v>15561</v>
@@ -21595,40 +21640,40 @@
         <v>681</v>
       </c>
       <c r="D966" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B967" s="2">
         <v>15563</v>
       </c>
       <c r="C967" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D967" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B968" s="2">
         <v>15566</v>
       </c>
       <c r="C968" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D968" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B969" s="2">
         <v>15570</v>
@@ -21637,12 +21682,12 @@
         <v>728</v>
       </c>
       <c r="D969" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B970" s="2">
         <v>15570</v>
@@ -21656,13 +21701,13 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B971" s="2">
         <v>15570</v>
       </c>
       <c r="C971" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D971" t="s">
         <v>1326</v>
@@ -21670,7 +21715,7 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B972" s="2">
         <v>15570</v>
@@ -21679,18 +21724,18 @@
         <v>789</v>
       </c>
       <c r="D972" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B973" s="2">
         <v>15572</v>
       </c>
       <c r="C973" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D973" t="s">
         <v>494</v>
@@ -21698,7 +21743,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B974" s="2">
         <v>15573</v>
@@ -21712,7 +21757,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B975" s="2">
         <v>15574</v>
@@ -21726,21 +21771,21 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B976" s="2">
         <v>15575</v>
       </c>
       <c r="C976" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D976" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B977" s="2">
         <v>15577</v>
@@ -21749,18 +21794,18 @@
         <v>968</v>
       </c>
       <c r="D977" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B978" s="2">
         <v>15577</v>
       </c>
       <c r="C978" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D978" t="s">
         <v>1326</v>
@@ -21768,7 +21813,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B979" s="2">
         <v>15578</v>
@@ -21782,21 +21827,21 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B980" s="2">
         <v>15579</v>
       </c>
       <c r="C980" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D980" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B981" s="2">
         <v>15580</v>
@@ -21805,12 +21850,12 @@
         <v>162</v>
       </c>
       <c r="D981" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B982" s="2">
         <v>15584</v>
@@ -21819,18 +21864,18 @@
         <v>25</v>
       </c>
       <c r="D982" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B983" s="2">
         <v>15584</v>
       </c>
       <c r="C983" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D983" t="s">
         <v>351</v>
@@ -21838,27 +21883,27 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B984" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C984" t="s">
         <v>346</v>
       </c>
       <c r="D984" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B985" s="2">
         <v>15585</v>
       </c>
       <c r="C985" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D985" t="s">
         <v>494</v>
@@ -21866,21 +21911,21 @@
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B986" s="2">
         <v>15585</v>
       </c>
       <c r="C986" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D986" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B987" s="2">
         <v>15585</v>
@@ -21889,12 +21934,12 @@
         <v>968</v>
       </c>
       <c r="D987" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B988" s="2">
         <v>15585</v>
@@ -21908,7 +21953,7 @@
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B989" s="2">
         <v>15585</v>
@@ -21922,7 +21967,7 @@
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B990" s="2">
         <v>15587</v>
@@ -21931,18 +21976,18 @@
         <v>725</v>
       </c>
       <c r="D990" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B991" s="2">
         <v>15587</v>
       </c>
       <c r="C991" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D991" t="s">
         <v>351</v>
@@ -21950,13 +21995,13 @@
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B992" s="2">
         <v>15588</v>
       </c>
       <c r="C992" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D992" t="s">
         <v>400</v>
@@ -21964,7 +22009,7 @@
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B993" s="2">
         <v>15589</v>
@@ -21978,41 +22023,41 @@
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B994" s="2">
         <v>15589</v>
       </c>
       <c r="C994" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D994" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B995" s="2">
         <v>15589</v>
       </c>
       <c r="C995" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D995" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B996" s="2">
         <v>15590</v>
       </c>
       <c r="C996" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D996" t="s">
         <v>351</v>
@@ -22020,35 +22065,35 @@
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B997" s="2">
         <v>15591</v>
       </c>
       <c r="C997" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D997" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B998" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C998" t="s">
         <v>725</v>
       </c>
       <c r="D998" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B999" s="2">
         <v>15592</v>
@@ -22062,7 +22107,7 @@
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B1000" s="2">
         <v>15592</v>
@@ -22076,27 +22121,27 @@
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1001" s="2">
         <v>15592</v>
       </c>
       <c r="C1001" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D1001" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B1002" s="2">
         <v>15593</v>
       </c>
       <c r="C1002" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1002" t="s">
         <v>351</v>
@@ -22104,13 +22149,13 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1003" s="2">
         <v>15595</v>
       </c>
       <c r="C1003" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1003" t="s">
         <v>1326</v>
@@ -22118,7 +22163,7 @@
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B1004" s="2">
         <v>15596</v>
@@ -22132,7 +22177,7 @@
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B1005" s="2">
         <v>15596</v>
@@ -22146,13 +22191,13 @@
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B1006" s="2">
         <v>15603</v>
       </c>
       <c r="C1006" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D1006" t="s">
         <v>400</v>
@@ -22160,13 +22205,13 @@
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1007" s="2">
         <v>15605</v>
       </c>
       <c r="C1007" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1007" t="s">
         <v>351</v>
@@ -22174,7 +22219,7 @@
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1008" s="2">
         <v>15609</v>
@@ -22183,12 +22228,12 @@
         <v>162</v>
       </c>
       <c r="D1008" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B1009" s="2">
         <v>15610</v>
@@ -22202,21 +22247,21 @@
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B1010" s="2">
         <v>15612</v>
       </c>
       <c r="C1010" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1010" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B1011" s="2">
         <v>15616</v>
@@ -22230,7 +22275,7 @@
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B1012" s="2">
         <v>15619</v>
@@ -22244,13 +22289,13 @@
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B1013" s="2">
         <v>15619</v>
       </c>
       <c r="C1013" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1013" t="s">
         <v>351</v>
@@ -22258,7 +22303,7 @@
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B1014" s="2">
         <v>15620</v>
@@ -22272,7 +22317,7 @@
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B1015" s="2">
         <v>15620</v>
@@ -22286,7 +22331,7 @@
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B1016" s="2">
         <v>15621</v>
@@ -22295,12 +22340,12 @@
         <v>725</v>
       </c>
       <c r="D1016" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B1017" s="2">
         <v>15623</v>
@@ -22314,27 +22359,27 @@
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1018" s="2">
         <v>15624</v>
       </c>
       <c r="C1018" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D1018" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1019" s="2">
         <v>15626</v>
       </c>
       <c r="C1019" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D1019" t="s">
         <v>400</v>
@@ -22342,13 +22387,13 @@
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B1020" s="2">
         <v>15626</v>
       </c>
       <c r="C1020" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1020" t="s">
         <v>351</v>
@@ -22356,7 +22401,7 @@
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B1021" s="2">
         <v>15633</v>
@@ -22365,12 +22410,12 @@
         <v>162</v>
       </c>
       <c r="D1021" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B1022" s="2">
         <v>15634</v>
@@ -22379,12 +22424,12 @@
         <v>681</v>
       </c>
       <c r="D1022" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1023" s="2">
         <v>15635</v>
@@ -22398,7 +22443,7 @@
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B1024" s="2">
         <v>15637</v>
@@ -22412,13 +22457,13 @@
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1025" s="2">
         <v>15638</v>
       </c>
       <c r="C1025" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1025" t="s">
         <v>351</v>
@@ -22426,7 +22471,7 @@
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1026" s="2">
         <v>15641</v>
@@ -22435,12 +22480,12 @@
         <v>584</v>
       </c>
       <c r="D1026" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B1027" s="2">
         <v>15642</v>
@@ -22449,15 +22494,15 @@
         <v>55</v>
       </c>
       <c r="D1027" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B1028" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C1028" t="s">
         <v>531</v>
@@ -22468,7 +22513,7 @@
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B1029" s="2">
         <v>15654</v>
@@ -22482,7 +22527,7 @@
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B1030" s="2">
         <v>15666</v>
@@ -22496,13 +22541,13 @@
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1031" s="2">
         <v>15668</v>
       </c>
       <c r="C1031" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1031" t="s">
         <v>351</v>
@@ -22510,7 +22555,7 @@
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B1032" s="2">
         <v>15670</v>
@@ -22524,10 +22569,10 @@
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1033" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C1033" t="s">
         <v>1089</v>
@@ -22538,10 +22583,10 @@
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B1034" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C1034" t="s">
         <v>1089</v>
@@ -22552,27 +22597,27 @@
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1035" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C1035" t="s">
         <v>831</v>
       </c>
       <c r="D1035" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1036" s="2">
         <v>15676</v>
       </c>
       <c r="C1036" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1036" t="s">
         <v>351</v>
@@ -22580,7 +22625,7 @@
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B1037" s="2">
         <v>15691</v>
@@ -22594,13 +22639,13 @@
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B1038" s="2">
         <v>15696</v>
       </c>
       <c r="C1038" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1038" t="s">
         <v>351</v>
@@ -22608,13 +22653,13 @@
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B1039" s="2">
         <v>15698</v>
       </c>
       <c r="C1039" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D1039" t="s">
         <v>351</v>
@@ -22622,7 +22667,7 @@
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B1040" s="2">
         <v>15699</v>
@@ -22631,18 +22676,18 @@
         <v>831</v>
       </c>
       <c r="D1040" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B1041" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1041" t="s">
         <v>1666</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1667</v>
       </c>
       <c r="D1041" t="s">
         <v>400</v>
@@ -22650,7 +22695,7 @@
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B1042" s="2">
         <v>15701</v>
@@ -22664,41 +22709,41 @@
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1043" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C1043" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D1043" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1044" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C1044" t="s">
         <v>162</v>
       </c>
       <c r="D1044" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1045" s="2">
         <v>15707</v>
       </c>
       <c r="C1045" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D1045" t="s">
         <v>1133</v>
@@ -22706,7 +22751,7 @@
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1046" s="2">
         <v>15711</v>
@@ -22720,21 +22765,21 @@
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1047" s="2">
         <v>15719</v>
       </c>
       <c r="C1047" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1047" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1048" s="2">
         <v>15714</v>
@@ -22748,13 +22793,13 @@
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1049" s="2">
         <v>15712</v>
       </c>
       <c r="C1049" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D1049" t="s">
         <v>400</v>
@@ -22762,13 +22807,13 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1050" s="2">
         <v>15713</v>
       </c>
       <c r="C1050" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D1050" t="s">
         <v>1446</v>
@@ -22776,7 +22821,7 @@
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1051" s="2">
         <v>15714</v>
@@ -22785,12 +22830,12 @@
         <v>831</v>
       </c>
       <c r="D1051" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1052" s="2">
         <v>15715</v>
@@ -22804,13 +22849,13 @@
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1053" s="2">
         <v>15718</v>
       </c>
       <c r="C1053" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D1053" t="s">
         <v>400</v>
@@ -22818,7 +22863,7 @@
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1054" s="2">
         <v>15719</v>
@@ -22832,7 +22877,7 @@
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1055" s="2">
         <v>15727</v>
@@ -22846,13 +22891,13 @@
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1056" s="2">
         <v>15731</v>
       </c>
       <c r="C1056" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D1056" t="s">
         <v>400</v>
@@ -22860,7 +22905,7 @@
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1057" s="2">
         <v>15733</v>
@@ -22874,7 +22919,7 @@
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1058" s="2">
         <v>15734</v>
@@ -22888,10 +22933,10 @@
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B1059" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C1059" t="s">
         <v>531</v>
@@ -22902,7 +22947,7 @@
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1060" s="2">
         <v>15739</v>
@@ -22916,7 +22961,7 @@
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1061" s="2">
         <v>15739</v>
@@ -22930,13 +22975,13 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B1062" s="2">
         <v>15742</v>
       </c>
       <c r="C1062" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1062" t="s">
         <v>86</v>
@@ -22944,7 +22989,7 @@
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B1063" s="2">
         <v>15742</v>
@@ -22958,7 +23003,7 @@
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B1064" s="2">
         <v>15744</v>
@@ -22972,7 +23017,7 @@
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B1065" s="2">
         <v>15747</v>
@@ -22986,7 +23031,7 @@
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1066" s="2">
         <v>15749</v>
@@ -23000,7 +23045,7 @@
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B1067" s="2">
         <v>15749</v>
@@ -23014,7 +23059,7 @@
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B1068" s="2">
         <v>15752</v>
@@ -23028,7 +23073,7 @@
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1069" s="2">
         <v>15753</v>
@@ -23037,12 +23082,12 @@
         <v>531</v>
       </c>
       <c r="D1069" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1070" s="2">
         <v>15767</v>
@@ -23051,18 +23096,18 @@
         <v>831</v>
       </c>
       <c r="D1070" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B1071" s="2">
         <v>15767</v>
       </c>
       <c r="C1071" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D1071" t="s">
         <v>150</v>
@@ -23070,7 +23115,7 @@
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1072" s="2">
         <v>15769</v>
@@ -23079,12 +23124,12 @@
         <v>531</v>
       </c>
       <c r="D1072" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B1073" s="2">
         <v>15770</v>
@@ -23098,7 +23143,7 @@
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B1074" s="2">
         <v>15771</v>
@@ -23112,7 +23157,7 @@
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B1075" s="2">
         <v>15773</v>
@@ -23126,7 +23171,7 @@
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B1076" s="2">
         <v>15774</v>
@@ -23140,13 +23185,13 @@
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1077" s="2">
         <v>15781</v>
       </c>
       <c r="C1077" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D1077" t="s">
         <v>42</v>
@@ -23154,7 +23199,7 @@
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B1078" s="2">
         <v>15782</v>
@@ -23168,7 +23213,7 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B1079" s="2">
         <v>15788</v>
@@ -23182,7 +23227,7 @@
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1080" s="2">
         <v>15790</v>
@@ -23196,13 +23241,13 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B1081" s="2">
         <v>15795</v>
       </c>
       <c r="C1081" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D1081" t="s">
         <v>351</v>
@@ -23210,7 +23255,7 @@
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1082" s="2">
         <v>15801</v>
@@ -23224,7 +23269,7 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B1083" s="2">
         <v>15804</v>
@@ -23238,7 +23283,7 @@
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B1084" s="2">
         <v>15805</v>
@@ -23252,13 +23297,13 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B1085" s="2">
         <v>15810</v>
       </c>
       <c r="C1085" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D1085" t="s">
         <v>145</v>
@@ -23266,7 +23311,7 @@
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B1086" s="2">
         <v>15810</v>
@@ -23280,10 +23325,10 @@
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B1087" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C1087" t="s">
         <v>149</v>
@@ -23294,7 +23339,7 @@
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1088" s="2">
         <v>15824</v>
@@ -23308,7 +23353,7 @@
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1089" s="2">
         <v>15828</v>
@@ -23322,7 +23367,7 @@
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B1090" s="2">
         <v>15841</v>
@@ -23331,12 +23376,12 @@
         <v>162</v>
       </c>
       <c r="D1090" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B1091" s="2">
         <v>15841</v>
@@ -23350,7 +23395,7 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1092" s="2">
         <v>15843</v>
@@ -23359,12 +23404,12 @@
         <v>162</v>
       </c>
       <c r="D1092" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1093" s="2">
         <v>15843</v>
@@ -23378,7 +23423,7 @@
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B1094" s="2">
         <v>15844</v>
@@ -23392,7 +23437,7 @@
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1095" s="2">
         <v>15844</v>
@@ -23406,13 +23451,13 @@
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1096" s="2">
         <v>15844</v>
       </c>
       <c r="C1096" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D1096" t="s">
         <v>351</v>
@@ -23420,7 +23465,7 @@
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1097" s="2">
         <v>15845</v>
@@ -23429,12 +23474,12 @@
         <v>831</v>
       </c>
       <c r="D1097" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1098" s="2">
         <v>15849</v>
@@ -23448,7 +23493,7 @@
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B1099" s="2">
         <v>15853</v>
@@ -23462,7 +23507,7 @@
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1100" s="2">
         <v>15853</v>
@@ -23476,21 +23521,21 @@
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1101" s="2">
         <v>15854</v>
       </c>
       <c r="C1101" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D1101" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1102" s="2">
         <v>15854</v>
@@ -23504,7 +23549,7 @@
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1103" s="2">
         <v>15859</v>
@@ -23513,18 +23558,18 @@
         <v>162</v>
       </c>
       <c r="D1103" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1104" s="2">
         <v>15861</v>
       </c>
       <c r="C1104" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D1104" t="s">
         <v>400</v>
@@ -23532,7 +23577,7 @@
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1105" s="2">
         <v>15867</v>
@@ -23541,18 +23586,18 @@
         <v>162</v>
       </c>
       <c r="D1105" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1106" s="2">
         <v>15875</v>
       </c>
       <c r="C1106" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D1106" t="s">
         <v>351</v>
@@ -23560,7 +23605,7 @@
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1107" s="2">
         <v>15879</v>
@@ -23569,15 +23614,15 @@
         <v>162</v>
       </c>
       <c r="D1107" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B1108" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C1108" t="s">
         <v>531</v>
@@ -23588,7 +23633,7 @@
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1109" s="2">
         <v>15900</v>
@@ -23597,12 +23642,12 @@
         <v>1083</v>
       </c>
       <c r="D1109" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1110" s="2">
         <v>15913</v>
@@ -23616,7 +23661,7 @@
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B1111" s="2">
         <v>15921</v>
@@ -23625,12 +23670,12 @@
         <v>831</v>
       </c>
       <c r="D1111" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1112" s="2">
         <v>15921</v>
@@ -23644,7 +23689,7 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B1113" s="2">
         <v>15922</v>
@@ -23658,13 +23703,13 @@
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1114" s="2">
         <v>15928</v>
       </c>
       <c r="C1114" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D1114" t="s">
         <v>351</v>
@@ -23672,7 +23717,7 @@
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1115" s="2">
         <v>15932</v>
@@ -23686,7 +23731,7 @@
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B1116" s="2">
         <v>15942</v>
@@ -23695,12 +23740,12 @@
         <v>726</v>
       </c>
       <c r="D1116" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1117" s="2">
         <v>15945</v>
@@ -23714,7 +23759,7 @@
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B1118" s="2">
         <v>15946</v>
@@ -23728,7 +23773,7 @@
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B1119" s="2">
         <v>15947</v>
@@ -23737,12 +23782,12 @@
         <v>573</v>
       </c>
       <c r="D1119" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B1120" s="2">
         <v>15947</v>
@@ -23751,12 +23796,12 @@
         <v>162</v>
       </c>
       <c r="D1120" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B1121" s="2">
         <v>15947</v>
@@ -23770,7 +23815,7 @@
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1122" s="2">
         <v>15948</v>
@@ -23784,21 +23829,21 @@
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1123" s="2">
         <v>15948</v>
       </c>
       <c r="C1123" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D1123" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B1124" s="2">
         <v>15949</v>
@@ -23812,7 +23857,7 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B1125" s="2">
         <v>15949</v>
@@ -23826,10 +23871,10 @@
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B1126" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C1126" t="s">
         <v>35</v>
@@ -23840,7 +23885,7 @@
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B1127" s="2">
         <v>15950</v>
@@ -23854,13 +23899,13 @@
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B1128" s="2">
         <v>15951</v>
       </c>
       <c r="C1128" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D1128" t="s">
         <v>351</v>
@@ -23868,7 +23913,7 @@
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B1129" s="2">
         <v>15952</v>
@@ -23882,10 +23927,10 @@
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B1130" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C1130" t="s">
         <v>831</v>
@@ -23896,7 +23941,7 @@
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1131" s="2">
         <v>15959</v>
@@ -23905,12 +23950,12 @@
         <v>831</v>
       </c>
       <c r="D1131" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B1132" s="2">
         <v>15959</v>
@@ -23924,21 +23969,21 @@
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B1133" s="2">
         <v>15962</v>
       </c>
       <c r="C1133" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D1133" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1134" s="2">
         <v>15963</v>
@@ -23952,7 +23997,7 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B1135" s="2">
         <v>15965</v>
@@ -23966,7 +24011,7 @@
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B1136" s="2">
         <v>15965</v>
@@ -23980,7 +24025,7 @@
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B1137" s="2">
         <v>15968</v>
@@ -23989,12 +24034,12 @@
         <v>531</v>
       </c>
       <c r="D1137" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B1138" s="2">
         <v>15969</v>
@@ -24008,7 +24053,7 @@
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B1139" s="2">
         <v>15971</v>
@@ -24022,7 +24067,7 @@
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1140" s="2">
         <v>15973</v>
@@ -24036,7 +24081,7 @@
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1141" s="2">
         <v>15973</v>
@@ -24050,7 +24095,7 @@
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1142" s="2">
         <v>15974</v>
@@ -24064,7 +24109,7 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1143" s="2">
         <v>15975</v>
@@ -24078,7 +24123,7 @@
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B1144" s="2">
         <v>15976</v>
@@ -24092,10 +24137,10 @@
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B1145" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C1145" t="s">
         <v>831</v>
@@ -24106,7 +24151,7 @@
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B1146" s="2">
         <v>15981</v>
@@ -24120,7 +24165,7 @@
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B1147" s="2">
         <v>15985</v>
@@ -24129,18 +24174,18 @@
         <v>789</v>
       </c>
       <c r="D1147" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B1148" s="2">
         <v>15986</v>
       </c>
       <c r="C1148" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D1148" t="s">
         <v>86</v>
@@ -24148,7 +24193,7 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B1149" s="2">
         <v>15989</v>
@@ -24162,7 +24207,7 @@
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1150" s="2">
         <v>15990</v>
@@ -24171,12 +24216,12 @@
         <v>831</v>
       </c>
       <c r="D1150" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B1151" s="2">
         <v>15994</v>
@@ -24190,7 +24235,7 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B1152" s="2">
         <v>15994</v>
@@ -24199,18 +24244,18 @@
         <v>831</v>
       </c>
       <c r="D1152" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B1153" s="2">
         <v>15995</v>
       </c>
       <c r="C1153" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D1153" t="s">
         <v>86</v>
@@ -24218,7 +24263,7 @@
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1154" s="2">
         <v>15998</v>
@@ -24232,7 +24277,7 @@
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1155" s="2">
         <v>15999</v>
@@ -24241,12 +24286,12 @@
         <v>1164</v>
       </c>
       <c r="D1155" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1156" s="2">
         <v>16000</v>
@@ -24260,7 +24305,7 @@
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1157" s="2">
         <v>16002</v>
@@ -24274,7 +24319,7 @@
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1158" s="2">
         <v>16003</v>
@@ -24288,7 +24333,7 @@
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B1159" s="2">
         <v>16003</v>
@@ -24302,7 +24347,7 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1160" s="2">
         <v>16004</v>
@@ -24316,7 +24361,7 @@
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1161" s="2">
         <v>16005</v>
@@ -24330,7 +24375,7 @@
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1162" s="2">
         <v>16005</v>
@@ -24344,7 +24389,7 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1163" s="2">
         <v>16007</v>
@@ -24358,7 +24403,7 @@
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B1164" s="2">
         <v>16008</v>
@@ -24372,7 +24417,7 @@
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1165" s="2">
         <v>16009</v>
@@ -24386,21 +24431,21 @@
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1166" s="2">
         <v>16011</v>
       </c>
       <c r="C1166" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D1166" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B1167" s="2">
         <v>16011</v>
@@ -24414,7 +24459,7 @@
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B1168" s="2">
         <v>16011</v>
@@ -24423,12 +24468,12 @@
         <v>831</v>
       </c>
       <c r="D1168" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1169" s="2">
         <v>16011</v>
@@ -24437,12 +24482,12 @@
         <v>184</v>
       </c>
       <c r="D1169" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B1170" s="2">
         <v>16011</v>
@@ -24456,7 +24501,7 @@
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1171" s="2">
         <v>16013</v>
@@ -24470,7 +24515,7 @@
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B1172" s="2">
         <v>16015</v>
@@ -24479,12 +24524,12 @@
         <v>681</v>
       </c>
       <c r="D1172" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B1173" s="2">
         <v>16015</v>
@@ -24498,21 +24543,21 @@
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1174" s="2">
         <v>16016</v>
       </c>
       <c r="C1174" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D1174" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B1175" s="2">
         <v>16017</v>
@@ -24521,12 +24566,12 @@
         <v>831</v>
       </c>
       <c r="D1175" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B1176" s="2">
         <v>16021</v>
@@ -24535,12 +24580,12 @@
         <v>831</v>
       </c>
       <c r="D1176" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B1177" s="2">
         <v>16021</v>
@@ -24554,7 +24599,7 @@
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1178" s="2">
         <v>16024</v>
@@ -24563,12 +24608,12 @@
         <v>968</v>
       </c>
       <c r="D1178" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1179" s="2">
         <v>16026</v>
@@ -24582,7 +24627,7 @@
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1180" s="2">
         <v>16026</v>
@@ -24596,7 +24641,7 @@
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1181" s="2">
         <v>16027</v>
@@ -24610,7 +24655,7 @@
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B1182" s="2">
         <v>16028</v>
@@ -24624,7 +24669,7 @@
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1183" s="2">
         <v>16029</v>
@@ -24633,12 +24678,12 @@
         <v>162</v>
       </c>
       <c r="D1183" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1184" s="2">
         <v>16030</v>
@@ -24652,10 +24697,10 @@
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1185" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C1185" t="s">
         <v>831</v>
@@ -24666,7 +24711,7 @@
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1186" s="2">
         <v>16032</v>
@@ -24680,7 +24725,7 @@
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B1187" s="2">
         <v>16032</v>
@@ -24689,12 +24734,12 @@
         <v>822</v>
       </c>
       <c r="D1187" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1188" s="2">
         <v>16032</v>
@@ -24708,7 +24753,7 @@
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B1189" s="2">
         <v>16033</v>
@@ -24722,7 +24767,7 @@
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1190" s="2">
         <v>16035</v>
@@ -24736,7 +24781,7 @@
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1191" s="2">
         <v>16039</v>
@@ -24750,10 +24795,10 @@
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B1192" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1192" t="s">
         <v>822</v>
@@ -24764,7 +24809,7 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1193" s="2">
         <v>16041</v>
@@ -24778,7 +24823,7 @@
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1194" s="2">
         <v>16042</v>
@@ -24792,7 +24837,7 @@
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1195" s="2">
         <v>16043</v>
@@ -24801,12 +24846,12 @@
         <v>162</v>
       </c>
       <c r="D1195" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B1196" s="2">
         <v>16043</v>
@@ -24820,24 +24865,24 @@
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B1197" s="2">
         <v>16045</v>
       </c>
       <c r="C1197" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1197" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B1198" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C1198" t="s">
         <v>1028</v>
@@ -24848,7 +24893,7 @@
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1199" s="2">
         <v>16047</v>
@@ -24862,7 +24907,7 @@
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B1200" s="2">
         <v>16047</v>
@@ -24876,7 +24921,7 @@
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B1201" s="2">
         <v>16047</v>
@@ -24890,13 +24935,13 @@
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B1202" s="2">
         <v>16049</v>
       </c>
       <c r="C1202" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D1202" t="s">
         <v>351</v>
@@ -24904,7 +24949,7 @@
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1203" s="2">
         <v>16049</v>
@@ -24913,12 +24958,12 @@
         <v>682</v>
       </c>
       <c r="D1203" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B1204" s="2">
         <v>16054</v>
@@ -24932,7 +24977,7 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1205" s="2">
         <v>16055</v>
@@ -24946,7 +24991,7 @@
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1206" s="2">
         <v>16055</v>
@@ -24955,12 +25000,12 @@
         <v>831</v>
       </c>
       <c r="D1206" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B1207" s="2">
         <v>16058</v>
@@ -24974,7 +25019,7 @@
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B1208" s="2">
         <v>16059</v>
@@ -24988,7 +25033,7 @@
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B1209" s="2">
         <v>16060</v>
@@ -25002,13 +25047,13 @@
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B1210" s="2">
         <v>16063</v>
       </c>
       <c r="C1210" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D1210" t="s">
         <v>1133</v>
@@ -25016,7 +25061,7 @@
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B1211" s="2">
         <v>16064</v>
@@ -25030,7 +25075,7 @@
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B1212" s="2">
         <v>16066</v>
@@ -25044,21 +25089,21 @@
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1213" s="2">
         <v>16067</v>
       </c>
       <c r="C1213" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D1213" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B1214" s="2">
         <v>16069</v>
@@ -25072,7 +25117,7 @@
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B1215" s="2">
         <v>16071</v>
@@ -25081,12 +25126,12 @@
         <v>831</v>
       </c>
       <c r="D1215" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1216" s="2">
         <v>16074</v>
@@ -25100,7 +25145,7 @@
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B1217" s="2">
         <v>16083</v>
@@ -25109,18 +25154,18 @@
         <v>162</v>
       </c>
       <c r="D1217" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1218" s="2">
         <v>16085</v>
       </c>
       <c r="C1218" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1218" t="s">
         <v>173</v>
@@ -25128,7 +25173,7 @@
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1219" s="2">
         <v>16085</v>
@@ -25142,7 +25187,7 @@
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1220" s="2">
         <v>16085</v>
@@ -25156,13 +25201,13 @@
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B1221" s="2">
         <v>16086</v>
       </c>
       <c r="C1221" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D1221" t="s">
         <v>351</v>
@@ -25170,10 +25215,10 @@
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1222" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C1222" t="s">
         <v>25</v>
@@ -25184,13 +25229,13 @@
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B1223" s="2">
         <v>16087</v>
       </c>
       <c r="C1223" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D1223" t="s">
         <v>1133</v>
@@ -25198,7 +25243,7 @@
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1224" s="2">
         <v>16089</v>
@@ -25212,7 +25257,7 @@
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1225" s="2">
         <v>16090</v>
@@ -25221,26 +25266,26 @@
         <v>831</v>
       </c>
       <c r="D1225" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1226" s="2">
         <v>16092</v>
       </c>
       <c r="C1226" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D1226" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1227" s="2">
         <v>16096</v>
@@ -25254,7 +25299,7 @@
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1228" s="2">
         <v>16100</v>
@@ -25263,12 +25308,12 @@
         <v>831</v>
       </c>
       <c r="D1228" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1229" s="2">
         <v>16103</v>
@@ -25277,12 +25322,12 @@
         <v>822</v>
       </c>
       <c r="D1229" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B1230" s="2">
         <v>16103</v>
@@ -25291,12 +25336,12 @@
         <v>683</v>
       </c>
       <c r="D1230" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B1231" s="2">
         <v>16107</v>
@@ -25310,35 +25355,35 @@
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1232" s="2">
         <v>16112</v>
       </c>
       <c r="C1232" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D1232" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1233" s="2">
         <v>16113</v>
       </c>
       <c r="C1233" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D1233" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1234" s="2">
         <v>16113</v>
@@ -25352,7 +25397,7 @@
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B1235" s="2">
         <v>16114</v>
@@ -25366,7 +25411,7 @@
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1236" s="2">
         <v>16117</v>
@@ -25380,21 +25425,21 @@
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1237" s="2">
         <v>16117</v>
       </c>
       <c r="C1237" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D1237" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B1238" s="2">
         <v>16118</v>
@@ -25408,13 +25453,13 @@
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1239" s="2">
         <v>16118</v>
       </c>
       <c r="C1239" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D1239" t="s">
         <v>351</v>
@@ -25422,13 +25467,13 @@
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B1240" s="2">
         <v>16120</v>
       </c>
       <c r="C1240" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D1240" t="s">
         <v>351</v>
@@ -25436,7 +25481,7 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1241" s="2">
         <v>16121</v>
@@ -25450,7 +25495,7 @@
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B1242" s="2">
         <v>16123</v>
@@ -25464,7 +25509,7 @@
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B1243" s="2">
         <v>16124</v>
@@ -25473,12 +25518,12 @@
         <v>162</v>
       </c>
       <c r="D1243" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B1244" s="2">
         <v>16128</v>
@@ -25492,7 +25537,7 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1245" s="2">
         <v>16131</v>
@@ -25506,13 +25551,13 @@
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1246" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C1246" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D1246" t="s">
         <v>539</v>
@@ -25520,7 +25565,7 @@
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1247" s="2">
         <v>16132</v>
@@ -25534,21 +25579,21 @@
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1248" s="2">
         <v>16132</v>
       </c>
       <c r="C1248" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D1248" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1249" s="2">
         <v>16136</v>
@@ -25562,21 +25607,21 @@
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1250" s="2">
         <v>16136</v>
       </c>
       <c r="C1250" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D1250" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1251" s="2">
         <v>16140</v>
@@ -25590,13 +25635,13 @@
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1252" s="2">
         <v>16141</v>
       </c>
       <c r="C1252" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1252" t="s">
         <v>86</v>
@@ -25604,13 +25649,13 @@
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B1253" s="2">
         <v>16142</v>
       </c>
       <c r="C1253" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1253" t="s">
         <v>86</v>
@@ -25618,13 +25663,13 @@
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B1254" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C1254" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1254" t="s">
         <v>86</v>
@@ -25632,13 +25677,13 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1255" s="2">
         <v>16143</v>
       </c>
       <c r="C1255" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1255" t="s">
         <v>539</v>
@@ -25646,13 +25691,13 @@
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B1256" s="2">
         <v>16144</v>
       </c>
       <c r="C1256" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1256" t="s">
         <v>86</v>
@@ -25660,21 +25705,21 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B1257" s="2">
         <v>16144</v>
       </c>
       <c r="C1257" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1257" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B1258" s="2">
         <v>16146</v>
@@ -25683,12 +25728,12 @@
         <v>822</v>
       </c>
       <c r="D1258" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B1259" s="2">
         <v>16147</v>
@@ -25702,7 +25747,7 @@
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B1260" s="2">
         <v>16150</v>
@@ -25716,7 +25761,7 @@
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B1261" s="2">
         <v>16150</v>
@@ -25730,7 +25775,7 @@
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B1262" s="2">
         <v>16151</v>
@@ -25744,7 +25789,7 @@
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1263" s="2">
         <v>16152</v>
@@ -25758,13 +25803,13 @@
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B1264" s="2">
         <v>16154</v>
       </c>
       <c r="C1264" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1264" t="s">
         <v>86</v>
@@ -25772,13 +25817,13 @@
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B1265" s="2">
         <v>16154</v>
       </c>
       <c r="C1265" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1265" t="s">
         <v>86</v>
@@ -25786,13 +25831,13 @@
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1266" s="2">
         <v>16154</v>
       </c>
       <c r="C1266" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1266" t="s">
         <v>86</v>
@@ -25800,7 +25845,7 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1267" s="2">
         <v>16155</v>
@@ -25809,26 +25854,26 @@
         <v>681</v>
       </c>
       <c r="D1267" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1268" s="2">
         <v>16155</v>
       </c>
       <c r="C1268" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1268" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1269" s="2">
         <v>16156</v>
@@ -25842,13 +25887,13 @@
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1270" s="2">
         <v>16157</v>
       </c>
       <c r="C1270" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1270" t="s">
         <v>86</v>
@@ -25856,7 +25901,7 @@
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1271" s="2">
         <v>16161</v>
@@ -25865,18 +25910,18 @@
         <v>385</v>
       </c>
       <c r="D1271" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1272" s="2">
         <v>16163</v>
       </c>
       <c r="C1272" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D1272" t="s">
         <v>86</v>
@@ -25884,7 +25929,7 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1273" s="2">
         <v>16163</v>
@@ -25898,7 +25943,7 @@
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1274" s="2">
         <v>16166</v>
@@ -25912,7 +25957,7 @@
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1275" s="2">
         <v>16169</v>
@@ -25926,7 +25971,7 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1276" s="2">
         <v>16169</v>
@@ -25940,7 +25985,7 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1277" s="2">
         <v>16172</v>
@@ -25949,12 +25994,12 @@
         <v>162</v>
       </c>
       <c r="D1277" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1278" s="2">
         <v>16174</v>
@@ -25968,13 +26013,13 @@
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1279" s="2">
         <v>16174</v>
       </c>
       <c r="C1279" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D1279" t="s">
         <v>1446</v>
@@ -25982,7 +26027,7 @@
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1280" s="2">
         <v>16175</v>
@@ -25991,32 +26036,32 @@
         <v>149</v>
       </c>
       <c r="D1280" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1281" s="2">
         <v>16177</v>
       </c>
       <c r="C1281" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D1281" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1282" s="2">
         <v>16179</v>
       </c>
       <c r="C1282" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D1282" t="s">
         <v>351</v>
@@ -26024,7 +26069,7 @@
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1283" s="2">
         <v>16180</v>
@@ -26038,7 +26083,7 @@
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1284" s="2">
         <v>16181</v>
@@ -26052,13 +26097,13 @@
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1285" s="2">
         <v>16181</v>
       </c>
       <c r="C1285" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D1285" t="s">
         <v>1166</v>
@@ -26066,7 +26111,7 @@
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1286" s="2">
         <v>16183</v>
@@ -26080,7 +26125,7 @@
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1287" s="2">
         <v>16194</v>
@@ -26089,12 +26134,12 @@
         <v>968</v>
       </c>
       <c r="D1287" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1288" s="2">
         <v>16197</v>
@@ -26103,12 +26148,12 @@
         <v>642</v>
       </c>
       <c r="D1288" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1289" s="2">
         <v>16198</v>
@@ -26122,7 +26167,7 @@
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1290" s="2">
         <v>16209</v>
@@ -26136,35 +26181,35 @@
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B1291" s="2">
         <v>16210</v>
       </c>
       <c r="C1291" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D1291" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="B1292" s="2">
         <v>16210</v>
       </c>
       <c r="C1292" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D1292" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B1293" s="2">
         <v>16213</v>
@@ -26178,7 +26223,7 @@
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B1294" s="2">
         <v>16214</v>
@@ -26187,12 +26232,12 @@
         <v>162</v>
       </c>
       <c r="D1294" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B1295" s="2">
         <v>16218</v>
@@ -26201,12 +26246,12 @@
         <v>725</v>
       </c>
       <c r="D1295" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1296" s="2">
         <v>16219</v>
@@ -26220,7 +26265,7 @@
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1297" s="2">
         <v>16226</v>
@@ -26229,12 +26274,12 @@
         <v>1085</v>
       </c>
       <c r="D1297" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B1298" s="2">
         <v>16228</v>
@@ -26248,7 +26293,7 @@
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B1299" s="2">
         <v>16228</v>
@@ -26262,7 +26307,7 @@
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B1300" s="2">
         <v>16229</v>
@@ -26276,7 +26321,7 @@
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1301" s="2">
         <v>16236</v>
@@ -26290,7 +26335,7 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1302" s="2">
         <v>16237</v>
@@ -26304,7 +26349,7 @@
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1303" s="2">
         <v>16254</v>
@@ -26318,35 +26363,35 @@
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1304" s="2">
         <v>16255</v>
       </c>
       <c r="C1304" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D1304" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1305" s="2">
         <v>16258</v>
       </c>
       <c r="C1305" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D1305" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1306" s="2">
         <v>16258</v>
@@ -26355,12 +26400,12 @@
         <v>1087</v>
       </c>
       <c r="D1306" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1307" s="2">
         <v>16266</v>
@@ -26369,26 +26414,26 @@
         <v>531</v>
       </c>
       <c r="D1307" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1308" s="2">
         <v>16276</v>
       </c>
       <c r="C1308" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D1308" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1309" s="2">
         <v>16277</v>
@@ -26397,12 +26442,12 @@
         <v>162</v>
       </c>
       <c r="D1309" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B1310" s="2">
         <v>16291</v>
@@ -26411,12 +26456,12 @@
         <v>728</v>
       </c>
       <c r="D1310" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1311" s="2">
         <v>16297</v>
@@ -26425,12 +26470,12 @@
         <v>531</v>
       </c>
       <c r="D1311" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1312" s="2">
         <v>16299</v>
@@ -26444,7 +26489,7 @@
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B1313" s="2">
         <v>16301</v>
@@ -26453,12 +26498,12 @@
         <v>184</v>
       </c>
       <c r="D1313" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B1314" s="2">
         <v>16304</v>
@@ -26472,13 +26517,13 @@
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1315" s="2">
         <v>16308</v>
       </c>
       <c r="C1315" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="D1315" t="s">
         <v>53</v>
@@ -26486,7 +26531,7 @@
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1316" s="2">
         <v>16308</v>
@@ -26500,7 +26545,7 @@
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1317" s="2">
         <v>16313</v>
@@ -26514,13 +26559,13 @@
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1318" s="2">
         <v>16315</v>
       </c>
       <c r="C1318" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D1318" t="s">
         <v>1206</v>
@@ -26528,13 +26573,13 @@
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1319" s="2">
         <v>16333</v>
       </c>
       <c r="C1319" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D1319" t="s">
         <v>210</v>
@@ -26542,13 +26587,13 @@
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1320" s="2">
         <v>16333</v>
       </c>
       <c r="C1320" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D1320" t="s">
         <v>210</v>
@@ -26556,7 +26601,7 @@
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1321" s="2">
         <v>16333</v>
@@ -26570,7 +26615,7 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1322" s="2">
         <v>16334</v>
@@ -26579,15 +26624,15 @@
         <v>831</v>
       </c>
       <c r="D1322" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1323" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C1323" t="s">
         <v>831</v>
@@ -26598,7 +26643,7 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1324" s="2">
         <v>16340</v>
@@ -26607,12 +26652,12 @@
         <v>52</v>
       </c>
       <c r="D1324" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1325" s="2">
         <v>16341</v>
@@ -26626,7 +26671,7 @@
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1326" s="2">
         <v>16342</v>
@@ -26635,12 +26680,12 @@
         <v>149</v>
       </c>
       <c r="D1326" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1327" s="2">
         <v>16343</v>
@@ -26649,12 +26694,12 @@
         <v>726</v>
       </c>
       <c r="D1327" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1328" s="2">
         <v>16346</v>
@@ -26663,12 +26708,12 @@
         <v>726</v>
       </c>
       <c r="D1328" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1329" s="2">
         <v>16347</v>
@@ -26677,12 +26722,12 @@
         <v>726</v>
       </c>
       <c r="D1329" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1330" s="2">
         <v>16347</v>
@@ -26696,7 +26741,7 @@
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1331" s="2">
         <v>16349</v>
@@ -26710,7 +26755,7 @@
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1332" s="2">
         <v>16354</v>
@@ -26724,7 +26769,7 @@
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1333" s="2">
         <v>16354</v>
@@ -26738,7 +26783,7 @@
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1334" s="2">
         <v>16356</v>
@@ -26747,12 +26792,12 @@
         <v>623</v>
       </c>
       <c r="D1334" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1335" s="2">
         <v>16356</v>
@@ -26766,7 +26811,7 @@
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1336" s="2">
         <v>16357</v>
@@ -26775,12 +26820,12 @@
         <v>531</v>
       </c>
       <c r="D1336" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1337" s="2">
         <v>16357</v>
@@ -26794,7 +26839,7 @@
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1338" s="2">
         <v>16358</v>
@@ -26803,12 +26848,12 @@
         <v>162</v>
       </c>
       <c r="D1338" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B1339" s="2">
         <v>16359</v>
@@ -26822,7 +26867,7 @@
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B1340" s="2">
         <v>16359</v>
@@ -26831,26 +26876,26 @@
         <v>789</v>
       </c>
       <c r="D1340" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B1341" s="2">
         <v>16360</v>
       </c>
       <c r="C1341" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D1341" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1342" s="2">
         <v>16362</v>
@@ -26859,12 +26904,12 @@
         <v>162</v>
       </c>
       <c r="D1342" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1343" s="2">
         <v>16389</v>
@@ -26873,26 +26918,26 @@
         <v>1083</v>
       </c>
       <c r="D1343" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1344" s="2">
         <v>16391</v>
       </c>
       <c r="C1344" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D1344" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1345" s="2">
         <v>16405</v>
@@ -26901,18 +26946,18 @@
         <v>149</v>
       </c>
       <c r="D1345" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1346" s="2">
         <v>16405</v>
       </c>
       <c r="C1346" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D1346" t="s">
         <v>1291</v>
@@ -26920,7 +26965,7 @@
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1347" s="2">
         <v>16406</v>
@@ -26929,18 +26974,18 @@
         <v>725</v>
       </c>
       <c r="D1347" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1348" s="2">
         <v>16409</v>
       </c>
       <c r="C1348" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D1348" t="s">
         <v>351</v>
@@ -26948,21 +26993,21 @@
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1349" s="2">
         <v>16414</v>
       </c>
       <c r="C1349" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D1349" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1350" s="2">
         <v>16415</v>
@@ -26971,12 +27016,12 @@
         <v>52</v>
       </c>
       <c r="D1350" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1351" s="2">
         <v>16416</v>
@@ -26990,7 +27035,7 @@
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1352" s="2">
         <v>16416</v>
@@ -27004,7 +27049,7 @@
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1353" s="2">
         <v>16419</v>
@@ -27013,26 +27058,26 @@
         <v>728</v>
       </c>
       <c r="D1353" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1354" s="2">
         <v>16425</v>
       </c>
       <c r="C1354" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D1354" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1355" s="2">
         <v>16431</v>
@@ -27041,12 +27086,12 @@
         <v>725</v>
       </c>
       <c r="D1355" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1356" s="2">
         <v>16432</v>
@@ -27055,18 +27100,18 @@
         <v>679</v>
       </c>
       <c r="D1356" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B1357" s="2">
         <v>16432</v>
       </c>
       <c r="C1357" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D1357" t="s">
         <v>1446</v>
@@ -27074,10 +27119,10 @@
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B1358" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C1358" t="s">
         <v>789</v>
@@ -27088,10 +27133,10 @@
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B1359" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C1359" t="s">
         <v>728</v>
@@ -27102,10 +27147,10 @@
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B1360" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C1360" t="s">
         <v>623</v>
@@ -27116,49 +27161,49 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B1361" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1361" t="s">
         <v>726</v>
       </c>
       <c r="D1361" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B1362" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1362" t="s">
         <v>968</v>
       </c>
       <c r="D1362" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B1363" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C1363" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D1363" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B1364" s="2">
         <v>16441</v>
@@ -27172,24 +27217,24 @@
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B1365" s="2">
         <v>16442</v>
       </c>
       <c r="C1365" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1365" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I1365" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B1366" s="2">
         <v>16442</v>
@@ -27201,29 +27246,29 @@
         <v>975</v>
       </c>
       <c r="I1366" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B1367" s="2">
         <v>16442</v>
       </c>
       <c r="C1367" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D1367" t="s">
         <v>494</v>
       </c>
       <c r="I1367" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B1368" s="2">
         <v>16443</v>
@@ -27235,29 +27280,29 @@
         <v>351</v>
       </c>
       <c r="I1368" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1369" s="2">
         <v>16448</v>
       </c>
       <c r="C1369" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D1369" t="s">
         <v>351</v>
       </c>
       <c r="I1369" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B1370" s="2">
         <v>16449</v>
@@ -27269,12 +27314,12 @@
         <v>975</v>
       </c>
       <c r="I1370" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B1371" s="2">
         <v>16449</v>
@@ -27286,12 +27331,12 @@
         <v>975</v>
       </c>
       <c r="I1371" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B1372" s="2">
         <v>16451</v>
@@ -27303,29 +27348,29 @@
         <v>400</v>
       </c>
       <c r="I1372" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B1373" s="2">
         <v>16452</v>
       </c>
       <c r="C1373" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D1373" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I1373" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B1374" s="2">
         <v>16453</v>
@@ -27337,12 +27382,12 @@
         <v>494</v>
       </c>
       <c r="I1374" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B1375" s="2">
         <v>16454</v>
@@ -27351,15 +27396,15 @@
         <v>1444</v>
       </c>
       <c r="D1375" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="I1375" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1376" s="2">
         <v>16454</v>
@@ -27371,29 +27416,29 @@
         <v>494</v>
       </c>
       <c r="I1376" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1377" s="2">
         <v>16457</v>
       </c>
       <c r="C1377" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D1377" t="s">
         <v>494</v>
       </c>
       <c r="I1377" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1378" s="2">
         <v>16458</v>
@@ -27402,15 +27447,15 @@
         <v>968</v>
       </c>
       <c r="D1378" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I1378" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1379" s="2">
         <v>16458</v>
@@ -27422,12 +27467,12 @@
         <v>494</v>
       </c>
       <c r="I1379" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1380" s="2">
         <v>16465</v>
@@ -27439,12 +27484,12 @@
         <v>494</v>
       </c>
       <c r="I1380" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1381" s="2">
         <v>16466</v>
@@ -27453,15 +27498,15 @@
         <v>162</v>
       </c>
       <c r="D1381" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="I1381" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1382" s="2">
         <v>16467</v>
@@ -27473,32 +27518,32 @@
         <v>400</v>
       </c>
       <c r="I1382" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1383" s="2">
         <v>16468</v>
       </c>
       <c r="C1383" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1383" t="s">
         <v>494</v>
       </c>
       <c r="I1383" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1384" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C1384" t="s">
         <v>446</v>
@@ -27507,12 +27552,12 @@
         <v>400</v>
       </c>
       <c r="I1384" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1385" s="2">
         <v>16469</v>
@@ -27521,15 +27566,15 @@
         <v>1282</v>
       </c>
       <c r="D1385" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="I1385" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1386" s="2">
         <v>16471</v>
@@ -27541,12 +27586,12 @@
         <v>401</v>
       </c>
       <c r="I1386" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B1387" s="2">
         <v>16469</v>
@@ -27555,15 +27600,15 @@
         <v>1124</v>
       </c>
       <c r="D1387" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="I1387" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1388" s="2">
         <v>16471</v>
@@ -27575,12 +27620,12 @@
         <v>401</v>
       </c>
       <c r="I1388" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B1389" s="2">
         <v>16471</v>
@@ -27592,12 +27637,12 @@
         <v>494</v>
       </c>
       <c r="I1389" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B1390" s="2">
         <v>16472</v>
@@ -27609,12 +27654,12 @@
         <v>494</v>
       </c>
       <c r="I1390" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B1391" s="2">
         <v>16474</v>
@@ -27626,29 +27671,29 @@
         <v>494</v>
       </c>
       <c r="I1391" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B1392" s="2">
         <v>16475</v>
       </c>
       <c r="C1392" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D1392" t="s">
         <v>86</v>
       </c>
       <c r="I1392" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B1393" s="2">
         <v>16477</v>
@@ -27660,29 +27705,29 @@
         <v>351</v>
       </c>
       <c r="I1393" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B1394" s="2">
         <v>16478</v>
       </c>
       <c r="C1394" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D1394" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="I1394" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B1395" s="2">
         <v>16478</v>
@@ -27694,43 +27739,43 @@
         <v>688</v>
       </c>
       <c r="I1395" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B1396" s="2">
         <v>16480</v>
       </c>
       <c r="D1396" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I1396" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B1397" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C1397" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D1397" t="s">
         <v>400</v>
       </c>
       <c r="I1397" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1398" s="2">
         <v>16481</v>
@@ -27742,12 +27787,12 @@
         <v>494</v>
       </c>
       <c r="I1398" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1399" s="2">
         <v>16482</v>
@@ -27756,49 +27801,49 @@
         <v>1124</v>
       </c>
       <c r="D1399" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="I1399" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1400" s="2">
         <v>16482</v>
       </c>
       <c r="C1400" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1400" t="s">
         <v>351</v>
       </c>
       <c r="I1400" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1401" s="2">
         <v>16483</v>
       </c>
       <c r="C1401" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1401" t="s">
         <v>86</v>
       </c>
       <c r="I1401" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1402" s="2">
         <v>16493</v>
@@ -27810,12 +27855,12 @@
         <v>494</v>
       </c>
       <c r="I1402" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1403" s="2">
         <v>16493</v>
@@ -27827,12 +27872,12 @@
         <v>351</v>
       </c>
       <c r="I1403" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1404" s="2">
         <v>16495</v>
@@ -27841,12 +27886,12 @@
         <v>48</v>
       </c>
       <c r="D1404" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1405" s="2">
         <v>16500</v>
@@ -27860,13 +27905,13 @@
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1406" s="2">
         <v>16500</v>
       </c>
       <c r="C1406" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1406" t="s">
         <v>1249</v>
@@ -27874,7 +27919,7 @@
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B1407" s="2">
         <v>16501</v>
@@ -27883,18 +27928,18 @@
         <v>1124</v>
       </c>
       <c r="D1407" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1408" s="2">
         <v>16501</v>
       </c>
       <c r="C1408" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1408" t="s">
         <v>351</v>
@@ -27902,13 +27947,13 @@
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1409" s="2">
         <v>16502</v>
       </c>
       <c r="C1409" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1409" t="s">
         <v>494</v>
@@ -27916,7 +27961,7 @@
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1410" s="2">
         <v>16503</v>
@@ -27930,7 +27975,7 @@
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1411" s="2">
         <v>16503</v>
@@ -27944,13 +27989,13 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1412" s="2">
         <v>16503</v>
       </c>
       <c r="C1412" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1412" t="s">
         <v>351</v>
@@ -27958,7 +28003,7 @@
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1413" s="2">
         <v>16513</v>
@@ -27972,7 +28017,7 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1414" s="2">
         <v>16514</v>
@@ -27986,13 +28031,13 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B1415" s="2">
         <v>16521</v>
       </c>
       <c r="C1415" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1415" t="s">
         <v>400</v>
@@ -28000,7 +28045,7 @@
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1416" s="2">
         <v>16522</v>
@@ -28012,18 +28057,18 @@
         <v>494</v>
       </c>
       <c r="I1416" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B1417" s="2">
         <v>16523</v>
       </c>
       <c r="C1417" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D1417" t="s">
         <v>539</v>
@@ -28031,7 +28076,7 @@
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1418" s="2">
         <v>16524</v>
@@ -28040,12 +28085,12 @@
         <v>343</v>
       </c>
       <c r="D1418" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1419" s="2">
         <v>16525</v>
@@ -28059,13 +28104,13 @@
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1420" s="2">
         <v>16530</v>
       </c>
       <c r="C1420" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1420" t="s">
         <v>494</v>
@@ -28073,7 +28118,7 @@
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1421" s="2">
         <v>16531</v>
@@ -28087,7 +28132,7 @@
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1422" s="2">
         <v>16531</v>
@@ -28101,7 +28146,7 @@
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1423" s="2">
         <v>16532</v>
@@ -28110,18 +28155,18 @@
         <v>968</v>
       </c>
       <c r="D1423" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1424" s="2">
         <v>16532</v>
       </c>
       <c r="C1424" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1424" t="s">
         <v>494</v>
@@ -28129,7 +28174,7 @@
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1425" s="2">
         <v>16537</v>
@@ -28138,18 +28183,18 @@
         <v>1403</v>
       </c>
       <c r="D1425" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1426" s="2">
         <v>16537</v>
       </c>
       <c r="C1426" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="D1426" t="s">
         <v>152</v>
@@ -28157,7 +28202,7 @@
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B1427" s="2">
         <v>16538</v>
@@ -28171,13 +28216,13 @@
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B1428" s="2">
         <v>16539</v>
       </c>
       <c r="C1428" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D1428" t="s">
         <v>494</v>
@@ -28185,7 +28230,7 @@
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B1429" s="2">
         <v>16540</v>
@@ -28194,18 +28239,18 @@
         <v>343</v>
       </c>
       <c r="D1429" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B1430" s="2">
         <v>16549</v>
       </c>
       <c r="C1430" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1430" t="s">
         <v>494</v>
@@ -28213,7 +28258,7 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B1431" s="2">
         <v>16552</v>
@@ -28227,7 +28272,7 @@
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B1432" s="2">
         <v>16553</v>
@@ -28241,13 +28286,13 @@
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B1433" s="2">
         <v>16553</v>
       </c>
       <c r="C1433" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1433" t="s">
         <v>494</v>
@@ -28255,7 +28300,7 @@
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1434" s="2">
         <v>16553</v>
@@ -28264,18 +28309,18 @@
         <v>20</v>
       </c>
       <c r="D1434" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1435" s="2">
         <v>16553</v>
       </c>
       <c r="C1435" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1435" t="s">
         <v>494</v>
@@ -28283,7 +28328,7 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1436" s="2">
         <v>16556</v>
@@ -28292,18 +28337,18 @@
         <v>1282</v>
       </c>
       <c r="D1436" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1437" s="2">
         <v>16557</v>
       </c>
       <c r="C1437" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1437" t="s">
         <v>494</v>
@@ -28311,13 +28356,13 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1438" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C1438" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D1438" t="s">
         <v>351</v>
@@ -28325,13 +28370,13 @@
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1439" s="2">
         <v>16559</v>
       </c>
       <c r="C1439" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1439" t="s">
         <v>494</v>
@@ -28339,21 +28384,21 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1440" s="2">
         <v>16560</v>
       </c>
       <c r="C1440" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D1440" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1441" s="2">
         <v>16560</v>
@@ -28362,18 +28407,18 @@
         <v>1282</v>
       </c>
       <c r="D1441" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B1442" s="2">
         <v>16562</v>
       </c>
       <c r="C1442" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1442" t="s">
         <v>494</v>
@@ -28381,13 +28426,13 @@
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B1443" s="2">
         <v>16565</v>
       </c>
       <c r="C1443" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D1443" t="s">
         <v>494</v>
@@ -28395,7 +28440,7 @@
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B1444" s="2">
         <v>16572</v>
@@ -28409,7 +28454,7 @@
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B1445" s="2">
         <v>16575</v>
@@ -28418,12 +28463,12 @@
         <v>968</v>
       </c>
       <c r="D1445" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B1446" s="2">
         <v>16579</v>
@@ -28432,26 +28477,26 @@
         <v>149</v>
       </c>
       <c r="D1446" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B1447" s="2">
         <v>16579</v>
       </c>
       <c r="C1447" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="D1447" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B1448" s="2">
         <v>16579</v>
@@ -28460,12 +28505,12 @@
         <v>149</v>
       </c>
       <c r="D1448" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="B1449" s="2">
         <v>16579</v>
@@ -28479,7 +28524,7 @@
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B1450" s="2">
         <v>16579</v>
@@ -28493,7 +28538,7 @@
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B1451" s="2">
         <v>16579</v>
@@ -28502,12 +28547,12 @@
         <v>726</v>
       </c>
       <c r="D1451" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B1452" s="2">
         <v>16579</v>
@@ -28521,21 +28566,21 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B1453" s="2">
         <v>16580</v>
       </c>
       <c r="C1453" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D1453" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B1454" s="2">
         <v>16581</v>
@@ -28549,7 +28594,7 @@
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B1455" s="2">
         <v>16583</v>
@@ -28558,18 +28603,18 @@
         <v>726</v>
       </c>
       <c r="D1455" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B1456" s="2">
         <v>16586</v>
       </c>
       <c r="C1456" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1456" t="s">
         <v>351</v>
@@ -28577,7 +28622,7 @@
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B1457" s="2">
         <v>16586</v>
@@ -28591,7 +28636,7 @@
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B1458" s="2">
         <v>16587</v>
@@ -28605,7 +28650,7 @@
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B1459" s="2">
         <v>16587</v>
@@ -28619,13 +28664,13 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1460" s="2">
         <v>16587</v>
       </c>
       <c r="C1460" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D1460" t="s">
         <v>42</v>
@@ -28633,13 +28678,13 @@
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="B1461" s="2">
         <v>16587</v>
       </c>
       <c r="C1461" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1461" t="s">
         <v>494</v>
@@ -28647,7 +28692,7 @@
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="B1462" s="2">
         <v>16588</v>
@@ -28661,7 +28706,7 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B1463" s="2">
         <v>16588</v>
@@ -28675,7 +28720,7 @@
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1464" s="2">
         <v>16588</v>
@@ -28689,7 +28734,7 @@
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1465" s="2">
         <v>16589</v>
@@ -28703,7 +28748,7 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1466" s="2">
         <v>16591</v>
@@ -28717,7 +28762,7 @@
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1467" s="2">
         <v>16592</v>
@@ -28731,7 +28776,7 @@
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1468" s="2">
         <v>16599</v>
@@ -28745,7 +28790,7 @@
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1469" s="2">
         <v>16599</v>
@@ -28759,7 +28804,7 @@
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1470" s="2">
         <v>16599</v>
@@ -28773,7 +28818,7 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1471" s="2">
         <v>16600</v>
@@ -28787,7 +28832,7 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1472" s="2">
         <v>16600</v>
@@ -28796,26 +28841,26 @@
         <v>343</v>
       </c>
       <c r="D1472" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1473" s="2">
         <v>16601</v>
       </c>
       <c r="C1473" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D1473" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1474" s="2">
         <v>16603</v>
@@ -28829,7 +28874,7 @@
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1475" s="2">
         <v>16605</v>
@@ -28838,12 +28883,12 @@
         <v>726</v>
       </c>
       <c r="D1475" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1476" s="2">
         <v>16605</v>
@@ -28852,12 +28897,12 @@
         <v>343</v>
       </c>
       <c r="D1476" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1477" s="2">
         <v>16606</v>
@@ -28866,12 +28911,12 @@
         <v>726</v>
       </c>
       <c r="D1477" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1478" s="2">
         <v>16606</v>
@@ -28880,12 +28925,12 @@
         <v>623</v>
       </c>
       <c r="D1478" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1479" s="2">
         <v>16607</v>
@@ -28899,7 +28944,7 @@
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1480" s="2">
         <v>16609</v>
@@ -28913,7 +28958,7 @@
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1481" s="2">
         <v>16611</v>
@@ -28927,7 +28972,7 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1482" s="2">
         <v>16613</v>
@@ -28941,7 +28986,7 @@
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B1483" s="2">
         <v>16620</v>
@@ -28950,12 +28995,12 @@
         <v>55</v>
       </c>
       <c r="D1483" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="B1484" s="2">
         <v>16623</v>
@@ -28969,21 +29014,21 @@
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B1485" s="2">
         <v>16627</v>
       </c>
       <c r="C1485" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D1485" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B1486" s="2">
         <v>16631</v>
@@ -28997,13 +29042,13 @@
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1487" s="2">
         <v>16633</v>
       </c>
       <c r="C1487" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1487" t="s">
         <v>494</v>
@@ -29011,7 +29056,7 @@
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1488" s="2">
         <v>16633</v>
@@ -29025,7 +29070,7 @@
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B1489" s="2">
         <v>16634</v>
@@ -29039,7 +29084,7 @@
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B1490" s="2">
         <v>16637</v>
@@ -29053,7 +29098,7 @@
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B1491" s="2">
         <v>16639</v>
@@ -29067,7 +29112,7 @@
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B1492" s="2">
         <v>16641</v>
@@ -29081,7 +29126,7 @@
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B1493" s="2">
         <v>16643</v>
@@ -29090,12 +29135,12 @@
         <v>1282</v>
       </c>
       <c r="D1493" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1494" s="2">
         <v>16645</v>
@@ -29109,7 +29154,7 @@
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1495" s="2">
         <v>16645</v>
@@ -29123,7 +29168,7 @@
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B1496" s="2">
         <v>16645</v>
@@ -29137,7 +29182,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1497" s="2">
         <v>16645</v>
@@ -29151,7 +29196,7 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1498" s="2">
         <v>16645</v>
@@ -29165,7 +29210,7 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1499" s="2">
         <v>16647</v>
@@ -29179,13 +29224,13 @@
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1500" s="2">
         <v>16649</v>
       </c>
       <c r="C1500" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="D1500" t="s">
         <v>152</v>
@@ -29193,21 +29238,21 @@
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1501" s="2">
         <v>16655</v>
       </c>
       <c r="C1501" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D1501" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1502" s="2">
         <v>16656</v>
@@ -29221,7 +29266,7 @@
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1503" s="2">
         <v>16657</v>
@@ -29235,7 +29280,7 @@
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1504" s="2">
         <v>16658</v>
@@ -29249,21 +29294,21 @@
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1505" s="2">
         <v>16660</v>
       </c>
       <c r="C1505" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D1505" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1506" s="2">
         <v>16662</v>
@@ -29277,7 +29322,7 @@
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1507" s="2">
         <v>16665</v>
@@ -29286,12 +29331,12 @@
         <v>149</v>
       </c>
       <c r="D1507" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1508" s="2">
         <v>16668</v>
@@ -29305,7 +29350,7 @@
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1509" s="2">
         <v>16668</v>
@@ -29314,12 +29359,12 @@
         <v>343</v>
       </c>
       <c r="D1509" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1510" s="2">
         <v>16670</v>
@@ -29328,12 +29373,12 @@
         <v>1282</v>
       </c>
       <c r="D1510" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1511" s="2">
         <v>16675</v>
@@ -29347,7 +29392,7 @@
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1512" s="2">
         <v>16683</v>
@@ -29361,13 +29406,13 @@
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1513" s="2">
         <v>16684</v>
       </c>
       <c r="C1513" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1513" t="s">
         <v>351</v>
@@ -29375,27 +29420,27 @@
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1514" s="2">
         <v>16685</v>
       </c>
       <c r="C1514" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D1514" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1515" s="2">
         <v>16688</v>
       </c>
       <c r="C1515" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D1515" t="s">
         <v>494</v>
@@ -29403,7 +29448,7 @@
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1516" s="2">
         <v>16693</v>
@@ -29412,18 +29457,18 @@
         <v>162</v>
       </c>
       <c r="D1516" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1517" s="2">
         <v>16696</v>
       </c>
       <c r="C1517" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D1517" t="s">
         <v>351</v>
@@ -29431,7 +29476,7 @@
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1518" s="2">
         <v>16697</v>
@@ -29440,12 +29485,12 @@
         <v>968</v>
       </c>
       <c r="D1518" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1519" s="2">
         <v>16697</v>
@@ -29459,7 +29504,7 @@
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1520" s="2">
         <v>16698</v>
@@ -29473,13 +29518,13 @@
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B1521" s="2">
         <v>16701</v>
       </c>
       <c r="C1521" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D1521" t="s">
         <v>351</v>
@@ -29487,7 +29532,7 @@
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1522" s="2">
         <v>16718</v>
@@ -29501,7 +29546,7 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1523" s="2">
         <v>16719</v>
@@ -29515,13 +29560,13 @@
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1524" s="2">
         <v>16725</v>
       </c>
       <c r="C1524" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1524" t="s">
         <v>351</v>
@@ -29529,7 +29574,7 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1525" s="2">
         <v>16729</v>
@@ -29538,12 +29583,12 @@
         <v>682</v>
       </c>
       <c r="D1525" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1526" s="2">
         <v>16737</v>
@@ -29557,7 +29602,7 @@
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1527" s="2">
         <v>16742</v>
@@ -29571,13 +29616,13 @@
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1528" s="2">
         <v>16752</v>
       </c>
       <c r="C1528" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1528" t="s">
         <v>351</v>
@@ -29585,13 +29630,13 @@
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1529" s="2">
         <v>16755</v>
       </c>
       <c r="C1529" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D1529" t="s">
         <v>351</v>
@@ -29599,7 +29644,7 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1530" s="2">
         <v>16767</v>
@@ -29613,7 +29658,7 @@
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1531" s="2">
         <v>16768</v>
@@ -29622,12 +29667,12 @@
         <v>968</v>
       </c>
       <c r="D1531" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1532" s="2">
         <v>16773</v>
@@ -29641,7 +29686,7 @@
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1533" s="2">
         <v>16774</v>
@@ -29650,12 +29695,12 @@
         <v>162</v>
       </c>
       <c r="D1533" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1534" s="2">
         <v>16774</v>
@@ -29664,12 +29709,12 @@
         <v>968</v>
       </c>
       <c r="D1534" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1535" s="2">
         <v>16777</v>
@@ -29683,7 +29728,7 @@
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1536" s="2">
         <v>16790</v>
@@ -29697,7 +29742,7 @@
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1537" s="2">
         <v>16798</v>
@@ -29711,7 +29756,7 @@
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1538" s="2">
         <v>16798</v>
@@ -29725,7 +29770,7 @@
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B1539" s="2">
         <v>16802</v>
@@ -29734,7 +29779,7 @@
         <v>968</v>
       </c>
       <c r="D1539" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
   </sheetData>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7231,6 +7231,9 @@
   </si>
   <si>
     <t>AM (no xml)</t>
+  </si>
+  <si>
+    <t>pages 81 and 82 are missing</t>
   </si>
 </sst>
 </file>
@@ -8052,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B829" workbookViewId="0">
-      <selection activeCell="F853" sqref="F853"/>
+    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
+      <selection activeCell="F869" sqref="F869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,7 +8064,7 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
@@ -20060,6 +20063,9 @@
       <c r="D853" t="s">
         <v>494</v>
       </c>
+      <c r="F853" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
@@ -20074,6 +20080,9 @@
       <c r="D854" t="s">
         <v>494</v>
       </c>
+      <c r="F854" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
@@ -20088,6 +20097,9 @@
       <c r="D855" t="s">
         <v>1363</v>
       </c>
+      <c r="F855" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
@@ -20102,6 +20114,9 @@
       <c r="D856" t="s">
         <v>400</v>
       </c>
+      <c r="F856" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
@@ -20116,6 +20131,9 @@
       <c r="D857" t="s">
         <v>1364</v>
       </c>
+      <c r="F857" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
@@ -20130,6 +20148,12 @@
       <c r="D858" t="s">
         <v>1365</v>
       </c>
+      <c r="F858" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I858" t="s">
+        <v>2404</v>
+      </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
@@ -20144,6 +20168,9 @@
       <c r="D859" t="s">
         <v>1132</v>
       </c>
+      <c r="F859" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
@@ -20158,6 +20185,9 @@
       <c r="D860" t="s">
         <v>1132</v>
       </c>
+      <c r="F860" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
@@ -20172,6 +20202,9 @@
       <c r="D861" t="s">
         <v>400</v>
       </c>
+      <c r="F861" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
@@ -20186,6 +20219,9 @@
       <c r="D862" t="s">
         <v>1577</v>
       </c>
+      <c r="F862" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
@@ -20200,6 +20236,9 @@
       <c r="D863" t="s">
         <v>794</v>
       </c>
+      <c r="F863" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
@@ -20214,8 +20253,11 @@
       <c r="D864" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F864" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1349</v>
       </c>
@@ -20228,8 +20270,11 @@
       <c r="D865" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F865" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1350</v>
       </c>
@@ -20242,8 +20287,11 @@
       <c r="D866" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F866" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1351</v>
       </c>
@@ -20256,8 +20304,11 @@
       <c r="D867" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F867" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>1352</v>
       </c>
@@ -20270,8 +20321,11 @@
       <c r="D868" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F868" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1353</v>
       </c>
@@ -20284,8 +20338,11 @@
       <c r="D869" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F869" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1354</v>
       </c>
@@ -20299,7 +20356,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>1367</v>
       </c>
@@ -20313,7 +20370,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>1368</v>
       </c>
@@ -20327,7 +20384,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>1369</v>
       </c>
@@ -20341,7 +20398,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>1370</v>
       </c>
@@ -20355,7 +20412,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>1371</v>
       </c>
@@ -20369,7 +20426,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>1372</v>
       </c>
@@ -20383,7 +20440,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>1373</v>
       </c>
@@ -20397,7 +20454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>1374</v>
       </c>
@@ -20411,7 +20468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>1375</v>
       </c>
@@ -20425,7 +20482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>1376</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4798" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2406">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7234,6 +7234,9 @@
   </si>
   <si>
     <t>pages 81 and 82 are missing</t>
+  </si>
+  <si>
+    <t>Am</t>
   </si>
 </sst>
 </file>
@@ -8056,7 +8059,7 @@
   <dimension ref="A1:J1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
-      <selection activeCell="F869" sqref="F869"/>
+      <selection activeCell="F876" sqref="F876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20355,6 +20358,9 @@
       <c r="D870" t="s">
         <v>1366</v>
       </c>
+      <c r="F870" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
@@ -20369,6 +20375,9 @@
       <c r="D871" t="s">
         <v>400</v>
       </c>
+      <c r="F871" t="s">
+        <v>2405</v>
+      </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
@@ -20383,6 +20392,9 @@
       <c r="D872" t="s">
         <v>145</v>
       </c>
+      <c r="F872" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
@@ -20397,6 +20409,9 @@
       <c r="D873" t="s">
         <v>351</v>
       </c>
+      <c r="F873" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
@@ -20411,6 +20426,9 @@
       <c r="D874" t="s">
         <v>1405</v>
       </c>
+      <c r="F874" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
@@ -20424,6 +20442,9 @@
       </c>
       <c r="D875" t="s">
         <v>494</v>
+      </c>
+      <c r="F875" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4821" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7234,9 +7234,6 @@
   </si>
   <si>
     <t>pages 81 and 82 are missing</t>
-  </si>
-  <si>
-    <t>Am</t>
   </si>
 </sst>
 </file>
@@ -8058,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A839" workbookViewId="0">
-      <selection activeCell="F876" sqref="F876"/>
+    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="F892" sqref="F892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20376,7 +20373,7 @@
         <v>400</v>
       </c>
       <c r="F871" t="s">
-        <v>2405</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
@@ -20460,6 +20457,9 @@
       <c r="D876" t="s">
         <v>400</v>
       </c>
+      <c r="F876" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
@@ -20474,6 +20474,9 @@
       <c r="D877" t="s">
         <v>33</v>
       </c>
+      <c r="F877" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
@@ -20488,6 +20491,9 @@
       <c r="D878" t="s">
         <v>400</v>
       </c>
+      <c r="F878" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
@@ -20502,6 +20508,9 @@
       <c r="D879" t="s">
         <v>400</v>
       </c>
+      <c r="F879" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
@@ -20516,8 +20525,11 @@
       <c r="D880" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F880" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>1377</v>
       </c>
@@ -20530,8 +20542,11 @@
       <c r="D881" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F881" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>1378</v>
       </c>
@@ -20544,8 +20559,11 @@
       <c r="D882" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F882" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1379</v>
       </c>
@@ -20558,8 +20576,11 @@
       <c r="D883" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F883" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1380</v>
       </c>
@@ -20572,8 +20593,11 @@
       <c r="D884" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F884" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1381</v>
       </c>
@@ -20586,8 +20610,11 @@
       <c r="D885" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F885" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1382</v>
       </c>
@@ -20600,8 +20627,11 @@
       <c r="D886" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F886" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1383</v>
       </c>
@@ -20614,8 +20644,11 @@
       <c r="D887" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F887" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1384</v>
       </c>
@@ -20628,8 +20661,11 @@
       <c r="D888" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F888" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1385</v>
       </c>
@@ -20642,8 +20678,11 @@
       <c r="D889" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F889" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1386</v>
       </c>
@@ -20656,8 +20695,11 @@
       <c r="D890" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F890" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1387</v>
       </c>
@@ -20670,8 +20712,11 @@
       <c r="D891" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F891" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>1388</v>
       </c>
@@ -20684,8 +20729,11 @@
       <c r="D892" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F892" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>1389</v>
       </c>
@@ -20699,7 +20747,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1390</v>
       </c>
@@ -20713,7 +20761,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>1391</v>
       </c>
@@ -20727,7 +20775,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>1392</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2400">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8041,7 +8041,7 @@
   <dimension ref="A1:J1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A894" workbookViewId="0">
-      <selection activeCell="F901" sqref="F901"/>
+      <selection activeCell="F904" sqref="F904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20867,6 +20867,9 @@
       <c r="D901" t="s">
         <v>1403</v>
       </c>
+      <c r="F901" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
@@ -20881,6 +20884,9 @@
       <c r="D902" t="s">
         <v>1324</v>
       </c>
+      <c r="F902" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
@@ -20894,6 +20900,9 @@
       </c>
       <c r="D903" t="s">
         <v>1443</v>
+      </c>
+      <c r="F903" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="2400">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8041,7 +8041,7 @@
   <dimension ref="A1:J1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A894" workbookViewId="0">
-      <selection activeCell="F904" sqref="F904"/>
+      <selection activeCell="F908" sqref="F908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20918,6 +20918,9 @@
       <c r="D904" t="s">
         <v>692</v>
       </c>
+      <c r="F904" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
@@ -20932,6 +20935,9 @@
       <c r="D905" t="s">
         <v>351</v>
       </c>
+      <c r="F905" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
@@ -20946,6 +20952,9 @@
       <c r="D906" t="s">
         <v>1403</v>
       </c>
+      <c r="F906" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
@@ -20959,6 +20968,9 @@
       </c>
       <c r="D907" t="s">
         <v>351</v>
+      </c>
+      <c r="F907" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="2400">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8040,8 +8040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A894" workbookViewId="0">
-      <selection activeCell="F908" sqref="F908"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="F917" sqref="F917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20986,6 +20986,9 @@
       <c r="D908" t="s">
         <v>1133</v>
       </c>
+      <c r="F908" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
@@ -21000,6 +21003,9 @@
       <c r="D909" t="s">
         <v>86</v>
       </c>
+      <c r="F909" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
@@ -21014,6 +21020,9 @@
       <c r="D910" t="s">
         <v>692</v>
       </c>
+      <c r="F910" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
@@ -21028,6 +21037,9 @@
       <c r="D911" t="s">
         <v>351</v>
       </c>
+      <c r="F911" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
@@ -21042,8 +21054,11 @@
       <c r="D912" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F912" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>1420</v>
       </c>
@@ -21056,8 +21071,11 @@
       <c r="D913" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F913" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>1421</v>
       </c>
@@ -21070,8 +21088,11 @@
       <c r="D914" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F914" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>1422</v>
       </c>
@@ -21084,8 +21105,11 @@
       <c r="D915" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F915" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>1423</v>
       </c>
@@ -21098,8 +21122,11 @@
       <c r="D916" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F916" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>1440</v>
       </c>
@@ -21113,7 +21140,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>1424</v>
       </c>
@@ -21127,7 +21154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>1425</v>
       </c>
@@ -21141,7 +21168,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>1426</v>
       </c>
@@ -21155,7 +21182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>1427</v>
       </c>
@@ -21169,7 +21196,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>1428</v>
       </c>
@@ -21183,7 +21210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>1429</v>
       </c>
@@ -21197,7 +21224,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>1430</v>
       </c>
@@ -21211,7 +21238,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>1431</v>
       </c>
@@ -21225,7 +21252,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>1432</v>
       </c>
@@ -21239,7 +21266,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>1433</v>
       </c>
@@ -21253,7 +21280,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1434</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4845" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2400">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8041,7 +8041,7 @@
   <dimension ref="A1:J1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="F917" sqref="F917"/>
+      <selection activeCell="F924" sqref="F924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21139,6 +21139,9 @@
       <c r="D917" t="s">
         <v>1445</v>
       </c>
+      <c r="F917" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
@@ -21153,6 +21156,9 @@
       <c r="D918" t="s">
         <v>42</v>
       </c>
+      <c r="F918" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
@@ -21167,6 +21173,9 @@
       <c r="D919" t="s">
         <v>1403</v>
       </c>
+      <c r="F919" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
@@ -21181,6 +21190,9 @@
       <c r="D920" t="s">
         <v>400</v>
       </c>
+      <c r="F920" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
@@ -21195,6 +21207,9 @@
       <c r="D921" t="s">
         <v>1446</v>
       </c>
+      <c r="F921" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
@@ -21209,6 +21224,9 @@
       <c r="D922" t="s">
         <v>42</v>
       </c>
+      <c r="F922" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
@@ -21222,6 +21240,9 @@
       </c>
       <c r="D923" t="s">
         <v>494</v>
+      </c>
+      <c r="F923" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="2401">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7219,6 +7219,9 @@
   </si>
   <si>
     <t>To: Dearest Mama &amp; Daddy</t>
+  </si>
+  <si>
+    <t>AMA</t>
   </si>
 </sst>
 </file>
@@ -8040,8 +8043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="F924" sqref="F924"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="F935" sqref="F935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21258,6 +21261,9 @@
       <c r="D924" t="s">
         <v>692</v>
       </c>
+      <c r="F924" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
@@ -21272,6 +21278,9 @@
       <c r="D925" t="s">
         <v>210</v>
       </c>
+      <c r="F925" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
@@ -21286,6 +21295,9 @@
       <c r="D926" t="s">
         <v>400</v>
       </c>
+      <c r="F926" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
@@ -21300,6 +21312,9 @@
       <c r="D927" t="s">
         <v>1324</v>
       </c>
+      <c r="F927" t="s">
+        <v>2371</v>
+      </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
@@ -21314,8 +21329,11 @@
       <c r="D928" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F928" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1435</v>
       </c>
@@ -21328,8 +21346,11 @@
       <c r="D929" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F929" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1436</v>
       </c>
@@ -21342,8 +21363,11 @@
       <c r="D930" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F930" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1437</v>
       </c>
@@ -21356,8 +21380,11 @@
       <c r="D931" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F931" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1448</v>
       </c>
@@ -21370,8 +21397,11 @@
       <c r="D932" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F932" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1449</v>
       </c>
@@ -21384,8 +21414,11 @@
       <c r="D933" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F933" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1450</v>
       </c>
@@ -21398,8 +21431,11 @@
       <c r="D934" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F934" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1451</v>
       </c>
@@ -21413,7 +21449,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1452</v>
       </c>
@@ -21427,7 +21463,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1453</v>
       </c>
@@ -21441,7 +21477,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1454</v>
       </c>
@@ -21455,7 +21491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1455</v>
       </c>
@@ -21469,7 +21505,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1456</v>
       </c>
@@ -21483,7 +21519,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1457</v>
       </c>
@@ -21497,7 +21533,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1458</v>
       </c>
@@ -21511,7 +21547,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1459</v>
       </c>
@@ -21525,7 +21561,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1460</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="2402">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7221,7 +7221,10 @@
     <t>To: Dearest Mama &amp; Daddy</t>
   </si>
   <si>
-    <t>AMA</t>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page 114 is just a repeat of page 113, only difference is that is has the end of the letter. </t>
   </si>
 </sst>
 </file>
@@ -7711,7 +7714,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7720,6 +7723,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8041,25 +8047,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1539"/>
+  <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="F935" sqref="F935"/>
+    <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
+      <selection activeCell="F944" sqref="F944"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8090,8 +8098,9 @@
       <c r="J1" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -8105,7 +8114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8128,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8133,7 +8142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8158,7 +8167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -8172,7 +8181,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -8186,7 +8195,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -8200,7 +8209,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -8214,7 +8223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -8228,7 +8237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -8242,7 +8251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -8256,7 +8265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -8284,7 +8293,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -21333,7 +21342,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>1435</v>
       </c>
@@ -21350,7 +21359,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1436</v>
       </c>
@@ -21364,10 +21373,10 @@
         <v>145</v>
       </c>
       <c r="F930" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>1437</v>
       </c>
@@ -21384,7 +21393,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>1448</v>
       </c>
@@ -21401,7 +21410,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>1449</v>
       </c>
@@ -21418,7 +21427,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>1450</v>
       </c>
@@ -21435,7 +21444,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>1451</v>
       </c>
@@ -21448,8 +21457,11 @@
       <c r="D935" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F935" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>1452</v>
       </c>
@@ -21462,8 +21474,14 @@
       <c r="D936" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F936" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I936" s="6" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>1453</v>
       </c>
@@ -21476,8 +21494,11 @@
       <c r="D937" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F937" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1454</v>
       </c>
@@ -21490,8 +21511,11 @@
       <c r="D938" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F938" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>1455</v>
       </c>
@@ -21504,8 +21528,11 @@
       <c r="D939" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F939" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1456</v>
       </c>
@@ -21518,8 +21545,11 @@
       <c r="D940" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F940" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>1457</v>
       </c>
@@ -21532,8 +21562,11 @@
       <c r="D941" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F941" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1458</v>
       </c>
@@ -21546,8 +21579,11 @@
       <c r="D942" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F942" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1459</v>
       </c>
@@ -21560,8 +21596,11 @@
       <c r="D943" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F943" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1460</v>
       </c>
@@ -22247,7 +22286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>1594</v>
       </c>
@@ -22261,7 +22300,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>1595</v>
       </c>
@@ -22275,7 +22314,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>1596</v>
       </c>
@@ -22289,7 +22328,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>1597</v>
       </c>
@@ -22303,7 +22342,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>1598</v>
       </c>
@@ -22316,8 +22355,11 @@
       <c r="D997" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I997" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>1599</v>
       </c>
@@ -22330,8 +22372,11 @@
       <c r="D998" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I998" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>1600</v>
       </c>
@@ -22344,8 +22389,11 @@
       <c r="D999" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I999" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>1601</v>
       </c>
@@ -22358,8 +22406,11 @@
       <c r="D1000" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1000" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>1602</v>
       </c>
@@ -22372,8 +22423,11 @@
       <c r="D1001" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1001" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>1603</v>
       </c>
@@ -22386,8 +22440,11 @@
       <c r="D1002" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1002" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>1604</v>
       </c>
@@ -22400,8 +22457,11 @@
       <c r="D1003" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1003" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>1605</v>
       </c>
@@ -22414,8 +22474,11 @@
       <c r="D1004" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1004" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>1606</v>
       </c>
@@ -22428,8 +22491,11 @@
       <c r="D1005" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1005" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>1607</v>
       </c>
@@ -22442,8 +22508,11 @@
       <c r="D1006" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1006" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>1608</v>
       </c>
@@ -22456,8 +22525,11 @@
       <c r="D1007" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1007" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>1609</v>
       </c>
@@ -22470,8 +22542,11 @@
       <c r="D1008" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1008" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>1610</v>
       </c>
@@ -22484,8 +22559,11 @@
       <c r="D1009" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1009" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>1611</v>
       </c>
@@ -22498,8 +22576,11 @@
       <c r="D1010" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1010" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1612</v>
       </c>
@@ -22512,8 +22593,11 @@
       <c r="D1011" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1011" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1613</v>
       </c>
@@ -22526,8 +22610,11 @@
       <c r="D1012" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1012" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>1627</v>
       </c>
@@ -22540,8 +22627,11 @@
       <c r="D1013" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1013" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>1628</v>
       </c>
@@ -22554,8 +22644,11 @@
       <c r="D1014" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1014" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>1629</v>
       </c>
@@ -22568,8 +22661,11 @@
       <c r="D1015" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1015" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>1630</v>
       </c>
@@ -22582,8 +22678,11 @@
       <c r="D1016" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1016" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>1631</v>
       </c>
@@ -22596,8 +22695,11 @@
       <c r="D1017" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1017" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>1632</v>
       </c>
@@ -22610,8 +22712,11 @@
       <c r="D1018" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1018" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>1633</v>
       </c>
@@ -22624,8 +22729,11 @@
       <c r="D1019" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1019" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>1634</v>
       </c>
@@ -22638,8 +22746,11 @@
       <c r="D1020" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1020" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>1635</v>
       </c>
@@ -22652,8 +22763,11 @@
       <c r="D1021" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1021" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>1636</v>
       </c>
@@ -22666,8 +22780,11 @@
       <c r="D1022" t="s">
         <v>2377</v>
       </c>
-    </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1022" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>1637</v>
       </c>
@@ -22680,8 +22797,11 @@
       <c r="D1023" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1023" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>1638</v>
       </c>
@@ -22694,8 +22814,11 @@
       <c r="D1024" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1024" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>1639</v>
       </c>
@@ -22708,8 +22831,11 @@
       <c r="D1025" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1025" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>1640</v>
       </c>
@@ -22722,8 +22848,11 @@
       <c r="D1026" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1026" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>1641</v>
       </c>
@@ -22736,8 +22865,11 @@
       <c r="D1027" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1027" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>1642</v>
       </c>
@@ -22750,8 +22882,11 @@
       <c r="D1028" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1028" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>1643</v>
       </c>
@@ -22764,8 +22899,11 @@
       <c r="D1029" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1029" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>1644</v>
       </c>
@@ -22778,8 +22916,11 @@
       <c r="D1030" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1030" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>1645</v>
       </c>
@@ -22792,8 +22933,11 @@
       <c r="D1031" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1031" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>1646</v>
       </c>
@@ -22806,8 +22950,11 @@
       <c r="D1032" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1032" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>1647</v>
       </c>
@@ -22820,8 +22967,11 @@
       <c r="D1033" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1033" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>1648</v>
       </c>
@@ -22834,8 +22984,11 @@
       <c r="D1034" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1034" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>1649</v>
       </c>
@@ -22848,8 +23001,11 @@
       <c r="D1035" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1035" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>1650</v>
       </c>
@@ -22862,8 +23018,11 @@
       <c r="D1036" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1036" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>1656</v>
       </c>
@@ -22876,8 +23035,11 @@
       <c r="D1037" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1037" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>1657</v>
       </c>
@@ -22890,8 +23052,11 @@
       <c r="D1038" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1038" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>1658</v>
       </c>
@@ -22904,8 +23069,11 @@
       <c r="D1039" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1039" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>1659</v>
       </c>
@@ -22918,8 +23086,11 @@
       <c r="D1040" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1040" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>1660</v>
       </c>
@@ -22932,8 +23103,11 @@
       <c r="D1041" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1041" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>1661</v>
       </c>
@@ -22946,8 +23120,11 @@
       <c r="D1042" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1042" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>1738</v>
       </c>
@@ -22961,7 +23138,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>1739</v>
       </c>
@@ -22975,7 +23152,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>1740</v>
       </c>
@@ -22989,7 +23166,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>1741</v>
       </c>
@@ -23003,7 +23180,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>1742</v>
       </c>
@@ -23017,7 +23194,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>1743</v>
       </c>
@@ -23031,7 +23208,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>1744</v>
       </c>
@@ -23045,7 +23222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>1745</v>
       </c>
@@ -23059,7 +23236,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>1746</v>
       </c>
@@ -23073,7 +23250,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>1747</v>
       </c>
@@ -23087,7 +23264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>1748</v>
       </c>
@@ -23101,7 +23278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>1749</v>
       </c>
@@ -23115,7 +23292,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>1750</v>
       </c>
@@ -23129,7 +23306,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>1751</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="2402">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8050,7 +8050,7 @@
   <dimension ref="A1:K1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
-      <selection activeCell="F944" sqref="F944"/>
+      <selection activeCell="F948" sqref="F948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21613,8 +21613,11 @@
       <c r="D944" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F944" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1461</v>
       </c>
@@ -21627,8 +21630,11 @@
       <c r="D945" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F945" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1462</v>
       </c>
@@ -21641,8 +21647,11 @@
       <c r="D946" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F946" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1463</v>
       </c>
@@ -21655,8 +21664,11 @@
       <c r="D947" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F947" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1464</v>
       </c>
@@ -21669,8 +21681,11 @@
       <c r="D948" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F948" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1465</v>
       </c>
@@ -21683,8 +21698,11 @@
       <c r="D949" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F949" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1466</v>
       </c>
@@ -21698,7 +21716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1467</v>
       </c>
@@ -21712,7 +21730,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1468</v>
       </c>
@@ -21726,7 +21744,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1469</v>
       </c>
@@ -21740,7 +21758,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1470</v>
       </c>
@@ -21754,7 +21772,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1472</v>
       </c>
@@ -21768,7 +21786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1527</v>
       </c>
@@ -21782,7 +21800,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1528</v>
       </c>
@@ -21796,7 +21814,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1529</v>
       </c>
@@ -21810,7 +21828,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1530</v>
       </c>
@@ -21824,7 +21842,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1531</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7225,6 +7225,9 @@
   </si>
   <si>
     <t xml:space="preserve">page 114 is just a repeat of page 113, only difference is that is has the end of the letter. </t>
+  </si>
+  <si>
+    <t>incomplete letter</t>
   </si>
 </sst>
 </file>
@@ -8049,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A935" workbookViewId="0">
-      <selection activeCell="F948" sqref="F948"/>
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
+      <selection activeCell="F965" sqref="F965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21617,7 +21620,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>1461</v>
       </c>
@@ -21634,7 +21637,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>1462</v>
       </c>
@@ -21651,7 +21654,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>1463</v>
       </c>
@@ -21668,7 +21671,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>1464</v>
       </c>
@@ -21685,7 +21688,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1465</v>
       </c>
@@ -21702,7 +21705,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1466</v>
       </c>
@@ -21715,8 +21718,11 @@
       <c r="D950" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F950" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1467</v>
       </c>
@@ -21729,8 +21735,11 @@
       <c r="D951" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F951" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>1468</v>
       </c>
@@ -21743,8 +21752,11 @@
       <c r="D952" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F952" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1469</v>
       </c>
@@ -21757,8 +21769,14 @@
       <c r="D953" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F953" t="s">
+        <v>2400</v>
+      </c>
+      <c r="I953" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1470</v>
       </c>
@@ -21771,8 +21789,11 @@
       <c r="D954" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F954" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1472</v>
       </c>
@@ -21785,8 +21806,11 @@
       <c r="D955" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F955" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1527</v>
       </c>
@@ -21799,8 +21823,11 @@
       <c r="D956" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F956" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>1528</v>
       </c>
@@ -21813,8 +21840,11 @@
       <c r="D957" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F957" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1529</v>
       </c>
@@ -21827,8 +21857,11 @@
       <c r="D958" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F958" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>1530</v>
       </c>
@@ -21841,8 +21874,11 @@
       <c r="D959" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F959" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>1531</v>
       </c>
@@ -21855,8 +21891,11 @@
       <c r="D960" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F960" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>1532</v>
       </c>
@@ -21869,8 +21908,11 @@
       <c r="D961" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F961" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1533</v>
       </c>
@@ -21883,8 +21925,11 @@
       <c r="D962" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F962" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>1534</v>
       </c>
@@ -21897,8 +21942,11 @@
       <c r="D963" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F963" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1535</v>
       </c>
@@ -21911,8 +21959,11 @@
       <c r="D964" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F964" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>1536</v>
       </c>
@@ -21926,7 +21977,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>1537</v>
       </c>
@@ -21940,7 +21991,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>1538</v>
       </c>
@@ -21954,7 +22005,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>1539</v>
       </c>
@@ -21968,7 +22019,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>1540</v>
       </c>
@@ -21982,7 +22033,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>1541</v>
       </c>
@@ -21996,7 +22047,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1542</v>
       </c>
@@ -22010,7 +22061,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>1543</v>
       </c>
@@ -22024,7 +22075,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>1544</v>
       </c>
@@ -22038,7 +22089,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>1545</v>
       </c>
@@ -22052,7 +22103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>1546</v>
       </c>
@@ -22066,7 +22117,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>1547</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4941" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
-      <selection activeCell="F965" sqref="F965"/>
+    <sheetView tabSelected="1" topLeftCell="A947" workbookViewId="0">
+      <selection activeCell="F972" sqref="F972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8061,8 +8061,8 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
@@ -21976,6 +21976,9 @@
       <c r="D965" t="s">
         <v>351</v>
       </c>
+      <c r="F965" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
@@ -21990,6 +21993,9 @@
       <c r="D966" t="s">
         <v>1584</v>
       </c>
+      <c r="F966" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
@@ -22004,6 +22010,9 @@
       <c r="D967" t="s">
         <v>1565</v>
       </c>
+      <c r="F967" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
@@ -22018,6 +22027,9 @@
       <c r="D968" t="s">
         <v>1566</v>
       </c>
+      <c r="F968" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
@@ -22032,6 +22044,9 @@
       <c r="D969" t="s">
         <v>1567</v>
       </c>
+      <c r="F969" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
@@ -22046,6 +22061,9 @@
       <c r="D970" t="s">
         <v>1133</v>
       </c>
+      <c r="F970" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
@@ -22059,6 +22077,9 @@
       </c>
       <c r="D971" t="s">
         <v>1324</v>
+      </c>
+      <c r="F971" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A947" workbookViewId="0">
-      <selection activeCell="F972" sqref="F972"/>
+    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="F980" sqref="F980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22095,6 +22095,9 @@
       <c r="D972" t="s">
         <v>1568</v>
       </c>
+      <c r="F972" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
@@ -22109,6 +22112,9 @@
       <c r="D973" t="s">
         <v>494</v>
       </c>
+      <c r="F973" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
@@ -22123,6 +22129,9 @@
       <c r="D974" t="s">
         <v>400</v>
       </c>
+      <c r="F974" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
@@ -22137,6 +22146,9 @@
       <c r="D975" t="s">
         <v>400</v>
       </c>
+      <c r="F975" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
@@ -22151,8 +22163,11 @@
       <c r="D976" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F976" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>1548</v>
       </c>
@@ -22165,8 +22180,11 @@
       <c r="D977" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F977" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>1549</v>
       </c>
@@ -22179,8 +22197,11 @@
       <c r="D978" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F978" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>1550</v>
       </c>
@@ -22193,8 +22214,11 @@
       <c r="D979" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F979" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>1551</v>
       </c>
@@ -22208,7 +22232,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>1552</v>
       </c>
@@ -22222,7 +22246,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>1553</v>
       </c>
@@ -22236,7 +22260,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>1585</v>
       </c>
@@ -22250,7 +22274,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>1586</v>
       </c>
@@ -22264,7 +22288,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>1587</v>
       </c>
@@ -22278,7 +22302,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>1588</v>
       </c>
@@ -22292,7 +22316,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>1589</v>
       </c>
@@ -22306,7 +22330,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>1590</v>
       </c>
@@ -22320,7 +22344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1620</v>
       </c>
@@ -22334,7 +22358,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
         <v>1591</v>
       </c>
@@ -22348,7 +22372,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>1592</v>
       </c>
@@ -22362,7 +22386,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>1593</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8053,16 +8053,16 @@
   <dimension ref="A1:K1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
-      <selection activeCell="F980" sqref="F980"/>
+      <selection activeCell="F995" sqref="F995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
@@ -22231,6 +22231,9 @@
       <c r="D980" t="s">
         <v>1571</v>
       </c>
+      <c r="F980" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
@@ -22245,6 +22248,9 @@
       <c r="D981" t="s">
         <v>1572</v>
       </c>
+      <c r="F981" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
@@ -22259,6 +22265,9 @@
       <c r="D982" t="s">
         <v>1580</v>
       </c>
+      <c r="F982" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
@@ -22273,6 +22282,9 @@
       <c r="D983" t="s">
         <v>351</v>
       </c>
+      <c r="F983" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
@@ -22287,6 +22299,9 @@
       <c r="D984" t="s">
         <v>1621</v>
       </c>
+      <c r="F984" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
@@ -22301,6 +22316,9 @@
       <c r="D985" t="s">
         <v>494</v>
       </c>
+      <c r="F985" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
@@ -22315,6 +22333,9 @@
       <c r="D986" t="s">
         <v>1521</v>
       </c>
+      <c r="F986" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
@@ -22329,6 +22350,9 @@
       <c r="D987" t="s">
         <v>1622</v>
       </c>
+      <c r="F987" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
@@ -22343,6 +22367,9 @@
       <c r="D988" t="s">
         <v>400</v>
       </c>
+      <c r="F988" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
@@ -22357,6 +22384,9 @@
       <c r="D989" t="s">
         <v>1248</v>
       </c>
+      <c r="F989" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990" s="5" t="s">
@@ -22371,6 +22401,9 @@
       <c r="D990" t="s">
         <v>1623</v>
       </c>
+      <c r="F990" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
@@ -22385,6 +22418,9 @@
       <c r="D991" t="s">
         <v>351</v>
       </c>
+      <c r="F991" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
@@ -22399,6 +22435,9 @@
       <c r="D992" t="s">
         <v>400</v>
       </c>
+      <c r="F992" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
@@ -22413,6 +22452,9 @@
       <c r="D993" t="s">
         <v>400</v>
       </c>
+      <c r="F993" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
@@ -22426,6 +22468,9 @@
       </c>
       <c r="D994" t="s">
         <v>2032</v>
+      </c>
+      <c r="F994" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
-      <selection activeCell="F995" sqref="F995"/>
+    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
+      <selection activeCell="F1046" sqref="F1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22486,6 +22486,9 @@
       <c r="D995" t="s">
         <v>1624</v>
       </c>
+      <c r="F995" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
@@ -22500,6 +22503,9 @@
       <c r="D996" t="s">
         <v>351</v>
       </c>
+      <c r="F996" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
@@ -23296,6 +23302,9 @@
       <c r="D1043" t="s">
         <v>1773</v>
       </c>
+      <c r="F1043" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
@@ -23310,6 +23319,9 @@
       <c r="D1044" t="s">
         <v>1774</v>
       </c>
+      <c r="F1044" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
@@ -23323,6 +23335,9 @@
       </c>
       <c r="D1045" t="s">
         <v>1133</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4976" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="2406">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7228,6 +7228,15 @@
   </si>
   <si>
     <t>incomplete letter</t>
+  </si>
+  <si>
+    <t>J4b.19.13a</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>J4b.19.18aa</t>
   </si>
 </sst>
 </file>
@@ -8050,10 +8059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1539"/>
+  <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
-      <selection activeCell="F1046" sqref="F1046"/>
+    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
+      <selection activeCell="F1056" sqref="F1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23353,6 +23362,9 @@
       <c r="D1046" t="s">
         <v>400</v>
       </c>
+      <c r="F1046" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
@@ -23367,6 +23379,9 @@
       <c r="D1047" t="s">
         <v>1775</v>
       </c>
+      <c r="I1047" t="s">
+        <v>2202</v>
+      </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
@@ -23381,6 +23396,9 @@
       <c r="D1048" t="s">
         <v>351</v>
       </c>
+      <c r="F1048" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
@@ -23395,6 +23413,9 @@
       <c r="D1049" t="s">
         <v>400</v>
       </c>
+      <c r="F1049" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
@@ -23409,6 +23430,9 @@
       <c r="D1050" t="s">
         <v>1443</v>
       </c>
+      <c r="F1050" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
@@ -23423,55 +23447,64 @@
       <c r="D1051" t="s">
         <v>1776</v>
       </c>
+      <c r="F1051" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B1052" s="2">
-        <v>15715</v>
+        <v>2403</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>2404</v>
       </c>
       <c r="C1052" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>400</v>
+        <v>2404</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B1053" s="2">
-        <v>15718</v>
+        <v>15715</v>
       </c>
       <c r="C1053" t="s">
-        <v>1771</v>
+        <v>1083</v>
       </c>
       <c r="D1053" t="s">
         <v>400</v>
       </c>
+      <c r="F1053" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1054" s="2">
-        <v>15719</v>
+        <v>15718</v>
       </c>
       <c r="C1054" t="s">
-        <v>822</v>
+        <v>1771</v>
       </c>
       <c r="D1054" t="s">
-        <v>351</v>
+        <v>400</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1055" s="2">
-        <v>15727</v>
+        <v>15719</v>
       </c>
       <c r="C1055" t="s">
         <v>822</v>
@@ -23479,27 +23512,30 @@
       <c r="D1055" t="s">
         <v>351</v>
       </c>
+      <c r="F1055" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B1056" s="2">
-        <v>15731</v>
+        <v>2405</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>2404</v>
       </c>
       <c r="C1056" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2404</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B1057" s="2">
-        <v>15733</v>
+        <v>15727</v>
       </c>
       <c r="C1057" t="s">
         <v>822</v>
@@ -23507,111 +23543,114 @@
       <c r="D1057" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1057" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>15731</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>15733</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
         <v>1753</v>
       </c>
-      <c r="B1058" s="2">
+      <c r="B1060" s="2">
         <v>15734</v>
       </c>
-      <c r="C1058" t="s">
+      <c r="C1060" t="s">
         <v>822</v>
       </c>
-      <c r="D1058" t="s">
+      <c r="D1060" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
         <v>1754</v>
       </c>
-      <c r="B1059" t="s">
+      <c r="B1061" t="s">
         <v>1767</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>531</v>
-      </c>
-      <c r="D1059" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B1060" s="2">
-        <v>15739</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D1060" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B1061" s="2">
-        <v>15739</v>
       </c>
       <c r="C1061" t="s">
         <v>531</v>
       </c>
       <c r="D1061" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1062" s="2">
+        <v>15739</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1063" s="2">
+        <v>15739</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1063" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
         <v>1757</v>
       </c>
-      <c r="B1062" s="2">
+      <c r="B1064" s="2">
         <v>15742</v>
       </c>
-      <c r="C1062" t="s">
+      <c r="C1064" t="s">
         <v>1772</v>
       </c>
-      <c r="D1062" t="s">
+      <c r="D1064" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
         <v>1758</v>
       </c>
-      <c r="B1063" s="2">
+      <c r="B1065" s="2">
         <v>15742</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>822</v>
-      </c>
-      <c r="D1063" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1064" s="2">
-        <v>15744</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>822</v>
-      </c>
-      <c r="D1064" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B1065" s="2">
-        <v>15747</v>
       </c>
       <c r="C1065" t="s">
         <v>822</v>
@@ -23620,180 +23659,180 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1066" s="2">
+        <v>15744</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1067" s="2">
+        <v>15747</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
         <v>1761</v>
       </c>
-      <c r="B1066" s="2">
+      <c r="B1068" s="2">
         <v>15749</v>
       </c>
-      <c r="C1066" t="s">
+      <c r="C1068" t="s">
         <v>831</v>
       </c>
-      <c r="D1066" t="s">
+      <c r="D1068" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
         <v>1762</v>
       </c>
-      <c r="B1067" s="2">
+      <c r="B1069" s="2">
         <v>15749</v>
       </c>
-      <c r="C1067" t="s">
+      <c r="C1069" t="s">
         <v>831</v>
       </c>
-      <c r="D1067" t="s">
+      <c r="D1069" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
         <v>1763</v>
       </c>
-      <c r="B1068" s="2">
+      <c r="B1070" s="2">
         <v>15752</v>
       </c>
-      <c r="C1068" t="s">
+      <c r="C1070" t="s">
         <v>822</v>
       </c>
-      <c r="D1068" t="s">
+      <c r="D1070" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
         <v>1764</v>
       </c>
-      <c r="B1069" s="2">
+      <c r="B1071" s="2">
         <v>15753</v>
       </c>
-      <c r="C1069" t="s">
+      <c r="C1071" t="s">
         <v>531</v>
       </c>
-      <c r="D1069" t="s">
+      <c r="D1071" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
         <v>1765</v>
       </c>
-      <c r="B1070" s="2">
+      <c r="B1072" s="2">
         <v>15767</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="C1072" t="s">
         <v>831</v>
       </c>
-      <c r="D1070" t="s">
+      <c r="D1072" t="s">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1071" s="2">
-        <v>15767</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B1072" s="2">
-        <v>15769</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>531</v>
-      </c>
-      <c r="D1072" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B1073" s="2">
-        <v>15770</v>
+        <v>15767</v>
       </c>
       <c r="C1073" t="s">
-        <v>1089</v>
+        <v>2034</v>
       </c>
       <c r="D1073" t="s">
-        <v>1133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B1074" s="2">
-        <v>15771</v>
+        <v>15769</v>
       </c>
       <c r="C1074" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1074" t="s">
-        <v>86</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B1075" s="2">
-        <v>15773</v>
+        <v>15770</v>
       </c>
       <c r="C1075" t="s">
-        <v>822</v>
+        <v>1089</v>
       </c>
       <c r="D1075" t="s">
-        <v>351</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B1076" s="2">
-        <v>15774</v>
+        <v>15771</v>
       </c>
       <c r="C1076" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1076" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B1077" s="2">
-        <v>15781</v>
+        <v>15773</v>
       </c>
       <c r="C1077" t="s">
-        <v>2034</v>
+        <v>822</v>
       </c>
       <c r="D1077" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B1078" s="2">
-        <v>15782</v>
+        <v>15774</v>
       </c>
       <c r="C1078" t="s">
         <v>822</v>
@@ -23804,24 +23843,24 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B1079" s="2">
-        <v>15788</v>
+        <v>15781</v>
       </c>
       <c r="C1079" t="s">
-        <v>831</v>
+        <v>2034</v>
       </c>
       <c r="D1079" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B1080" s="2">
-        <v>15790</v>
+        <v>15782</v>
       </c>
       <c r="C1080" t="s">
         <v>822</v>
@@ -23832,24 +23871,24 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B1081" s="2">
-        <v>15795</v>
+        <v>15788</v>
       </c>
       <c r="C1081" t="s">
-        <v>1808</v>
+        <v>831</v>
       </c>
       <c r="D1081" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B1082" s="2">
-        <v>15801</v>
+        <v>15790</v>
       </c>
       <c r="C1082" t="s">
         <v>822</v>
@@ -23860,24 +23899,24 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B1083" s="2">
-        <v>15804</v>
+        <v>15795</v>
       </c>
       <c r="C1083" t="s">
-        <v>1354</v>
+        <v>1808</v>
       </c>
       <c r="D1083" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B1084" s="2">
-        <v>15805</v>
+        <v>15801</v>
       </c>
       <c r="C1084" t="s">
         <v>822</v>
@@ -23888,97 +23927,97 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B1085" s="2">
-        <v>15810</v>
+        <v>15804</v>
       </c>
       <c r="C1085" t="s">
-        <v>1809</v>
+        <v>1354</v>
       </c>
       <c r="D1085" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B1086" s="2">
-        <v>15810</v>
+        <v>15805</v>
       </c>
       <c r="C1086" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D1086" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1807</v>
+        <v>1792</v>
+      </c>
+      <c r="B1087" s="2">
+        <v>15810</v>
       </c>
       <c r="C1087" t="s">
-        <v>149</v>
+        <v>1809</v>
       </c>
       <c r="D1087" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B1088" s="2">
-        <v>15824</v>
+        <v>15810</v>
       </c>
       <c r="C1088" t="s">
         <v>35</v>
       </c>
       <c r="D1088" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B1089" s="2">
-        <v>15828</v>
+        <v>1794</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1807</v>
       </c>
       <c r="C1089" t="s">
-        <v>1124</v>
+        <v>149</v>
       </c>
       <c r="D1089" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B1090" s="2">
-        <v>15841</v>
+        <v>15824</v>
       </c>
       <c r="C1090" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D1090" t="s">
-        <v>1812</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B1091" s="2">
-        <v>15841</v>
+        <v>15828</v>
       </c>
       <c r="C1091" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1091" t="s">
         <v>351</v>
@@ -23986,290 +24025,290 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B1092" s="2">
-        <v>15843</v>
+        <v>15841</v>
       </c>
       <c r="C1092" t="s">
         <v>162</v>
       </c>
       <c r="D1092" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1093" s="2">
-        <v>15843</v>
+        <v>15841</v>
       </c>
       <c r="C1093" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1093" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1094" s="2">
-        <v>15844</v>
+        <v>15843</v>
       </c>
       <c r="C1094" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1094" t="s">
-        <v>86</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B1095" s="2">
-        <v>15844</v>
+        <v>15843</v>
       </c>
       <c r="C1095" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1095" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B1096" s="2">
         <v>15844</v>
       </c>
       <c r="C1096" t="s">
-        <v>1810</v>
+        <v>531</v>
       </c>
       <c r="D1096" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B1097" s="2">
-        <v>15845</v>
+        <v>15844</v>
       </c>
       <c r="C1097" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1097" t="s">
-        <v>1904</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1098" s="2">
-        <v>15849</v>
+        <v>15844</v>
       </c>
       <c r="C1098" t="s">
-        <v>531</v>
+        <v>1810</v>
       </c>
       <c r="D1098" t="s">
-        <v>1247</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B1099" s="2">
-        <v>15853</v>
+        <v>15845</v>
       </c>
       <c r="C1099" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1099" t="s">
-        <v>1247</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="B1100" s="2">
-        <v>15853</v>
+        <v>15849</v>
       </c>
       <c r="C1100" t="s">
         <v>531</v>
       </c>
       <c r="D1100" t="s">
-        <v>539</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="B1101" s="2">
-        <v>15854</v>
+        <v>15853</v>
       </c>
       <c r="C1101" t="s">
-        <v>1826</v>
+        <v>531</v>
       </c>
       <c r="D1101" t="s">
-        <v>1829</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B1102" s="2">
-        <v>15854</v>
+        <v>15853</v>
       </c>
       <c r="C1102" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1102" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B1103" s="2">
-        <v>15859</v>
+        <v>15854</v>
       </c>
       <c r="C1103" t="s">
-        <v>162</v>
+        <v>1826</v>
       </c>
       <c r="D1103" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B1104" s="2">
-        <v>15861</v>
+        <v>15854</v>
       </c>
       <c r="C1104" t="s">
-        <v>1827</v>
+        <v>822</v>
       </c>
       <c r="D1104" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B1105" s="2">
-        <v>15867</v>
+        <v>15859</v>
       </c>
       <c r="C1105" t="s">
         <v>162</v>
       </c>
       <c r="D1105" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B1106" s="2">
-        <v>15875</v>
+        <v>15861</v>
       </c>
       <c r="C1106" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D1106" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B1107" s="2">
-        <v>15879</v>
+        <v>15867</v>
       </c>
       <c r="C1107" t="s">
         <v>162</v>
       </c>
       <c r="D1107" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1825</v>
+        <v>1820</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>15875</v>
       </c>
       <c r="C1108" t="s">
-        <v>531</v>
+        <v>1828</v>
       </c>
       <c r="D1108" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B1109" s="2">
-        <v>15900</v>
+        <v>15879</v>
       </c>
       <c r="C1109" t="s">
-        <v>1083</v>
+        <v>162</v>
       </c>
       <c r="D1109" t="s">
-        <v>1905</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1110" s="2">
-        <v>15913</v>
+        <v>1822</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1825</v>
       </c>
       <c r="C1110" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1110" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1664</v>
+        <v>1823</v>
       </c>
       <c r="B1111" s="2">
-        <v>15921</v>
+        <v>15900</v>
       </c>
       <c r="C1111" t="s">
-        <v>831</v>
+        <v>1083</v>
       </c>
       <c r="D1111" t="s">
-        <v>1698</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1665</v>
+        <v>1824</v>
       </c>
       <c r="B1112" s="2">
-        <v>15921</v>
+        <v>15913</v>
       </c>
       <c r="C1112" t="s">
         <v>831</v>
@@ -24280,167 +24319,167 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B1113" s="2">
-        <v>15922</v>
+        <v>15921</v>
       </c>
       <c r="C1113" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1113" t="s">
-        <v>351</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B1114" s="2">
-        <v>15928</v>
+        <v>15921</v>
       </c>
       <c r="C1114" t="s">
-        <v>1694</v>
+        <v>831</v>
       </c>
       <c r="D1114" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B1115" s="2">
-        <v>15932</v>
+        <v>15922</v>
       </c>
       <c r="C1115" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1115" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B1116" s="2">
-        <v>15942</v>
+        <v>15928</v>
       </c>
       <c r="C1116" t="s">
-        <v>726</v>
+        <v>1694</v>
       </c>
       <c r="D1116" t="s">
-        <v>1906</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B1117" s="2">
-        <v>15945</v>
+        <v>15932</v>
       </c>
       <c r="C1117" t="s">
-        <v>573</v>
+        <v>831</v>
       </c>
       <c r="D1117" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B1118" s="2">
-        <v>15946</v>
+        <v>15942</v>
       </c>
       <c r="C1118" t="s">
-        <v>531</v>
+        <v>726</v>
       </c>
       <c r="D1118" t="s">
-        <v>210</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B1119" s="2">
-        <v>15947</v>
+        <v>15945</v>
       </c>
       <c r="C1119" t="s">
         <v>573</v>
       </c>
       <c r="D1119" t="s">
-        <v>2035</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B1120" s="2">
-        <v>15947</v>
+        <v>15946</v>
       </c>
       <c r="C1120" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1120" t="s">
-        <v>1699</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B1121" s="2">
         <v>15947</v>
       </c>
       <c r="C1121" t="s">
-        <v>831</v>
+        <v>573</v>
       </c>
       <c r="D1121" t="s">
-        <v>351</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B1122" s="2">
-        <v>15948</v>
+        <v>15947</v>
       </c>
       <c r="C1122" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D1122" t="s">
-        <v>86</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B1123" s="2">
-        <v>15948</v>
+        <v>15947</v>
       </c>
       <c r="C1123" t="s">
-        <v>1695</v>
+        <v>831</v>
       </c>
       <c r="D1123" t="s">
-        <v>1700</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B1124" s="2">
-        <v>15949</v>
+        <v>15948</v>
       </c>
       <c r="C1124" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1124" t="s">
         <v>86</v>
@@ -24448,139 +24487,139 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B1125" s="2">
-        <v>15949</v>
+        <v>15948</v>
       </c>
       <c r="C1125" t="s">
-        <v>831</v>
+        <v>1695</v>
       </c>
       <c r="D1125" t="s">
-        <v>351</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1692</v>
+        <v>1677</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>15949</v>
       </c>
       <c r="C1126" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1126" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B1127" s="2">
-        <v>15950</v>
+        <v>15949</v>
       </c>
       <c r="C1127" t="s">
         <v>831</v>
       </c>
       <c r="D1127" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B1128" s="2">
-        <v>15951</v>
+        <v>1679</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1692</v>
       </c>
       <c r="C1128" t="s">
-        <v>1696</v>
+        <v>35</v>
       </c>
       <c r="D1128" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B1129" s="2">
-        <v>15952</v>
+        <v>15950</v>
       </c>
       <c r="C1129" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1129" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>1693</v>
+        <v>1681</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>15951</v>
       </c>
       <c r="C1130" t="s">
-        <v>831</v>
+        <v>1696</v>
       </c>
       <c r="D1130" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B1131" s="2">
-        <v>15959</v>
+        <v>15952</v>
       </c>
       <c r="C1131" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1131" t="s">
-        <v>1702</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B1132" s="2">
-        <v>15959</v>
+        <v>1683</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1693</v>
       </c>
       <c r="C1132" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1132" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B1133" s="2">
-        <v>15962</v>
+        <v>15959</v>
       </c>
       <c r="C1133" t="s">
-        <v>1697</v>
+        <v>831</v>
       </c>
       <c r="D1133" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B1134" s="2">
-        <v>15963</v>
+        <v>15959</v>
       </c>
       <c r="C1134" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1134" t="s">
         <v>351</v>
@@ -24588,108 +24627,108 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B1135" s="2">
-        <v>15965</v>
+        <v>15962</v>
       </c>
       <c r="C1135" t="s">
-        <v>35</v>
+        <v>1697</v>
       </c>
       <c r="D1135" t="s">
-        <v>539</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B1136" s="2">
-        <v>15965</v>
+        <v>15963</v>
       </c>
       <c r="C1136" t="s">
         <v>831</v>
       </c>
       <c r="D1136" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B1137" s="2">
-        <v>15968</v>
+        <v>15965</v>
       </c>
       <c r="C1137" t="s">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="D1137" t="s">
-        <v>1701</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B1138" s="2">
-        <v>15969</v>
+        <v>15965</v>
       </c>
       <c r="C1138" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1138" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1704</v>
+        <v>1690</v>
       </c>
       <c r="B1139" s="2">
-        <v>15971</v>
+        <v>15968</v>
       </c>
       <c r="C1139" t="s">
-        <v>1124</v>
+        <v>531</v>
       </c>
       <c r="D1139" t="s">
-        <v>351</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
       <c r="B1140" s="2">
-        <v>15973</v>
+        <v>15969</v>
       </c>
       <c r="C1140" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1140" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B1141" s="2">
-        <v>15973</v>
+        <v>15971</v>
       </c>
       <c r="C1141" t="s">
-        <v>162</v>
+        <v>1124</v>
       </c>
       <c r="D1141" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B1142" s="2">
-        <v>15974</v>
+        <v>15973</v>
       </c>
       <c r="C1142" t="s">
         <v>831</v>
@@ -24700,83 +24739,83 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B1143" s="2">
-        <v>15975</v>
+        <v>15973</v>
       </c>
       <c r="C1143" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1143" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B1144" s="2">
-        <v>15976</v>
+        <v>15974</v>
       </c>
       <c r="C1144" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1144" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1729</v>
+        <v>1708</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>15975</v>
       </c>
       <c r="C1145" t="s">
         <v>831</v>
       </c>
       <c r="D1145" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B1146" s="2">
-        <v>15981</v>
+        <v>15976</v>
       </c>
       <c r="C1146" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1146" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B1147" s="2">
-        <v>15985</v>
+        <v>1710</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1729</v>
       </c>
       <c r="C1147" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1147" t="s">
-        <v>1734</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B1148" s="2">
-        <v>15986</v>
+        <v>15981</v>
       </c>
       <c r="C1148" t="s">
-        <v>1732</v>
+        <v>831</v>
       </c>
       <c r="D1148" t="s">
         <v>86</v>
@@ -24784,41 +24823,41 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B1149" s="2">
-        <v>15989</v>
+        <v>15985</v>
       </c>
       <c r="C1149" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1149" t="s">
-        <v>351</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1150" s="2">
-        <v>15990</v>
+        <v>15986</v>
       </c>
       <c r="C1150" t="s">
-        <v>831</v>
+        <v>1732</v>
       </c>
       <c r="D1150" t="s">
-        <v>1735</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B1151" s="2">
-        <v>15994</v>
+        <v>15989</v>
       </c>
       <c r="C1151" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1151" t="s">
         <v>351</v>
@@ -24826,108 +24865,108 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B1152" s="2">
-        <v>15994</v>
+        <v>15990</v>
       </c>
       <c r="C1152" t="s">
         <v>831</v>
       </c>
       <c r="D1152" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B1153" s="2">
-        <v>15995</v>
+        <v>15994</v>
       </c>
       <c r="C1153" t="s">
-        <v>1733</v>
+        <v>831</v>
       </c>
       <c r="D1153" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="B1154" s="2">
-        <v>15998</v>
+        <v>15994</v>
       </c>
       <c r="C1154" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1154" t="s">
-        <v>351</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1155" s="2">
-        <v>15999</v>
+        <v>15995</v>
       </c>
       <c r="C1155" t="s">
-        <v>1164</v>
+        <v>1733</v>
       </c>
       <c r="D1155" t="s">
-        <v>1737</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="B1156" s="2">
-        <v>16000</v>
+        <v>15998</v>
       </c>
       <c r="C1156" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1156" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B1157" s="2">
-        <v>16002</v>
+        <v>15999</v>
       </c>
       <c r="C1157" t="s">
-        <v>822</v>
+        <v>1164</v>
       </c>
       <c r="D1157" t="s">
-        <v>351</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B1158" s="2">
-        <v>16003</v>
+        <v>16000</v>
       </c>
       <c r="C1158" t="s">
         <v>831</v>
       </c>
       <c r="D1158" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B1159" s="2">
-        <v>16003</v>
+        <v>16002</v>
       </c>
       <c r="C1159" t="s">
         <v>822</v>
@@ -24938,38 +24977,38 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B1160" s="2">
-        <v>16004</v>
+        <v>16003</v>
       </c>
       <c r="C1160" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1160" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B1161" s="2">
-        <v>16005</v>
+        <v>16003</v>
       </c>
       <c r="C1161" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1161" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="B1162" s="2">
-        <v>16005</v>
+        <v>16004</v>
       </c>
       <c r="C1162" t="s">
         <v>822</v>
@@ -24980,105 +25019,105 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1163" s="2">
-        <v>16007</v>
+        <v>16005</v>
       </c>
       <c r="C1163" t="s">
         <v>831</v>
       </c>
       <c r="D1163" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B1164" s="2">
-        <v>16008</v>
+        <v>16005</v>
       </c>
       <c r="C1164" t="s">
-        <v>1164</v>
+        <v>822</v>
       </c>
       <c r="D1164" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B1165" s="2">
-        <v>16009</v>
+        <v>16007</v>
       </c>
       <c r="C1165" t="s">
-        <v>623</v>
+        <v>831</v>
       </c>
       <c r="D1165" t="s">
-        <v>1248</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1833</v>
+        <v>1727</v>
       </c>
       <c r="B1166" s="2">
-        <v>16011</v>
+        <v>16008</v>
       </c>
       <c r="C1166" t="s">
-        <v>1865</v>
+        <v>1164</v>
       </c>
       <c r="D1166" t="s">
-        <v>2036</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1834</v>
+        <v>1728</v>
       </c>
       <c r="B1167" s="2">
-        <v>16011</v>
+        <v>16009</v>
       </c>
       <c r="C1167" t="s">
-        <v>822</v>
+        <v>623</v>
       </c>
       <c r="D1167" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1168" s="2">
         <v>16011</v>
       </c>
       <c r="C1168" t="s">
-        <v>831</v>
+        <v>1865</v>
       </c>
       <c r="D1168" t="s">
-        <v>1867</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B1169" s="2">
         <v>16011</v>
       </c>
       <c r="C1169" t="s">
-        <v>184</v>
+        <v>822</v>
       </c>
       <c r="D1169" t="s">
-        <v>2037</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B1170" s="2">
         <v>16011</v>
@@ -25087,250 +25126,250 @@
         <v>831</v>
       </c>
       <c r="D1170" t="s">
-        <v>400</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B1171" s="2">
-        <v>16013</v>
+        <v>16011</v>
       </c>
       <c r="C1171" t="s">
-        <v>831</v>
+        <v>184</v>
       </c>
       <c r="D1171" t="s">
-        <v>400</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B1172" s="2">
-        <v>16015</v>
+        <v>16011</v>
       </c>
       <c r="C1172" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="D1172" t="s">
-        <v>1868</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B1173" s="2">
-        <v>16015</v>
+        <v>16013</v>
       </c>
       <c r="C1173" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1173" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B1174" s="2">
-        <v>16016</v>
+        <v>16015</v>
       </c>
       <c r="C1174" t="s">
-        <v>1866</v>
+        <v>681</v>
       </c>
       <c r="D1174" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B1175" s="2">
-        <v>16017</v>
+        <v>16015</v>
       </c>
       <c r="C1175" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1175" t="s">
-        <v>1869</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B1176" s="2">
-        <v>16021</v>
+        <v>16016</v>
       </c>
       <c r="C1176" t="s">
-        <v>831</v>
+        <v>1866</v>
       </c>
       <c r="D1176" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B1177" s="2">
-        <v>16021</v>
+        <v>16017</v>
       </c>
       <c r="C1177" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1177" t="s">
-        <v>351</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B1178" s="2">
-        <v>16024</v>
+        <v>16021</v>
       </c>
       <c r="C1178" t="s">
-        <v>968</v>
+        <v>831</v>
       </c>
       <c r="D1178" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B1179" s="2">
-        <v>16026</v>
+        <v>16021</v>
       </c>
       <c r="C1179" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1179" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B1180" s="2">
-        <v>16026</v>
+        <v>16024</v>
       </c>
       <c r="C1180" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1180" t="s">
-        <v>351</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B1181" s="2">
-        <v>16027</v>
+        <v>16026</v>
       </c>
       <c r="C1181" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1181" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B1182" s="2">
-        <v>16028</v>
+        <v>16026</v>
       </c>
       <c r="C1182" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1182" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B1183" s="2">
-        <v>16029</v>
+        <v>16027</v>
       </c>
       <c r="C1183" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1183" t="s">
-        <v>1563</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B1184" s="2">
-        <v>16030</v>
+        <v>16028</v>
       </c>
       <c r="C1184" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1184" t="s">
-        <v>173</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>1863</v>
+        <v>1850</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>16029</v>
       </c>
       <c r="C1185" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1185" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B1186" s="2">
-        <v>16032</v>
+        <v>16030</v>
       </c>
       <c r="C1186" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1186" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1187" s="2">
-        <v>16032</v>
+        <v>1852</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1863</v>
       </c>
       <c r="C1187" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1187" t="s">
-        <v>1870</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B1188" s="2">
         <v>16032</v>
@@ -25339,57 +25378,57 @@
         <v>831</v>
       </c>
       <c r="D1188" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B1189" s="2">
-        <v>16033</v>
+        <v>16032</v>
       </c>
       <c r="C1189" t="s">
-        <v>48</v>
+        <v>822</v>
       </c>
       <c r="D1189" t="s">
-        <v>688</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B1190" s="2">
-        <v>16035</v>
+        <v>16032</v>
       </c>
       <c r="C1190" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1190" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B1191" s="2">
-        <v>16039</v>
+        <v>16033</v>
       </c>
       <c r="C1191" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="D1191" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>1864</v>
+        <v>1857</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>16035</v>
       </c>
       <c r="C1192" t="s">
         <v>822</v>
@@ -25400,167 +25439,167 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B1193" s="2">
-        <v>16041</v>
+        <v>16039</v>
       </c>
       <c r="C1193" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1193" t="s">
-        <v>86</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B1194" s="2">
-        <v>16042</v>
+        <v>1859</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1864</v>
       </c>
       <c r="C1194" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D1194" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B1195" s="2">
-        <v>16043</v>
+        <v>16041</v>
       </c>
       <c r="C1195" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1195" t="s">
-        <v>1873</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="B1196" s="2">
-        <v>16043</v>
+        <v>16042</v>
       </c>
       <c r="C1196" t="s">
-        <v>623</v>
+        <v>35</v>
       </c>
       <c r="D1196" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="B1197" s="2">
-        <v>16045</v>
+        <v>16043</v>
       </c>
       <c r="C1197" t="s">
-        <v>1895</v>
+        <v>162</v>
       </c>
       <c r="D1197" t="s">
-        <v>1897</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>1894</v>
+        <v>1874</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>16043</v>
       </c>
       <c r="C1198" t="s">
-        <v>1028</v>
+        <v>623</v>
       </c>
       <c r="D1198" t="s">
-        <v>494</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B1199" s="2">
-        <v>16047</v>
+        <v>16045</v>
       </c>
       <c r="C1199" t="s">
-        <v>681</v>
+        <v>1895</v>
       </c>
       <c r="D1199" t="s">
-        <v>1133</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B1200" s="2">
-        <v>16047</v>
+        <v>1876</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1894</v>
       </c>
       <c r="C1200" t="s">
-        <v>831</v>
+        <v>1028</v>
       </c>
       <c r="D1200" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B1201" s="2">
         <v>16047</v>
       </c>
       <c r="C1201" t="s">
-        <v>831</v>
+        <v>681</v>
       </c>
       <c r="D1201" t="s">
-        <v>400</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B1202" s="2">
-        <v>16049</v>
+        <v>16047</v>
       </c>
       <c r="C1202" t="s">
-        <v>2038</v>
+        <v>831</v>
       </c>
       <c r="D1202" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B1203" s="2">
-        <v>16049</v>
+        <v>16047</v>
       </c>
       <c r="C1203" t="s">
-        <v>682</v>
+        <v>831</v>
       </c>
       <c r="D1203" t="s">
-        <v>1907</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B1204" s="2">
-        <v>16054</v>
+        <v>16049</v>
       </c>
       <c r="C1204" t="s">
-        <v>822</v>
+        <v>2038</v>
       </c>
       <c r="D1204" t="s">
         <v>351</v>
@@ -25568,503 +25607,503 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B1205" s="2">
-        <v>16055</v>
+        <v>16049</v>
       </c>
       <c r="C1205" t="s">
-        <v>162</v>
+        <v>682</v>
       </c>
       <c r="D1205" t="s">
-        <v>539</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1206" s="2">
-        <v>16055</v>
+        <v>16054</v>
       </c>
       <c r="C1206" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1206" t="s">
-        <v>1898</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B1207" s="2">
-        <v>16058</v>
+        <v>16055</v>
       </c>
       <c r="C1207" t="s">
-        <v>1473</v>
+        <v>162</v>
       </c>
       <c r="D1207" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1208" s="2">
-        <v>16059</v>
+        <v>16055</v>
       </c>
       <c r="C1208" t="s">
         <v>831</v>
       </c>
       <c r="D1208" t="s">
-        <v>86</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1209" s="2">
-        <v>16060</v>
+        <v>16058</v>
       </c>
       <c r="C1209" t="s">
-        <v>162</v>
+        <v>1473</v>
       </c>
       <c r="D1209" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1210" s="2">
-        <v>16063</v>
+        <v>16059</v>
       </c>
       <c r="C1210" t="s">
-        <v>1896</v>
+        <v>831</v>
       </c>
       <c r="D1210" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1211" s="2">
-        <v>16064</v>
+        <v>16060</v>
       </c>
       <c r="C1211" t="s">
-        <v>1083</v>
+        <v>162</v>
       </c>
       <c r="D1211" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1212" s="2">
-        <v>16066</v>
+        <v>16063</v>
       </c>
       <c r="C1212" t="s">
-        <v>531</v>
+        <v>1896</v>
       </c>
       <c r="D1212" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1213" s="2">
-        <v>16067</v>
+        <v>16064</v>
       </c>
       <c r="C1213" t="s">
-        <v>1558</v>
+        <v>1083</v>
       </c>
       <c r="D1213" t="s">
-        <v>1899</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1214" s="2">
-        <v>16069</v>
+        <v>16066</v>
       </c>
       <c r="C1214" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1214" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B1215" s="2">
-        <v>16071</v>
+        <v>16067</v>
       </c>
       <c r="C1215" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1215" t="s">
-        <v>1869</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="B1216" s="2">
-        <v>16074</v>
+        <v>16069</v>
       </c>
       <c r="C1216" t="s">
-        <v>683</v>
+        <v>822</v>
       </c>
       <c r="D1216" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="B1217" s="2">
-        <v>16083</v>
+        <v>16071</v>
       </c>
       <c r="C1217" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1217" t="s">
-        <v>1943</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B1218" s="2">
-        <v>16085</v>
+        <v>16074</v>
       </c>
       <c r="C1218" t="s">
-        <v>2039</v>
+        <v>683</v>
       </c>
       <c r="D1218" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B1219" s="2">
-        <v>16085</v>
+        <v>16083</v>
       </c>
       <c r="C1219" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1219" t="s">
-        <v>86</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B1220" s="2">
         <v>16085</v>
       </c>
       <c r="C1220" t="s">
-        <v>831</v>
+        <v>2039</v>
       </c>
       <c r="D1220" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B1221" s="2">
-        <v>16086</v>
+        <v>16085</v>
       </c>
       <c r="C1221" t="s">
-        <v>2038</v>
+        <v>831</v>
       </c>
       <c r="D1221" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>1937</v>
+        <v>1912</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>16085</v>
       </c>
       <c r="C1222" t="s">
-        <v>25</v>
+        <v>831</v>
       </c>
       <c r="D1222" t="s">
-        <v>1328</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B1223" s="2">
-        <v>16087</v>
+        <v>16086</v>
       </c>
       <c r="C1223" t="s">
-        <v>1938</v>
+        <v>2038</v>
       </c>
       <c r="D1223" t="s">
-        <v>1133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B1224" s="2">
-        <v>16089</v>
+        <v>1914</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>1937</v>
       </c>
       <c r="C1224" t="s">
-        <v>831</v>
+        <v>25</v>
       </c>
       <c r="D1224" t="s">
-        <v>86</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B1225" s="2">
-        <v>16090</v>
+        <v>16087</v>
       </c>
       <c r="C1225" t="s">
-        <v>831</v>
+        <v>1938</v>
       </c>
       <c r="D1225" t="s">
-        <v>1944</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B1226" s="2">
-        <v>16092</v>
+        <v>16089</v>
       </c>
       <c r="C1226" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1226" t="s">
-        <v>1775</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B1227" s="2">
-        <v>16096</v>
+        <v>16090</v>
       </c>
       <c r="C1227" t="s">
-        <v>1087</v>
+        <v>831</v>
       </c>
       <c r="D1227" t="s">
-        <v>86</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B1228" s="2">
-        <v>16100</v>
+        <v>16092</v>
       </c>
       <c r="C1228" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1228" t="s">
-        <v>2040</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B1229" s="2">
-        <v>16103</v>
+        <v>16096</v>
       </c>
       <c r="C1229" t="s">
-        <v>822</v>
+        <v>1087</v>
       </c>
       <c r="D1229" t="s">
-        <v>2283</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B1230" s="2">
-        <v>16103</v>
+        <v>16100</v>
       </c>
       <c r="C1230" t="s">
-        <v>683</v>
+        <v>831</v>
       </c>
       <c r="D1230" t="s">
-        <v>2284</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B1231" s="2">
-        <v>16107</v>
+        <v>16103</v>
       </c>
       <c r="C1231" t="s">
-        <v>681</v>
+        <v>822</v>
       </c>
       <c r="D1231" t="s">
-        <v>1133</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B1232" s="2">
-        <v>16112</v>
+        <v>16103</v>
       </c>
       <c r="C1232" t="s">
-        <v>1939</v>
+        <v>683</v>
       </c>
       <c r="D1232" t="s">
-        <v>1945</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B1233" s="2">
-        <v>16113</v>
+        <v>16107</v>
       </c>
       <c r="C1233" t="s">
-        <v>2041</v>
+        <v>681</v>
       </c>
       <c r="D1233" t="s">
-        <v>1946</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B1234" s="2">
-        <v>16113</v>
+        <v>16112</v>
       </c>
       <c r="C1234" t="s">
-        <v>831</v>
+        <v>1939</v>
       </c>
       <c r="D1234" t="s">
-        <v>400</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B1235" s="2">
-        <v>16114</v>
+        <v>16113</v>
       </c>
       <c r="C1235" t="s">
-        <v>831</v>
+        <v>2041</v>
       </c>
       <c r="D1235" t="s">
-        <v>86</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B1236" s="2">
-        <v>16117</v>
+        <v>16113</v>
       </c>
       <c r="C1236" t="s">
         <v>831</v>
       </c>
       <c r="D1236" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B1237" s="2">
-        <v>16117</v>
+        <v>16114</v>
       </c>
       <c r="C1237" t="s">
-        <v>1940</v>
+        <v>831</v>
       </c>
       <c r="D1237" t="s">
-        <v>2285</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B1238" s="2">
-        <v>16118</v>
+        <v>16117</v>
       </c>
       <c r="C1238" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1238" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1239" s="2">
-        <v>16118</v>
+        <v>16117</v>
       </c>
       <c r="C1239" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D1239" t="s">
-        <v>351</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B1240" s="2">
-        <v>16120</v>
+        <v>16118</v>
       </c>
       <c r="C1240" t="s">
-        <v>1942</v>
+        <v>822</v>
       </c>
       <c r="D1240" t="s">
         <v>351</v>
@@ -26072,52 +26111,52 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1241" s="2">
-        <v>16121</v>
+        <v>16118</v>
       </c>
       <c r="C1241" t="s">
-        <v>52</v>
+        <v>1941</v>
       </c>
       <c r="D1241" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1242" s="2">
-        <v>16123</v>
+        <v>16120</v>
       </c>
       <c r="C1242" t="s">
-        <v>831</v>
+        <v>1942</v>
       </c>
       <c r="D1242" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1243" s="2">
-        <v>16124</v>
+        <v>16121</v>
       </c>
       <c r="C1243" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D1243" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B1244" s="2">
-        <v>16128</v>
+        <v>16123</v>
       </c>
       <c r="C1244" t="s">
         <v>831</v>
@@ -26128,136 +26167,136 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="B1245" s="2">
-        <v>16131</v>
+        <v>16124</v>
       </c>
       <c r="C1245" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1245" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1974</v>
+        <v>1936</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>16128</v>
       </c>
       <c r="C1246" t="s">
-        <v>1976</v>
+        <v>831</v>
       </c>
       <c r="D1246" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1247" s="2">
-        <v>16132</v>
+        <v>16131</v>
       </c>
       <c r="C1247" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1247" t="s">
-        <v>1359</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B1248" s="2">
-        <v>16132</v>
+        <v>1948</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1974</v>
       </c>
       <c r="C1248" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D1248" t="s">
-        <v>1983</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B1249" s="2">
-        <v>16136</v>
+        <v>16132</v>
       </c>
       <c r="C1249" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1249" t="s">
-        <v>1133</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B1250" s="2">
-        <v>16136</v>
+        <v>16132</v>
       </c>
       <c r="C1250" t="s">
-        <v>1558</v>
+        <v>1977</v>
       </c>
       <c r="D1250" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1251" s="2">
-        <v>16140</v>
+        <v>16136</v>
       </c>
       <c r="C1251" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1251" t="s">
-        <v>539</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B1252" s="2">
-        <v>16141</v>
+        <v>16136</v>
       </c>
       <c r="C1252" t="s">
-        <v>1772</v>
+        <v>1558</v>
       </c>
       <c r="D1252" t="s">
-        <v>86</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1253" s="2">
-        <v>16142</v>
+        <v>16140</v>
       </c>
       <c r="C1253" t="s">
-        <v>1772</v>
+        <v>162</v>
       </c>
       <c r="D1253" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>1975</v>
+        <v>1954</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>16141</v>
       </c>
       <c r="C1254" t="s">
         <v>1772</v>
@@ -26268,24 +26307,24 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1255" s="2">
-        <v>16143</v>
+        <v>16142</v>
       </c>
       <c r="C1255" t="s">
         <v>1772</v>
       </c>
       <c r="D1255" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1256" s="2">
-        <v>16144</v>
+        <v>1956</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1975</v>
       </c>
       <c r="C1256" t="s">
         <v>1772</v>
@@ -26296,133 +26335,133 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1257" s="2">
-        <v>16144</v>
+        <v>16143</v>
       </c>
       <c r="C1257" t="s">
         <v>1772</v>
       </c>
       <c r="D1257" t="s">
-        <v>1979</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B1258" s="2">
-        <v>16146</v>
+        <v>16144</v>
       </c>
       <c r="C1258" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1258" t="s">
-        <v>1980</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1259" s="2">
-        <v>16147</v>
+        <v>16144</v>
       </c>
       <c r="C1259" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1259" t="s">
-        <v>351</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B1260" s="2">
-        <v>16150</v>
+        <v>16146</v>
       </c>
       <c r="C1260" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1260" t="s">
-        <v>1359</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B1261" s="2">
-        <v>16150</v>
+        <v>16147</v>
       </c>
       <c r="C1261" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1261" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B1262" s="2">
-        <v>16151</v>
+        <v>16150</v>
       </c>
       <c r="C1262" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1262" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B1263" s="2">
-        <v>16152</v>
+        <v>16150</v>
       </c>
       <c r="C1263" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1263" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B1264" s="2">
-        <v>16154</v>
+        <v>16151</v>
       </c>
       <c r="C1264" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1264" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B1265" s="2">
-        <v>16154</v>
+        <v>16152</v>
       </c>
       <c r="C1265" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1265" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B1266" s="2">
         <v>16154</v>
@@ -26436,83 +26475,83 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B1267" s="2">
-        <v>16155</v>
+        <v>16154</v>
       </c>
       <c r="C1267" t="s">
-        <v>681</v>
+        <v>1772</v>
       </c>
       <c r="D1267" t="s">
-        <v>1981</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1268" s="2">
-        <v>16155</v>
+        <v>16154</v>
       </c>
       <c r="C1268" t="s">
         <v>1772</v>
       </c>
       <c r="D1268" t="s">
-        <v>1982</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B1269" s="2">
-        <v>16156</v>
+        <v>16155</v>
       </c>
       <c r="C1269" t="s">
-        <v>41</v>
+        <v>681</v>
       </c>
       <c r="D1269" t="s">
-        <v>400</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B1270" s="2">
-        <v>16157</v>
+        <v>16155</v>
       </c>
       <c r="C1270" t="s">
         <v>1772</v>
       </c>
       <c r="D1270" t="s">
-        <v>86</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B1271" s="2">
-        <v>16161</v>
+        <v>16156</v>
       </c>
       <c r="C1271" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="D1271" t="s">
-        <v>1984</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="B1272" s="2">
-        <v>16163</v>
+        <v>16157</v>
       </c>
       <c r="C1272" t="s">
-        <v>2016</v>
+        <v>1772</v>
       </c>
       <c r="D1272" t="s">
         <v>86</v>
@@ -26520,38 +26559,38 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="B1273" s="2">
-        <v>16163</v>
+        <v>16161</v>
       </c>
       <c r="C1273" t="s">
-        <v>831</v>
+        <v>385</v>
       </c>
       <c r="D1273" t="s">
-        <v>86</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1274" s="2">
-        <v>16166</v>
+        <v>16163</v>
       </c>
       <c r="C1274" t="s">
-        <v>35</v>
+        <v>2016</v>
       </c>
       <c r="D1274" t="s">
-        <v>1443</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1275" s="2">
-        <v>16169</v>
+        <v>16163</v>
       </c>
       <c r="C1275" t="s">
         <v>831</v>
@@ -26562,13 +26601,13 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B1276" s="2">
-        <v>16169</v>
+        <v>16166</v>
       </c>
       <c r="C1276" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1276" t="s">
         <v>1443</v>
@@ -26576,349 +26615,349 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1277" s="2">
-        <v>16172</v>
+        <v>16169</v>
       </c>
       <c r="C1277" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1277" t="s">
-        <v>2023</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1278" s="2">
-        <v>16174</v>
+        <v>16169</v>
       </c>
       <c r="C1278" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1278" t="s">
-        <v>86</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1279" s="2">
-        <v>16174</v>
+        <v>16172</v>
       </c>
       <c r="C1279" t="s">
-        <v>2017</v>
+        <v>162</v>
       </c>
       <c r="D1279" t="s">
-        <v>1443</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1280" s="2">
-        <v>16175</v>
+        <v>16174</v>
       </c>
       <c r="C1280" t="s">
-        <v>149</v>
+        <v>831</v>
       </c>
       <c r="D1280" t="s">
-        <v>2024</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1281" s="2">
-        <v>16177</v>
+        <v>16174</v>
       </c>
       <c r="C1281" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D1281" t="s">
-        <v>2025</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1282" s="2">
-        <v>16179</v>
+        <v>16175</v>
       </c>
       <c r="C1282" t="s">
-        <v>2019</v>
+        <v>149</v>
       </c>
       <c r="D1282" t="s">
-        <v>351</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1283" s="2">
-        <v>16180</v>
+        <v>16177</v>
       </c>
       <c r="C1283" t="s">
-        <v>162</v>
+        <v>2018</v>
       </c>
       <c r="D1283" t="s">
-        <v>86</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1284" s="2">
-        <v>16181</v>
+        <v>16179</v>
       </c>
       <c r="C1284" t="s">
-        <v>831</v>
+        <v>2019</v>
       </c>
       <c r="D1284" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1285" s="2">
-        <v>16181</v>
+        <v>16180</v>
       </c>
       <c r="C1285" t="s">
-        <v>2020</v>
+        <v>162</v>
       </c>
       <c r="D1285" t="s">
-        <v>1166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B1286" s="2">
-        <v>16183</v>
+        <v>16181</v>
       </c>
       <c r="C1286" t="s">
         <v>831</v>
       </c>
       <c r="D1286" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1287" s="2">
-        <v>16194</v>
+        <v>16181</v>
       </c>
       <c r="C1287" t="s">
-        <v>968</v>
+        <v>2020</v>
       </c>
       <c r="D1287" t="s">
-        <v>2026</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B1288" s="2">
-        <v>16197</v>
+        <v>16183</v>
       </c>
       <c r="C1288" t="s">
-        <v>642</v>
+        <v>831</v>
       </c>
       <c r="D1288" t="s">
-        <v>2027</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1289" s="2">
-        <v>16198</v>
+        <v>16194</v>
       </c>
       <c r="C1289" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1289" t="s">
-        <v>1359</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1290" s="2">
-        <v>16209</v>
+        <v>16197</v>
       </c>
       <c r="C1290" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1290" t="s">
-        <v>210</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B1291" s="2">
-        <v>16210</v>
+        <v>16198</v>
       </c>
       <c r="C1291" t="s">
-        <v>2021</v>
+        <v>162</v>
       </c>
       <c r="D1291" t="s">
-        <v>2028</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B1292" s="2">
-        <v>16210</v>
+        <v>16209</v>
       </c>
       <c r="C1292" t="s">
-        <v>2022</v>
+        <v>162</v>
       </c>
       <c r="D1292" t="s">
-        <v>2031</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B1293" s="2">
-        <v>16213</v>
+        <v>16210</v>
       </c>
       <c r="C1293" t="s">
-        <v>831</v>
+        <v>2021</v>
       </c>
       <c r="D1293" t="s">
-        <v>86</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B1294" s="2">
-        <v>16214</v>
+        <v>16210</v>
       </c>
       <c r="C1294" t="s">
-        <v>162</v>
+        <v>2022</v>
       </c>
       <c r="D1294" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B1295" s="2">
-        <v>16218</v>
+        <v>16213</v>
       </c>
       <c r="C1295" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1295" t="s">
-        <v>2030</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B1296" s="2">
-        <v>16219</v>
+        <v>16214</v>
       </c>
       <c r="C1296" t="s">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="D1296" t="s">
-        <v>740</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B1297" s="2">
-        <v>16226</v>
+        <v>16218</v>
       </c>
       <c r="C1297" t="s">
-        <v>1085</v>
+        <v>725</v>
       </c>
       <c r="D1297" t="s">
-        <v>1811</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1298" s="2">
-        <v>16228</v>
+        <v>16219</v>
       </c>
       <c r="C1298" t="s">
-        <v>162</v>
+        <v>683</v>
       </c>
       <c r="D1298" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B1299" s="2">
-        <v>16228</v>
+        <v>16226</v>
       </c>
       <c r="C1299" t="s">
-        <v>162</v>
+        <v>1085</v>
       </c>
       <c r="D1299" t="s">
-        <v>1359</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B1300" s="2">
-        <v>16229</v>
+        <v>16228</v>
       </c>
       <c r="C1300" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1300" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B1301" s="2">
-        <v>16236</v>
+        <v>16228</v>
       </c>
       <c r="C1301" t="s">
-        <v>725</v>
+        <v>162</v>
       </c>
       <c r="D1301" t="s">
         <v>1359</v>
@@ -26926,83 +26965,83 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B1302" s="2">
-        <v>16237</v>
+        <v>16229</v>
       </c>
       <c r="C1302" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1302" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2042</v>
+        <v>2014</v>
       </c>
       <c r="B1303" s="2">
-        <v>16254</v>
+        <v>16236</v>
       </c>
       <c r="C1303" t="s">
-        <v>162</v>
+        <v>725</v>
       </c>
       <c r="D1303" t="s">
-        <v>539</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="B1304" s="2">
-        <v>16255</v>
+        <v>16237</v>
       </c>
       <c r="C1304" t="s">
-        <v>2049</v>
+        <v>162</v>
       </c>
       <c r="D1304" t="s">
-        <v>2024</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B1305" s="2">
-        <v>16258</v>
+        <v>16254</v>
       </c>
       <c r="C1305" t="s">
-        <v>2050</v>
+        <v>162</v>
       </c>
       <c r="D1305" t="s">
-        <v>1520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B1306" s="2">
-        <v>16258</v>
+        <v>16255</v>
       </c>
       <c r="C1306" t="s">
-        <v>1087</v>
+        <v>2049</v>
       </c>
       <c r="D1306" t="s">
-        <v>2052</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B1307" s="2">
-        <v>16266</v>
+        <v>16258</v>
       </c>
       <c r="C1307" t="s">
-        <v>531</v>
+        <v>2050</v>
       </c>
       <c r="D1307" t="s">
         <v>1520</v>
@@ -27010,195 +27049,195 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B1308" s="2">
-        <v>16276</v>
+        <v>16258</v>
       </c>
       <c r="C1308" t="s">
-        <v>2051</v>
+        <v>1087</v>
       </c>
       <c r="D1308" t="s">
-        <v>2286</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1309" s="2">
-        <v>16277</v>
+        <v>16266</v>
       </c>
       <c r="C1309" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1309" t="s">
-        <v>2053</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="B1310" s="2">
-        <v>16291</v>
+        <v>16276</v>
       </c>
       <c r="C1310" t="s">
-        <v>728</v>
+        <v>2051</v>
       </c>
       <c r="D1310" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="B1311" s="2">
-        <v>16297</v>
+        <v>16277</v>
       </c>
       <c r="C1311" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1311" t="s">
-        <v>2087</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B1312" s="2">
-        <v>16299</v>
+        <v>16291</v>
       </c>
       <c r="C1312" t="s">
-        <v>162</v>
+        <v>728</v>
       </c>
       <c r="D1312" t="s">
-        <v>538</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B1313" s="2">
-        <v>16301</v>
+        <v>16297</v>
       </c>
       <c r="C1313" t="s">
-        <v>184</v>
+        <v>531</v>
       </c>
       <c r="D1313" t="s">
-        <v>1626</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B1314" s="2">
-        <v>16304</v>
+        <v>16299</v>
       </c>
       <c r="C1314" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1314" t="s">
-        <v>1205</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B1315" s="2">
-        <v>16308</v>
+        <v>16301</v>
       </c>
       <c r="C1315" t="s">
-        <v>2084</v>
+        <v>184</v>
       </c>
       <c r="D1315" t="s">
-        <v>53</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B1316" s="2">
-        <v>16308</v>
+        <v>16304</v>
       </c>
       <c r="C1316" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1316" t="s">
-        <v>539</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B1317" s="2">
-        <v>16313</v>
+        <v>16308</v>
       </c>
       <c r="C1317" t="s">
-        <v>725</v>
+        <v>2084</v>
       </c>
       <c r="D1317" t="s">
-        <v>1359</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B1318" s="2">
-        <v>16315</v>
+        <v>16308</v>
       </c>
       <c r="C1318" t="s">
-        <v>2085</v>
+        <v>162</v>
       </c>
       <c r="D1318" t="s">
-        <v>1205</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B1319" s="2">
-        <v>16333</v>
+        <v>16313</v>
       </c>
       <c r="C1319" t="s">
-        <v>2086</v>
+        <v>725</v>
       </c>
       <c r="D1319" t="s">
-        <v>210</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B1320" s="2">
-        <v>16333</v>
+        <v>16315</v>
       </c>
       <c r="C1320" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D1320" t="s">
-        <v>210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B1321" s="2">
         <v>16333</v>
       </c>
       <c r="C1321" t="s">
-        <v>831</v>
+        <v>2086</v>
       </c>
       <c r="D1321" t="s">
         <v>210</v>
@@ -27206,24 +27245,24 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="B1322" s="2">
-        <v>16334</v>
+        <v>16333</v>
       </c>
       <c r="C1322" t="s">
-        <v>831</v>
+        <v>2086</v>
       </c>
       <c r="D1322" t="s">
-        <v>2288</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>2083</v>
+        <v>2065</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>16333</v>
       </c>
       <c r="C1323" t="s">
         <v>831</v>
@@ -27234,209 +27273,209 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B1324" s="2">
-        <v>16340</v>
+        <v>16334</v>
       </c>
       <c r="C1324" t="s">
-        <v>52</v>
+        <v>831</v>
       </c>
       <c r="D1324" t="s">
-        <v>2088</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B1325" s="2">
-        <v>16341</v>
+        <v>2067</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2083</v>
       </c>
       <c r="C1325" t="s">
         <v>831</v>
       </c>
       <c r="D1325" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B1326" s="2">
-        <v>16342</v>
+        <v>16340</v>
       </c>
       <c r="C1326" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D1326" t="s">
-        <v>2024</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B1327" s="2">
-        <v>16343</v>
+        <v>16341</v>
       </c>
       <c r="C1327" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
       <c r="D1327" t="s">
-        <v>2024</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B1328" s="2">
-        <v>16346</v>
+        <v>16342</v>
       </c>
       <c r="C1328" t="s">
-        <v>726</v>
+        <v>149</v>
       </c>
       <c r="D1328" t="s">
-        <v>2091</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1329" s="2">
-        <v>16347</v>
+        <v>16343</v>
       </c>
       <c r="C1329" t="s">
         <v>726</v>
       </c>
       <c r="D1329" t="s">
-        <v>2089</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B1330" s="2">
-        <v>16347</v>
+        <v>16346</v>
       </c>
       <c r="C1330" t="s">
-        <v>831</v>
+        <v>726</v>
       </c>
       <c r="D1330" t="s">
-        <v>86</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1331" s="2">
-        <v>16349</v>
+        <v>16347</v>
       </c>
       <c r="C1331" t="s">
-        <v>1083</v>
+        <v>726</v>
       </c>
       <c r="D1331" t="s">
-        <v>400</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1332" s="2">
-        <v>16354</v>
+        <v>16347</v>
       </c>
       <c r="C1332" t="s">
-        <v>48</v>
+        <v>831</v>
       </c>
       <c r="D1332" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1333" s="2">
-        <v>16354</v>
+        <v>16349</v>
       </c>
       <c r="C1333" t="s">
-        <v>623</v>
+        <v>1083</v>
       </c>
       <c r="D1333" t="s">
-        <v>1248</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B1334" s="2">
-        <v>16356</v>
+        <v>16354</v>
       </c>
       <c r="C1334" t="s">
-        <v>623</v>
+        <v>48</v>
       </c>
       <c r="D1334" t="s">
-        <v>2289</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B1335" s="2">
-        <v>16356</v>
+        <v>16354</v>
       </c>
       <c r="C1335" t="s">
-        <v>162</v>
+        <v>623</v>
       </c>
       <c r="D1335" t="s">
-        <v>86</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1336" s="2">
-        <v>16357</v>
+        <v>16356</v>
       </c>
       <c r="C1336" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
       <c r="D1336" t="s">
-        <v>2090</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B1337" s="2">
-        <v>16357</v>
+        <v>16356</v>
       </c>
       <c r="C1337" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1337" t="s">
-        <v>975</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B1338" s="2">
-        <v>16358</v>
+        <v>16357</v>
       </c>
       <c r="C1338" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1338" t="s">
         <v>2090</v>
@@ -27444,307 +27483,307 @@
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>2094</v>
+        <v>2081</v>
       </c>
       <c r="B1339" s="2">
-        <v>16359</v>
+        <v>16357</v>
       </c>
       <c r="C1339" t="s">
-        <v>623</v>
+        <v>789</v>
       </c>
       <c r="D1339" t="s">
-        <v>401</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="B1340" s="2">
-        <v>16359</v>
+        <v>16358</v>
       </c>
       <c r="C1340" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1340" t="s">
-        <v>2116</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1341" s="2">
-        <v>16360</v>
+        <v>16359</v>
       </c>
       <c r="C1341" t="s">
-        <v>1558</v>
+        <v>623</v>
       </c>
       <c r="D1341" t="s">
-        <v>1899</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B1342" s="2">
-        <v>16362</v>
+        <v>16359</v>
       </c>
       <c r="C1342" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1342" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1343" s="2">
-        <v>16389</v>
+        <v>16360</v>
       </c>
       <c r="C1343" t="s">
-        <v>1083</v>
+        <v>1558</v>
       </c>
       <c r="D1343" t="s">
-        <v>2118</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B1344" s="2">
-        <v>16391</v>
+        <v>16362</v>
       </c>
       <c r="C1344" t="s">
-        <v>2112</v>
+        <v>162</v>
       </c>
       <c r="D1344" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B1345" s="2">
-        <v>16405</v>
+        <v>16389</v>
       </c>
       <c r="C1345" t="s">
-        <v>149</v>
+        <v>1083</v>
       </c>
       <c r="D1345" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B1346" s="2">
-        <v>16405</v>
+        <v>16391</v>
       </c>
       <c r="C1346" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D1346" t="s">
-        <v>1290</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1347" s="2">
-        <v>16406</v>
+        <v>16405</v>
       </c>
       <c r="C1347" t="s">
-        <v>725</v>
+        <v>149</v>
       </c>
       <c r="D1347" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B1348" s="2">
-        <v>16409</v>
+        <v>16405</v>
       </c>
       <c r="C1348" t="s">
-        <v>2264</v>
+        <v>2113</v>
       </c>
       <c r="D1348" t="s">
-        <v>351</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1349" s="2">
-        <v>16414</v>
+        <v>16406</v>
       </c>
       <c r="C1349" t="s">
-        <v>2114</v>
+        <v>725</v>
       </c>
       <c r="D1349" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B1350" s="2">
-        <v>16415</v>
+        <v>16409</v>
       </c>
       <c r="C1350" t="s">
-        <v>52</v>
+        <v>2264</v>
       </c>
       <c r="D1350" t="s">
-        <v>1626</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1351" s="2">
-        <v>16416</v>
+        <v>16414</v>
       </c>
       <c r="C1351" t="s">
-        <v>35</v>
+        <v>2114</v>
       </c>
       <c r="D1351" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B1352" s="2">
-        <v>16416</v>
+        <v>16415</v>
       </c>
       <c r="C1352" t="s">
-        <v>789</v>
+        <v>52</v>
       </c>
       <c r="D1352" t="s">
-        <v>93</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1353" s="2">
-        <v>16419</v>
+        <v>16416</v>
       </c>
       <c r="C1353" t="s">
-        <v>728</v>
+        <v>35</v>
       </c>
       <c r="D1353" t="s">
-        <v>2123</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B1354" s="2">
-        <v>16425</v>
+        <v>16416</v>
       </c>
       <c r="C1354" t="s">
-        <v>1866</v>
+        <v>789</v>
       </c>
       <c r="D1354" t="s">
-        <v>2124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1355" s="2">
-        <v>16431</v>
+        <v>16419</v>
       </c>
       <c r="C1355" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D1355" t="s">
-        <v>1626</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B1356" s="2">
-        <v>16432</v>
+        <v>16425</v>
       </c>
       <c r="C1356" t="s">
-        <v>679</v>
+        <v>1866</v>
       </c>
       <c r="D1356" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2126</v>
+        <v>2110</v>
       </c>
       <c r="B1357" s="2">
-        <v>16432</v>
+        <v>16431</v>
       </c>
       <c r="C1357" t="s">
-        <v>2115</v>
+        <v>725</v>
       </c>
       <c r="D1357" t="s">
-        <v>1443</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>2156</v>
+        <v>2111</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>16432</v>
       </c>
       <c r="C1358" t="s">
-        <v>789</v>
+        <v>679</v>
       </c>
       <c r="D1358" t="s">
-        <v>1444</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>2156</v>
+        <v>2126</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>16432</v>
       </c>
       <c r="C1359" t="s">
-        <v>728</v>
+        <v>2115</v>
       </c>
       <c r="D1359" t="s">
-        <v>401</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1360" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C1360" t="s">
-        <v>623</v>
+        <v>789</v>
       </c>
       <c r="D1360" t="s">
         <v>1444</v>
@@ -27752,106 +27791,100 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B1361" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C1361" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D1361" t="s">
-        <v>2163</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B1362" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C1362" t="s">
-        <v>968</v>
+        <v>623</v>
       </c>
       <c r="D1362" t="s">
-        <v>2026</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B1363" t="s">
         <v>2158</v>
       </c>
       <c r="C1363" t="s">
-        <v>1559</v>
+        <v>726</v>
       </c>
       <c r="D1363" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B1364" s="2">
-        <v>16441</v>
+        <v>2131</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2158</v>
       </c>
       <c r="C1364" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1364" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B1365" s="2">
-        <v>16442</v>
+        <v>2132</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2158</v>
       </c>
       <c r="C1365" t="s">
-        <v>2160</v>
+        <v>1559</v>
       </c>
       <c r="D1365" t="s">
-        <v>2026</v>
-      </c>
-      <c r="I1365" t="s">
-        <v>2202</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B1366" s="2">
-        <v>16442</v>
+        <v>16441</v>
       </c>
       <c r="C1366" t="s">
-        <v>789</v>
+        <v>1124</v>
       </c>
       <c r="D1366" t="s">
-        <v>975</v>
-      </c>
-      <c r="I1366" t="s">
-        <v>2202</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B1367" s="2">
         <v>16442</v>
       </c>
       <c r="C1367" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D1367" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1367" t="s">
         <v>2202</v>
@@ -27859,16 +27892,16 @@
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B1368" s="2">
-        <v>16443</v>
+        <v>16442</v>
       </c>
       <c r="C1368" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1368" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1368" t="s">
         <v>2202</v>
@@ -27876,16 +27909,16 @@
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B1369" s="2">
-        <v>16448</v>
+        <v>16442</v>
       </c>
       <c r="C1369" t="s">
-        <v>2265</v>
+        <v>2161</v>
       </c>
       <c r="D1369" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1369" t="s">
         <v>2202</v>
@@ -27893,16 +27926,16 @@
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B1370" s="2">
-        <v>16449</v>
+        <v>16443</v>
       </c>
       <c r="C1370" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1370" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1370" t="s">
         <v>2202</v>
@@ -27910,16 +27943,16 @@
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B1371" s="2">
-        <v>16449</v>
+        <v>16448</v>
       </c>
       <c r="C1371" t="s">
-        <v>623</v>
+        <v>2265</v>
       </c>
       <c r="D1371" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1371" t="s">
         <v>2202</v>
@@ -27927,16 +27960,16 @@
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B1372" s="2">
-        <v>16451</v>
+        <v>16449</v>
       </c>
       <c r="C1372" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1372" t="s">
-        <v>400</v>
+        <v>975</v>
       </c>
       <c r="I1372" t="s">
         <v>2202</v>
@@ -27944,16 +27977,16 @@
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B1373" s="2">
-        <v>16452</v>
+        <v>16449</v>
       </c>
       <c r="C1373" t="s">
-        <v>2162</v>
+        <v>623</v>
       </c>
       <c r="D1373" t="s">
-        <v>2026</v>
+        <v>975</v>
       </c>
       <c r="I1373" t="s">
         <v>2202</v>
@@ -27961,16 +27994,16 @@
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B1374" s="2">
-        <v>16453</v>
+        <v>16451</v>
       </c>
       <c r="C1374" t="s">
-        <v>1124</v>
+        <v>831</v>
       </c>
       <c r="D1374" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="I1374" t="s">
         <v>2202</v>
@@ -27978,16 +28011,16 @@
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="B1375" s="2">
-        <v>16454</v>
+        <v>16452</v>
       </c>
       <c r="C1375" t="s">
-        <v>1441</v>
+        <v>2162</v>
       </c>
       <c r="D1375" t="s">
-        <v>2165</v>
+        <v>2026</v>
       </c>
       <c r="I1375" t="s">
         <v>2202</v>
@@ -27995,10 +28028,10 @@
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B1376" s="2">
-        <v>16454</v>
+        <v>16453</v>
       </c>
       <c r="C1376" t="s">
         <v>1124</v>
@@ -28012,16 +28045,16 @@
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B1377" s="2">
-        <v>16457</v>
+        <v>16454</v>
       </c>
       <c r="C1377" t="s">
-        <v>2397</v>
+        <v>1441</v>
       </c>
       <c r="D1377" t="s">
-        <v>494</v>
+        <v>2165</v>
       </c>
       <c r="I1377" t="s">
         <v>2202</v>
@@ -28029,16 +28062,16 @@
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B1378" s="2">
-        <v>16458</v>
+        <v>16454</v>
       </c>
       <c r="C1378" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1378" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1378" t="s">
         <v>2202</v>
@@ -28046,13 +28079,13 @@
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="B1379" s="2">
-        <v>16458</v>
+        <v>16457</v>
       </c>
       <c r="C1379" t="s">
-        <v>822</v>
+        <v>2397</v>
       </c>
       <c r="D1379" t="s">
         <v>494</v>
@@ -28063,16 +28096,16 @@
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B1380" s="2">
-        <v>16465</v>
+        <v>16458</v>
       </c>
       <c r="C1380" t="s">
-        <v>35</v>
+        <v>968</v>
       </c>
       <c r="D1380" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1380" t="s">
         <v>2202</v>
@@ -28080,16 +28113,16 @@
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B1381" s="2">
-        <v>16466</v>
+        <v>16458</v>
       </c>
       <c r="C1381" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1381" t="s">
-        <v>2166</v>
+        <v>494</v>
       </c>
       <c r="I1381" t="s">
         <v>2202</v>
@@ -28097,16 +28130,16 @@
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B1382" s="2">
-        <v>16467</v>
+        <v>16465</v>
       </c>
       <c r="C1382" t="s">
-        <v>446</v>
+        <v>35</v>
       </c>
       <c r="D1382" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="I1382" t="s">
         <v>2202</v>
@@ -28114,16 +28147,16 @@
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B1383" s="2">
-        <v>16468</v>
+        <v>16466</v>
       </c>
       <c r="C1383" t="s">
-        <v>1895</v>
+        <v>162</v>
       </c>
       <c r="D1383" t="s">
-        <v>494</v>
+        <v>2166</v>
       </c>
       <c r="I1383" t="s">
         <v>2202</v>
@@ -28131,10 +28164,10 @@
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>2159</v>
+        <v>2151</v>
+      </c>
+      <c r="B1384" s="2">
+        <v>16467</v>
       </c>
       <c r="C1384" t="s">
         <v>446</v>
@@ -28148,16 +28181,16 @@
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B1385" s="2">
-        <v>16469</v>
+        <v>16468</v>
       </c>
       <c r="C1385" t="s">
-        <v>1281</v>
+        <v>1895</v>
       </c>
       <c r="D1385" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
       <c r="I1385" t="s">
         <v>2202</v>
@@ -28165,16 +28198,16 @@
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B1386" s="2">
-        <v>16471</v>
+        <v>2153</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2159</v>
       </c>
       <c r="C1386" t="s">
-        <v>789</v>
+        <v>446</v>
       </c>
       <c r="D1386" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I1386" t="s">
         <v>2202</v>
@@ -28182,13 +28215,13 @@
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="B1387" s="2">
         <v>16469</v>
       </c>
       <c r="C1387" t="s">
-        <v>1124</v>
+        <v>1281</v>
       </c>
       <c r="D1387" t="s">
         <v>2122</v>
@@ -28205,7 +28238,7 @@
         <v>16471</v>
       </c>
       <c r="C1388" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1388" t="s">
         <v>401</v>
@@ -28216,16 +28249,16 @@
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1389" s="2">
-        <v>16471</v>
+        <v>16469</v>
       </c>
       <c r="C1389" t="s">
         <v>1124</v>
       </c>
       <c r="D1389" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
       <c r="I1389" t="s">
         <v>2202</v>
@@ -28233,16 +28266,16 @@
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2169</v>
+        <v>2155</v>
       </c>
       <c r="B1390" s="2">
-        <v>16472</v>
+        <v>16471</v>
       </c>
       <c r="C1390" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1390" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="I1390" t="s">
         <v>2202</v>
@@ -28250,13 +28283,13 @@
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1391" s="2">
-        <v>16474</v>
+        <v>16471</v>
       </c>
       <c r="C1391" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1391" t="s">
         <v>494</v>
@@ -28267,16 +28300,16 @@
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B1392" s="2">
-        <v>16475</v>
+        <v>16472</v>
       </c>
       <c r="C1392" t="s">
-        <v>2197</v>
+        <v>162</v>
       </c>
       <c r="D1392" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="I1392" t="s">
         <v>2202</v>
@@ -28284,16 +28317,16 @@
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1393" s="2">
-        <v>16477</v>
+        <v>16474</v>
       </c>
       <c r="C1393" t="s">
-        <v>865</v>
+        <v>822</v>
       </c>
       <c r="D1393" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1393" t="s">
         <v>2202</v>
@@ -28301,16 +28334,16 @@
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B1394" s="2">
-        <v>16478</v>
+        <v>16475</v>
       </c>
       <c r="C1394" t="s">
-        <v>2162</v>
+        <v>2197</v>
       </c>
       <c r="D1394" t="s">
-        <v>2122</v>
+        <v>86</v>
       </c>
       <c r="I1394" t="s">
         <v>2202</v>
@@ -28318,16 +28351,16 @@
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1395" s="2">
-        <v>16478</v>
+        <v>16477</v>
       </c>
       <c r="C1395" t="s">
-        <v>446</v>
+        <v>865</v>
       </c>
       <c r="D1395" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
       <c r="I1395" t="s">
         <v>2202</v>
@@ -28335,13 +28368,16 @@
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1396" s="2">
-        <v>16480</v>
+        <v>16478</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>2162</v>
       </c>
       <c r="D1396" t="s">
-        <v>2026</v>
+        <v>2122</v>
       </c>
       <c r="I1396" t="s">
         <v>2202</v>
@@ -28349,16 +28385,16 @@
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>2196</v>
+        <v>2174</v>
+      </c>
+      <c r="B1397" s="2">
+        <v>16478</v>
       </c>
       <c r="C1397" t="s">
-        <v>2198</v>
+        <v>446</v>
       </c>
       <c r="D1397" t="s">
-        <v>400</v>
+        <v>688</v>
       </c>
       <c r="I1397" t="s">
         <v>2202</v>
@@ -28366,16 +28402,13 @@
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1398" s="2">
-        <v>16481</v>
-      </c>
-      <c r="C1398" t="s">
-        <v>162</v>
+        <v>16480</v>
       </c>
       <c r="D1398" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1398" t="s">
         <v>2202</v>
@@ -28383,16 +28416,16 @@
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B1399" s="2">
-        <v>16482</v>
+        <v>2176</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2196</v>
       </c>
       <c r="C1399" t="s">
-        <v>1124</v>
+        <v>2198</v>
       </c>
       <c r="D1399" t="s">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="I1399" t="s">
         <v>2202</v>
@@ -28400,16 +28433,16 @@
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1400" s="2">
-        <v>16482</v>
+        <v>16481</v>
       </c>
       <c r="C1400" t="s">
-        <v>2039</v>
+        <v>162</v>
       </c>
       <c r="D1400" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1400" t="s">
         <v>2202</v>
@@ -28417,16 +28450,16 @@
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1401" s="2">
-        <v>16483</v>
+        <v>16482</v>
       </c>
       <c r="C1401" t="s">
-        <v>2039</v>
+        <v>1124</v>
       </c>
       <c r="D1401" t="s">
-        <v>86</v>
+        <v>2200</v>
       </c>
       <c r="I1401" t="s">
         <v>2202</v>
@@ -28434,16 +28467,16 @@
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B1402" s="2">
-        <v>16493</v>
+        <v>16482</v>
       </c>
       <c r="C1402" t="s">
-        <v>831</v>
+        <v>2039</v>
       </c>
       <c r="D1402" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1402" t="s">
         <v>2202</v>
@@ -28451,128 +28484,134 @@
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1403" s="2">
-        <v>16493</v>
+        <v>16483</v>
       </c>
       <c r="C1403" t="s">
-        <v>41</v>
+        <v>2039</v>
       </c>
       <c r="D1403" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="I1403" t="s">
-        <v>2290</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B1404" s="2">
-        <v>16495</v>
+        <v>16493</v>
       </c>
       <c r="C1404" t="s">
-        <v>48</v>
+        <v>831</v>
       </c>
       <c r="D1404" t="s">
-        <v>2201</v>
+        <v>494</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1405" s="2">
-        <v>16500</v>
+        <v>16493</v>
       </c>
       <c r="C1405" t="s">
-        <v>968</v>
+        <v>41</v>
       </c>
       <c r="D1405" t="s">
-        <v>150</v>
+        <v>351</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>2290</v>
       </c>
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="B1406" s="2">
-        <v>16500</v>
+        <v>16495</v>
       </c>
       <c r="C1406" t="s">
-        <v>2039</v>
+        <v>48</v>
       </c>
       <c r="D1406" t="s">
-        <v>1248</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1407" s="2">
-        <v>16501</v>
+        <v>16500</v>
       </c>
       <c r="C1407" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1407" t="s">
-        <v>2036</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B1408" s="2">
-        <v>16501</v>
+        <v>16500</v>
       </c>
       <c r="C1408" t="s">
-        <v>1895</v>
+        <v>2039</v>
       </c>
       <c r="D1408" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B1409" s="2">
-        <v>16502</v>
+        <v>16501</v>
       </c>
       <c r="C1409" t="s">
-        <v>1895</v>
+        <v>1124</v>
       </c>
       <c r="D1409" t="s">
-        <v>494</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="B1410" s="2">
-        <v>16503</v>
+        <v>16501</v>
       </c>
       <c r="C1410" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1410" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="B1411" s="2">
-        <v>16503</v>
+        <v>16502</v>
       </c>
       <c r="C1411" t="s">
-        <v>1124</v>
+        <v>1895</v>
       </c>
       <c r="D1411" t="s">
         <v>494</v>
@@ -28580,27 +28619,27 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B1412" s="2">
         <v>16503</v>
       </c>
       <c r="C1412" t="s">
-        <v>2039</v>
+        <v>822</v>
       </c>
       <c r="D1412" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B1413" s="2">
-        <v>16513</v>
+        <v>16503</v>
       </c>
       <c r="C1413" t="s">
-        <v>681</v>
+        <v>1124</v>
       </c>
       <c r="D1413" t="s">
         <v>494</v>
@@ -28608,13 +28647,13 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="B1414" s="2">
-        <v>16514</v>
+        <v>16503</v>
       </c>
       <c r="C1414" t="s">
-        <v>35</v>
+        <v>2039</v>
       </c>
       <c r="D1414" t="s">
         <v>351</v>
@@ -28622,226 +28661,226 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1415" s="2">
-        <v>16521</v>
+        <v>16513</v>
       </c>
       <c r="C1415" t="s">
-        <v>2199</v>
+        <v>681</v>
       </c>
       <c r="D1415" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B1416" s="2">
-        <v>16522</v>
+        <v>16514</v>
       </c>
       <c r="C1416" t="s">
-        <v>343</v>
+        <v>35</v>
       </c>
       <c r="D1416" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1416" t="s">
-        <v>2203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="B1417" s="2">
-        <v>16523</v>
+        <v>16521</v>
       </c>
       <c r="C1417" t="s">
         <v>2199</v>
       </c>
       <c r="D1417" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="B1418" s="2">
-        <v>16524</v>
+        <v>16522</v>
       </c>
       <c r="C1418" t="s">
         <v>343</v>
       </c>
       <c r="D1418" t="s">
-        <v>2226</v>
+        <v>494</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B1419" s="2">
-        <v>16525</v>
+        <v>16523</v>
       </c>
       <c r="C1419" t="s">
-        <v>343</v>
+        <v>2199</v>
       </c>
       <c r="D1419" t="s">
-        <v>794</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B1420" s="2">
-        <v>16530</v>
+        <v>16524</v>
       </c>
       <c r="C1420" t="s">
-        <v>1895</v>
+        <v>343</v>
       </c>
       <c r="D1420" t="s">
-        <v>494</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B1421" s="2">
-        <v>16531</v>
+        <v>16525</v>
       </c>
       <c r="C1421" t="s">
-        <v>725</v>
+        <v>343</v>
       </c>
       <c r="D1421" t="s">
-        <v>351</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B1422" s="2">
-        <v>16531</v>
+        <v>16530</v>
       </c>
       <c r="C1422" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1422" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1423" s="2">
-        <v>16532</v>
+        <v>16531</v>
       </c>
       <c r="C1423" t="s">
-        <v>968</v>
+        <v>725</v>
       </c>
       <c r="D1423" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B1424" s="2">
-        <v>16532</v>
+        <v>16531</v>
       </c>
       <c r="C1424" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1424" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1425" s="2">
-        <v>16537</v>
+        <v>16532</v>
       </c>
       <c r="C1425" t="s">
-        <v>1401</v>
+        <v>968</v>
       </c>
       <c r="D1425" t="s">
-        <v>2291</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B1426" s="2">
-        <v>16537</v>
+        <v>16532</v>
       </c>
       <c r="C1426" t="s">
-        <v>2266</v>
+        <v>1895</v>
       </c>
       <c r="D1426" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1427" s="2">
-        <v>16538</v>
+        <v>16537</v>
       </c>
       <c r="C1427" t="s">
-        <v>1124</v>
+        <v>1401</v>
       </c>
       <c r="D1427" t="s">
-        <v>494</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B1428" s="2">
-        <v>16539</v>
+        <v>16537</v>
       </c>
       <c r="C1428" t="s">
-        <v>2225</v>
+        <v>2266</v>
       </c>
       <c r="D1428" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1429" s="2">
-        <v>16540</v>
+        <v>16538</v>
       </c>
       <c r="C1429" t="s">
-        <v>343</v>
+        <v>1124</v>
       </c>
       <c r="D1429" t="s">
-        <v>2227</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B1430" s="2">
-        <v>16549</v>
+        <v>16539</v>
       </c>
       <c r="C1430" t="s">
-        <v>1895</v>
+        <v>2225</v>
       </c>
       <c r="D1430" t="s">
         <v>494</v>
@@ -28849,63 +28888,63 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1431" s="2">
-        <v>16552</v>
+        <v>16540</v>
       </c>
       <c r="C1431" t="s">
-        <v>822</v>
+        <v>343</v>
       </c>
       <c r="D1431" t="s">
-        <v>351</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1432" s="2">
-        <v>16553</v>
+        <v>16549</v>
       </c>
       <c r="C1432" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1432" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1433" s="2">
-        <v>16553</v>
+        <v>16552</v>
       </c>
       <c r="C1433" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1433" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1434" s="2">
         <v>16553</v>
       </c>
       <c r="C1434" t="s">
-        <v>20</v>
+        <v>822</v>
       </c>
       <c r="D1434" t="s">
-        <v>2292</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1435" s="2">
         <v>16553</v>
@@ -28919,24 +28958,24 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1436" s="2">
-        <v>16556</v>
+        <v>16553</v>
       </c>
       <c r="C1436" t="s">
-        <v>1281</v>
+        <v>20</v>
       </c>
       <c r="D1436" t="s">
-        <v>2122</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1437" s="2">
-        <v>16557</v>
+        <v>16553</v>
       </c>
       <c r="C1437" t="s">
         <v>1895</v>
@@ -28947,24 +28986,24 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B1438" t="s">
-        <v>2259</v>
+        <v>2223</v>
+      </c>
+      <c r="B1438" s="2">
+        <v>16556</v>
       </c>
       <c r="C1438" t="s">
-        <v>2039</v>
+        <v>1281</v>
       </c>
       <c r="D1438" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="B1439" s="2">
-        <v>16559</v>
+        <v>16557</v>
       </c>
       <c r="C1439" t="s">
         <v>1895</v>
@@ -28975,119 +29014,119 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B1440" s="2">
-        <v>16560</v>
+        <v>2228</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2259</v>
       </c>
       <c r="C1440" t="s">
-        <v>2260</v>
+        <v>2039</v>
       </c>
       <c r="D1440" t="s">
-        <v>2267</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B1441" s="2">
-        <v>16560</v>
+        <v>16559</v>
       </c>
       <c r="C1441" t="s">
-        <v>1281</v>
+        <v>1895</v>
       </c>
       <c r="D1441" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1442" s="2">
-        <v>16562</v>
+        <v>16560</v>
       </c>
       <c r="C1442" t="s">
-        <v>1895</v>
+        <v>2260</v>
       </c>
       <c r="D1442" t="s">
-        <v>494</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B1443" s="2">
-        <v>16565</v>
+        <v>16560</v>
       </c>
       <c r="C1443" t="s">
-        <v>2261</v>
+        <v>1281</v>
       </c>
       <c r="D1443" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1444" s="2">
-        <v>16572</v>
+        <v>16562</v>
       </c>
       <c r="C1444" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1444" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B1445" s="2">
-        <v>16575</v>
+        <v>16565</v>
       </c>
       <c r="C1445" t="s">
-        <v>968</v>
+        <v>2261</v>
       </c>
       <c r="D1445" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1446" s="2">
-        <v>16579</v>
+        <v>16572</v>
       </c>
       <c r="C1446" t="s">
-        <v>149</v>
+        <v>822</v>
       </c>
       <c r="D1446" t="s">
-        <v>1897</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B1447" s="2">
-        <v>16579</v>
+        <v>16575</v>
       </c>
       <c r="C1447" t="s">
-        <v>2262</v>
+        <v>968</v>
       </c>
       <c r="D1447" t="s">
-        <v>1897</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1448" s="2">
         <v>16579</v>
@@ -29101,35 +29140,35 @@
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B1449" s="2">
         <v>16579</v>
       </c>
       <c r="C1449" t="s">
-        <v>726</v>
+        <v>2262</v>
       </c>
       <c r="D1449" t="s">
-        <v>42</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1450" s="2">
         <v>16579</v>
       </c>
       <c r="C1450" t="s">
-        <v>789</v>
+        <v>149</v>
       </c>
       <c r="D1450" t="s">
-        <v>975</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B1451" s="2">
         <v>16579</v>
@@ -29138,12 +29177,12 @@
         <v>726</v>
       </c>
       <c r="D1451" t="s">
-        <v>2268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1452" s="2">
         <v>16579</v>
@@ -29157,13 +29196,13 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B1453" s="2">
-        <v>16580</v>
+        <v>16579</v>
       </c>
       <c r="C1453" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1453" t="s">
         <v>2268</v>
@@ -29171,80 +29210,80 @@
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B1454" s="2">
-        <v>16581</v>
+        <v>16579</v>
       </c>
       <c r="C1454" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="D1454" t="s">
-        <v>42</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B1455" s="2">
-        <v>16583</v>
+        <v>16580</v>
       </c>
       <c r="C1455" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1455" t="s">
-        <v>2024</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B1456" s="2">
-        <v>16586</v>
+        <v>16581</v>
       </c>
       <c r="C1456" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1456" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1457" s="2">
-        <v>16586</v>
+        <v>16583</v>
       </c>
       <c r="C1457" t="s">
         <v>726</v>
       </c>
       <c r="D1457" t="s">
-        <v>42</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B1458" s="2">
-        <v>16587</v>
+        <v>16586</v>
       </c>
       <c r="C1458" t="s">
-        <v>1028</v>
+        <v>2160</v>
       </c>
       <c r="D1458" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1459" s="2">
-        <v>16587</v>
+        <v>16586</v>
       </c>
       <c r="C1459" t="s">
         <v>726</v>
@@ -29255,41 +29294,41 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B1460" s="2">
         <v>16587</v>
       </c>
       <c r="C1460" t="s">
-        <v>2263</v>
+        <v>1028</v>
       </c>
       <c r="D1460" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1461" s="2">
         <v>16587</v>
       </c>
       <c r="C1461" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1461" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B1462" s="2">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="C1462" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1462" t="s">
         <v>42</v>
@@ -29297,41 +29336,41 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B1463" s="2">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="C1463" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1463" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B1464" s="2">
         <v>16588</v>
       </c>
       <c r="C1464" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1464" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B1465" s="2">
-        <v>16589</v>
+        <v>16588</v>
       </c>
       <c r="C1465" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1465" t="s">
         <v>42</v>
@@ -29339,63 +29378,63 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B1466" s="2">
-        <v>16591</v>
+        <v>16588</v>
       </c>
       <c r="C1466" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1466" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1467" s="2">
-        <v>16592</v>
+        <v>16589</v>
       </c>
       <c r="C1467" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1467" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B1468" s="2">
-        <v>16599</v>
+        <v>16591</v>
       </c>
       <c r="C1468" t="s">
         <v>726</v>
       </c>
       <c r="D1468" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>2269</v>
+        <v>2257</v>
       </c>
       <c r="B1469" s="2">
-        <v>16599</v>
+        <v>16592</v>
       </c>
       <c r="C1469" t="s">
         <v>726</v>
       </c>
       <c r="D1469" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>2270</v>
+        <v>2258</v>
       </c>
       <c r="B1470" s="2">
         <v>16599</v>
@@ -29409,10 +29448,10 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1471" s="2">
-        <v>16600</v>
+        <v>16599</v>
       </c>
       <c r="C1471" t="s">
         <v>726</v>
@@ -29423,136 +29462,136 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1472" s="2">
-        <v>16600</v>
+        <v>16599</v>
       </c>
       <c r="C1472" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1472" t="s">
-        <v>2294</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B1473" s="2">
-        <v>16601</v>
+        <v>16600</v>
       </c>
       <c r="C1473" t="s">
-        <v>2293</v>
+        <v>726</v>
       </c>
       <c r="D1473" t="s">
-        <v>2122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1474" s="2">
-        <v>16603</v>
+        <v>16600</v>
       </c>
       <c r="C1474" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1474" t="s">
-        <v>62</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B1475" s="2">
-        <v>16605</v>
+        <v>16601</v>
       </c>
       <c r="C1475" t="s">
-        <v>726</v>
+        <v>2293</v>
       </c>
       <c r="D1475" t="s">
-        <v>2295</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1476" s="2">
-        <v>16605</v>
+        <v>16603</v>
       </c>
       <c r="C1476" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1476" t="s">
-        <v>2296</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B1477" s="2">
-        <v>16606</v>
+        <v>16605</v>
       </c>
       <c r="C1477" t="s">
         <v>726</v>
       </c>
       <c r="D1477" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B1478" s="2">
-        <v>16606</v>
+        <v>16605</v>
       </c>
       <c r="C1478" t="s">
-        <v>623</v>
+        <v>343</v>
       </c>
       <c r="D1478" t="s">
-        <v>2122</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1479" s="2">
-        <v>16607</v>
+        <v>16606</v>
       </c>
       <c r="C1479" t="s">
         <v>726</v>
       </c>
       <c r="D1479" t="s">
-        <v>42</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1480" s="2">
-        <v>16609</v>
+        <v>16606</v>
       </c>
       <c r="C1480" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="D1480" t="s">
-        <v>42</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1481" s="2">
-        <v>16611</v>
+        <v>16607</v>
       </c>
       <c r="C1481" t="s">
         <v>726</v>
@@ -29563,203 +29602,203 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B1482" s="2">
-        <v>16613</v>
+        <v>16609</v>
       </c>
       <c r="C1482" t="s">
-        <v>789</v>
+        <v>726</v>
       </c>
       <c r="D1482" t="s">
-        <v>975</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>2298</v>
+        <v>2281</v>
       </c>
       <c r="B1483" s="2">
-        <v>16620</v>
+        <v>16611</v>
       </c>
       <c r="C1483" t="s">
-        <v>55</v>
+        <v>726</v>
       </c>
       <c r="D1483" t="s">
-        <v>2332</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>2299</v>
+        <v>2282</v>
       </c>
       <c r="B1484" s="2">
-        <v>16623</v>
+        <v>16613</v>
       </c>
       <c r="C1484" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1484" t="s">
-        <v>173</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1485" s="2">
-        <v>16627</v>
+        <v>16620</v>
       </c>
       <c r="C1485" t="s">
-        <v>2329</v>
+        <v>55</v>
       </c>
       <c r="D1485" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B1486" s="2">
-        <v>16631</v>
+        <v>16623</v>
       </c>
       <c r="C1486" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
       <c r="D1486" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B1487" s="2">
-        <v>16633</v>
+        <v>16627</v>
       </c>
       <c r="C1487" t="s">
-        <v>1895</v>
+        <v>2329</v>
       </c>
       <c r="D1487" t="s">
-        <v>494</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B1488" s="2">
-        <v>16633</v>
+        <v>16631</v>
       </c>
       <c r="C1488" t="s">
-        <v>48</v>
+        <v>968</v>
       </c>
       <c r="D1488" t="s">
-        <v>351</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B1489" s="2">
-        <v>16634</v>
+        <v>16633</v>
       </c>
       <c r="C1489" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1489" t="s">
-        <v>1248</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B1490" s="2">
-        <v>16637</v>
+        <v>16633</v>
       </c>
       <c r="C1490" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1490" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B1491" s="2">
-        <v>16639</v>
+        <v>16634</v>
       </c>
       <c r="C1491" t="s">
         <v>822</v>
       </c>
       <c r="D1491" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B1492" s="2">
-        <v>16641</v>
+        <v>16637</v>
       </c>
       <c r="C1492" t="s">
-        <v>968</v>
+        <v>55</v>
       </c>
       <c r="D1492" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B1493" s="2">
-        <v>16643</v>
+        <v>16639</v>
       </c>
       <c r="C1493" t="s">
-        <v>1281</v>
+        <v>822</v>
       </c>
       <c r="D1493" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B1494" s="2">
-        <v>16645</v>
+        <v>16641</v>
       </c>
       <c r="C1494" t="s">
-        <v>446</v>
+        <v>968</v>
       </c>
       <c r="D1494" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B1495" s="2">
-        <v>16645</v>
+        <v>16643</v>
       </c>
       <c r="C1495" t="s">
-        <v>343</v>
+        <v>1281</v>
       </c>
       <c r="D1495" t="s">
-        <v>794</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B1496" s="2">
         <v>16645</v>
@@ -29773,7 +29812,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B1497" s="2">
         <v>16645</v>
@@ -29787,13 +29826,13 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B1498" s="2">
         <v>16645</v>
       </c>
       <c r="C1498" t="s">
-        <v>645</v>
+        <v>446</v>
       </c>
       <c r="D1498" t="s">
         <v>400</v>
@@ -29801,332 +29840,332 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1499" s="2">
-        <v>16647</v>
+        <v>16645</v>
       </c>
       <c r="C1499" t="s">
-        <v>822</v>
+        <v>343</v>
       </c>
       <c r="D1499" t="s">
-        <v>351</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B1500" s="2">
-        <v>16649</v>
+        <v>16645</v>
       </c>
       <c r="C1500" t="s">
-        <v>2330</v>
+        <v>645</v>
       </c>
       <c r="D1500" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1501" s="2">
-        <v>16655</v>
+        <v>16647</v>
       </c>
       <c r="C1501" t="s">
-        <v>1866</v>
+        <v>822</v>
       </c>
       <c r="D1501" t="s">
-        <v>2334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B1502" s="2">
-        <v>16656</v>
+        <v>16649</v>
       </c>
       <c r="C1502" t="s">
-        <v>1124</v>
+        <v>2330</v>
       </c>
       <c r="D1502" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B1503" s="2">
-        <v>16657</v>
+        <v>16655</v>
       </c>
       <c r="C1503" t="s">
-        <v>1473</v>
+        <v>1866</v>
       </c>
       <c r="D1503" t="s">
-        <v>400</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B1504" s="2">
-        <v>16658</v>
+        <v>16656</v>
       </c>
       <c r="C1504" t="s">
-        <v>726</v>
+        <v>1124</v>
       </c>
       <c r="D1504" t="s">
-        <v>689</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1505" s="2">
-        <v>16660</v>
+        <v>16657</v>
       </c>
       <c r="C1505" t="s">
-        <v>2331</v>
+        <v>1473</v>
       </c>
       <c r="D1505" t="s">
-        <v>2024</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B1506" s="2">
-        <v>16662</v>
+        <v>16658</v>
       </c>
       <c r="C1506" t="s">
-        <v>149</v>
+        <v>726</v>
       </c>
       <c r="D1506" t="s">
-        <v>150</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B1507" s="2">
-        <v>16665</v>
+        <v>16660</v>
       </c>
       <c r="C1507" t="s">
-        <v>149</v>
+        <v>2331</v>
       </c>
       <c r="D1507" t="s">
-        <v>2335</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B1508" s="2">
-        <v>16668</v>
+        <v>16662</v>
       </c>
       <c r="C1508" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="D1508" t="s">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B1509" s="2">
-        <v>16668</v>
+        <v>16665</v>
       </c>
       <c r="C1509" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="D1509" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B1510" s="2">
-        <v>16670</v>
+        <v>16668</v>
       </c>
       <c r="C1510" t="s">
-        <v>1281</v>
+        <v>343</v>
       </c>
       <c r="D1510" t="s">
-        <v>2122</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B1511" s="2">
-        <v>16675</v>
+        <v>16668</v>
       </c>
       <c r="C1511" t="s">
-        <v>645</v>
+        <v>343</v>
       </c>
       <c r="D1511" t="s">
-        <v>400</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1512" s="2">
-        <v>16683</v>
+        <v>16670</v>
       </c>
       <c r="C1512" t="s">
-        <v>822</v>
+        <v>1281</v>
       </c>
       <c r="D1512" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1513" s="2">
-        <v>16684</v>
+        <v>16675</v>
       </c>
       <c r="C1513" t="s">
-        <v>2160</v>
+        <v>645</v>
       </c>
       <c r="D1513" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2337</v>
+        <v>2327</v>
       </c>
       <c r="B1514" s="2">
-        <v>16685</v>
+        <v>16683</v>
       </c>
       <c r="C1514" t="s">
-        <v>2345</v>
+        <v>822</v>
       </c>
       <c r="D1514" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="B1515" s="2">
-        <v>16688</v>
+        <v>16684</v>
       </c>
       <c r="C1515" t="s">
-        <v>1895</v>
+        <v>2160</v>
       </c>
       <c r="D1515" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1516" s="2">
-        <v>16693</v>
+        <v>16685</v>
       </c>
       <c r="C1516" t="s">
-        <v>162</v>
+        <v>2345</v>
       </c>
       <c r="D1516" t="s">
-        <v>2346</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1517" s="2">
-        <v>16696</v>
+        <v>16688</v>
       </c>
       <c r="C1517" t="s">
-        <v>1940</v>
+        <v>1895</v>
       </c>
       <c r="D1517" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1518" s="2">
-        <v>16697</v>
+        <v>16693</v>
       </c>
       <c r="C1518" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1518" t="s">
-        <v>2026</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1519" s="2">
-        <v>16697</v>
+        <v>16696</v>
       </c>
       <c r="C1519" t="s">
-        <v>531</v>
+        <v>1940</v>
       </c>
       <c r="D1519" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1520" s="2">
-        <v>16698</v>
+        <v>16697</v>
       </c>
       <c r="C1520" t="s">
-        <v>35</v>
+        <v>968</v>
       </c>
       <c r="D1520" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B1521" s="2">
-        <v>16701</v>
+        <v>16697</v>
       </c>
       <c r="C1521" t="s">
-        <v>2160</v>
+        <v>531</v>
       </c>
       <c r="D1521" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="B1522" s="2">
-        <v>16718</v>
+        <v>16698</v>
       </c>
       <c r="C1522" t="s">
         <v>35</v>
@@ -30137,27 +30176,27 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="B1523" s="2">
-        <v>16719</v>
+        <v>16701</v>
       </c>
       <c r="C1523" t="s">
-        <v>1124</v>
+        <v>2160</v>
       </c>
       <c r="D1523" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1524" s="2">
-        <v>16725</v>
+        <v>16718</v>
       </c>
       <c r="C1524" t="s">
-        <v>2365</v>
+        <v>35</v>
       </c>
       <c r="D1524" t="s">
         <v>351</v>
@@ -30165,69 +30204,69 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1525" s="2">
-        <v>16729</v>
+        <v>16719</v>
       </c>
       <c r="C1525" t="s">
-        <v>682</v>
+        <v>1124</v>
       </c>
       <c r="D1525" t="s">
-        <v>2368</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1526" s="2">
-        <v>16737</v>
+        <v>16725</v>
       </c>
       <c r="C1526" t="s">
-        <v>162</v>
+        <v>2365</v>
       </c>
       <c r="D1526" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1527" s="2">
-        <v>16742</v>
+        <v>16729</v>
       </c>
       <c r="C1527" t="s">
-        <v>822</v>
+        <v>682</v>
       </c>
       <c r="D1527" t="s">
-        <v>351</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1528" s="2">
-        <v>16752</v>
+        <v>16737</v>
       </c>
       <c r="C1528" t="s">
-        <v>2366</v>
+        <v>162</v>
       </c>
       <c r="D1528" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B1529" s="2">
-        <v>16755</v>
+        <v>16742</v>
       </c>
       <c r="C1529" t="s">
-        <v>2367</v>
+        <v>822</v>
       </c>
       <c r="D1529" t="s">
         <v>351</v>
@@ -30235,141 +30274,169 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1530" s="2">
-        <v>16767</v>
+        <v>16752</v>
       </c>
       <c r="C1530" t="s">
-        <v>1089</v>
+        <v>2366</v>
       </c>
       <c r="D1530" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B1531" s="2">
-        <v>16768</v>
+        <v>16755</v>
       </c>
       <c r="C1531" t="s">
-        <v>968</v>
+        <v>2367</v>
       </c>
       <c r="D1531" t="s">
-        <v>2369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1532" s="2">
-        <v>16773</v>
+        <v>16767</v>
       </c>
       <c r="C1532" t="s">
-        <v>865</v>
+        <v>1089</v>
       </c>
       <c r="D1532" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B1533" s="2">
-        <v>16774</v>
+        <v>16768</v>
       </c>
       <c r="C1533" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1533" t="s">
-        <v>1626</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1534" s="2">
-        <v>16774</v>
+        <v>16773</v>
       </c>
       <c r="C1534" t="s">
-        <v>968</v>
+        <v>865</v>
       </c>
       <c r="D1534" t="s">
-        <v>2026</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B1535" s="2">
-        <v>16777</v>
+        <v>16774</v>
       </c>
       <c r="C1535" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1535" t="s">
-        <v>86</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1536" s="2">
-        <v>16790</v>
+        <v>16774</v>
       </c>
       <c r="C1536" t="s">
         <v>968</v>
       </c>
       <c r="D1536" t="s">
-        <v>628</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B1537" s="2">
-        <v>16798</v>
+        <v>16777</v>
       </c>
       <c r="C1537" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1537" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B1538" s="2">
-        <v>16798</v>
+        <v>16790</v>
       </c>
       <c r="C1538" t="s">
         <v>968</v>
       </c>
       <c r="D1538" t="s">
-        <v>152</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1539" s="2">
+        <v>16798</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1540" s="2">
+        <v>16798</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>968</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
         <v>2364</v>
       </c>
-      <c r="B1539" s="2">
+      <c r="B1541" s="2">
         <v>16802</v>
       </c>
-      <c r="C1539" t="s">
+      <c r="C1541" t="s">
         <v>968</v>
       </c>
-      <c r="D1539" t="s">
+      <c r="D1541" t="s">
         <v>2370</v>
       </c>
     </row>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="2406">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8061,8 +8061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
-      <selection activeCell="F1056" sqref="F1056"/>
+    <sheetView tabSelected="1" topLeftCell="A1035" workbookViewId="0">
+      <selection activeCell="F1065" sqref="F1065"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23560,6 +23560,9 @@
       <c r="D1058" t="s">
         <v>400</v>
       </c>
+      <c r="F1058" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
@@ -23574,6 +23577,9 @@
       <c r="D1059" t="s">
         <v>351</v>
       </c>
+      <c r="F1059" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
@@ -23588,6 +23594,9 @@
       <c r="D1060" t="s">
         <v>351</v>
       </c>
+      <c r="F1060" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
@@ -23602,6 +23611,9 @@
       <c r="D1061" t="s">
         <v>86</v>
       </c>
+      <c r="F1061" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
@@ -23616,6 +23628,9 @@
       <c r="D1062" t="s">
         <v>400</v>
       </c>
+      <c r="F1062" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
@@ -23630,6 +23645,9 @@
       <c r="D1063" t="s">
         <v>539</v>
       </c>
+      <c r="F1063" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
@@ -23643,6 +23661,9 @@
       </c>
       <c r="D1064" t="s">
         <v>86</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5001" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7228,15 +7228,6 @@
   </si>
   <si>
     <t>incomplete letter</t>
-  </si>
-  <si>
-    <t>J4b.19.13a</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>J4b.19.18aa</t>
   </si>
 </sst>
 </file>
@@ -8059,10 +8050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1541"/>
+  <dimension ref="A1:K1539"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1035" workbookViewId="0">
-      <selection activeCell="F1065" sqref="F1065"/>
+      <selection activeCell="F1064" sqref="F1064"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23379,8 +23370,8 @@
       <c r="D1047" t="s">
         <v>1775</v>
       </c>
-      <c r="I1047" t="s">
-        <v>2202</v>
+      <c r="F1047" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
@@ -23453,13 +23444,16 @@
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>2403</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2404</v>
+        <v>1747</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>15715</v>
       </c>
       <c r="C1052" t="s">
-        <v>2404</v>
+        <v>1083</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>400</v>
       </c>
       <c r="F1052" t="s">
         <v>2400</v>
@@ -23467,13 +23461,13 @@
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1053" s="2">
-        <v>15715</v>
+        <v>15718</v>
       </c>
       <c r="C1053" t="s">
-        <v>1083</v>
+        <v>1771</v>
       </c>
       <c r="D1053" t="s">
         <v>400</v>
@@ -23484,16 +23478,16 @@
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1054" s="2">
-        <v>15718</v>
+        <v>15719</v>
       </c>
       <c r="C1054" t="s">
-        <v>1771</v>
+        <v>822</v>
       </c>
       <c r="D1054" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1054" t="s">
         <v>2400</v>
@@ -23501,10 +23495,10 @@
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1055" s="2">
-        <v>15719</v>
+        <v>15727</v>
       </c>
       <c r="C1055" t="s">
         <v>822</v>
@@ -23518,13 +23512,16 @@
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>2405</v>
-      </c>
-      <c r="B1056" s="2" t="s">
-        <v>2404</v>
+        <v>1751</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>15731</v>
       </c>
       <c r="C1056" t="s">
-        <v>2404</v>
+        <v>1663</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>400</v>
       </c>
       <c r="F1056" t="s">
         <v>2400</v>
@@ -23532,10 +23529,10 @@
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B1057" s="2">
-        <v>15727</v>
+        <v>15733</v>
       </c>
       <c r="C1057" t="s">
         <v>822</v>
@@ -23549,16 +23546,16 @@
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B1058" s="2">
-        <v>15731</v>
+        <v>15734</v>
       </c>
       <c r="C1058" t="s">
-        <v>1663</v>
+        <v>822</v>
       </c>
       <c r="D1058" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1058" t="s">
         <v>2400</v>
@@ -23566,16 +23563,16 @@
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B1059" s="2">
-        <v>15733</v>
+        <v>1754</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1767</v>
       </c>
       <c r="C1059" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1059" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="F1059" t="s">
         <v>2400</v>
@@ -23583,16 +23580,16 @@
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1060" s="2">
-        <v>15734</v>
+        <v>15739</v>
       </c>
       <c r="C1060" t="s">
-        <v>822</v>
+        <v>1089</v>
       </c>
       <c r="D1060" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="F1060" t="s">
         <v>2400</v>
@@ -23600,16 +23597,16 @@
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1767</v>
+        <v>1756</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>15739</v>
       </c>
       <c r="C1061" t="s">
         <v>531</v>
       </c>
       <c r="D1061" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
       <c r="F1061" t="s">
         <v>2400</v>
@@ -23617,16 +23614,16 @@
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B1062" s="2">
-        <v>15739</v>
+        <v>15742</v>
       </c>
       <c r="C1062" t="s">
-        <v>1089</v>
+        <v>1772</v>
       </c>
       <c r="D1062" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="F1062" t="s">
         <v>2400</v>
@@ -23634,16 +23631,16 @@
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1063" s="2">
-        <v>15739</v>
+        <v>15742</v>
       </c>
       <c r="C1063" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1063" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
       <c r="F1063" t="s">
         <v>2400</v>
@@ -23651,16 +23648,16 @@
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B1064" s="2">
-        <v>15742</v>
+        <v>15744</v>
       </c>
       <c r="C1064" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1064" t="s">
-        <v>86</v>
+        <v>1324</v>
       </c>
       <c r="F1064" t="s">
         <v>2400</v>
@@ -23668,10 +23665,10 @@
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B1065" s="2">
-        <v>15742</v>
+        <v>15747</v>
       </c>
       <c r="C1065" t="s">
         <v>822</v>
@@ -23679,181 +23676,184 @@
       <c r="D1065" t="s">
         <v>351</v>
       </c>
+      <c r="F1065" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B1066" s="2">
-        <v>15744</v>
+        <v>15749</v>
       </c>
       <c r="C1066" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1066" t="s">
-        <v>1324</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B1067" s="2">
-        <v>15747</v>
+        <v>15749</v>
       </c>
       <c r="C1067" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1067" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="B1068" s="2">
-        <v>15749</v>
+        <v>15752</v>
       </c>
       <c r="C1068" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1068" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B1069" s="2">
-        <v>15749</v>
+        <v>15753</v>
       </c>
       <c r="C1069" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1069" t="s">
-        <v>400</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B1070" s="2">
-        <v>15752</v>
+        <v>15767</v>
       </c>
       <c r="C1070" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1070" t="s">
-        <v>351</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
       <c r="B1071" s="2">
-        <v>15753</v>
+        <v>15767</v>
       </c>
       <c r="C1071" t="s">
-        <v>531</v>
+        <v>2034</v>
       </c>
       <c r="D1071" t="s">
-        <v>1777</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="B1072" s="2">
-        <v>15767</v>
+        <v>15769</v>
       </c>
       <c r="C1072" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1072" t="s">
-        <v>1903</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B1073" s="2">
-        <v>15767</v>
+        <v>15770</v>
       </c>
       <c r="C1073" t="s">
-        <v>2034</v>
+        <v>1089</v>
       </c>
       <c r="D1073" t="s">
-        <v>150</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B1074" s="2">
-        <v>15769</v>
+        <v>15771</v>
       </c>
       <c r="C1074" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1074" t="s">
-        <v>1811</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="B1075" s="2">
-        <v>15770</v>
+        <v>15773</v>
       </c>
       <c r="C1075" t="s">
-        <v>1089</v>
+        <v>822</v>
       </c>
       <c r="D1075" t="s">
-        <v>1133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B1076" s="2">
-        <v>15771</v>
+        <v>15774</v>
       </c>
       <c r="C1076" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1076" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B1077" s="2">
-        <v>15773</v>
+        <v>15781</v>
       </c>
       <c r="C1077" t="s">
-        <v>822</v>
+        <v>2034</v>
       </c>
       <c r="D1077" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B1078" s="2">
-        <v>15774</v>
+        <v>15782</v>
       </c>
       <c r="C1078" t="s">
         <v>822</v>
@@ -23864,24 +23864,24 @@
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B1079" s="2">
-        <v>15781</v>
+        <v>15788</v>
       </c>
       <c r="C1079" t="s">
-        <v>2034</v>
+        <v>831</v>
       </c>
       <c r="D1079" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B1080" s="2">
-        <v>15782</v>
+        <v>15790</v>
       </c>
       <c r="C1080" t="s">
         <v>822</v>
@@ -23892,24 +23892,24 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B1081" s="2">
-        <v>15788</v>
+        <v>15795</v>
       </c>
       <c r="C1081" t="s">
-        <v>831</v>
+        <v>1808</v>
       </c>
       <c r="D1081" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B1082" s="2">
-        <v>15790</v>
+        <v>15801</v>
       </c>
       <c r="C1082" t="s">
         <v>822</v>
@@ -23920,24 +23920,24 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="B1083" s="2">
-        <v>15795</v>
+        <v>15804</v>
       </c>
       <c r="C1083" t="s">
-        <v>1808</v>
+        <v>1354</v>
       </c>
       <c r="D1083" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B1084" s="2">
-        <v>15801</v>
+        <v>15805</v>
       </c>
       <c r="C1084" t="s">
         <v>822</v>
@@ -23948,97 +23948,97 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="B1085" s="2">
-        <v>15804</v>
+        <v>15810</v>
       </c>
       <c r="C1085" t="s">
-        <v>1354</v>
+        <v>1809</v>
       </c>
       <c r="D1085" t="s">
-        <v>400</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B1086" s="2">
-        <v>15805</v>
+        <v>15810</v>
       </c>
       <c r="C1086" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1086" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B1087" s="2">
-        <v>15810</v>
+        <v>1794</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1807</v>
       </c>
       <c r="C1087" t="s">
-        <v>1809</v>
+        <v>149</v>
       </c>
       <c r="D1087" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B1088" s="2">
-        <v>15810</v>
+        <v>15824</v>
       </c>
       <c r="C1088" t="s">
         <v>35</v>
       </c>
       <c r="D1088" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1807</v>
+        <v>1796</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>15828</v>
       </c>
       <c r="C1089" t="s">
-        <v>149</v>
+        <v>1124</v>
       </c>
       <c r="D1089" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B1090" s="2">
-        <v>15824</v>
+        <v>15841</v>
       </c>
       <c r="C1090" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D1090" t="s">
-        <v>351</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="B1091" s="2">
-        <v>15828</v>
+        <v>15841</v>
       </c>
       <c r="C1091" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1091" t="s">
         <v>351</v>
@@ -24046,290 +24046,290 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B1092" s="2">
-        <v>15841</v>
+        <v>15843</v>
       </c>
       <c r="C1092" t="s">
         <v>162</v>
       </c>
       <c r="D1092" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1093" s="2">
-        <v>15841</v>
+        <v>15843</v>
       </c>
       <c r="C1093" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1093" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1094" s="2">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="C1094" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1094" t="s">
-        <v>1813</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="B1095" s="2">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="C1095" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1095" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B1096" s="2">
         <v>15844</v>
       </c>
       <c r="C1096" t="s">
-        <v>531</v>
+        <v>1810</v>
       </c>
       <c r="D1096" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B1097" s="2">
-        <v>15844</v>
+        <v>15845</v>
       </c>
       <c r="C1097" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1097" t="s">
-        <v>351</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="B1098" s="2">
-        <v>15844</v>
+        <v>15849</v>
       </c>
       <c r="C1098" t="s">
-        <v>1810</v>
+        <v>531</v>
       </c>
       <c r="D1098" t="s">
-        <v>351</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B1099" s="2">
-        <v>15845</v>
+        <v>15853</v>
       </c>
       <c r="C1099" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1099" t="s">
-        <v>1904</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="B1100" s="2">
-        <v>15849</v>
+        <v>15853</v>
       </c>
       <c r="C1100" t="s">
         <v>531</v>
       </c>
       <c r="D1100" t="s">
-        <v>1247</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="B1101" s="2">
-        <v>15853</v>
+        <v>15854</v>
       </c>
       <c r="C1101" t="s">
-        <v>531</v>
+        <v>1826</v>
       </c>
       <c r="D1101" t="s">
-        <v>1247</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B1102" s="2">
-        <v>15853</v>
+        <v>15854</v>
       </c>
       <c r="C1102" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1102" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B1103" s="2">
-        <v>15854</v>
+        <v>15859</v>
       </c>
       <c r="C1103" t="s">
-        <v>1826</v>
+        <v>162</v>
       </c>
       <c r="D1103" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B1104" s="2">
-        <v>15854</v>
+        <v>15861</v>
       </c>
       <c r="C1104" t="s">
-        <v>822</v>
+        <v>1827</v>
       </c>
       <c r="D1104" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="B1105" s="2">
-        <v>15859</v>
+        <v>15867</v>
       </c>
       <c r="C1105" t="s">
         <v>162</v>
       </c>
       <c r="D1105" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="B1106" s="2">
-        <v>15861</v>
+        <v>15875</v>
       </c>
       <c r="C1106" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D1106" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B1107" s="2">
-        <v>15867</v>
+        <v>15879</v>
       </c>
       <c r="C1107" t="s">
         <v>162</v>
       </c>
       <c r="D1107" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B1108" s="2">
-        <v>15875</v>
+        <v>1822</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1825</v>
       </c>
       <c r="C1108" t="s">
-        <v>1828</v>
+        <v>531</v>
       </c>
       <c r="D1108" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B1109" s="2">
-        <v>15879</v>
+        <v>15900</v>
       </c>
       <c r="C1109" t="s">
-        <v>162</v>
+        <v>1083</v>
       </c>
       <c r="D1109" t="s">
-        <v>1832</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1825</v>
+        <v>1824</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>15913</v>
       </c>
       <c r="C1110" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1110" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1823</v>
+        <v>1664</v>
       </c>
       <c r="B1111" s="2">
-        <v>15900</v>
+        <v>15921</v>
       </c>
       <c r="C1111" t="s">
-        <v>1083</v>
+        <v>831</v>
       </c>
       <c r="D1111" t="s">
-        <v>1905</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1824</v>
+        <v>1665</v>
       </c>
       <c r="B1112" s="2">
-        <v>15913</v>
+        <v>15921</v>
       </c>
       <c r="C1112" t="s">
         <v>831</v>
@@ -24340,167 +24340,167 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B1113" s="2">
-        <v>15921</v>
+        <v>15922</v>
       </c>
       <c r="C1113" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1113" t="s">
-        <v>1698</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B1114" s="2">
-        <v>15921</v>
+        <v>15928</v>
       </c>
       <c r="C1114" t="s">
-        <v>831</v>
+        <v>1694</v>
       </c>
       <c r="D1114" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B1115" s="2">
-        <v>15922</v>
+        <v>15932</v>
       </c>
       <c r="C1115" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1115" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B1116" s="2">
-        <v>15928</v>
+        <v>15942</v>
       </c>
       <c r="C1116" t="s">
-        <v>1694</v>
+        <v>726</v>
       </c>
       <c r="D1116" t="s">
-        <v>351</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="B1117" s="2">
-        <v>15932</v>
+        <v>15945</v>
       </c>
       <c r="C1117" t="s">
-        <v>831</v>
+        <v>573</v>
       </c>
       <c r="D1117" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B1118" s="2">
-        <v>15942</v>
+        <v>15946</v>
       </c>
       <c r="C1118" t="s">
-        <v>726</v>
+        <v>531</v>
       </c>
       <c r="D1118" t="s">
-        <v>1906</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="B1119" s="2">
-        <v>15945</v>
+        <v>15947</v>
       </c>
       <c r="C1119" t="s">
         <v>573</v>
       </c>
       <c r="D1119" t="s">
-        <v>26</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B1120" s="2">
-        <v>15946</v>
+        <v>15947</v>
       </c>
       <c r="C1120" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1120" t="s">
-        <v>210</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B1121" s="2">
         <v>15947</v>
       </c>
       <c r="C1121" t="s">
-        <v>573</v>
+        <v>831</v>
       </c>
       <c r="D1121" t="s">
-        <v>2035</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B1122" s="2">
-        <v>15947</v>
+        <v>15948</v>
       </c>
       <c r="C1122" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D1122" t="s">
-        <v>1699</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B1123" s="2">
-        <v>15947</v>
+        <v>15948</v>
       </c>
       <c r="C1123" t="s">
-        <v>831</v>
+        <v>1695</v>
       </c>
       <c r="D1123" t="s">
-        <v>351</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B1124" s="2">
-        <v>15948</v>
+        <v>15949</v>
       </c>
       <c r="C1124" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1124" t="s">
         <v>86</v>
@@ -24508,139 +24508,139 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="B1125" s="2">
-        <v>15948</v>
+        <v>15949</v>
       </c>
       <c r="C1125" t="s">
-        <v>1695</v>
+        <v>831</v>
       </c>
       <c r="D1125" t="s">
-        <v>1700</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B1126" s="2">
-        <v>15949</v>
+        <v>1679</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1692</v>
       </c>
       <c r="C1126" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1126" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B1127" s="2">
-        <v>15949</v>
+        <v>15950</v>
       </c>
       <c r="C1127" t="s">
         <v>831</v>
       </c>
       <c r="D1127" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1692</v>
+        <v>1681</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>15951</v>
       </c>
       <c r="C1128" t="s">
-        <v>35</v>
+        <v>1696</v>
       </c>
       <c r="D1128" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1129" s="2">
-        <v>15950</v>
+        <v>15952</v>
       </c>
       <c r="C1129" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1129" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B1130" s="2">
-        <v>15951</v>
+        <v>1683</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1693</v>
       </c>
       <c r="C1130" t="s">
-        <v>1696</v>
+        <v>831</v>
       </c>
       <c r="D1130" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="B1131" s="2">
-        <v>15952</v>
+        <v>15959</v>
       </c>
       <c r="C1131" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1131" t="s">
-        <v>312</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>1693</v>
+        <v>1685</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>15959</v>
       </c>
       <c r="C1132" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1132" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B1133" s="2">
-        <v>15959</v>
+        <v>15962</v>
       </c>
       <c r="C1133" t="s">
-        <v>831</v>
+        <v>1697</v>
       </c>
       <c r="D1133" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B1134" s="2">
-        <v>15959</v>
+        <v>15963</v>
       </c>
       <c r="C1134" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1134" t="s">
         <v>351</v>
@@ -24648,108 +24648,108 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B1135" s="2">
-        <v>15962</v>
+        <v>15965</v>
       </c>
       <c r="C1135" t="s">
-        <v>1697</v>
+        <v>35</v>
       </c>
       <c r="D1135" t="s">
-        <v>1703</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B1136" s="2">
-        <v>15963</v>
+        <v>15965</v>
       </c>
       <c r="C1136" t="s">
         <v>831</v>
       </c>
       <c r="D1136" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B1137" s="2">
-        <v>15965</v>
+        <v>15968</v>
       </c>
       <c r="C1137" t="s">
-        <v>35</v>
+        <v>531</v>
       </c>
       <c r="D1137" t="s">
-        <v>539</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B1138" s="2">
-        <v>15965</v>
+        <v>15969</v>
       </c>
       <c r="C1138" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1138" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
       <c r="B1139" s="2">
-        <v>15968</v>
+        <v>15971</v>
       </c>
       <c r="C1139" t="s">
-        <v>531</v>
+        <v>1124</v>
       </c>
       <c r="D1139" t="s">
-        <v>1701</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="B1140" s="2">
-        <v>15969</v>
+        <v>15973</v>
       </c>
       <c r="C1140" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1140" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="B1141" s="2">
-        <v>15971</v>
+        <v>15973</v>
       </c>
       <c r="C1141" t="s">
-        <v>1124</v>
+        <v>162</v>
       </c>
       <c r="D1141" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B1142" s="2">
-        <v>15973</v>
+        <v>15974</v>
       </c>
       <c r="C1142" t="s">
         <v>831</v>
@@ -24760,83 +24760,83 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B1143" s="2">
-        <v>15973</v>
+        <v>15975</v>
       </c>
       <c r="C1143" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1143" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1144" s="2">
-        <v>15974</v>
+        <v>15976</v>
       </c>
       <c r="C1144" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1144" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B1145" s="2">
-        <v>15975</v>
+        <v>1710</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1729</v>
       </c>
       <c r="C1145" t="s">
         <v>831</v>
       </c>
       <c r="D1145" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B1146" s="2">
-        <v>15976</v>
+        <v>15981</v>
       </c>
       <c r="C1146" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1146" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1729</v>
+        <v>1712</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>15985</v>
       </c>
       <c r="C1147" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1147" t="s">
-        <v>539</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B1148" s="2">
-        <v>15981</v>
+        <v>15986</v>
       </c>
       <c r="C1148" t="s">
-        <v>831</v>
+        <v>1732</v>
       </c>
       <c r="D1148" t="s">
         <v>86</v>
@@ -24844,41 +24844,41 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B1149" s="2">
-        <v>15985</v>
+        <v>15989</v>
       </c>
       <c r="C1149" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1149" t="s">
-        <v>1734</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B1150" s="2">
-        <v>15986</v>
+        <v>15990</v>
       </c>
       <c r="C1150" t="s">
-        <v>1732</v>
+        <v>831</v>
       </c>
       <c r="D1150" t="s">
-        <v>86</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B1151" s="2">
-        <v>15989</v>
+        <v>15994</v>
       </c>
       <c r="C1151" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1151" t="s">
         <v>351</v>
@@ -24886,108 +24886,108 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B1152" s="2">
-        <v>15990</v>
+        <v>15994</v>
       </c>
       <c r="C1152" t="s">
         <v>831</v>
       </c>
       <c r="D1152" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B1153" s="2">
-        <v>15994</v>
+        <v>15995</v>
       </c>
       <c r="C1153" t="s">
-        <v>831</v>
+        <v>1733</v>
       </c>
       <c r="D1153" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="B1154" s="2">
-        <v>15994</v>
+        <v>15998</v>
       </c>
       <c r="C1154" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1154" t="s">
-        <v>1736</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1155" s="2">
-        <v>15995</v>
+        <v>15999</v>
       </c>
       <c r="C1155" t="s">
-        <v>1733</v>
+        <v>1164</v>
       </c>
       <c r="D1155" t="s">
-        <v>86</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="B1156" s="2">
-        <v>15998</v>
+        <v>16000</v>
       </c>
       <c r="C1156" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1156" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B1157" s="2">
-        <v>15999</v>
+        <v>16002</v>
       </c>
       <c r="C1157" t="s">
-        <v>1164</v>
+        <v>822</v>
       </c>
       <c r="D1157" t="s">
-        <v>1737</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B1158" s="2">
-        <v>16000</v>
+        <v>16003</v>
       </c>
       <c r="C1158" t="s">
         <v>831</v>
       </c>
       <c r="D1158" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B1159" s="2">
-        <v>16002</v>
+        <v>16003</v>
       </c>
       <c r="C1159" t="s">
         <v>822</v>
@@ -24998,38 +24998,38 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="B1160" s="2">
-        <v>16003</v>
+        <v>16004</v>
       </c>
       <c r="C1160" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1160" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B1161" s="2">
-        <v>16003</v>
+        <v>16005</v>
       </c>
       <c r="C1161" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1161" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="B1162" s="2">
-        <v>16004</v>
+        <v>16005</v>
       </c>
       <c r="C1162" t="s">
         <v>822</v>
@@ -25040,105 +25040,105 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1163" s="2">
-        <v>16005</v>
+        <v>16007</v>
       </c>
       <c r="C1163" t="s">
         <v>831</v>
       </c>
       <c r="D1163" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="B1164" s="2">
-        <v>16005</v>
+        <v>16008</v>
       </c>
       <c r="C1164" t="s">
-        <v>822</v>
+        <v>1164</v>
       </c>
       <c r="D1164" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B1165" s="2">
-        <v>16007</v>
+        <v>16009</v>
       </c>
       <c r="C1165" t="s">
-        <v>831</v>
+        <v>623</v>
       </c>
       <c r="D1165" t="s">
-        <v>400</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1727</v>
+        <v>1833</v>
       </c>
       <c r="B1166" s="2">
-        <v>16008</v>
+        <v>16011</v>
       </c>
       <c r="C1166" t="s">
-        <v>1164</v>
+        <v>1865</v>
       </c>
       <c r="D1166" t="s">
-        <v>145</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1728</v>
+        <v>1834</v>
       </c>
       <c r="B1167" s="2">
-        <v>16009</v>
+        <v>16011</v>
       </c>
       <c r="C1167" t="s">
-        <v>623</v>
+        <v>822</v>
       </c>
       <c r="D1167" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B1168" s="2">
         <v>16011</v>
       </c>
       <c r="C1168" t="s">
-        <v>1865</v>
+        <v>831</v>
       </c>
       <c r="D1168" t="s">
-        <v>2036</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B1169" s="2">
         <v>16011</v>
       </c>
       <c r="C1169" t="s">
-        <v>822</v>
+        <v>184</v>
       </c>
       <c r="D1169" t="s">
-        <v>351</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B1170" s="2">
         <v>16011</v>
@@ -25147,250 +25147,250 @@
         <v>831</v>
       </c>
       <c r="D1170" t="s">
-        <v>1867</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1171" s="2">
-        <v>16011</v>
+        <v>16013</v>
       </c>
       <c r="C1171" t="s">
-        <v>184</v>
+        <v>831</v>
       </c>
       <c r="D1171" t="s">
-        <v>2037</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B1172" s="2">
-        <v>16011</v>
+        <v>16015</v>
       </c>
       <c r="C1172" t="s">
-        <v>831</v>
+        <v>681</v>
       </c>
       <c r="D1172" t="s">
-        <v>400</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B1173" s="2">
-        <v>16013</v>
+        <v>16015</v>
       </c>
       <c r="C1173" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1173" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B1174" s="2">
-        <v>16015</v>
+        <v>16016</v>
       </c>
       <c r="C1174" t="s">
-        <v>681</v>
+        <v>1866</v>
       </c>
       <c r="D1174" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B1175" s="2">
-        <v>16015</v>
+        <v>16017</v>
       </c>
       <c r="C1175" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1175" t="s">
-        <v>351</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B1176" s="2">
-        <v>16016</v>
+        <v>16021</v>
       </c>
       <c r="C1176" t="s">
-        <v>1866</v>
+        <v>831</v>
       </c>
       <c r="D1176" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B1177" s="2">
-        <v>16017</v>
+        <v>16021</v>
       </c>
       <c r="C1177" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1177" t="s">
-        <v>1869</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B1178" s="2">
-        <v>16021</v>
+        <v>16024</v>
       </c>
       <c r="C1178" t="s">
-        <v>831</v>
+        <v>968</v>
       </c>
       <c r="D1178" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="B1179" s="2">
-        <v>16021</v>
+        <v>16026</v>
       </c>
       <c r="C1179" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1179" t="s">
-        <v>351</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="B1180" s="2">
-        <v>16024</v>
+        <v>16026</v>
       </c>
       <c r="C1180" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
       <c r="D1180" t="s">
-        <v>1872</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B1181" s="2">
-        <v>16026</v>
+        <v>16027</v>
       </c>
       <c r="C1181" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1181" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B1182" s="2">
-        <v>16026</v>
+        <v>16028</v>
       </c>
       <c r="C1182" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1182" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B1183" s="2">
-        <v>16027</v>
+        <v>16029</v>
       </c>
       <c r="C1183" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1183" t="s">
-        <v>173</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B1184" s="2">
-        <v>16028</v>
+        <v>16030</v>
       </c>
       <c r="C1184" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1184" t="s">
-        <v>494</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1185" s="2">
-        <v>16029</v>
+        <v>1852</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1863</v>
       </c>
       <c r="C1185" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1185" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B1186" s="2">
-        <v>16030</v>
+        <v>16032</v>
       </c>
       <c r="C1186" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1186" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>1863</v>
+        <v>1854</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>16032</v>
       </c>
       <c r="C1187" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1187" t="s">
-        <v>86</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B1188" s="2">
         <v>16032</v>
@@ -25399,57 +25399,57 @@
         <v>831</v>
       </c>
       <c r="D1188" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1189" s="2">
-        <v>16032</v>
+        <v>16033</v>
       </c>
       <c r="C1189" t="s">
-        <v>822</v>
+        <v>48</v>
       </c>
       <c r="D1189" t="s">
-        <v>1870</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B1190" s="2">
-        <v>16032</v>
+        <v>16035</v>
       </c>
       <c r="C1190" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1190" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B1191" s="2">
-        <v>16033</v>
+        <v>16039</v>
       </c>
       <c r="C1191" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D1191" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B1192" s="2">
-        <v>16035</v>
+        <v>1859</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1864</v>
       </c>
       <c r="C1192" t="s">
         <v>822</v>
@@ -25460,167 +25460,167 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B1193" s="2">
-        <v>16039</v>
+        <v>16041</v>
       </c>
       <c r="C1193" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1193" t="s">
-        <v>692</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>1864</v>
+        <v>1861</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>16042</v>
       </c>
       <c r="C1194" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1194" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B1195" s="2">
-        <v>16041</v>
+        <v>16043</v>
       </c>
       <c r="C1195" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1195" t="s">
-        <v>86</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
       <c r="B1196" s="2">
-        <v>16042</v>
+        <v>16043</v>
       </c>
       <c r="C1196" t="s">
-        <v>35</v>
+        <v>623</v>
       </c>
       <c r="D1196" t="s">
-        <v>688</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1862</v>
+        <v>1875</v>
       </c>
       <c r="B1197" s="2">
-        <v>16043</v>
+        <v>16045</v>
       </c>
       <c r="C1197" t="s">
-        <v>162</v>
+        <v>1895</v>
       </c>
       <c r="D1197" t="s">
-        <v>1873</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1198" s="2">
-        <v>16043</v>
+        <v>1876</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1894</v>
       </c>
       <c r="C1198" t="s">
-        <v>623</v>
+        <v>1028</v>
       </c>
       <c r="D1198" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B1199" s="2">
-        <v>16045</v>
+        <v>16047</v>
       </c>
       <c r="C1199" t="s">
-        <v>1895</v>
+        <v>681</v>
       </c>
       <c r="D1199" t="s">
-        <v>1897</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>1894</v>
+        <v>1878</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>16047</v>
       </c>
       <c r="C1200" t="s">
-        <v>1028</v>
+        <v>831</v>
       </c>
       <c r="D1200" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B1201" s="2">
         <v>16047</v>
       </c>
       <c r="C1201" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="D1201" t="s">
-        <v>1133</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B1202" s="2">
-        <v>16047</v>
+        <v>16049</v>
       </c>
       <c r="C1202" t="s">
-        <v>831</v>
+        <v>2038</v>
       </c>
       <c r="D1202" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B1203" s="2">
-        <v>16047</v>
+        <v>16049</v>
       </c>
       <c r="C1203" t="s">
-        <v>831</v>
+        <v>682</v>
       </c>
       <c r="D1203" t="s">
-        <v>400</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B1204" s="2">
-        <v>16049</v>
+        <v>16054</v>
       </c>
       <c r="C1204" t="s">
-        <v>2038</v>
+        <v>822</v>
       </c>
       <c r="D1204" t="s">
         <v>351</v>
@@ -25628,503 +25628,503 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B1205" s="2">
-        <v>16049</v>
+        <v>16055</v>
       </c>
       <c r="C1205" t="s">
-        <v>682</v>
+        <v>162</v>
       </c>
       <c r="D1205" t="s">
-        <v>1907</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B1206" s="2">
-        <v>16054</v>
+        <v>16055</v>
       </c>
       <c r="C1206" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1206" t="s">
-        <v>351</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B1207" s="2">
-        <v>16055</v>
+        <v>16058</v>
       </c>
       <c r="C1207" t="s">
-        <v>162</v>
+        <v>1473</v>
       </c>
       <c r="D1207" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B1208" s="2">
-        <v>16055</v>
+        <v>16059</v>
       </c>
       <c r="C1208" t="s">
         <v>831</v>
       </c>
       <c r="D1208" t="s">
-        <v>1898</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B1209" s="2">
-        <v>16058</v>
+        <v>16060</v>
       </c>
       <c r="C1209" t="s">
-        <v>1473</v>
+        <v>162</v>
       </c>
       <c r="D1209" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B1210" s="2">
-        <v>16059</v>
+        <v>16063</v>
       </c>
       <c r="C1210" t="s">
-        <v>831</v>
+        <v>1896</v>
       </c>
       <c r="D1210" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B1211" s="2">
-        <v>16060</v>
+        <v>16064</v>
       </c>
       <c r="C1211" t="s">
-        <v>162</v>
+        <v>1083</v>
       </c>
       <c r="D1211" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="B1212" s="2">
-        <v>16063</v>
+        <v>16066</v>
       </c>
       <c r="C1212" t="s">
-        <v>1896</v>
+        <v>531</v>
       </c>
       <c r="D1212" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B1213" s="2">
-        <v>16064</v>
+        <v>16067</v>
       </c>
       <c r="C1213" t="s">
-        <v>1083</v>
+        <v>1558</v>
       </c>
       <c r="D1213" t="s">
-        <v>400</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B1214" s="2">
-        <v>16066</v>
+        <v>16069</v>
       </c>
       <c r="C1214" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1214" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B1215" s="2">
-        <v>16067</v>
+        <v>16071</v>
       </c>
       <c r="C1215" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1215" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1892</v>
+        <v>1908</v>
       </c>
       <c r="B1216" s="2">
-        <v>16069</v>
+        <v>16074</v>
       </c>
       <c r="C1216" t="s">
-        <v>822</v>
+        <v>683</v>
       </c>
       <c r="D1216" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1893</v>
+        <v>1909</v>
       </c>
       <c r="B1217" s="2">
-        <v>16071</v>
+        <v>16083</v>
       </c>
       <c r="C1217" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1217" t="s">
-        <v>1869</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B1218" s="2">
-        <v>16074</v>
+        <v>16085</v>
       </c>
       <c r="C1218" t="s">
-        <v>683</v>
+        <v>2039</v>
       </c>
       <c r="D1218" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B1219" s="2">
-        <v>16083</v>
+        <v>16085</v>
       </c>
       <c r="C1219" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1219" t="s">
-        <v>1943</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B1220" s="2">
         <v>16085</v>
       </c>
       <c r="C1220" t="s">
-        <v>2039</v>
+        <v>831</v>
       </c>
       <c r="D1220" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B1221" s="2">
-        <v>16085</v>
+        <v>16086</v>
       </c>
       <c r="C1221" t="s">
-        <v>831</v>
+        <v>2038</v>
       </c>
       <c r="D1221" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B1222" s="2">
-        <v>16085</v>
+        <v>1914</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1937</v>
       </c>
       <c r="C1222" t="s">
-        <v>831</v>
+        <v>25</v>
       </c>
       <c r="D1222" t="s">
-        <v>86</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B1223" s="2">
-        <v>16086</v>
+        <v>16087</v>
       </c>
       <c r="C1223" t="s">
-        <v>2038</v>
+        <v>1938</v>
       </c>
       <c r="D1223" t="s">
-        <v>351</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>1937</v>
+        <v>1916</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>16089</v>
       </c>
       <c r="C1224" t="s">
-        <v>25</v>
+        <v>831</v>
       </c>
       <c r="D1224" t="s">
-        <v>1328</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B1225" s="2">
-        <v>16087</v>
+        <v>16090</v>
       </c>
       <c r="C1225" t="s">
-        <v>1938</v>
+        <v>831</v>
       </c>
       <c r="D1225" t="s">
-        <v>1133</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B1226" s="2">
-        <v>16089</v>
+        <v>16092</v>
       </c>
       <c r="C1226" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1226" t="s">
-        <v>86</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B1227" s="2">
-        <v>16090</v>
+        <v>16096</v>
       </c>
       <c r="C1227" t="s">
-        <v>831</v>
+        <v>1087</v>
       </c>
       <c r="D1227" t="s">
-        <v>1944</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B1228" s="2">
-        <v>16092</v>
+        <v>16100</v>
       </c>
       <c r="C1228" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1228" t="s">
-        <v>1775</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B1229" s="2">
-        <v>16096</v>
+        <v>16103</v>
       </c>
       <c r="C1229" t="s">
-        <v>1087</v>
+        <v>822</v>
       </c>
       <c r="D1229" t="s">
-        <v>86</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B1230" s="2">
-        <v>16100</v>
+        <v>16103</v>
       </c>
       <c r="C1230" t="s">
-        <v>831</v>
+        <v>683</v>
       </c>
       <c r="D1230" t="s">
-        <v>2040</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B1231" s="2">
-        <v>16103</v>
+        <v>16107</v>
       </c>
       <c r="C1231" t="s">
-        <v>822</v>
+        <v>681</v>
       </c>
       <c r="D1231" t="s">
-        <v>2283</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B1232" s="2">
-        <v>16103</v>
+        <v>16112</v>
       </c>
       <c r="C1232" t="s">
-        <v>683</v>
+        <v>1939</v>
       </c>
       <c r="D1232" t="s">
-        <v>2284</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B1233" s="2">
-        <v>16107</v>
+        <v>16113</v>
       </c>
       <c r="C1233" t="s">
-        <v>681</v>
+        <v>2041</v>
       </c>
       <c r="D1233" t="s">
-        <v>1133</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B1234" s="2">
-        <v>16112</v>
+        <v>16113</v>
       </c>
       <c r="C1234" t="s">
-        <v>1939</v>
+        <v>831</v>
       </c>
       <c r="D1234" t="s">
-        <v>1945</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B1235" s="2">
-        <v>16113</v>
+        <v>16114</v>
       </c>
       <c r="C1235" t="s">
-        <v>2041</v>
+        <v>831</v>
       </c>
       <c r="D1235" t="s">
-        <v>1946</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B1236" s="2">
-        <v>16113</v>
+        <v>16117</v>
       </c>
       <c r="C1236" t="s">
         <v>831</v>
       </c>
       <c r="D1236" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B1237" s="2">
-        <v>16114</v>
+        <v>16117</v>
       </c>
       <c r="C1237" t="s">
-        <v>831</v>
+        <v>1940</v>
       </c>
       <c r="D1237" t="s">
-        <v>86</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B1238" s="2">
-        <v>16117</v>
+        <v>16118</v>
       </c>
       <c r="C1238" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1238" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B1239" s="2">
-        <v>16117</v>
+        <v>16118</v>
       </c>
       <c r="C1239" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D1239" t="s">
-        <v>2285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B1240" s="2">
-        <v>16118</v>
+        <v>16120</v>
       </c>
       <c r="C1240" t="s">
-        <v>822</v>
+        <v>1942</v>
       </c>
       <c r="D1240" t="s">
         <v>351</v>
@@ -26132,52 +26132,52 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B1241" s="2">
-        <v>16118</v>
+        <v>16121</v>
       </c>
       <c r="C1241" t="s">
-        <v>1941</v>
+        <v>52</v>
       </c>
       <c r="D1241" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B1242" s="2">
-        <v>16120</v>
+        <v>16123</v>
       </c>
       <c r="C1242" t="s">
-        <v>1942</v>
+        <v>831</v>
       </c>
       <c r="D1242" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B1243" s="2">
-        <v>16121</v>
+        <v>16124</v>
       </c>
       <c r="C1243" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D1243" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B1244" s="2">
-        <v>16123</v>
+        <v>16128</v>
       </c>
       <c r="C1244" t="s">
         <v>831</v>
@@ -26188,136 +26188,136 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1935</v>
+        <v>1947</v>
       </c>
       <c r="B1245" s="2">
-        <v>16124</v>
+        <v>16131</v>
       </c>
       <c r="C1245" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1245" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B1246" s="2">
-        <v>16128</v>
+        <v>1948</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1974</v>
       </c>
       <c r="C1246" t="s">
-        <v>831</v>
+        <v>1976</v>
       </c>
       <c r="D1246" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B1247" s="2">
-        <v>16131</v>
+        <v>16132</v>
       </c>
       <c r="C1247" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1247" t="s">
-        <v>86</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>1974</v>
+        <v>1950</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>16132</v>
       </c>
       <c r="C1248" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D1248" t="s">
-        <v>539</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B1249" s="2">
-        <v>16132</v>
+        <v>16136</v>
       </c>
       <c r="C1249" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1249" t="s">
-        <v>1359</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B1250" s="2">
-        <v>16132</v>
+        <v>16136</v>
       </c>
       <c r="C1250" t="s">
-        <v>1977</v>
+        <v>1558</v>
       </c>
       <c r="D1250" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B1251" s="2">
-        <v>16136</v>
+        <v>16140</v>
       </c>
       <c r="C1251" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1251" t="s">
-        <v>1133</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B1252" s="2">
-        <v>16136</v>
+        <v>16141</v>
       </c>
       <c r="C1252" t="s">
-        <v>1558</v>
+        <v>1772</v>
       </c>
       <c r="D1252" t="s">
-        <v>1978</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B1253" s="2">
-        <v>16140</v>
+        <v>16142</v>
       </c>
       <c r="C1253" t="s">
-        <v>162</v>
+        <v>1772</v>
       </c>
       <c r="D1253" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1254" s="2">
-        <v>16141</v>
+        <v>1956</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1975</v>
       </c>
       <c r="C1254" t="s">
         <v>1772</v>
@@ -26328,24 +26328,24 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B1255" s="2">
-        <v>16142</v>
+        <v>16143</v>
       </c>
       <c r="C1255" t="s">
         <v>1772</v>
       </c>
       <c r="D1255" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>1975</v>
+        <v>1958</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>16144</v>
       </c>
       <c r="C1256" t="s">
         <v>1772</v>
@@ -26356,133 +26356,133 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B1257" s="2">
-        <v>16143</v>
+        <v>16144</v>
       </c>
       <c r="C1257" t="s">
         <v>1772</v>
       </c>
       <c r="D1257" t="s">
-        <v>539</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B1258" s="2">
-        <v>16144</v>
+        <v>16146</v>
       </c>
       <c r="C1258" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1258" t="s">
-        <v>86</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B1259" s="2">
-        <v>16144</v>
+        <v>16147</v>
       </c>
       <c r="C1259" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1259" t="s">
-        <v>1979</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B1260" s="2">
-        <v>16146</v>
+        <v>16150</v>
       </c>
       <c r="C1260" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1260" t="s">
-        <v>1980</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="B1261" s="2">
-        <v>16147</v>
+        <v>16150</v>
       </c>
       <c r="C1261" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1261" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B1262" s="2">
-        <v>16150</v>
+        <v>16151</v>
       </c>
       <c r="C1262" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1262" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B1263" s="2">
-        <v>16150</v>
+        <v>16152</v>
       </c>
       <c r="C1263" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1263" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B1264" s="2">
-        <v>16151</v>
+        <v>16154</v>
       </c>
       <c r="C1264" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1264" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B1265" s="2">
-        <v>16152</v>
+        <v>16154</v>
       </c>
       <c r="C1265" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1265" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B1266" s="2">
         <v>16154</v>
@@ -26496,83 +26496,83 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B1267" s="2">
-        <v>16154</v>
+        <v>16155</v>
       </c>
       <c r="C1267" t="s">
-        <v>1772</v>
+        <v>681</v>
       </c>
       <c r="D1267" t="s">
-        <v>86</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B1268" s="2">
-        <v>16154</v>
+        <v>16155</v>
       </c>
       <c r="C1268" t="s">
         <v>1772</v>
       </c>
       <c r="D1268" t="s">
-        <v>86</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="B1269" s="2">
-        <v>16155</v>
+        <v>16156</v>
       </c>
       <c r="C1269" t="s">
-        <v>681</v>
+        <v>41</v>
       </c>
       <c r="D1269" t="s">
-        <v>1981</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B1270" s="2">
-        <v>16155</v>
+        <v>16157</v>
       </c>
       <c r="C1270" t="s">
         <v>1772</v>
       </c>
       <c r="D1270" t="s">
-        <v>1982</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B1271" s="2">
-        <v>16156</v>
+        <v>16161</v>
       </c>
       <c r="C1271" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="D1271" t="s">
-        <v>400</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1972</v>
+        <v>1985</v>
       </c>
       <c r="B1272" s="2">
-        <v>16157</v>
+        <v>16163</v>
       </c>
       <c r="C1272" t="s">
-        <v>1772</v>
+        <v>2016</v>
       </c>
       <c r="D1272" t="s">
         <v>86</v>
@@ -26580,38 +26580,38 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1973</v>
+        <v>1986</v>
       </c>
       <c r="B1273" s="2">
-        <v>16161</v>
+        <v>16163</v>
       </c>
       <c r="C1273" t="s">
-        <v>385</v>
+        <v>831</v>
       </c>
       <c r="D1273" t="s">
-        <v>1984</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="B1274" s="2">
-        <v>16163</v>
+        <v>16166</v>
       </c>
       <c r="C1274" t="s">
-        <v>2016</v>
+        <v>35</v>
       </c>
       <c r="D1274" t="s">
-        <v>86</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B1275" s="2">
-        <v>16163</v>
+        <v>16169</v>
       </c>
       <c r="C1275" t="s">
         <v>831</v>
@@ -26622,13 +26622,13 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="B1276" s="2">
-        <v>16166</v>
+        <v>16169</v>
       </c>
       <c r="C1276" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D1276" t="s">
         <v>1443</v>
@@ -26636,349 +26636,349 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B1277" s="2">
-        <v>16169</v>
+        <v>16172</v>
       </c>
       <c r="C1277" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1277" t="s">
-        <v>86</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="B1278" s="2">
-        <v>16169</v>
+        <v>16174</v>
       </c>
       <c r="C1278" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1278" t="s">
-        <v>1443</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B1279" s="2">
-        <v>16172</v>
+        <v>16174</v>
       </c>
       <c r="C1279" t="s">
-        <v>162</v>
+        <v>2017</v>
       </c>
       <c r="D1279" t="s">
-        <v>2023</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B1280" s="2">
-        <v>16174</v>
+        <v>16175</v>
       </c>
       <c r="C1280" t="s">
-        <v>831</v>
+        <v>149</v>
       </c>
       <c r="D1280" t="s">
-        <v>86</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B1281" s="2">
-        <v>16174</v>
+        <v>16177</v>
       </c>
       <c r="C1281" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1281" t="s">
-        <v>1443</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B1282" s="2">
-        <v>16175</v>
+        <v>16179</v>
       </c>
       <c r="C1282" t="s">
-        <v>149</v>
+        <v>2019</v>
       </c>
       <c r="D1282" t="s">
-        <v>2024</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B1283" s="2">
-        <v>16177</v>
+        <v>16180</v>
       </c>
       <c r="C1283" t="s">
-        <v>2018</v>
+        <v>162</v>
       </c>
       <c r="D1283" t="s">
-        <v>2025</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B1284" s="2">
-        <v>16179</v>
+        <v>16181</v>
       </c>
       <c r="C1284" t="s">
-        <v>2019</v>
+        <v>831</v>
       </c>
       <c r="D1284" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B1285" s="2">
-        <v>16180</v>
+        <v>16181</v>
       </c>
       <c r="C1285" t="s">
-        <v>162</v>
+        <v>2020</v>
       </c>
       <c r="D1285" t="s">
-        <v>86</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B1286" s="2">
-        <v>16181</v>
+        <v>16183</v>
       </c>
       <c r="C1286" t="s">
         <v>831</v>
       </c>
       <c r="D1286" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B1287" s="2">
-        <v>16181</v>
+        <v>16194</v>
       </c>
       <c r="C1287" t="s">
-        <v>2020</v>
+        <v>968</v>
       </c>
       <c r="D1287" t="s">
-        <v>1166</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B1288" s="2">
-        <v>16183</v>
+        <v>16197</v>
       </c>
       <c r="C1288" t="s">
-        <v>831</v>
+        <v>642</v>
       </c>
       <c r="D1288" t="s">
-        <v>210</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B1289" s="2">
-        <v>16194</v>
+        <v>16198</v>
       </c>
       <c r="C1289" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1289" t="s">
-        <v>2026</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B1290" s="2">
-        <v>16197</v>
+        <v>16209</v>
       </c>
       <c r="C1290" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1290" t="s">
-        <v>2027</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B1291" s="2">
-        <v>16198</v>
+        <v>16210</v>
       </c>
       <c r="C1291" t="s">
-        <v>162</v>
+        <v>2021</v>
       </c>
       <c r="D1291" t="s">
-        <v>1359</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B1292" s="2">
-        <v>16209</v>
+        <v>16210</v>
       </c>
       <c r="C1292" t="s">
-        <v>162</v>
+        <v>2022</v>
       </c>
       <c r="D1292" t="s">
-        <v>210</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B1293" s="2">
-        <v>16210</v>
+        <v>16213</v>
       </c>
       <c r="C1293" t="s">
-        <v>2021</v>
+        <v>831</v>
       </c>
       <c r="D1293" t="s">
-        <v>2028</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B1294" s="2">
-        <v>16210</v>
+        <v>16214</v>
       </c>
       <c r="C1294" t="s">
-        <v>2022</v>
+        <v>162</v>
       </c>
       <c r="D1294" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B1295" s="2">
-        <v>16213</v>
+        <v>16218</v>
       </c>
       <c r="C1295" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1295" t="s">
-        <v>86</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B1296" s="2">
-        <v>16214</v>
+        <v>16219</v>
       </c>
       <c r="C1296" t="s">
-        <v>162</v>
+        <v>683</v>
       </c>
       <c r="D1296" t="s">
-        <v>2029</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B1297" s="2">
-        <v>16218</v>
+        <v>16226</v>
       </c>
       <c r="C1297" t="s">
-        <v>725</v>
+        <v>1085</v>
       </c>
       <c r="D1297" t="s">
-        <v>2030</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B1298" s="2">
-        <v>16219</v>
+        <v>16228</v>
       </c>
       <c r="C1298" t="s">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="D1298" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B1299" s="2">
-        <v>16226</v>
+        <v>16228</v>
       </c>
       <c r="C1299" t="s">
-        <v>1085</v>
+        <v>162</v>
       </c>
       <c r="D1299" t="s">
-        <v>1811</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B1300" s="2">
-        <v>16228</v>
+        <v>16229</v>
       </c>
       <c r="C1300" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1300" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B1301" s="2">
-        <v>16228</v>
+        <v>16236</v>
       </c>
       <c r="C1301" t="s">
-        <v>162</v>
+        <v>725</v>
       </c>
       <c r="D1301" t="s">
         <v>1359</v>
@@ -26986,83 +26986,83 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B1302" s="2">
-        <v>16229</v>
+        <v>16237</v>
       </c>
       <c r="C1302" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1302" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2014</v>
+        <v>2042</v>
       </c>
       <c r="B1303" s="2">
-        <v>16236</v>
+        <v>16254</v>
       </c>
       <c r="C1303" t="s">
-        <v>725</v>
+        <v>162</v>
       </c>
       <c r="D1303" t="s">
-        <v>1359</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>2015</v>
+        <v>2043</v>
       </c>
       <c r="B1304" s="2">
-        <v>16237</v>
+        <v>16255</v>
       </c>
       <c r="C1304" t="s">
-        <v>162</v>
+        <v>2049</v>
       </c>
       <c r="D1304" t="s">
-        <v>1359</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="B1305" s="2">
-        <v>16254</v>
+        <v>16258</v>
       </c>
       <c r="C1305" t="s">
-        <v>162</v>
+        <v>2050</v>
       </c>
       <c r="D1305" t="s">
-        <v>539</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B1306" s="2">
-        <v>16255</v>
+        <v>16258</v>
       </c>
       <c r="C1306" t="s">
-        <v>2049</v>
+        <v>1087</v>
       </c>
       <c r="D1306" t="s">
-        <v>2024</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B1307" s="2">
-        <v>16258</v>
+        <v>16266</v>
       </c>
       <c r="C1307" t="s">
-        <v>2050</v>
+        <v>531</v>
       </c>
       <c r="D1307" t="s">
         <v>1520</v>
@@ -27070,195 +27070,195 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B1308" s="2">
-        <v>16258</v>
+        <v>16276</v>
       </c>
       <c r="C1308" t="s">
-        <v>1087</v>
+        <v>2051</v>
       </c>
       <c r="D1308" t="s">
-        <v>2052</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B1309" s="2">
-        <v>16266</v>
+        <v>16277</v>
       </c>
       <c r="C1309" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1309" t="s">
-        <v>1520</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="B1310" s="2">
-        <v>16276</v>
+        <v>16291</v>
       </c>
       <c r="C1310" t="s">
-        <v>2051</v>
+        <v>728</v>
       </c>
       <c r="D1310" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="B1311" s="2">
-        <v>16277</v>
+        <v>16297</v>
       </c>
       <c r="C1311" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1311" t="s">
-        <v>2053</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B1312" s="2">
-        <v>16291</v>
+        <v>16299</v>
       </c>
       <c r="C1312" t="s">
-        <v>728</v>
+        <v>162</v>
       </c>
       <c r="D1312" t="s">
-        <v>2287</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B1313" s="2">
-        <v>16297</v>
+        <v>16301</v>
       </c>
       <c r="C1313" t="s">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="D1313" t="s">
-        <v>2087</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="B1314" s="2">
-        <v>16299</v>
+        <v>16304</v>
       </c>
       <c r="C1314" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1314" t="s">
-        <v>538</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="B1315" s="2">
-        <v>16301</v>
+        <v>16308</v>
       </c>
       <c r="C1315" t="s">
-        <v>184</v>
+        <v>2084</v>
       </c>
       <c r="D1315" t="s">
-        <v>1626</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B1316" s="2">
-        <v>16304</v>
+        <v>16308</v>
       </c>
       <c r="C1316" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1316" t="s">
-        <v>1205</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="B1317" s="2">
-        <v>16308</v>
+        <v>16313</v>
       </c>
       <c r="C1317" t="s">
-        <v>2084</v>
+        <v>725</v>
       </c>
       <c r="D1317" t="s">
-        <v>53</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="B1318" s="2">
-        <v>16308</v>
+        <v>16315</v>
       </c>
       <c r="C1318" t="s">
-        <v>162</v>
+        <v>2085</v>
       </c>
       <c r="D1318" t="s">
-        <v>539</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="B1319" s="2">
-        <v>16313</v>
+        <v>16333</v>
       </c>
       <c r="C1319" t="s">
-        <v>725</v>
+        <v>2086</v>
       </c>
       <c r="D1319" t="s">
-        <v>1359</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="B1320" s="2">
-        <v>16315</v>
+        <v>16333</v>
       </c>
       <c r="C1320" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D1320" t="s">
-        <v>1205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="B1321" s="2">
         <v>16333</v>
       </c>
       <c r="C1321" t="s">
-        <v>2086</v>
+        <v>831</v>
       </c>
       <c r="D1321" t="s">
         <v>210</v>
@@ -27266,24 +27266,24 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="B1322" s="2">
-        <v>16333</v>
+        <v>16334</v>
       </c>
       <c r="C1322" t="s">
-        <v>2086</v>
+        <v>831</v>
       </c>
       <c r="D1322" t="s">
-        <v>210</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B1323" s="2">
-        <v>16333</v>
+        <v>2067</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2083</v>
       </c>
       <c r="C1323" t="s">
         <v>831</v>
@@ -27294,209 +27294,209 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="B1324" s="2">
-        <v>16334</v>
+        <v>16340</v>
       </c>
       <c r="C1324" t="s">
-        <v>831</v>
+        <v>52</v>
       </c>
       <c r="D1324" t="s">
-        <v>2288</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>2083</v>
+        <v>2069</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>16341</v>
       </c>
       <c r="C1325" t="s">
         <v>831</v>
       </c>
       <c r="D1325" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="B1326" s="2">
-        <v>16340</v>
+        <v>16342</v>
       </c>
       <c r="C1326" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D1326" t="s">
-        <v>2088</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="B1327" s="2">
-        <v>16341</v>
+        <v>16343</v>
       </c>
       <c r="C1327" t="s">
-        <v>831</v>
+        <v>726</v>
       </c>
       <c r="D1327" t="s">
-        <v>86</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="B1328" s="2">
-        <v>16342</v>
+        <v>16346</v>
       </c>
       <c r="C1328" t="s">
-        <v>149</v>
+        <v>726</v>
       </c>
       <c r="D1328" t="s">
-        <v>2024</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="B1329" s="2">
-        <v>16343</v>
+        <v>16347</v>
       </c>
       <c r="C1329" t="s">
         <v>726</v>
       </c>
       <c r="D1329" t="s">
-        <v>2024</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="B1330" s="2">
-        <v>16346</v>
+        <v>16347</v>
       </c>
       <c r="C1330" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
       <c r="D1330" t="s">
-        <v>2091</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="B1331" s="2">
-        <v>16347</v>
+        <v>16349</v>
       </c>
       <c r="C1331" t="s">
-        <v>726</v>
+        <v>1083</v>
       </c>
       <c r="D1331" t="s">
-        <v>2089</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="B1332" s="2">
-        <v>16347</v>
+        <v>16354</v>
       </c>
       <c r="C1332" t="s">
-        <v>831</v>
+        <v>48</v>
       </c>
       <c r="D1332" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="B1333" s="2">
-        <v>16349</v>
+        <v>16354</v>
       </c>
       <c r="C1333" t="s">
-        <v>1083</v>
+        <v>623</v>
       </c>
       <c r="D1333" t="s">
-        <v>400</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="B1334" s="2">
-        <v>16354</v>
+        <v>16356</v>
       </c>
       <c r="C1334" t="s">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="D1334" t="s">
-        <v>1133</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="B1335" s="2">
-        <v>16354</v>
+        <v>16356</v>
       </c>
       <c r="C1335" t="s">
-        <v>623</v>
+        <v>162</v>
       </c>
       <c r="D1335" t="s">
-        <v>1248</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="B1336" s="2">
-        <v>16356</v>
+        <v>16357</v>
       </c>
       <c r="C1336" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="D1336" t="s">
-        <v>2289</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="B1337" s="2">
-        <v>16356</v>
+        <v>16357</v>
       </c>
       <c r="C1337" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1337" t="s">
-        <v>86</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="B1338" s="2">
-        <v>16357</v>
+        <v>16358</v>
       </c>
       <c r="C1338" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1338" t="s">
         <v>2090</v>
@@ -27504,307 +27504,307 @@
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>2081</v>
+        <v>2094</v>
       </c>
       <c r="B1339" s="2">
-        <v>16357</v>
+        <v>16359</v>
       </c>
       <c r="C1339" t="s">
-        <v>789</v>
+        <v>623</v>
       </c>
       <c r="D1339" t="s">
-        <v>975</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>2082</v>
+        <v>2095</v>
       </c>
       <c r="B1340" s="2">
-        <v>16358</v>
+        <v>16359</v>
       </c>
       <c r="C1340" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1340" t="s">
-        <v>2090</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B1341" s="2">
-        <v>16359</v>
+        <v>16360</v>
       </c>
       <c r="C1341" t="s">
-        <v>623</v>
+        <v>1558</v>
       </c>
       <c r="D1341" t="s">
-        <v>401</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1342" s="2">
-        <v>16359</v>
+        <v>16362</v>
       </c>
       <c r="C1342" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1342" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="B1343" s="2">
-        <v>16360</v>
+        <v>16389</v>
       </c>
       <c r="C1343" t="s">
-        <v>1558</v>
+        <v>1083</v>
       </c>
       <c r="D1343" t="s">
-        <v>1899</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="B1344" s="2">
-        <v>16362</v>
+        <v>16391</v>
       </c>
       <c r="C1344" t="s">
-        <v>162</v>
+        <v>2112</v>
       </c>
       <c r="D1344" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B1345" s="2">
-        <v>16389</v>
+        <v>16405</v>
       </c>
       <c r="C1345" t="s">
-        <v>1083</v>
+        <v>149</v>
       </c>
       <c r="D1345" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="B1346" s="2">
-        <v>16391</v>
+        <v>16405</v>
       </c>
       <c r="C1346" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D1346" t="s">
-        <v>2119</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="B1347" s="2">
-        <v>16405</v>
+        <v>16406</v>
       </c>
       <c r="C1347" t="s">
-        <v>149</v>
+        <v>725</v>
       </c>
       <c r="D1347" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B1348" s="2">
-        <v>16405</v>
+        <v>16409</v>
       </c>
       <c r="C1348" t="s">
-        <v>2113</v>
+        <v>2264</v>
       </c>
       <c r="D1348" t="s">
-        <v>1290</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="B1349" s="2">
-        <v>16406</v>
+        <v>16414</v>
       </c>
       <c r="C1349" t="s">
-        <v>725</v>
+        <v>2114</v>
       </c>
       <c r="D1349" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B1350" s="2">
-        <v>16409</v>
+        <v>16415</v>
       </c>
       <c r="C1350" t="s">
-        <v>2264</v>
+        <v>52</v>
       </c>
       <c r="D1350" t="s">
-        <v>351</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B1351" s="2">
-        <v>16414</v>
+        <v>16416</v>
       </c>
       <c r="C1351" t="s">
-        <v>2114</v>
+        <v>35</v>
       </c>
       <c r="D1351" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="B1352" s="2">
-        <v>16415</v>
+        <v>16416</v>
       </c>
       <c r="C1352" t="s">
-        <v>52</v>
+        <v>789</v>
       </c>
       <c r="D1352" t="s">
-        <v>1626</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B1353" s="2">
-        <v>16416</v>
+        <v>16419</v>
       </c>
       <c r="C1353" t="s">
-        <v>35</v>
+        <v>728</v>
       </c>
       <c r="D1353" t="s">
-        <v>351</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B1354" s="2">
-        <v>16416</v>
+        <v>16425</v>
       </c>
       <c r="C1354" t="s">
-        <v>789</v>
+        <v>1866</v>
       </c>
       <c r="D1354" t="s">
-        <v>93</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="B1355" s="2">
-        <v>16419</v>
+        <v>16431</v>
       </c>
       <c r="C1355" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D1355" t="s">
-        <v>2123</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="B1356" s="2">
-        <v>16425</v>
+        <v>16432</v>
       </c>
       <c r="C1356" t="s">
-        <v>1866</v>
+        <v>679</v>
       </c>
       <c r="D1356" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="B1357" s="2">
-        <v>16431</v>
+        <v>16432</v>
       </c>
       <c r="C1357" t="s">
-        <v>725</v>
+        <v>2115</v>
       </c>
       <c r="D1357" t="s">
-        <v>1626</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B1358" s="2">
-        <v>16432</v>
+        <v>2127</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2156</v>
       </c>
       <c r="C1358" t="s">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="D1358" t="s">
-        <v>2125</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B1359" s="2">
-        <v>16432</v>
+        <v>2128</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2156</v>
       </c>
       <c r="C1359" t="s">
-        <v>2115</v>
+        <v>728</v>
       </c>
       <c r="D1359" t="s">
-        <v>1443</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="B1360" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C1360" t="s">
-        <v>789</v>
+        <v>623</v>
       </c>
       <c r="D1360" t="s">
         <v>1444</v>
@@ -27812,100 +27812,106 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B1361" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="C1361" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D1361" t="s">
-        <v>401</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="B1362" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C1362" t="s">
-        <v>623</v>
+        <v>968</v>
       </c>
       <c r="D1362" t="s">
-        <v>1444</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B1363" t="s">
         <v>2158</v>
       </c>
       <c r="C1363" t="s">
-        <v>726</v>
+        <v>1559</v>
       </c>
       <c r="D1363" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>2158</v>
+        <v>2133</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>16441</v>
       </c>
       <c r="C1364" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1364" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>2158</v>
+        <v>2134</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>16442</v>
       </c>
       <c r="C1365" t="s">
-        <v>1559</v>
+        <v>2160</v>
       </c>
       <c r="D1365" t="s">
-        <v>2164</v>
+        <v>2026</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="B1366" s="2">
-        <v>16441</v>
+        <v>16442</v>
       </c>
       <c r="C1366" t="s">
-        <v>1124</v>
+        <v>789</v>
       </c>
       <c r="D1366" t="s">
-        <v>351</v>
+        <v>975</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="B1367" s="2">
         <v>16442</v>
       </c>
       <c r="C1367" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D1367" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1367" t="s">
         <v>2202</v>
@@ -27913,16 +27919,16 @@
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="B1368" s="2">
-        <v>16442</v>
+        <v>16443</v>
       </c>
       <c r="C1368" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1368" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1368" t="s">
         <v>2202</v>
@@ -27930,16 +27936,16 @@
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B1369" s="2">
-        <v>16442</v>
+        <v>16448</v>
       </c>
       <c r="C1369" t="s">
-        <v>2161</v>
+        <v>2265</v>
       </c>
       <c r="D1369" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1369" t="s">
         <v>2202</v>
@@ -27947,16 +27953,16 @@
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="B1370" s="2">
-        <v>16443</v>
+        <v>16449</v>
       </c>
       <c r="C1370" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1370" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1370" t="s">
         <v>2202</v>
@@ -27964,16 +27970,16 @@
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="B1371" s="2">
-        <v>16448</v>
+        <v>16449</v>
       </c>
       <c r="C1371" t="s">
-        <v>2265</v>
+        <v>623</v>
       </c>
       <c r="D1371" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1371" t="s">
         <v>2202</v>
@@ -27981,16 +27987,16 @@
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="B1372" s="2">
-        <v>16449</v>
+        <v>16451</v>
       </c>
       <c r="C1372" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1372" t="s">
-        <v>975</v>
+        <v>400</v>
       </c>
       <c r="I1372" t="s">
         <v>2202</v>
@@ -27998,16 +28004,16 @@
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="B1373" s="2">
-        <v>16449</v>
+        <v>16452</v>
       </c>
       <c r="C1373" t="s">
-        <v>623</v>
+        <v>2162</v>
       </c>
       <c r="D1373" t="s">
-        <v>975</v>
+        <v>2026</v>
       </c>
       <c r="I1373" t="s">
         <v>2202</v>
@@ -28015,16 +28021,16 @@
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="B1374" s="2">
-        <v>16451</v>
+        <v>16453</v>
       </c>
       <c r="C1374" t="s">
-        <v>831</v>
+        <v>1124</v>
       </c>
       <c r="D1374" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="I1374" t="s">
         <v>2202</v>
@@ -28032,16 +28038,16 @@
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B1375" s="2">
-        <v>16452</v>
+        <v>16454</v>
       </c>
       <c r="C1375" t="s">
-        <v>2162</v>
+        <v>1441</v>
       </c>
       <c r="D1375" t="s">
-        <v>2026</v>
+        <v>2165</v>
       </c>
       <c r="I1375" t="s">
         <v>2202</v>
@@ -28049,10 +28055,10 @@
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="B1376" s="2">
-        <v>16453</v>
+        <v>16454</v>
       </c>
       <c r="C1376" t="s">
         <v>1124</v>
@@ -28066,16 +28072,16 @@
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="B1377" s="2">
-        <v>16454</v>
+        <v>16457</v>
       </c>
       <c r="C1377" t="s">
-        <v>1441</v>
+        <v>2397</v>
       </c>
       <c r="D1377" t="s">
-        <v>2165</v>
+        <v>494</v>
       </c>
       <c r="I1377" t="s">
         <v>2202</v>
@@ -28083,16 +28089,16 @@
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B1378" s="2">
-        <v>16454</v>
+        <v>16458</v>
       </c>
       <c r="C1378" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1378" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1378" t="s">
         <v>2202</v>
@@ -28100,13 +28106,13 @@
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="B1379" s="2">
-        <v>16457</v>
+        <v>16458</v>
       </c>
       <c r="C1379" t="s">
-        <v>2397</v>
+        <v>822</v>
       </c>
       <c r="D1379" t="s">
         <v>494</v>
@@ -28117,16 +28123,16 @@
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="B1380" s="2">
-        <v>16458</v>
+        <v>16465</v>
       </c>
       <c r="C1380" t="s">
-        <v>968</v>
+        <v>35</v>
       </c>
       <c r="D1380" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1380" t="s">
         <v>2202</v>
@@ -28134,16 +28140,16 @@
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="B1381" s="2">
-        <v>16458</v>
+        <v>16466</v>
       </c>
       <c r="C1381" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1381" t="s">
-        <v>494</v>
+        <v>2166</v>
       </c>
       <c r="I1381" t="s">
         <v>2202</v>
@@ -28151,16 +28157,16 @@
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="B1382" s="2">
-        <v>16465</v>
+        <v>16467</v>
       </c>
       <c r="C1382" t="s">
-        <v>35</v>
+        <v>446</v>
       </c>
       <c r="D1382" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="I1382" t="s">
         <v>2202</v>
@@ -28168,16 +28174,16 @@
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="B1383" s="2">
-        <v>16466</v>
+        <v>16468</v>
       </c>
       <c r="C1383" t="s">
-        <v>162</v>
+        <v>1895</v>
       </c>
       <c r="D1383" t="s">
-        <v>2166</v>
+        <v>494</v>
       </c>
       <c r="I1383" t="s">
         <v>2202</v>
@@ -28185,10 +28191,10 @@
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B1384" s="2">
-        <v>16467</v>
+        <v>2153</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2159</v>
       </c>
       <c r="C1384" t="s">
         <v>446</v>
@@ -28202,16 +28208,16 @@
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="B1385" s="2">
-        <v>16468</v>
+        <v>16469</v>
       </c>
       <c r="C1385" t="s">
-        <v>1895</v>
+        <v>1281</v>
       </c>
       <c r="D1385" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
       <c r="I1385" t="s">
         <v>2202</v>
@@ -28219,16 +28225,16 @@
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>2159</v>
+        <v>2155</v>
+      </c>
+      <c r="B1386" s="2">
+        <v>16471</v>
       </c>
       <c r="C1386" t="s">
-        <v>446</v>
+        <v>789</v>
       </c>
       <c r="D1386" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I1386" t="s">
         <v>2202</v>
@@ -28236,13 +28242,13 @@
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2154</v>
+        <v>2167</v>
       </c>
       <c r="B1387" s="2">
         <v>16469</v>
       </c>
       <c r="C1387" t="s">
-        <v>1281</v>
+        <v>1124</v>
       </c>
       <c r="D1387" t="s">
         <v>2122</v>
@@ -28259,7 +28265,7 @@
         <v>16471</v>
       </c>
       <c r="C1388" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1388" t="s">
         <v>401</v>
@@ -28270,16 +28276,16 @@
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B1389" s="2">
-        <v>16469</v>
+        <v>16471</v>
       </c>
       <c r="C1389" t="s">
         <v>1124</v>
       </c>
       <c r="D1389" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
       <c r="I1389" t="s">
         <v>2202</v>
@@ -28287,16 +28293,16 @@
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="B1390" s="2">
-        <v>16471</v>
+        <v>16472</v>
       </c>
       <c r="C1390" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1390" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="I1390" t="s">
         <v>2202</v>
@@ -28304,13 +28310,13 @@
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="B1391" s="2">
-        <v>16471</v>
+        <v>16474</v>
       </c>
       <c r="C1391" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1391" t="s">
         <v>494</v>
@@ -28321,16 +28327,16 @@
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B1392" s="2">
-        <v>16472</v>
+        <v>16475</v>
       </c>
       <c r="C1392" t="s">
-        <v>162</v>
+        <v>2197</v>
       </c>
       <c r="D1392" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="I1392" t="s">
         <v>2202</v>
@@ -28338,16 +28344,16 @@
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="B1393" s="2">
-        <v>16474</v>
+        <v>16477</v>
       </c>
       <c r="C1393" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="D1393" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1393" t="s">
         <v>2202</v>
@@ -28355,16 +28361,16 @@
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="B1394" s="2">
-        <v>16475</v>
+        <v>16478</v>
       </c>
       <c r="C1394" t="s">
-        <v>2197</v>
+        <v>2162</v>
       </c>
       <c r="D1394" t="s">
-        <v>86</v>
+        <v>2122</v>
       </c>
       <c r="I1394" t="s">
         <v>2202</v>
@@ -28372,16 +28378,16 @@
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B1395" s="2">
-        <v>16477</v>
+        <v>16478</v>
       </c>
       <c r="C1395" t="s">
-        <v>865</v>
+        <v>446</v>
       </c>
       <c r="D1395" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
       <c r="I1395" t="s">
         <v>2202</v>
@@ -28389,16 +28395,13 @@
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="B1396" s="2">
-        <v>16478</v>
-      </c>
-      <c r="C1396" t="s">
-        <v>2162</v>
+        <v>16480</v>
       </c>
       <c r="D1396" t="s">
-        <v>2122</v>
+        <v>2026</v>
       </c>
       <c r="I1396" t="s">
         <v>2202</v>
@@ -28406,16 +28409,16 @@
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B1397" s="2">
-        <v>16478</v>
+        <v>2176</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2196</v>
       </c>
       <c r="C1397" t="s">
-        <v>446</v>
+        <v>2198</v>
       </c>
       <c r="D1397" t="s">
-        <v>688</v>
+        <v>400</v>
       </c>
       <c r="I1397" t="s">
         <v>2202</v>
@@ -28423,13 +28426,16 @@
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B1398" s="2">
-        <v>16480</v>
+        <v>16481</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>162</v>
       </c>
       <c r="D1398" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1398" t="s">
         <v>2202</v>
@@ -28437,16 +28443,16 @@
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>2196</v>
+        <v>2178</v>
+      </c>
+      <c r="B1399" s="2">
+        <v>16482</v>
       </c>
       <c r="C1399" t="s">
-        <v>2198</v>
+        <v>1124</v>
       </c>
       <c r="D1399" t="s">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="I1399" t="s">
         <v>2202</v>
@@ -28454,16 +28460,16 @@
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="B1400" s="2">
-        <v>16481</v>
+        <v>16482</v>
       </c>
       <c r="C1400" t="s">
-        <v>162</v>
+        <v>2039</v>
       </c>
       <c r="D1400" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1400" t="s">
         <v>2202</v>
@@ -28471,16 +28477,16 @@
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B1401" s="2">
-        <v>16482</v>
+        <v>16483</v>
       </c>
       <c r="C1401" t="s">
-        <v>1124</v>
+        <v>2039</v>
       </c>
       <c r="D1401" t="s">
-        <v>2200</v>
+        <v>86</v>
       </c>
       <c r="I1401" t="s">
         <v>2202</v>
@@ -28488,16 +28494,16 @@
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="B1402" s="2">
-        <v>16482</v>
+        <v>16493</v>
       </c>
       <c r="C1402" t="s">
-        <v>2039</v>
+        <v>831</v>
       </c>
       <c r="D1402" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1402" t="s">
         <v>2202</v>
@@ -28505,134 +28511,128 @@
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="B1403" s="2">
-        <v>16483</v>
+        <v>16493</v>
       </c>
       <c r="C1403" t="s">
-        <v>2039</v>
+        <v>41</v>
       </c>
       <c r="D1403" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="I1403" t="s">
-        <v>2202</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B1404" s="2">
-        <v>16493</v>
+        <v>16495</v>
       </c>
       <c r="C1404" t="s">
-        <v>831</v>
+        <v>48</v>
       </c>
       <c r="D1404" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1404" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="B1405" s="2">
-        <v>16493</v>
+        <v>16500</v>
       </c>
       <c r="C1405" t="s">
-        <v>41</v>
+        <v>968</v>
       </c>
       <c r="D1405" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1405" t="s">
-        <v>2290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="B1406" s="2">
-        <v>16495</v>
+        <v>16500</v>
       </c>
       <c r="C1406" t="s">
-        <v>48</v>
+        <v>2039</v>
       </c>
       <c r="D1406" t="s">
-        <v>2201</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="B1407" s="2">
-        <v>16500</v>
+        <v>16501</v>
       </c>
       <c r="C1407" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1407" t="s">
-        <v>150</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="B1408" s="2">
-        <v>16500</v>
+        <v>16501</v>
       </c>
       <c r="C1408" t="s">
-        <v>2039</v>
+        <v>1895</v>
       </c>
       <c r="D1408" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="B1409" s="2">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="C1409" t="s">
-        <v>1124</v>
+        <v>1895</v>
       </c>
       <c r="D1409" t="s">
-        <v>2036</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="B1410" s="2">
-        <v>16501</v>
+        <v>16503</v>
       </c>
       <c r="C1410" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1410" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B1411" s="2">
-        <v>16502</v>
+        <v>16503</v>
       </c>
       <c r="C1411" t="s">
-        <v>1895</v>
+        <v>1124</v>
       </c>
       <c r="D1411" t="s">
         <v>494</v>
@@ -28640,27 +28640,27 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="B1412" s="2">
         <v>16503</v>
       </c>
       <c r="C1412" t="s">
-        <v>822</v>
+        <v>2039</v>
       </c>
       <c r="D1412" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B1413" s="2">
-        <v>16503</v>
+        <v>16513</v>
       </c>
       <c r="C1413" t="s">
-        <v>1124</v>
+        <v>681</v>
       </c>
       <c r="D1413" t="s">
         <v>494</v>
@@ -28668,13 +28668,13 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="B1414" s="2">
-        <v>16503</v>
+        <v>16514</v>
       </c>
       <c r="C1414" t="s">
-        <v>2039</v>
+        <v>35</v>
       </c>
       <c r="D1414" t="s">
         <v>351</v>
@@ -28682,226 +28682,226 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="B1415" s="2">
-        <v>16513</v>
+        <v>16521</v>
       </c>
       <c r="C1415" t="s">
-        <v>681</v>
+        <v>2199</v>
       </c>
       <c r="D1415" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="B1416" s="2">
-        <v>16514</v>
+        <v>16522</v>
       </c>
       <c r="C1416" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D1416" t="s">
-        <v>351</v>
+        <v>494</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2194</v>
+        <v>2204</v>
       </c>
       <c r="B1417" s="2">
-        <v>16521</v>
+        <v>16523</v>
       </c>
       <c r="C1417" t="s">
         <v>2199</v>
       </c>
       <c r="D1417" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="B1418" s="2">
-        <v>16522</v>
+        <v>16524</v>
       </c>
       <c r="C1418" t="s">
         <v>343</v>
       </c>
       <c r="D1418" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1418" t="s">
-        <v>2203</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="B1419" s="2">
-        <v>16523</v>
+        <v>16525</v>
       </c>
       <c r="C1419" t="s">
-        <v>2199</v>
+        <v>343</v>
       </c>
       <c r="D1419" t="s">
-        <v>539</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="B1420" s="2">
-        <v>16524</v>
+        <v>16530</v>
       </c>
       <c r="C1420" t="s">
-        <v>343</v>
+        <v>1895</v>
       </c>
       <c r="D1420" t="s">
-        <v>2226</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="B1421" s="2">
-        <v>16525</v>
+        <v>16531</v>
       </c>
       <c r="C1421" t="s">
-        <v>343</v>
+        <v>725</v>
       </c>
       <c r="D1421" t="s">
-        <v>794</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="B1422" s="2">
-        <v>16530</v>
+        <v>16531</v>
       </c>
       <c r="C1422" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1422" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="B1423" s="2">
-        <v>16531</v>
+        <v>16532</v>
       </c>
       <c r="C1423" t="s">
-        <v>725</v>
+        <v>968</v>
       </c>
       <c r="D1423" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="B1424" s="2">
-        <v>16531</v>
+        <v>16532</v>
       </c>
       <c r="C1424" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1424" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="B1425" s="2">
-        <v>16532</v>
+        <v>16537</v>
       </c>
       <c r="C1425" t="s">
-        <v>968</v>
+        <v>1401</v>
       </c>
       <c r="D1425" t="s">
-        <v>2026</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="B1426" s="2">
-        <v>16532</v>
+        <v>16537</v>
       </c>
       <c r="C1426" t="s">
-        <v>1895</v>
+        <v>2266</v>
       </c>
       <c r="D1426" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="B1427" s="2">
-        <v>16537</v>
+        <v>16538</v>
       </c>
       <c r="C1427" t="s">
-        <v>1401</v>
+        <v>1124</v>
       </c>
       <c r="D1427" t="s">
-        <v>2291</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="B1428" s="2">
-        <v>16537</v>
+        <v>16539</v>
       </c>
       <c r="C1428" t="s">
-        <v>2266</v>
+        <v>2225</v>
       </c>
       <c r="D1428" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="B1429" s="2">
-        <v>16538</v>
+        <v>16540</v>
       </c>
       <c r="C1429" t="s">
-        <v>1124</v>
+        <v>343</v>
       </c>
       <c r="D1429" t="s">
-        <v>494</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="B1430" s="2">
-        <v>16539</v>
+        <v>16549</v>
       </c>
       <c r="C1430" t="s">
-        <v>2225</v>
+        <v>1895</v>
       </c>
       <c r="D1430" t="s">
         <v>494</v>
@@ -28909,63 +28909,63 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="B1431" s="2">
-        <v>16540</v>
+        <v>16552</v>
       </c>
       <c r="C1431" t="s">
-        <v>343</v>
+        <v>822</v>
       </c>
       <c r="D1431" t="s">
-        <v>2227</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B1432" s="2">
-        <v>16549</v>
+        <v>16553</v>
       </c>
       <c r="C1432" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1432" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="B1433" s="2">
-        <v>16552</v>
+        <v>16553</v>
       </c>
       <c r="C1433" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1433" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B1434" s="2">
         <v>16553</v>
       </c>
       <c r="C1434" t="s">
-        <v>822</v>
+        <v>20</v>
       </c>
       <c r="D1434" t="s">
-        <v>351</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="B1435" s="2">
         <v>16553</v>
@@ -28979,24 +28979,24 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="B1436" s="2">
-        <v>16553</v>
+        <v>16556</v>
       </c>
       <c r="C1436" t="s">
-        <v>20</v>
+        <v>1281</v>
       </c>
       <c r="D1436" t="s">
-        <v>2292</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="B1437" s="2">
-        <v>16553</v>
+        <v>16557</v>
       </c>
       <c r="C1437" t="s">
         <v>1895</v>
@@ -29007,24 +29007,24 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B1438" s="2">
-        <v>16556</v>
+        <v>2228</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2259</v>
       </c>
       <c r="C1438" t="s">
-        <v>1281</v>
+        <v>2039</v>
       </c>
       <c r="D1438" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2224</v>
+        <v>2229</v>
       </c>
       <c r="B1439" s="2">
-        <v>16557</v>
+        <v>16559</v>
       </c>
       <c r="C1439" t="s">
         <v>1895</v>
@@ -29035,119 +29035,119 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B1440" t="s">
-        <v>2259</v>
+        <v>2230</v>
+      </c>
+      <c r="B1440" s="2">
+        <v>16560</v>
       </c>
       <c r="C1440" t="s">
-        <v>2039</v>
+        <v>2260</v>
       </c>
       <c r="D1440" t="s">
-        <v>351</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="B1441" s="2">
-        <v>16559</v>
+        <v>16560</v>
       </c>
       <c r="C1441" t="s">
-        <v>1895</v>
+        <v>1281</v>
       </c>
       <c r="D1441" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="B1442" s="2">
-        <v>16560</v>
+        <v>16562</v>
       </c>
       <c r="C1442" t="s">
-        <v>2260</v>
+        <v>1895</v>
       </c>
       <c r="D1442" t="s">
-        <v>2267</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="B1443" s="2">
-        <v>16560</v>
+        <v>16565</v>
       </c>
       <c r="C1443" t="s">
-        <v>1281</v>
+        <v>2261</v>
       </c>
       <c r="D1443" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="B1444" s="2">
-        <v>16562</v>
+        <v>16572</v>
       </c>
       <c r="C1444" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1444" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="B1445" s="2">
-        <v>16565</v>
+        <v>16575</v>
       </c>
       <c r="C1445" t="s">
-        <v>2261</v>
+        <v>968</v>
       </c>
       <c r="D1445" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="B1446" s="2">
-        <v>16572</v>
+        <v>16579</v>
       </c>
       <c r="C1446" t="s">
-        <v>822</v>
+        <v>149</v>
       </c>
       <c r="D1446" t="s">
-        <v>351</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="B1447" s="2">
-        <v>16575</v>
+        <v>16579</v>
       </c>
       <c r="C1447" t="s">
-        <v>968</v>
+        <v>2262</v>
       </c>
       <c r="D1447" t="s">
-        <v>2026</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="B1448" s="2">
         <v>16579</v>
@@ -29161,35 +29161,35 @@
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="B1449" s="2">
         <v>16579</v>
       </c>
       <c r="C1449" t="s">
-        <v>2262</v>
+        <v>726</v>
       </c>
       <c r="D1449" t="s">
-        <v>1897</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="B1450" s="2">
         <v>16579</v>
       </c>
       <c r="C1450" t="s">
-        <v>149</v>
+        <v>789</v>
       </c>
       <c r="D1450" t="s">
-        <v>1897</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="B1451" s="2">
         <v>16579</v>
@@ -29198,12 +29198,12 @@
         <v>726</v>
       </c>
       <c r="D1451" t="s">
-        <v>42</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="B1452" s="2">
         <v>16579</v>
@@ -29217,13 +29217,13 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="B1453" s="2">
-        <v>16579</v>
+        <v>16580</v>
       </c>
       <c r="C1453" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1453" t="s">
         <v>2268</v>
@@ -29231,80 +29231,80 @@
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="B1454" s="2">
-        <v>16579</v>
+        <v>16581</v>
       </c>
       <c r="C1454" t="s">
-        <v>789</v>
+        <v>726</v>
       </c>
       <c r="D1454" t="s">
-        <v>975</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="B1455" s="2">
-        <v>16580</v>
+        <v>16583</v>
       </c>
       <c r="C1455" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1455" t="s">
-        <v>2268</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B1456" s="2">
-        <v>16581</v>
+        <v>16586</v>
       </c>
       <c r="C1456" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1456" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="B1457" s="2">
-        <v>16583</v>
+        <v>16586</v>
       </c>
       <c r="C1457" t="s">
         <v>726</v>
       </c>
       <c r="D1457" t="s">
-        <v>2024</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="B1458" s="2">
-        <v>16586</v>
+        <v>16587</v>
       </c>
       <c r="C1458" t="s">
-        <v>2160</v>
+        <v>1028</v>
       </c>
       <c r="D1458" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="B1459" s="2">
-        <v>16586</v>
+        <v>16587</v>
       </c>
       <c r="C1459" t="s">
         <v>726</v>
@@ -29315,41 +29315,41 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="B1460" s="2">
         <v>16587</v>
       </c>
       <c r="C1460" t="s">
-        <v>1028</v>
+        <v>2263</v>
       </c>
       <c r="D1460" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="B1461" s="2">
         <v>16587</v>
       </c>
       <c r="C1461" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1461" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B1462" s="2">
-        <v>16587</v>
+        <v>16588</v>
       </c>
       <c r="C1462" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1462" t="s">
         <v>42</v>
@@ -29357,41 +29357,41 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="B1463" s="2">
-        <v>16587</v>
+        <v>16588</v>
       </c>
       <c r="C1463" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1463" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="B1464" s="2">
         <v>16588</v>
       </c>
       <c r="C1464" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1464" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="B1465" s="2">
-        <v>16588</v>
+        <v>16589</v>
       </c>
       <c r="C1465" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1465" t="s">
         <v>42</v>
@@ -29399,63 +29399,63 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="B1466" s="2">
-        <v>16588</v>
+        <v>16591</v>
       </c>
       <c r="C1466" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1466" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="B1467" s="2">
-        <v>16589</v>
+        <v>16592</v>
       </c>
       <c r="C1467" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1467" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="B1468" s="2">
-        <v>16591</v>
+        <v>16599</v>
       </c>
       <c r="C1468" t="s">
         <v>726</v>
       </c>
       <c r="D1468" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="B1469" s="2">
-        <v>16592</v>
+        <v>16599</v>
       </c>
       <c r="C1469" t="s">
         <v>726</v>
       </c>
       <c r="D1469" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>2258</v>
+        <v>2270</v>
       </c>
       <c r="B1470" s="2">
         <v>16599</v>
@@ -29469,10 +29469,10 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="B1471" s="2">
-        <v>16599</v>
+        <v>16600</v>
       </c>
       <c r="C1471" t="s">
         <v>726</v>
@@ -29483,136 +29483,136 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="B1472" s="2">
-        <v>16599</v>
+        <v>16600</v>
       </c>
       <c r="C1472" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1472" t="s">
-        <v>36</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="B1473" s="2">
-        <v>16600</v>
+        <v>16601</v>
       </c>
       <c r="C1473" t="s">
-        <v>726</v>
+        <v>2293</v>
       </c>
       <c r="D1473" t="s">
-        <v>36</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="B1474" s="2">
-        <v>16600</v>
+        <v>16603</v>
       </c>
       <c r="C1474" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1474" t="s">
-        <v>2294</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="B1475" s="2">
-        <v>16601</v>
+        <v>16605</v>
       </c>
       <c r="C1475" t="s">
-        <v>2293</v>
+        <v>726</v>
       </c>
       <c r="D1475" t="s">
-        <v>2122</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B1476" s="2">
-        <v>16603</v>
+        <v>16605</v>
       </c>
       <c r="C1476" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1476" t="s">
-        <v>62</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B1477" s="2">
-        <v>16605</v>
+        <v>16606</v>
       </c>
       <c r="C1477" t="s">
         <v>726</v>
       </c>
       <c r="D1477" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="B1478" s="2">
-        <v>16605</v>
+        <v>16606</v>
       </c>
       <c r="C1478" t="s">
-        <v>343</v>
+        <v>623</v>
       </c>
       <c r="D1478" t="s">
-        <v>2296</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="B1479" s="2">
-        <v>16606</v>
+        <v>16607</v>
       </c>
       <c r="C1479" t="s">
         <v>726</v>
       </c>
       <c r="D1479" t="s">
-        <v>2297</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="B1480" s="2">
-        <v>16606</v>
+        <v>16609</v>
       </c>
       <c r="C1480" t="s">
-        <v>623</v>
+        <v>726</v>
       </c>
       <c r="D1480" t="s">
-        <v>2122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="B1481" s="2">
-        <v>16607</v>
+        <v>16611</v>
       </c>
       <c r="C1481" t="s">
         <v>726</v>
@@ -29623,203 +29623,203 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="B1482" s="2">
-        <v>16609</v>
+        <v>16613</v>
       </c>
       <c r="C1482" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="D1482" t="s">
-        <v>42</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>2281</v>
+        <v>2298</v>
       </c>
       <c r="B1483" s="2">
-        <v>16611</v>
+        <v>16620</v>
       </c>
       <c r="C1483" t="s">
-        <v>726</v>
+        <v>55</v>
       </c>
       <c r="D1483" t="s">
-        <v>42</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>2282</v>
+        <v>2299</v>
       </c>
       <c r="B1484" s="2">
-        <v>16613</v>
+        <v>16623</v>
       </c>
       <c r="C1484" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1484" t="s">
-        <v>975</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="B1485" s="2">
-        <v>16620</v>
+        <v>16627</v>
       </c>
       <c r="C1485" t="s">
-        <v>55</v>
+        <v>2329</v>
       </c>
       <c r="D1485" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="B1486" s="2">
-        <v>16623</v>
+        <v>16631</v>
       </c>
       <c r="C1486" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1486" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="B1487" s="2">
-        <v>16627</v>
+        <v>16633</v>
       </c>
       <c r="C1487" t="s">
-        <v>2329</v>
+        <v>1895</v>
       </c>
       <c r="D1487" t="s">
-        <v>2333</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="B1488" s="2">
-        <v>16631</v>
+        <v>16633</v>
       </c>
       <c r="C1488" t="s">
-        <v>968</v>
+        <v>48</v>
       </c>
       <c r="D1488" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="B1489" s="2">
-        <v>16633</v>
+        <v>16634</v>
       </c>
       <c r="C1489" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1489" t="s">
-        <v>494</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="B1490" s="2">
-        <v>16633</v>
+        <v>16637</v>
       </c>
       <c r="C1490" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1490" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="B1491" s="2">
-        <v>16634</v>
+        <v>16639</v>
       </c>
       <c r="C1491" t="s">
         <v>822</v>
       </c>
       <c r="D1491" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="B1492" s="2">
-        <v>16637</v>
+        <v>16641</v>
       </c>
       <c r="C1492" t="s">
-        <v>55</v>
+        <v>968</v>
       </c>
       <c r="D1492" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="B1493" s="2">
-        <v>16639</v>
+        <v>16643</v>
       </c>
       <c r="C1493" t="s">
-        <v>822</v>
+        <v>1281</v>
       </c>
       <c r="D1493" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="B1494" s="2">
-        <v>16641</v>
+        <v>16645</v>
       </c>
       <c r="C1494" t="s">
-        <v>968</v>
+        <v>446</v>
       </c>
       <c r="D1494" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="B1495" s="2">
-        <v>16643</v>
+        <v>16645</v>
       </c>
       <c r="C1495" t="s">
-        <v>1281</v>
+        <v>343</v>
       </c>
       <c r="D1495" t="s">
-        <v>2122</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="B1496" s="2">
         <v>16645</v>
@@ -29833,7 +29833,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="B1497" s="2">
         <v>16645</v>
@@ -29847,13 +29847,13 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="B1498" s="2">
         <v>16645</v>
       </c>
       <c r="C1498" t="s">
-        <v>446</v>
+        <v>645</v>
       </c>
       <c r="D1498" t="s">
         <v>400</v>
@@ -29861,332 +29861,332 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="B1499" s="2">
-        <v>16645</v>
+        <v>16647</v>
       </c>
       <c r="C1499" t="s">
-        <v>343</v>
+        <v>822</v>
       </c>
       <c r="D1499" t="s">
-        <v>794</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="B1500" s="2">
-        <v>16645</v>
+        <v>16649</v>
       </c>
       <c r="C1500" t="s">
-        <v>645</v>
+        <v>2330</v>
       </c>
       <c r="D1500" t="s">
-        <v>400</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="B1501" s="2">
-        <v>16647</v>
+        <v>16655</v>
       </c>
       <c r="C1501" t="s">
-        <v>822</v>
+        <v>1866</v>
       </c>
       <c r="D1501" t="s">
-        <v>351</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="B1502" s="2">
-        <v>16649</v>
+        <v>16656</v>
       </c>
       <c r="C1502" t="s">
-        <v>2330</v>
+        <v>1124</v>
       </c>
       <c r="D1502" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B1503" s="2">
-        <v>16655</v>
+        <v>16657</v>
       </c>
       <c r="C1503" t="s">
-        <v>1866</v>
+        <v>1473</v>
       </c>
       <c r="D1503" t="s">
-        <v>2334</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="B1504" s="2">
-        <v>16656</v>
+        <v>16658</v>
       </c>
       <c r="C1504" t="s">
-        <v>1124</v>
+        <v>726</v>
       </c>
       <c r="D1504" t="s">
-        <v>494</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="B1505" s="2">
-        <v>16657</v>
+        <v>16660</v>
       </c>
       <c r="C1505" t="s">
-        <v>1473</v>
+        <v>2331</v>
       </c>
       <c r="D1505" t="s">
-        <v>400</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="B1506" s="2">
-        <v>16658</v>
+        <v>16662</v>
       </c>
       <c r="C1506" t="s">
-        <v>726</v>
+        <v>149</v>
       </c>
       <c r="D1506" t="s">
-        <v>689</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="B1507" s="2">
-        <v>16660</v>
+        <v>16665</v>
       </c>
       <c r="C1507" t="s">
-        <v>2331</v>
+        <v>149</v>
       </c>
       <c r="D1507" t="s">
-        <v>2024</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="B1508" s="2">
-        <v>16662</v>
+        <v>16668</v>
       </c>
       <c r="C1508" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="D1508" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="B1509" s="2">
-        <v>16665</v>
+        <v>16668</v>
       </c>
       <c r="C1509" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="D1509" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="B1510" s="2">
-        <v>16668</v>
+        <v>16670</v>
       </c>
       <c r="C1510" t="s">
-        <v>343</v>
+        <v>1281</v>
       </c>
       <c r="D1510" t="s">
-        <v>400</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="B1511" s="2">
-        <v>16668</v>
+        <v>16675</v>
       </c>
       <c r="C1511" t="s">
-        <v>343</v>
+        <v>645</v>
       </c>
       <c r="D1511" t="s">
-        <v>2336</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="B1512" s="2">
-        <v>16670</v>
+        <v>16683</v>
       </c>
       <c r="C1512" t="s">
-        <v>1281</v>
+        <v>822</v>
       </c>
       <c r="D1512" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="B1513" s="2">
-        <v>16675</v>
+        <v>16684</v>
       </c>
       <c r="C1513" t="s">
-        <v>645</v>
+        <v>2160</v>
       </c>
       <c r="D1513" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2327</v>
+        <v>2337</v>
       </c>
       <c r="B1514" s="2">
-        <v>16683</v>
+        <v>16685</v>
       </c>
       <c r="C1514" t="s">
-        <v>822</v>
+        <v>2345</v>
       </c>
       <c r="D1514" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2328</v>
+        <v>2338</v>
       </c>
       <c r="B1515" s="2">
-        <v>16684</v>
+        <v>16688</v>
       </c>
       <c r="C1515" t="s">
-        <v>2160</v>
+        <v>1895</v>
       </c>
       <c r="D1515" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="B1516" s="2">
-        <v>16685</v>
+        <v>16693</v>
       </c>
       <c r="C1516" t="s">
-        <v>2345</v>
+        <v>162</v>
       </c>
       <c r="D1516" t="s">
-        <v>2026</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="B1517" s="2">
-        <v>16688</v>
+        <v>16696</v>
       </c>
       <c r="C1517" t="s">
-        <v>1895</v>
+        <v>1940</v>
       </c>
       <c r="D1517" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="B1518" s="2">
-        <v>16693</v>
+        <v>16697</v>
       </c>
       <c r="C1518" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1518" t="s">
-        <v>2346</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="B1519" s="2">
-        <v>16696</v>
+        <v>16697</v>
       </c>
       <c r="C1519" t="s">
-        <v>1940</v>
+        <v>531</v>
       </c>
       <c r="D1519" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="B1520" s="2">
-        <v>16697</v>
+        <v>16698</v>
       </c>
       <c r="C1520" t="s">
-        <v>968</v>
+        <v>35</v>
       </c>
       <c r="D1520" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="B1521" s="2">
-        <v>16697</v>
+        <v>16701</v>
       </c>
       <c r="C1521" t="s">
-        <v>531</v>
+        <v>2160</v>
       </c>
       <c r="D1521" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="B1522" s="2">
-        <v>16698</v>
+        <v>16718</v>
       </c>
       <c r="C1522" t="s">
         <v>35</v>
@@ -30197,27 +30197,27 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="B1523" s="2">
-        <v>16701</v>
+        <v>16719</v>
       </c>
       <c r="C1523" t="s">
-        <v>2160</v>
+        <v>1124</v>
       </c>
       <c r="D1523" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="B1524" s="2">
-        <v>16718</v>
+        <v>16725</v>
       </c>
       <c r="C1524" t="s">
-        <v>35</v>
+        <v>2365</v>
       </c>
       <c r="D1524" t="s">
         <v>351</v>
@@ -30225,69 +30225,69 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="B1525" s="2">
-        <v>16719</v>
+        <v>16729</v>
       </c>
       <c r="C1525" t="s">
-        <v>1124</v>
+        <v>682</v>
       </c>
       <c r="D1525" t="s">
-        <v>173</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="B1526" s="2">
-        <v>16725</v>
+        <v>16737</v>
       </c>
       <c r="C1526" t="s">
-        <v>2365</v>
+        <v>162</v>
       </c>
       <c r="D1526" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="B1527" s="2">
-        <v>16729</v>
+        <v>16742</v>
       </c>
       <c r="C1527" t="s">
-        <v>682</v>
+        <v>822</v>
       </c>
       <c r="D1527" t="s">
-        <v>2368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="B1528" s="2">
-        <v>16737</v>
+        <v>16752</v>
       </c>
       <c r="C1528" t="s">
-        <v>162</v>
+        <v>2366</v>
       </c>
       <c r="D1528" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="B1529" s="2">
-        <v>16742</v>
+        <v>16755</v>
       </c>
       <c r="C1529" t="s">
-        <v>822</v>
+        <v>2367</v>
       </c>
       <c r="D1529" t="s">
         <v>351</v>
@@ -30295,169 +30295,141 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="B1530" s="2">
-        <v>16752</v>
+        <v>16767</v>
       </c>
       <c r="C1530" t="s">
-        <v>2366</v>
+        <v>1089</v>
       </c>
       <c r="D1530" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="B1531" s="2">
-        <v>16755</v>
+        <v>16768</v>
       </c>
       <c r="C1531" t="s">
-        <v>2367</v>
+        <v>968</v>
       </c>
       <c r="D1531" t="s">
-        <v>351</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="B1532" s="2">
-        <v>16767</v>
+        <v>16773</v>
       </c>
       <c r="C1532" t="s">
-        <v>1089</v>
+        <v>865</v>
       </c>
       <c r="D1532" t="s">
-        <v>400</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="B1533" s="2">
-        <v>16768</v>
+        <v>16774</v>
       </c>
       <c r="C1533" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1533" t="s">
-        <v>2369</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="B1534" s="2">
-        <v>16773</v>
+        <v>16774</v>
       </c>
       <c r="C1534" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="D1534" t="s">
-        <v>145</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="B1535" s="2">
-        <v>16774</v>
+        <v>16777</v>
       </c>
       <c r="C1535" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1535" t="s">
-        <v>1626</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="B1536" s="2">
-        <v>16774</v>
+        <v>16790</v>
       </c>
       <c r="C1536" t="s">
         <v>968</v>
       </c>
       <c r="D1536" t="s">
-        <v>2026</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="B1537" s="2">
-        <v>16777</v>
+        <v>16798</v>
       </c>
       <c r="C1537" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1537" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="B1538" s="2">
-        <v>16790</v>
+        <v>16798</v>
       </c>
       <c r="C1538" t="s">
         <v>968</v>
       </c>
       <c r="D1538" t="s">
-        <v>628</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="B1539" s="2">
-        <v>16798</v>
+        <v>16802</v>
       </c>
       <c r="C1539" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1539" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1540" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B1540" s="2">
-        <v>16798</v>
-      </c>
-      <c r="C1540" t="s">
-        <v>968</v>
-      </c>
-      <c r="D1540" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B1541" s="2">
-        <v>16802</v>
-      </c>
-      <c r="C1541" t="s">
-        <v>968</v>
-      </c>
-      <c r="D1541" t="s">
         <v>2370</v>
       </c>
     </row>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="2406">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7228,6 +7228,15 @@
   </si>
   <si>
     <t>incomplete letter</t>
+  </si>
+  <si>
+    <t>J4b.19.13a</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>J4b.19.18aa</t>
   </si>
 </sst>
 </file>
@@ -8050,10 +8059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1539"/>
+  <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1035" workbookViewId="0">
-      <selection activeCell="F1064" sqref="F1064"/>
+    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="F1081" sqref="F1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23370,8 +23379,8 @@
       <c r="D1047" t="s">
         <v>1775</v>
       </c>
-      <c r="F1047" t="s">
-        <v>2400</v>
+      <c r="I1047" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
@@ -23444,16 +23453,13 @@
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B1052" s="2">
-        <v>15715</v>
+        <v>2403</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>2404</v>
       </c>
       <c r="C1052" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>400</v>
+        <v>2404</v>
       </c>
       <c r="F1052" t="s">
         <v>2400</v>
@@ -23461,13 +23467,13 @@
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B1053" s="2">
-        <v>15718</v>
+        <v>15715</v>
       </c>
       <c r="C1053" t="s">
-        <v>1771</v>
+        <v>1083</v>
       </c>
       <c r="D1053" t="s">
         <v>400</v>
@@ -23478,16 +23484,16 @@
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B1054" s="2">
-        <v>15719</v>
+        <v>15718</v>
       </c>
       <c r="C1054" t="s">
-        <v>822</v>
+        <v>1771</v>
       </c>
       <c r="D1054" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="F1054" t="s">
         <v>2400</v>
@@ -23495,10 +23501,10 @@
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1055" s="2">
-        <v>15727</v>
+        <v>15719</v>
       </c>
       <c r="C1055" t="s">
         <v>822</v>
@@ -23512,16 +23518,13 @@
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B1056" s="2">
-        <v>15731</v>
+        <v>2405</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>2404</v>
       </c>
       <c r="C1056" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>400</v>
+        <v>2404</v>
       </c>
       <c r="F1056" t="s">
         <v>2400</v>
@@ -23529,10 +23532,10 @@
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B1057" s="2">
-        <v>15733</v>
+        <v>15727</v>
       </c>
       <c r="C1057" t="s">
         <v>822</v>
@@ -23546,16 +23549,16 @@
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B1058" s="2">
-        <v>15734</v>
+        <v>15731</v>
       </c>
       <c r="C1058" t="s">
-        <v>822</v>
+        <v>1663</v>
       </c>
       <c r="D1058" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="F1058" t="s">
         <v>2400</v>
@@ -23563,16 +23566,16 @@
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1767</v>
+        <v>1752</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>15733</v>
       </c>
       <c r="C1059" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1059" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="F1059" t="s">
         <v>2400</v>
@@ -23580,16 +23583,16 @@
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B1060" s="2">
-        <v>15739</v>
+        <v>15734</v>
       </c>
       <c r="C1060" t="s">
-        <v>1089</v>
+        <v>822</v>
       </c>
       <c r="D1060" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1060" t="s">
         <v>2400</v>
@@ -23597,16 +23600,16 @@
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B1061" s="2">
-        <v>15739</v>
+        <v>1754</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1767</v>
       </c>
       <c r="C1061" t="s">
         <v>531</v>
       </c>
       <c r="D1061" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
       <c r="F1061" t="s">
         <v>2400</v>
@@ -23614,16 +23617,16 @@
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B1062" s="2">
-        <v>15742</v>
+        <v>15739</v>
       </c>
       <c r="C1062" t="s">
-        <v>1772</v>
+        <v>1089</v>
       </c>
       <c r="D1062" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
       <c r="F1062" t="s">
         <v>2400</v>
@@ -23631,16 +23634,16 @@
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B1063" s="2">
-        <v>15742</v>
+        <v>15739</v>
       </c>
       <c r="C1063" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1063" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
       <c r="F1063" t="s">
         <v>2400</v>
@@ -23648,16 +23651,16 @@
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B1064" s="2">
-        <v>15744</v>
+        <v>15742</v>
       </c>
       <c r="C1064" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1064" t="s">
-        <v>1324</v>
+        <v>86</v>
       </c>
       <c r="F1064" t="s">
         <v>2400</v>
@@ -23665,10 +23668,10 @@
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B1065" s="2">
-        <v>15747</v>
+        <v>15742</v>
       </c>
       <c r="C1065" t="s">
         <v>822</v>
@@ -23682,178 +23685,211 @@
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B1066" s="2">
-        <v>15749</v>
+        <v>15744</v>
       </c>
       <c r="C1066" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1066" t="s">
-        <v>400</v>
+        <v>1324</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B1067" s="2">
-        <v>15749</v>
+        <v>15747</v>
       </c>
       <c r="C1067" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1067" t="s">
-        <v>400</v>
+        <v>351</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B1068" s="2">
-        <v>15752</v>
+        <v>15749</v>
       </c>
       <c r="C1068" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1068" t="s">
-        <v>351</v>
+        <v>400</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B1069" s="2">
-        <v>15753</v>
+        <v>15749</v>
       </c>
       <c r="C1069" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1069" t="s">
-        <v>1777</v>
+        <v>400</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B1070" s="2">
-        <v>15767</v>
+        <v>15752</v>
       </c>
       <c r="C1070" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1070" t="s">
-        <v>1903</v>
+        <v>351</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="B1071" s="2">
-        <v>15767</v>
+        <v>15753</v>
       </c>
       <c r="C1071" t="s">
-        <v>2034</v>
+        <v>531</v>
       </c>
       <c r="D1071" t="s">
-        <v>150</v>
+        <v>1777</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>15767</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1073" s="2">
+        <v>15767</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
         <v>1779</v>
       </c>
-      <c r="B1072" s="2">
+      <c r="B1074" s="2">
         <v>15769</v>
       </c>
-      <c r="C1072" t="s">
+      <c r="C1074" t="s">
         <v>531</v>
       </c>
-      <c r="D1072" t="s">
+      <c r="D1074" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
+      <c r="F1074" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
         <v>1780</v>
       </c>
-      <c r="B1073" s="2">
+      <c r="B1075" s="2">
         <v>15770</v>
       </c>
-      <c r="C1073" t="s">
+      <c r="C1075" t="s">
         <v>1089</v>
       </c>
-      <c r="D1073" t="s">
+      <c r="D1075" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
+      <c r="F1075" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
         <v>1781</v>
       </c>
-      <c r="B1074" s="2">
+      <c r="B1076" s="2">
         <v>15771</v>
       </c>
-      <c r="C1074" t="s">
+      <c r="C1076" t="s">
         <v>831</v>
       </c>
-      <c r="D1074" t="s">
+      <c r="D1076" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
+      <c r="F1076" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
         <v>1782</v>
       </c>
-      <c r="B1075" s="2">
+      <c r="B1077" s="2">
         <v>15773</v>
       </c>
-      <c r="C1075" t="s">
+      <c r="C1077" t="s">
         <v>822</v>
       </c>
-      <c r="D1075" t="s">
+      <c r="D1077" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
         <v>1783</v>
       </c>
-      <c r="B1076" s="2">
+      <c r="B1078" s="2">
         <v>15774</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>822</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1077" s="2">
-        <v>15781</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B1078" s="2">
-        <v>15782</v>
       </c>
       <c r="C1078" t="s">
         <v>822</v>
@@ -23862,26 +23898,26 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B1079" s="2">
-        <v>15788</v>
+        <v>15781</v>
       </c>
       <c r="C1079" t="s">
-        <v>831</v>
+        <v>2034</v>
       </c>
       <c r="D1079" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B1080" s="2">
-        <v>15790</v>
+        <v>15782</v>
       </c>
       <c r="C1080" t="s">
         <v>822</v>
@@ -23890,26 +23926,26 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B1081" s="2">
-        <v>15795</v>
+        <v>15788</v>
       </c>
       <c r="C1081" t="s">
-        <v>1808</v>
+        <v>831</v>
       </c>
       <c r="D1081" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B1082" s="2">
-        <v>15801</v>
+        <v>15790</v>
       </c>
       <c r="C1082" t="s">
         <v>822</v>
@@ -23918,26 +23954,26 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B1083" s="2">
-        <v>15804</v>
+        <v>15795</v>
       </c>
       <c r="C1083" t="s">
-        <v>1354</v>
+        <v>1808</v>
       </c>
       <c r="D1083" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B1084" s="2">
-        <v>15805</v>
+        <v>15801</v>
       </c>
       <c r="C1084" t="s">
         <v>822</v>
@@ -23946,99 +23982,99 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1085" s="2">
+        <v>15804</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1086" s="2">
+        <v>15805</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
         <v>1792</v>
       </c>
-      <c r="B1085" s="2">
+      <c r="B1087" s="2">
         <v>15810</v>
       </c>
-      <c r="C1085" t="s">
+      <c r="C1087" t="s">
         <v>1809</v>
       </c>
-      <c r="D1085" t="s">
+      <c r="D1087" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
         <v>1793</v>
       </c>
-      <c r="B1086" s="2">
+      <c r="B1088" s="2">
         <v>15810</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C1087" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1088" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B1088" s="2">
-        <v>15824</v>
       </c>
       <c r="C1088" t="s">
         <v>35</v>
       </c>
       <c r="D1088" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B1089" s="2">
-        <v>15828</v>
+        <v>1794</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1807</v>
       </c>
       <c r="C1089" t="s">
-        <v>1124</v>
+        <v>149</v>
       </c>
       <c r="D1089" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B1090" s="2">
-        <v>15841</v>
+        <v>15824</v>
       </c>
       <c r="C1090" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D1090" t="s">
-        <v>1812</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B1091" s="2">
-        <v>15841</v>
+        <v>15828</v>
       </c>
       <c r="C1091" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1091" t="s">
         <v>351</v>
@@ -24046,290 +24082,290 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B1092" s="2">
-        <v>15843</v>
+        <v>15841</v>
       </c>
       <c r="C1092" t="s">
         <v>162</v>
       </c>
       <c r="D1092" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1093" s="2">
-        <v>15843</v>
+        <v>15841</v>
       </c>
       <c r="C1093" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1093" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B1094" s="2">
-        <v>15844</v>
+        <v>15843</v>
       </c>
       <c r="C1094" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1094" t="s">
-        <v>86</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B1095" s="2">
-        <v>15844</v>
+        <v>15843</v>
       </c>
       <c r="C1095" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1095" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B1096" s="2">
         <v>15844</v>
       </c>
       <c r="C1096" t="s">
-        <v>1810</v>
+        <v>531</v>
       </c>
       <c r="D1096" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B1097" s="2">
-        <v>15845</v>
+        <v>15844</v>
       </c>
       <c r="C1097" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1097" t="s">
-        <v>1904</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B1098" s="2">
-        <v>15849</v>
+        <v>15844</v>
       </c>
       <c r="C1098" t="s">
-        <v>531</v>
+        <v>1810</v>
       </c>
       <c r="D1098" t="s">
-        <v>1247</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B1099" s="2">
-        <v>15853</v>
+        <v>15845</v>
       </c>
       <c r="C1099" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1099" t="s">
-        <v>1247</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="B1100" s="2">
-        <v>15853</v>
+        <v>15849</v>
       </c>
       <c r="C1100" t="s">
         <v>531</v>
       </c>
       <c r="D1100" t="s">
-        <v>539</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="B1101" s="2">
-        <v>15854</v>
+        <v>15853</v>
       </c>
       <c r="C1101" t="s">
-        <v>1826</v>
+        <v>531</v>
       </c>
       <c r="D1101" t="s">
-        <v>1829</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B1102" s="2">
-        <v>15854</v>
+        <v>15853</v>
       </c>
       <c r="C1102" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1102" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B1103" s="2">
-        <v>15859</v>
+        <v>15854</v>
       </c>
       <c r="C1103" t="s">
-        <v>162</v>
+        <v>1826</v>
       </c>
       <c r="D1103" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B1104" s="2">
-        <v>15861</v>
+        <v>15854</v>
       </c>
       <c r="C1104" t="s">
-        <v>1827</v>
+        <v>822</v>
       </c>
       <c r="D1104" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B1105" s="2">
-        <v>15867</v>
+        <v>15859</v>
       </c>
       <c r="C1105" t="s">
         <v>162</v>
       </c>
       <c r="D1105" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B1106" s="2">
-        <v>15875</v>
+        <v>15861</v>
       </c>
       <c r="C1106" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D1106" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B1107" s="2">
-        <v>15879</v>
+        <v>15867</v>
       </c>
       <c r="C1107" t="s">
         <v>162</v>
       </c>
       <c r="D1107" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1825</v>
+        <v>1820</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>15875</v>
       </c>
       <c r="C1108" t="s">
-        <v>531</v>
+        <v>1828</v>
       </c>
       <c r="D1108" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B1109" s="2">
-        <v>15900</v>
+        <v>15879</v>
       </c>
       <c r="C1109" t="s">
-        <v>1083</v>
+        <v>162</v>
       </c>
       <c r="D1109" t="s">
-        <v>1905</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1110" s="2">
-        <v>15913</v>
+        <v>1822</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1825</v>
       </c>
       <c r="C1110" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1110" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1664</v>
+        <v>1823</v>
       </c>
       <c r="B1111" s="2">
-        <v>15921</v>
+        <v>15900</v>
       </c>
       <c r="C1111" t="s">
-        <v>831</v>
+        <v>1083</v>
       </c>
       <c r="D1111" t="s">
-        <v>1698</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1665</v>
+        <v>1824</v>
       </c>
       <c r="B1112" s="2">
-        <v>15921</v>
+        <v>15913</v>
       </c>
       <c r="C1112" t="s">
         <v>831</v>
@@ -24340,167 +24376,167 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B1113" s="2">
-        <v>15922</v>
+        <v>15921</v>
       </c>
       <c r="C1113" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1113" t="s">
-        <v>351</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B1114" s="2">
-        <v>15928</v>
+        <v>15921</v>
       </c>
       <c r="C1114" t="s">
-        <v>1694</v>
+        <v>831</v>
       </c>
       <c r="D1114" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B1115" s="2">
-        <v>15932</v>
+        <v>15922</v>
       </c>
       <c r="C1115" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1115" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B1116" s="2">
-        <v>15942</v>
+        <v>15928</v>
       </c>
       <c r="C1116" t="s">
-        <v>726</v>
+        <v>1694</v>
       </c>
       <c r="D1116" t="s">
-        <v>1906</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B1117" s="2">
-        <v>15945</v>
+        <v>15932</v>
       </c>
       <c r="C1117" t="s">
-        <v>573</v>
+        <v>831</v>
       </c>
       <c r="D1117" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B1118" s="2">
-        <v>15946</v>
+        <v>15942</v>
       </c>
       <c r="C1118" t="s">
-        <v>531</v>
+        <v>726</v>
       </c>
       <c r="D1118" t="s">
-        <v>210</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B1119" s="2">
-        <v>15947</v>
+        <v>15945</v>
       </c>
       <c r="C1119" t="s">
         <v>573</v>
       </c>
       <c r="D1119" t="s">
-        <v>2035</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B1120" s="2">
-        <v>15947</v>
+        <v>15946</v>
       </c>
       <c r="C1120" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1120" t="s">
-        <v>1699</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B1121" s="2">
         <v>15947</v>
       </c>
       <c r="C1121" t="s">
-        <v>831</v>
+        <v>573</v>
       </c>
       <c r="D1121" t="s">
-        <v>351</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B1122" s="2">
-        <v>15948</v>
+        <v>15947</v>
       </c>
       <c r="C1122" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D1122" t="s">
-        <v>86</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B1123" s="2">
-        <v>15948</v>
+        <v>15947</v>
       </c>
       <c r="C1123" t="s">
-        <v>1695</v>
+        <v>831</v>
       </c>
       <c r="D1123" t="s">
-        <v>1700</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B1124" s="2">
-        <v>15949</v>
+        <v>15948</v>
       </c>
       <c r="C1124" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1124" t="s">
         <v>86</v>
@@ -24508,139 +24544,139 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B1125" s="2">
-        <v>15949</v>
+        <v>15948</v>
       </c>
       <c r="C1125" t="s">
-        <v>831</v>
+        <v>1695</v>
       </c>
       <c r="D1125" t="s">
-        <v>351</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1692</v>
+        <v>1677</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>15949</v>
       </c>
       <c r="C1126" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1126" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B1127" s="2">
-        <v>15950</v>
+        <v>15949</v>
       </c>
       <c r="C1127" t="s">
         <v>831</v>
       </c>
       <c r="D1127" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B1128" s="2">
-        <v>15951</v>
+        <v>1679</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1692</v>
       </c>
       <c r="C1128" t="s">
-        <v>1696</v>
+        <v>35</v>
       </c>
       <c r="D1128" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B1129" s="2">
-        <v>15952</v>
+        <v>15950</v>
       </c>
       <c r="C1129" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1129" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>1693</v>
+        <v>1681</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>15951</v>
       </c>
       <c r="C1130" t="s">
-        <v>831</v>
+        <v>1696</v>
       </c>
       <c r="D1130" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B1131" s="2">
-        <v>15959</v>
+        <v>15952</v>
       </c>
       <c r="C1131" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1131" t="s">
-        <v>1702</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B1132" s="2">
-        <v>15959</v>
+        <v>1683</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1693</v>
       </c>
       <c r="C1132" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1132" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B1133" s="2">
-        <v>15962</v>
+        <v>15959</v>
       </c>
       <c r="C1133" t="s">
-        <v>1697</v>
+        <v>831</v>
       </c>
       <c r="D1133" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="B1134" s="2">
-        <v>15963</v>
+        <v>15959</v>
       </c>
       <c r="C1134" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1134" t="s">
         <v>351</v>
@@ -24648,108 +24684,108 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B1135" s="2">
-        <v>15965</v>
+        <v>15962</v>
       </c>
       <c r="C1135" t="s">
-        <v>35</v>
+        <v>1697</v>
       </c>
       <c r="D1135" t="s">
-        <v>539</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B1136" s="2">
-        <v>15965</v>
+        <v>15963</v>
       </c>
       <c r="C1136" t="s">
         <v>831</v>
       </c>
       <c r="D1136" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B1137" s="2">
-        <v>15968</v>
+        <v>15965</v>
       </c>
       <c r="C1137" t="s">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="D1137" t="s">
-        <v>1701</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B1138" s="2">
-        <v>15969</v>
+        <v>15965</v>
       </c>
       <c r="C1138" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1138" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1704</v>
+        <v>1690</v>
       </c>
       <c r="B1139" s="2">
-        <v>15971</v>
+        <v>15968</v>
       </c>
       <c r="C1139" t="s">
-        <v>1124</v>
+        <v>531</v>
       </c>
       <c r="D1139" t="s">
-        <v>351</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
       <c r="B1140" s="2">
-        <v>15973</v>
+        <v>15969</v>
       </c>
       <c r="C1140" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1140" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B1141" s="2">
-        <v>15973</v>
+        <v>15971</v>
       </c>
       <c r="C1141" t="s">
-        <v>162</v>
+        <v>1124</v>
       </c>
       <c r="D1141" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B1142" s="2">
-        <v>15974</v>
+        <v>15973</v>
       </c>
       <c r="C1142" t="s">
         <v>831</v>
@@ -24760,83 +24796,83 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B1143" s="2">
-        <v>15975</v>
+        <v>15973</v>
       </c>
       <c r="C1143" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1143" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B1144" s="2">
-        <v>15976</v>
+        <v>15974</v>
       </c>
       <c r="C1144" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1144" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1729</v>
+        <v>1708</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>15975</v>
       </c>
       <c r="C1145" t="s">
         <v>831</v>
       </c>
       <c r="D1145" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B1146" s="2">
-        <v>15981</v>
+        <v>15976</v>
       </c>
       <c r="C1146" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1146" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B1147" s="2">
-        <v>15985</v>
+        <v>1710</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1729</v>
       </c>
       <c r="C1147" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1147" t="s">
-        <v>1734</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B1148" s="2">
-        <v>15986</v>
+        <v>15981</v>
       </c>
       <c r="C1148" t="s">
-        <v>1732</v>
+        <v>831</v>
       </c>
       <c r="D1148" t="s">
         <v>86</v>
@@ -24844,41 +24880,41 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B1149" s="2">
-        <v>15989</v>
+        <v>15985</v>
       </c>
       <c r="C1149" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1149" t="s">
-        <v>351</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B1150" s="2">
-        <v>15990</v>
+        <v>15986</v>
       </c>
       <c r="C1150" t="s">
-        <v>831</v>
+        <v>1732</v>
       </c>
       <c r="D1150" t="s">
-        <v>1735</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B1151" s="2">
-        <v>15994</v>
+        <v>15989</v>
       </c>
       <c r="C1151" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1151" t="s">
         <v>351</v>
@@ -24886,108 +24922,108 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B1152" s="2">
-        <v>15994</v>
+        <v>15990</v>
       </c>
       <c r="C1152" t="s">
         <v>831</v>
       </c>
       <c r="D1152" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B1153" s="2">
-        <v>15995</v>
+        <v>15994</v>
       </c>
       <c r="C1153" t="s">
-        <v>1733</v>
+        <v>831</v>
       </c>
       <c r="D1153" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="B1154" s="2">
-        <v>15998</v>
+        <v>15994</v>
       </c>
       <c r="C1154" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1154" t="s">
-        <v>351</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B1155" s="2">
-        <v>15999</v>
+        <v>15995</v>
       </c>
       <c r="C1155" t="s">
-        <v>1164</v>
+        <v>1733</v>
       </c>
       <c r="D1155" t="s">
-        <v>1737</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1720</v>
+        <v>1730</v>
       </c>
       <c r="B1156" s="2">
-        <v>16000</v>
+        <v>15998</v>
       </c>
       <c r="C1156" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1156" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B1157" s="2">
-        <v>16002</v>
+        <v>15999</v>
       </c>
       <c r="C1157" t="s">
-        <v>822</v>
+        <v>1164</v>
       </c>
       <c r="D1157" t="s">
-        <v>351</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B1158" s="2">
-        <v>16003</v>
+        <v>16000</v>
       </c>
       <c r="C1158" t="s">
         <v>831</v>
       </c>
       <c r="D1158" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B1159" s="2">
-        <v>16003</v>
+        <v>16002</v>
       </c>
       <c r="C1159" t="s">
         <v>822</v>
@@ -24998,38 +25034,38 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B1160" s="2">
-        <v>16004</v>
+        <v>16003</v>
       </c>
       <c r="C1160" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1160" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B1161" s="2">
-        <v>16005</v>
+        <v>16003</v>
       </c>
       <c r="C1161" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1161" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="B1162" s="2">
-        <v>16005</v>
+        <v>16004</v>
       </c>
       <c r="C1162" t="s">
         <v>822</v>
@@ -25040,105 +25076,105 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B1163" s="2">
-        <v>16007</v>
+        <v>16005</v>
       </c>
       <c r="C1163" t="s">
         <v>831</v>
       </c>
       <c r="D1163" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="B1164" s="2">
-        <v>16008</v>
+        <v>16005</v>
       </c>
       <c r="C1164" t="s">
-        <v>1164</v>
+        <v>822</v>
       </c>
       <c r="D1164" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B1165" s="2">
-        <v>16009</v>
+        <v>16007</v>
       </c>
       <c r="C1165" t="s">
-        <v>623</v>
+        <v>831</v>
       </c>
       <c r="D1165" t="s">
-        <v>1248</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1833</v>
+        <v>1727</v>
       </c>
       <c r="B1166" s="2">
-        <v>16011</v>
+        <v>16008</v>
       </c>
       <c r="C1166" t="s">
-        <v>1865</v>
+        <v>1164</v>
       </c>
       <c r="D1166" t="s">
-        <v>2036</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1834</v>
+        <v>1728</v>
       </c>
       <c r="B1167" s="2">
-        <v>16011</v>
+        <v>16009</v>
       </c>
       <c r="C1167" t="s">
-        <v>822</v>
+        <v>623</v>
       </c>
       <c r="D1167" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B1168" s="2">
         <v>16011</v>
       </c>
       <c r="C1168" t="s">
-        <v>831</v>
+        <v>1865</v>
       </c>
       <c r="D1168" t="s">
-        <v>1867</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B1169" s="2">
         <v>16011</v>
       </c>
       <c r="C1169" t="s">
-        <v>184</v>
+        <v>822</v>
       </c>
       <c r="D1169" t="s">
-        <v>2037</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B1170" s="2">
         <v>16011</v>
@@ -25147,250 +25183,250 @@
         <v>831</v>
       </c>
       <c r="D1170" t="s">
-        <v>400</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B1171" s="2">
-        <v>16013</v>
+        <v>16011</v>
       </c>
       <c r="C1171" t="s">
-        <v>831</v>
+        <v>184</v>
       </c>
       <c r="D1171" t="s">
-        <v>400</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B1172" s="2">
-        <v>16015</v>
+        <v>16011</v>
       </c>
       <c r="C1172" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="D1172" t="s">
-        <v>1868</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B1173" s="2">
-        <v>16015</v>
+        <v>16013</v>
       </c>
       <c r="C1173" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1173" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B1174" s="2">
-        <v>16016</v>
+        <v>16015</v>
       </c>
       <c r="C1174" t="s">
-        <v>1866</v>
+        <v>681</v>
       </c>
       <c r="D1174" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B1175" s="2">
-        <v>16017</v>
+        <v>16015</v>
       </c>
       <c r="C1175" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1175" t="s">
-        <v>1869</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B1176" s="2">
-        <v>16021</v>
+        <v>16016</v>
       </c>
       <c r="C1176" t="s">
-        <v>831</v>
+        <v>1866</v>
       </c>
       <c r="D1176" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B1177" s="2">
-        <v>16021</v>
+        <v>16017</v>
       </c>
       <c r="C1177" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1177" t="s">
-        <v>351</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B1178" s="2">
-        <v>16024</v>
+        <v>16021</v>
       </c>
       <c r="C1178" t="s">
-        <v>968</v>
+        <v>831</v>
       </c>
       <c r="D1178" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B1179" s="2">
-        <v>16026</v>
+        <v>16021</v>
       </c>
       <c r="C1179" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1179" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B1180" s="2">
-        <v>16026</v>
+        <v>16024</v>
       </c>
       <c r="C1180" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1180" t="s">
-        <v>351</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B1181" s="2">
-        <v>16027</v>
+        <v>16026</v>
       </c>
       <c r="C1181" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1181" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B1182" s="2">
-        <v>16028</v>
+        <v>16026</v>
       </c>
       <c r="C1182" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1182" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B1183" s="2">
-        <v>16029</v>
+        <v>16027</v>
       </c>
       <c r="C1183" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1183" t="s">
-        <v>1563</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B1184" s="2">
-        <v>16030</v>
+        <v>16028</v>
       </c>
       <c r="C1184" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1184" t="s">
-        <v>173</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>1863</v>
+        <v>1850</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>16029</v>
       </c>
       <c r="C1185" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1185" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B1186" s="2">
-        <v>16032</v>
+        <v>16030</v>
       </c>
       <c r="C1186" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1186" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1187" s="2">
-        <v>16032</v>
+        <v>1852</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1863</v>
       </c>
       <c r="C1187" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1187" t="s">
-        <v>1870</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B1188" s="2">
         <v>16032</v>
@@ -25399,57 +25435,57 @@
         <v>831</v>
       </c>
       <c r="D1188" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B1189" s="2">
-        <v>16033</v>
+        <v>16032</v>
       </c>
       <c r="C1189" t="s">
-        <v>48</v>
+        <v>822</v>
       </c>
       <c r="D1189" t="s">
-        <v>688</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B1190" s="2">
-        <v>16035</v>
+        <v>16032</v>
       </c>
       <c r="C1190" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1190" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B1191" s="2">
-        <v>16039</v>
+        <v>16033</v>
       </c>
       <c r="C1191" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="D1191" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>1864</v>
+        <v>1857</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>16035</v>
       </c>
       <c r="C1192" t="s">
         <v>822</v>
@@ -25460,167 +25496,167 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B1193" s="2">
-        <v>16041</v>
+        <v>16039</v>
       </c>
       <c r="C1193" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1193" t="s">
-        <v>86</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B1194" s="2">
-        <v>16042</v>
+        <v>1859</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1864</v>
       </c>
       <c r="C1194" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D1194" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B1195" s="2">
-        <v>16043</v>
+        <v>16041</v>
       </c>
       <c r="C1195" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1195" t="s">
-        <v>1873</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
       <c r="B1196" s="2">
-        <v>16043</v>
+        <v>16042</v>
       </c>
       <c r="C1196" t="s">
-        <v>623</v>
+        <v>35</v>
       </c>
       <c r="D1196" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="B1197" s="2">
-        <v>16045</v>
+        <v>16043</v>
       </c>
       <c r="C1197" t="s">
-        <v>1895</v>
+        <v>162</v>
       </c>
       <c r="D1197" t="s">
-        <v>1897</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B1198" t="s">
-        <v>1894</v>
+        <v>1874</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>16043</v>
       </c>
       <c r="C1198" t="s">
-        <v>1028</v>
+        <v>623</v>
       </c>
       <c r="D1198" t="s">
-        <v>494</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B1199" s="2">
-        <v>16047</v>
+        <v>16045</v>
       </c>
       <c r="C1199" t="s">
-        <v>681</v>
+        <v>1895</v>
       </c>
       <c r="D1199" t="s">
-        <v>1133</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B1200" s="2">
-        <v>16047</v>
+        <v>1876</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1894</v>
       </c>
       <c r="C1200" t="s">
-        <v>831</v>
+        <v>1028</v>
       </c>
       <c r="D1200" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="B1201" s="2">
         <v>16047</v>
       </c>
       <c r="C1201" t="s">
-        <v>831</v>
+        <v>681</v>
       </c>
       <c r="D1201" t="s">
-        <v>400</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B1202" s="2">
-        <v>16049</v>
+        <v>16047</v>
       </c>
       <c r="C1202" t="s">
-        <v>2038</v>
+        <v>831</v>
       </c>
       <c r="D1202" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B1203" s="2">
-        <v>16049</v>
+        <v>16047</v>
       </c>
       <c r="C1203" t="s">
-        <v>682</v>
+        <v>831</v>
       </c>
       <c r="D1203" t="s">
-        <v>1907</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B1204" s="2">
-        <v>16054</v>
+        <v>16049</v>
       </c>
       <c r="C1204" t="s">
-        <v>822</v>
+        <v>2038</v>
       </c>
       <c r="D1204" t="s">
         <v>351</v>
@@ -25628,503 +25664,503 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B1205" s="2">
-        <v>16055</v>
+        <v>16049</v>
       </c>
       <c r="C1205" t="s">
-        <v>162</v>
+        <v>682</v>
       </c>
       <c r="D1205" t="s">
-        <v>539</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1206" s="2">
-        <v>16055</v>
+        <v>16054</v>
       </c>
       <c r="C1206" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1206" t="s">
-        <v>1898</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B1207" s="2">
-        <v>16058</v>
+        <v>16055</v>
       </c>
       <c r="C1207" t="s">
-        <v>1473</v>
+        <v>162</v>
       </c>
       <c r="D1207" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B1208" s="2">
-        <v>16059</v>
+        <v>16055</v>
       </c>
       <c r="C1208" t="s">
         <v>831</v>
       </c>
       <c r="D1208" t="s">
-        <v>86</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1209" s="2">
-        <v>16060</v>
+        <v>16058</v>
       </c>
       <c r="C1209" t="s">
-        <v>162</v>
+        <v>1473</v>
       </c>
       <c r="D1209" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="B1210" s="2">
-        <v>16063</v>
+        <v>16059</v>
       </c>
       <c r="C1210" t="s">
-        <v>1896</v>
+        <v>831</v>
       </c>
       <c r="D1210" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="B1211" s="2">
-        <v>16064</v>
+        <v>16060</v>
       </c>
       <c r="C1211" t="s">
-        <v>1083</v>
+        <v>162</v>
       </c>
       <c r="D1211" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1212" s="2">
-        <v>16066</v>
+        <v>16063</v>
       </c>
       <c r="C1212" t="s">
-        <v>531</v>
+        <v>1896</v>
       </c>
       <c r="D1212" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1213" s="2">
-        <v>16067</v>
+        <v>16064</v>
       </c>
       <c r="C1213" t="s">
-        <v>1558</v>
+        <v>1083</v>
       </c>
       <c r="D1213" t="s">
-        <v>1899</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B1214" s="2">
-        <v>16069</v>
+        <v>16066</v>
       </c>
       <c r="C1214" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1214" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B1215" s="2">
-        <v>16071</v>
+        <v>16067</v>
       </c>
       <c r="C1215" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1215" t="s">
-        <v>1869</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="B1216" s="2">
-        <v>16074</v>
+        <v>16069</v>
       </c>
       <c r="C1216" t="s">
-        <v>683</v>
+        <v>822</v>
       </c>
       <c r="D1216" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="B1217" s="2">
-        <v>16083</v>
+        <v>16071</v>
       </c>
       <c r="C1217" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1217" t="s">
-        <v>1943</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B1218" s="2">
-        <v>16085</v>
+        <v>16074</v>
       </c>
       <c r="C1218" t="s">
-        <v>2039</v>
+        <v>683</v>
       </c>
       <c r="D1218" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B1219" s="2">
-        <v>16085</v>
+        <v>16083</v>
       </c>
       <c r="C1219" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1219" t="s">
-        <v>86</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B1220" s="2">
         <v>16085</v>
       </c>
       <c r="C1220" t="s">
-        <v>831</v>
+        <v>2039</v>
       </c>
       <c r="D1220" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B1221" s="2">
-        <v>16086</v>
+        <v>16085</v>
       </c>
       <c r="C1221" t="s">
-        <v>2038</v>
+        <v>831</v>
       </c>
       <c r="D1221" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1222" t="s">
-        <v>1937</v>
+        <v>1912</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>16085</v>
       </c>
       <c r="C1222" t="s">
-        <v>25</v>
+        <v>831</v>
       </c>
       <c r="D1222" t="s">
-        <v>1328</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B1223" s="2">
-        <v>16087</v>
+        <v>16086</v>
       </c>
       <c r="C1223" t="s">
-        <v>1938</v>
+        <v>2038</v>
       </c>
       <c r="D1223" t="s">
-        <v>1133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B1224" s="2">
-        <v>16089</v>
+        <v>1914</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>1937</v>
       </c>
       <c r="C1224" t="s">
-        <v>831</v>
+        <v>25</v>
       </c>
       <c r="D1224" t="s">
-        <v>86</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B1225" s="2">
-        <v>16090</v>
+        <v>16087</v>
       </c>
       <c r="C1225" t="s">
-        <v>831</v>
+        <v>1938</v>
       </c>
       <c r="D1225" t="s">
-        <v>1944</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B1226" s="2">
-        <v>16092</v>
+        <v>16089</v>
       </c>
       <c r="C1226" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1226" t="s">
-        <v>1775</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B1227" s="2">
-        <v>16096</v>
+        <v>16090</v>
       </c>
       <c r="C1227" t="s">
-        <v>1087</v>
+        <v>831</v>
       </c>
       <c r="D1227" t="s">
-        <v>86</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B1228" s="2">
-        <v>16100</v>
+        <v>16092</v>
       </c>
       <c r="C1228" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1228" t="s">
-        <v>2040</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B1229" s="2">
-        <v>16103</v>
+        <v>16096</v>
       </c>
       <c r="C1229" t="s">
-        <v>822</v>
+        <v>1087</v>
       </c>
       <c r="D1229" t="s">
-        <v>2283</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B1230" s="2">
-        <v>16103</v>
+        <v>16100</v>
       </c>
       <c r="C1230" t="s">
-        <v>683</v>
+        <v>831</v>
       </c>
       <c r="D1230" t="s">
-        <v>2284</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B1231" s="2">
-        <v>16107</v>
+        <v>16103</v>
       </c>
       <c r="C1231" t="s">
-        <v>681</v>
+        <v>822</v>
       </c>
       <c r="D1231" t="s">
-        <v>1133</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="B1232" s="2">
-        <v>16112</v>
+        <v>16103</v>
       </c>
       <c r="C1232" t="s">
-        <v>1939</v>
+        <v>683</v>
       </c>
       <c r="D1232" t="s">
-        <v>1945</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B1233" s="2">
-        <v>16113</v>
+        <v>16107</v>
       </c>
       <c r="C1233" t="s">
-        <v>2041</v>
+        <v>681</v>
       </c>
       <c r="D1233" t="s">
-        <v>1946</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="B1234" s="2">
-        <v>16113</v>
+        <v>16112</v>
       </c>
       <c r="C1234" t="s">
-        <v>831</v>
+        <v>1939</v>
       </c>
       <c r="D1234" t="s">
-        <v>400</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B1235" s="2">
-        <v>16114</v>
+        <v>16113</v>
       </c>
       <c r="C1235" t="s">
-        <v>831</v>
+        <v>2041</v>
       </c>
       <c r="D1235" t="s">
-        <v>86</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="B1236" s="2">
-        <v>16117</v>
+        <v>16113</v>
       </c>
       <c r="C1236" t="s">
         <v>831</v>
       </c>
       <c r="D1236" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B1237" s="2">
-        <v>16117</v>
+        <v>16114</v>
       </c>
       <c r="C1237" t="s">
-        <v>1940</v>
+        <v>831</v>
       </c>
       <c r="D1237" t="s">
-        <v>2285</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B1238" s="2">
-        <v>16118</v>
+        <v>16117</v>
       </c>
       <c r="C1238" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1238" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B1239" s="2">
-        <v>16118</v>
+        <v>16117</v>
       </c>
       <c r="C1239" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D1239" t="s">
-        <v>351</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="B1240" s="2">
-        <v>16120</v>
+        <v>16118</v>
       </c>
       <c r="C1240" t="s">
-        <v>1942</v>
+        <v>822</v>
       </c>
       <c r="D1240" t="s">
         <v>351</v>
@@ -26132,52 +26168,52 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B1241" s="2">
-        <v>16121</v>
+        <v>16118</v>
       </c>
       <c r="C1241" t="s">
-        <v>52</v>
+        <v>1941</v>
       </c>
       <c r="D1241" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B1242" s="2">
-        <v>16123</v>
+        <v>16120</v>
       </c>
       <c r="C1242" t="s">
-        <v>831</v>
+        <v>1942</v>
       </c>
       <c r="D1242" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B1243" s="2">
-        <v>16124</v>
+        <v>16121</v>
       </c>
       <c r="C1243" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="D1243" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B1244" s="2">
-        <v>16128</v>
+        <v>16123</v>
       </c>
       <c r="C1244" t="s">
         <v>831</v>
@@ -26188,136 +26224,136 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
       <c r="B1245" s="2">
-        <v>16131</v>
+        <v>16124</v>
       </c>
       <c r="C1245" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1245" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1246" t="s">
-        <v>1974</v>
+        <v>1936</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>16128</v>
       </c>
       <c r="C1246" t="s">
-        <v>1976</v>
+        <v>831</v>
       </c>
       <c r="D1246" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B1247" s="2">
-        <v>16132</v>
+        <v>16131</v>
       </c>
       <c r="C1247" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1247" t="s">
-        <v>1359</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B1248" s="2">
-        <v>16132</v>
+        <v>1948</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1974</v>
       </c>
       <c r="C1248" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D1248" t="s">
-        <v>1983</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B1249" s="2">
-        <v>16136</v>
+        <v>16132</v>
       </c>
       <c r="C1249" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1249" t="s">
-        <v>1133</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="B1250" s="2">
-        <v>16136</v>
+        <v>16132</v>
       </c>
       <c r="C1250" t="s">
-        <v>1558</v>
+        <v>1977</v>
       </c>
       <c r="D1250" t="s">
-        <v>1978</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B1251" s="2">
-        <v>16140</v>
+        <v>16136</v>
       </c>
       <c r="C1251" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1251" t="s">
-        <v>539</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="B1252" s="2">
-        <v>16141</v>
+        <v>16136</v>
       </c>
       <c r="C1252" t="s">
-        <v>1772</v>
+        <v>1558</v>
       </c>
       <c r="D1252" t="s">
-        <v>86</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="B1253" s="2">
-        <v>16142</v>
+        <v>16140</v>
       </c>
       <c r="C1253" t="s">
-        <v>1772</v>
+        <v>162</v>
       </c>
       <c r="D1253" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1254" t="s">
-        <v>1975</v>
+        <v>1954</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>16141</v>
       </c>
       <c r="C1254" t="s">
         <v>1772</v>
@@ -26328,24 +26364,24 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B1255" s="2">
-        <v>16143</v>
+        <v>16142</v>
       </c>
       <c r="C1255" t="s">
         <v>1772</v>
       </c>
       <c r="D1255" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1256" s="2">
-        <v>16144</v>
+        <v>1956</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1975</v>
       </c>
       <c r="C1256" t="s">
         <v>1772</v>
@@ -26356,133 +26392,133 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="B1257" s="2">
-        <v>16144</v>
+        <v>16143</v>
       </c>
       <c r="C1257" t="s">
         <v>1772</v>
       </c>
       <c r="D1257" t="s">
-        <v>1979</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="B1258" s="2">
-        <v>16146</v>
+        <v>16144</v>
       </c>
       <c r="C1258" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1258" t="s">
-        <v>1980</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B1259" s="2">
-        <v>16147</v>
+        <v>16144</v>
       </c>
       <c r="C1259" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1259" t="s">
-        <v>351</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B1260" s="2">
-        <v>16150</v>
+        <v>16146</v>
       </c>
       <c r="C1260" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1260" t="s">
-        <v>1359</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="B1261" s="2">
-        <v>16150</v>
+        <v>16147</v>
       </c>
       <c r="C1261" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1261" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B1262" s="2">
-        <v>16151</v>
+        <v>16150</v>
       </c>
       <c r="C1262" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1262" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B1263" s="2">
-        <v>16152</v>
+        <v>16150</v>
       </c>
       <c r="C1263" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1263" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B1264" s="2">
-        <v>16154</v>
+        <v>16151</v>
       </c>
       <c r="C1264" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1264" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B1265" s="2">
-        <v>16154</v>
+        <v>16152</v>
       </c>
       <c r="C1265" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1265" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B1266" s="2">
         <v>16154</v>
@@ -26496,83 +26532,83 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B1267" s="2">
-        <v>16155</v>
+        <v>16154</v>
       </c>
       <c r="C1267" t="s">
-        <v>681</v>
+        <v>1772</v>
       </c>
       <c r="D1267" t="s">
-        <v>1981</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="B1268" s="2">
-        <v>16155</v>
+        <v>16154</v>
       </c>
       <c r="C1268" t="s">
         <v>1772</v>
       </c>
       <c r="D1268" t="s">
-        <v>1982</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B1269" s="2">
-        <v>16156</v>
+        <v>16155</v>
       </c>
       <c r="C1269" t="s">
-        <v>41</v>
+        <v>681</v>
       </c>
       <c r="D1269" t="s">
-        <v>400</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="B1270" s="2">
-        <v>16157</v>
+        <v>16155</v>
       </c>
       <c r="C1270" t="s">
         <v>1772</v>
       </c>
       <c r="D1270" t="s">
-        <v>86</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B1271" s="2">
-        <v>16161</v>
+        <v>16156</v>
       </c>
       <c r="C1271" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="D1271" t="s">
-        <v>1984</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="B1272" s="2">
-        <v>16163</v>
+        <v>16157</v>
       </c>
       <c r="C1272" t="s">
-        <v>2016</v>
+        <v>1772</v>
       </c>
       <c r="D1272" t="s">
         <v>86</v>
@@ -26580,38 +26616,38 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="B1273" s="2">
-        <v>16163</v>
+        <v>16161</v>
       </c>
       <c r="C1273" t="s">
-        <v>831</v>
+        <v>385</v>
       </c>
       <c r="D1273" t="s">
-        <v>86</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="B1274" s="2">
-        <v>16166</v>
+        <v>16163</v>
       </c>
       <c r="C1274" t="s">
-        <v>35</v>
+        <v>2016</v>
       </c>
       <c r="D1274" t="s">
-        <v>1443</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="B1275" s="2">
-        <v>16169</v>
+        <v>16163</v>
       </c>
       <c r="C1275" t="s">
         <v>831</v>
@@ -26622,13 +26658,13 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B1276" s="2">
-        <v>16169</v>
+        <v>16166</v>
       </c>
       <c r="C1276" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1276" t="s">
         <v>1443</v>
@@ -26636,349 +26672,349 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="B1277" s="2">
-        <v>16172</v>
+        <v>16169</v>
       </c>
       <c r="C1277" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1277" t="s">
-        <v>2023</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B1278" s="2">
-        <v>16174</v>
+        <v>16169</v>
       </c>
       <c r="C1278" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1278" t="s">
-        <v>86</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B1279" s="2">
-        <v>16174</v>
+        <v>16172</v>
       </c>
       <c r="C1279" t="s">
-        <v>2017</v>
+        <v>162</v>
       </c>
       <c r="D1279" t="s">
-        <v>1443</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B1280" s="2">
-        <v>16175</v>
+        <v>16174</v>
       </c>
       <c r="C1280" t="s">
-        <v>149</v>
+        <v>831</v>
       </c>
       <c r="D1280" t="s">
-        <v>2024</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B1281" s="2">
-        <v>16177</v>
+        <v>16174</v>
       </c>
       <c r="C1281" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D1281" t="s">
-        <v>2025</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B1282" s="2">
-        <v>16179</v>
+        <v>16175</v>
       </c>
       <c r="C1282" t="s">
-        <v>2019</v>
+        <v>149</v>
       </c>
       <c r="D1282" t="s">
-        <v>351</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B1283" s="2">
-        <v>16180</v>
+        <v>16177</v>
       </c>
       <c r="C1283" t="s">
-        <v>162</v>
+        <v>2018</v>
       </c>
       <c r="D1283" t="s">
-        <v>86</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B1284" s="2">
-        <v>16181</v>
+        <v>16179</v>
       </c>
       <c r="C1284" t="s">
-        <v>831</v>
+        <v>2019</v>
       </c>
       <c r="D1284" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="B1285" s="2">
-        <v>16181</v>
+        <v>16180</v>
       </c>
       <c r="C1285" t="s">
-        <v>2020</v>
+        <v>162</v>
       </c>
       <c r="D1285" t="s">
-        <v>1166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B1286" s="2">
-        <v>16183</v>
+        <v>16181</v>
       </c>
       <c r="C1286" t="s">
         <v>831</v>
       </c>
       <c r="D1286" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B1287" s="2">
-        <v>16194</v>
+        <v>16181</v>
       </c>
       <c r="C1287" t="s">
-        <v>968</v>
+        <v>2020</v>
       </c>
       <c r="D1287" t="s">
-        <v>2026</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B1288" s="2">
-        <v>16197</v>
+        <v>16183</v>
       </c>
       <c r="C1288" t="s">
-        <v>642</v>
+        <v>831</v>
       </c>
       <c r="D1288" t="s">
-        <v>2027</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="B1289" s="2">
-        <v>16198</v>
+        <v>16194</v>
       </c>
       <c r="C1289" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1289" t="s">
-        <v>1359</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B1290" s="2">
-        <v>16209</v>
+        <v>16197</v>
       </c>
       <c r="C1290" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1290" t="s">
-        <v>210</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B1291" s="2">
-        <v>16210</v>
+        <v>16198</v>
       </c>
       <c r="C1291" t="s">
-        <v>2021</v>
+        <v>162</v>
       </c>
       <c r="D1291" t="s">
-        <v>2028</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B1292" s="2">
-        <v>16210</v>
+        <v>16209</v>
       </c>
       <c r="C1292" t="s">
-        <v>2022</v>
+        <v>162</v>
       </c>
       <c r="D1292" t="s">
-        <v>2031</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B1293" s="2">
-        <v>16213</v>
+        <v>16210</v>
       </c>
       <c r="C1293" t="s">
-        <v>831</v>
+        <v>2021</v>
       </c>
       <c r="D1293" t="s">
-        <v>86</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B1294" s="2">
-        <v>16214</v>
+        <v>16210</v>
       </c>
       <c r="C1294" t="s">
-        <v>162</v>
+        <v>2022</v>
       </c>
       <c r="D1294" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B1295" s="2">
-        <v>16218</v>
+        <v>16213</v>
       </c>
       <c r="C1295" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1295" t="s">
-        <v>2030</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B1296" s="2">
-        <v>16219</v>
+        <v>16214</v>
       </c>
       <c r="C1296" t="s">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="D1296" t="s">
-        <v>740</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B1297" s="2">
-        <v>16226</v>
+        <v>16218</v>
       </c>
       <c r="C1297" t="s">
-        <v>1085</v>
+        <v>725</v>
       </c>
       <c r="D1297" t="s">
-        <v>1811</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B1298" s="2">
-        <v>16228</v>
+        <v>16219</v>
       </c>
       <c r="C1298" t="s">
-        <v>162</v>
+        <v>683</v>
       </c>
       <c r="D1298" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B1299" s="2">
-        <v>16228</v>
+        <v>16226</v>
       </c>
       <c r="C1299" t="s">
-        <v>162</v>
+        <v>1085</v>
       </c>
       <c r="D1299" t="s">
-        <v>1359</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B1300" s="2">
-        <v>16229</v>
+        <v>16228</v>
       </c>
       <c r="C1300" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1300" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B1301" s="2">
-        <v>16236</v>
+        <v>16228</v>
       </c>
       <c r="C1301" t="s">
-        <v>725</v>
+        <v>162</v>
       </c>
       <c r="D1301" t="s">
         <v>1359</v>
@@ -26986,83 +27022,83 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B1302" s="2">
-        <v>16237</v>
+        <v>16229</v>
       </c>
       <c r="C1302" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1302" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2042</v>
+        <v>2014</v>
       </c>
       <c r="B1303" s="2">
-        <v>16254</v>
+        <v>16236</v>
       </c>
       <c r="C1303" t="s">
-        <v>162</v>
+        <v>725</v>
       </c>
       <c r="D1303" t="s">
-        <v>539</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>2043</v>
+        <v>2015</v>
       </c>
       <c r="B1304" s="2">
-        <v>16255</v>
+        <v>16237</v>
       </c>
       <c r="C1304" t="s">
-        <v>2049</v>
+        <v>162</v>
       </c>
       <c r="D1304" t="s">
-        <v>2024</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B1305" s="2">
-        <v>16258</v>
+        <v>16254</v>
       </c>
       <c r="C1305" t="s">
-        <v>2050</v>
+        <v>162</v>
       </c>
       <c r="D1305" t="s">
-        <v>1520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B1306" s="2">
-        <v>16258</v>
+        <v>16255</v>
       </c>
       <c r="C1306" t="s">
-        <v>1087</v>
+        <v>2049</v>
       </c>
       <c r="D1306" t="s">
-        <v>2052</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B1307" s="2">
-        <v>16266</v>
+        <v>16258</v>
       </c>
       <c r="C1307" t="s">
-        <v>531</v>
+        <v>2050</v>
       </c>
       <c r="D1307" t="s">
         <v>1520</v>
@@ -27070,195 +27106,195 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B1308" s="2">
-        <v>16276</v>
+        <v>16258</v>
       </c>
       <c r="C1308" t="s">
-        <v>2051</v>
+        <v>1087</v>
       </c>
       <c r="D1308" t="s">
-        <v>2286</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B1309" s="2">
-        <v>16277</v>
+        <v>16266</v>
       </c>
       <c r="C1309" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1309" t="s">
-        <v>2053</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="B1310" s="2">
-        <v>16291</v>
+        <v>16276</v>
       </c>
       <c r="C1310" t="s">
-        <v>728</v>
+        <v>2051</v>
       </c>
       <c r="D1310" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="B1311" s="2">
-        <v>16297</v>
+        <v>16277</v>
       </c>
       <c r="C1311" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1311" t="s">
-        <v>2087</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B1312" s="2">
-        <v>16299</v>
+        <v>16291</v>
       </c>
       <c r="C1312" t="s">
-        <v>162</v>
+        <v>728</v>
       </c>
       <c r="D1312" t="s">
-        <v>538</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B1313" s="2">
-        <v>16301</v>
+        <v>16297</v>
       </c>
       <c r="C1313" t="s">
-        <v>184</v>
+        <v>531</v>
       </c>
       <c r="D1313" t="s">
-        <v>1626</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B1314" s="2">
-        <v>16304</v>
+        <v>16299</v>
       </c>
       <c r="C1314" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1314" t="s">
-        <v>1205</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B1315" s="2">
-        <v>16308</v>
+        <v>16301</v>
       </c>
       <c r="C1315" t="s">
-        <v>2084</v>
+        <v>184</v>
       </c>
       <c r="D1315" t="s">
-        <v>53</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B1316" s="2">
-        <v>16308</v>
+        <v>16304</v>
       </c>
       <c r="C1316" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1316" t="s">
-        <v>539</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B1317" s="2">
-        <v>16313</v>
+        <v>16308</v>
       </c>
       <c r="C1317" t="s">
-        <v>725</v>
+        <v>2084</v>
       </c>
       <c r="D1317" t="s">
-        <v>1359</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B1318" s="2">
-        <v>16315</v>
+        <v>16308</v>
       </c>
       <c r="C1318" t="s">
-        <v>2085</v>
+        <v>162</v>
       </c>
       <c r="D1318" t="s">
-        <v>1205</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B1319" s="2">
-        <v>16333</v>
+        <v>16313</v>
       </c>
       <c r="C1319" t="s">
-        <v>2086</v>
+        <v>725</v>
       </c>
       <c r="D1319" t="s">
-        <v>210</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B1320" s="2">
-        <v>16333</v>
+        <v>16315</v>
       </c>
       <c r="C1320" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D1320" t="s">
-        <v>210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B1321" s="2">
         <v>16333</v>
       </c>
       <c r="C1321" t="s">
-        <v>831</v>
+        <v>2086</v>
       </c>
       <c r="D1321" t="s">
         <v>210</v>
@@ -27266,24 +27302,24 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="B1322" s="2">
-        <v>16334</v>
+        <v>16333</v>
       </c>
       <c r="C1322" t="s">
-        <v>831</v>
+        <v>2086</v>
       </c>
       <c r="D1322" t="s">
-        <v>2288</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>2083</v>
+        <v>2065</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>16333</v>
       </c>
       <c r="C1323" t="s">
         <v>831</v>
@@ -27294,209 +27330,209 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B1324" s="2">
-        <v>16340</v>
+        <v>16334</v>
       </c>
       <c r="C1324" t="s">
-        <v>52</v>
+        <v>831</v>
       </c>
       <c r="D1324" t="s">
-        <v>2088</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B1325" s="2">
-        <v>16341</v>
+        <v>2067</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2083</v>
       </c>
       <c r="C1325" t="s">
         <v>831</v>
       </c>
       <c r="D1325" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B1326" s="2">
-        <v>16342</v>
+        <v>16340</v>
       </c>
       <c r="C1326" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D1326" t="s">
-        <v>2024</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B1327" s="2">
-        <v>16343</v>
+        <v>16341</v>
       </c>
       <c r="C1327" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
       <c r="D1327" t="s">
-        <v>2024</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B1328" s="2">
-        <v>16346</v>
+        <v>16342</v>
       </c>
       <c r="C1328" t="s">
-        <v>726</v>
+        <v>149</v>
       </c>
       <c r="D1328" t="s">
-        <v>2091</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B1329" s="2">
-        <v>16347</v>
+        <v>16343</v>
       </c>
       <c r="C1329" t="s">
         <v>726</v>
       </c>
       <c r="D1329" t="s">
-        <v>2089</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B1330" s="2">
-        <v>16347</v>
+        <v>16346</v>
       </c>
       <c r="C1330" t="s">
-        <v>831</v>
+        <v>726</v>
       </c>
       <c r="D1330" t="s">
-        <v>86</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B1331" s="2">
-        <v>16349</v>
+        <v>16347</v>
       </c>
       <c r="C1331" t="s">
-        <v>1083</v>
+        <v>726</v>
       </c>
       <c r="D1331" t="s">
-        <v>400</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B1332" s="2">
-        <v>16354</v>
+        <v>16347</v>
       </c>
       <c r="C1332" t="s">
-        <v>48</v>
+        <v>831</v>
       </c>
       <c r="D1332" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B1333" s="2">
-        <v>16354</v>
+        <v>16349</v>
       </c>
       <c r="C1333" t="s">
-        <v>623</v>
+        <v>1083</v>
       </c>
       <c r="D1333" t="s">
-        <v>1248</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B1334" s="2">
-        <v>16356</v>
+        <v>16354</v>
       </c>
       <c r="C1334" t="s">
-        <v>623</v>
+        <v>48</v>
       </c>
       <c r="D1334" t="s">
-        <v>2289</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B1335" s="2">
-        <v>16356</v>
+        <v>16354</v>
       </c>
       <c r="C1335" t="s">
-        <v>162</v>
+        <v>623</v>
       </c>
       <c r="D1335" t="s">
-        <v>86</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B1336" s="2">
-        <v>16357</v>
+        <v>16356</v>
       </c>
       <c r="C1336" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
       <c r="D1336" t="s">
-        <v>2090</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B1337" s="2">
-        <v>16357</v>
+        <v>16356</v>
       </c>
       <c r="C1337" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1337" t="s">
-        <v>975</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B1338" s="2">
-        <v>16358</v>
+        <v>16357</v>
       </c>
       <c r="C1338" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1338" t="s">
         <v>2090</v>
@@ -27504,307 +27540,307 @@
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>2094</v>
+        <v>2081</v>
       </c>
       <c r="B1339" s="2">
-        <v>16359</v>
+        <v>16357</v>
       </c>
       <c r="C1339" t="s">
-        <v>623</v>
+        <v>789</v>
       </c>
       <c r="D1339" t="s">
-        <v>401</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>2095</v>
+        <v>2082</v>
       </c>
       <c r="B1340" s="2">
-        <v>16359</v>
+        <v>16358</v>
       </c>
       <c r="C1340" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1340" t="s">
-        <v>2116</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B1341" s="2">
-        <v>16360</v>
+        <v>16359</v>
       </c>
       <c r="C1341" t="s">
-        <v>1558</v>
+        <v>623</v>
       </c>
       <c r="D1341" t="s">
-        <v>1899</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B1342" s="2">
-        <v>16362</v>
+        <v>16359</v>
       </c>
       <c r="C1342" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1342" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B1343" s="2">
-        <v>16389</v>
+        <v>16360</v>
       </c>
       <c r="C1343" t="s">
-        <v>1083</v>
+        <v>1558</v>
       </c>
       <c r="D1343" t="s">
-        <v>2118</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B1344" s="2">
-        <v>16391</v>
+        <v>16362</v>
       </c>
       <c r="C1344" t="s">
-        <v>2112</v>
+        <v>162</v>
       </c>
       <c r="D1344" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B1345" s="2">
-        <v>16405</v>
+        <v>16389</v>
       </c>
       <c r="C1345" t="s">
-        <v>149</v>
+        <v>1083</v>
       </c>
       <c r="D1345" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B1346" s="2">
-        <v>16405</v>
+        <v>16391</v>
       </c>
       <c r="C1346" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D1346" t="s">
-        <v>1290</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B1347" s="2">
-        <v>16406</v>
+        <v>16405</v>
       </c>
       <c r="C1347" t="s">
-        <v>725</v>
+        <v>149</v>
       </c>
       <c r="D1347" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B1348" s="2">
-        <v>16409</v>
+        <v>16405</v>
       </c>
       <c r="C1348" t="s">
-        <v>2264</v>
+        <v>2113</v>
       </c>
       <c r="D1348" t="s">
-        <v>351</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B1349" s="2">
-        <v>16414</v>
+        <v>16406</v>
       </c>
       <c r="C1349" t="s">
-        <v>2114</v>
+        <v>725</v>
       </c>
       <c r="D1349" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B1350" s="2">
-        <v>16415</v>
+        <v>16409</v>
       </c>
       <c r="C1350" t="s">
-        <v>52</v>
+        <v>2264</v>
       </c>
       <c r="D1350" t="s">
-        <v>1626</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B1351" s="2">
-        <v>16416</v>
+        <v>16414</v>
       </c>
       <c r="C1351" t="s">
-        <v>35</v>
+        <v>2114</v>
       </c>
       <c r="D1351" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B1352" s="2">
-        <v>16416</v>
+        <v>16415</v>
       </c>
       <c r="C1352" t="s">
-        <v>789</v>
+        <v>52</v>
       </c>
       <c r="D1352" t="s">
-        <v>93</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B1353" s="2">
-        <v>16419</v>
+        <v>16416</v>
       </c>
       <c r="C1353" t="s">
-        <v>728</v>
+        <v>35</v>
       </c>
       <c r="D1353" t="s">
-        <v>2123</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B1354" s="2">
-        <v>16425</v>
+        <v>16416</v>
       </c>
       <c r="C1354" t="s">
-        <v>1866</v>
+        <v>789</v>
       </c>
       <c r="D1354" t="s">
-        <v>2124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B1355" s="2">
-        <v>16431</v>
+        <v>16419</v>
       </c>
       <c r="C1355" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D1355" t="s">
-        <v>1626</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B1356" s="2">
-        <v>16432</v>
+        <v>16425</v>
       </c>
       <c r="C1356" t="s">
-        <v>679</v>
+        <v>1866</v>
       </c>
       <c r="D1356" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2126</v>
+        <v>2110</v>
       </c>
       <c r="B1357" s="2">
-        <v>16432</v>
+        <v>16431</v>
       </c>
       <c r="C1357" t="s">
-        <v>2115</v>
+        <v>725</v>
       </c>
       <c r="D1357" t="s">
-        <v>1443</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B1358" t="s">
-        <v>2156</v>
+        <v>2111</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>16432</v>
       </c>
       <c r="C1358" t="s">
-        <v>789</v>
+        <v>679</v>
       </c>
       <c r="D1358" t="s">
-        <v>1444</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>2156</v>
+        <v>2126</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>16432</v>
       </c>
       <c r="C1359" t="s">
-        <v>728</v>
+        <v>2115</v>
       </c>
       <c r="D1359" t="s">
-        <v>401</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B1360" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C1360" t="s">
-        <v>623</v>
+        <v>789</v>
       </c>
       <c r="D1360" t="s">
         <v>1444</v>
@@ -27812,106 +27848,100 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B1361" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C1361" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D1361" t="s">
-        <v>2163</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B1362" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C1362" t="s">
-        <v>968</v>
+        <v>623</v>
       </c>
       <c r="D1362" t="s">
-        <v>2026</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B1363" t="s">
         <v>2158</v>
       </c>
       <c r="C1363" t="s">
-        <v>1559</v>
+        <v>726</v>
       </c>
       <c r="D1363" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B1364" s="2">
-        <v>16441</v>
+        <v>2131</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2158</v>
       </c>
       <c r="C1364" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1364" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B1365" s="2">
-        <v>16442</v>
+        <v>2132</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2158</v>
       </c>
       <c r="C1365" t="s">
-        <v>2160</v>
+        <v>1559</v>
       </c>
       <c r="D1365" t="s">
-        <v>2026</v>
-      </c>
-      <c r="I1365" t="s">
-        <v>2202</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B1366" s="2">
-        <v>16442</v>
+        <v>16441</v>
       </c>
       <c r="C1366" t="s">
-        <v>789</v>
+        <v>1124</v>
       </c>
       <c r="D1366" t="s">
-        <v>975</v>
-      </c>
-      <c r="I1366" t="s">
-        <v>2202</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B1367" s="2">
         <v>16442</v>
       </c>
       <c r="C1367" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D1367" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1367" t="s">
         <v>2202</v>
@@ -27919,16 +27949,16 @@
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B1368" s="2">
-        <v>16443</v>
+        <v>16442</v>
       </c>
       <c r="C1368" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1368" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1368" t="s">
         <v>2202</v>
@@ -27936,16 +27966,16 @@
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B1369" s="2">
-        <v>16448</v>
+        <v>16442</v>
       </c>
       <c r="C1369" t="s">
-        <v>2265</v>
+        <v>2161</v>
       </c>
       <c r="D1369" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1369" t="s">
         <v>2202</v>
@@ -27953,16 +27983,16 @@
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B1370" s="2">
-        <v>16449</v>
+        <v>16443</v>
       </c>
       <c r="C1370" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1370" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1370" t="s">
         <v>2202</v>
@@ -27970,16 +28000,16 @@
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B1371" s="2">
-        <v>16449</v>
+        <v>16448</v>
       </c>
       <c r="C1371" t="s">
-        <v>623</v>
+        <v>2265</v>
       </c>
       <c r="D1371" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1371" t="s">
         <v>2202</v>
@@ -27987,16 +28017,16 @@
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B1372" s="2">
-        <v>16451</v>
+        <v>16449</v>
       </c>
       <c r="C1372" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1372" t="s">
-        <v>400</v>
+        <v>975</v>
       </c>
       <c r="I1372" t="s">
         <v>2202</v>
@@ -28004,16 +28034,16 @@
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B1373" s="2">
-        <v>16452</v>
+        <v>16449</v>
       </c>
       <c r="C1373" t="s">
-        <v>2162</v>
+        <v>623</v>
       </c>
       <c r="D1373" t="s">
-        <v>2026</v>
+        <v>975</v>
       </c>
       <c r="I1373" t="s">
         <v>2202</v>
@@ -28021,16 +28051,16 @@
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B1374" s="2">
-        <v>16453</v>
+        <v>16451</v>
       </c>
       <c r="C1374" t="s">
-        <v>1124</v>
+        <v>831</v>
       </c>
       <c r="D1374" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="I1374" t="s">
         <v>2202</v>
@@ -28038,16 +28068,16 @@
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="B1375" s="2">
-        <v>16454</v>
+        <v>16452</v>
       </c>
       <c r="C1375" t="s">
-        <v>1441</v>
+        <v>2162</v>
       </c>
       <c r="D1375" t="s">
-        <v>2165</v>
+        <v>2026</v>
       </c>
       <c r="I1375" t="s">
         <v>2202</v>
@@ -28055,10 +28085,10 @@
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B1376" s="2">
-        <v>16454</v>
+        <v>16453</v>
       </c>
       <c r="C1376" t="s">
         <v>1124</v>
@@ -28072,16 +28102,16 @@
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B1377" s="2">
-        <v>16457</v>
+        <v>16454</v>
       </c>
       <c r="C1377" t="s">
-        <v>2397</v>
+        <v>1441</v>
       </c>
       <c r="D1377" t="s">
-        <v>494</v>
+        <v>2165</v>
       </c>
       <c r="I1377" t="s">
         <v>2202</v>
@@ -28089,16 +28119,16 @@
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B1378" s="2">
-        <v>16458</v>
+        <v>16454</v>
       </c>
       <c r="C1378" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1378" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1378" t="s">
         <v>2202</v>
@@ -28106,13 +28136,13 @@
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="B1379" s="2">
-        <v>16458</v>
+        <v>16457</v>
       </c>
       <c r="C1379" t="s">
-        <v>822</v>
+        <v>2397</v>
       </c>
       <c r="D1379" t="s">
         <v>494</v>
@@ -28123,16 +28153,16 @@
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B1380" s="2">
-        <v>16465</v>
+        <v>16458</v>
       </c>
       <c r="C1380" t="s">
-        <v>35</v>
+        <v>968</v>
       </c>
       <c r="D1380" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1380" t="s">
         <v>2202</v>
@@ -28140,16 +28170,16 @@
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B1381" s="2">
-        <v>16466</v>
+        <v>16458</v>
       </c>
       <c r="C1381" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1381" t="s">
-        <v>2166</v>
+        <v>494</v>
       </c>
       <c r="I1381" t="s">
         <v>2202</v>
@@ -28157,16 +28187,16 @@
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B1382" s="2">
-        <v>16467</v>
+        <v>16465</v>
       </c>
       <c r="C1382" t="s">
-        <v>446</v>
+        <v>35</v>
       </c>
       <c r="D1382" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="I1382" t="s">
         <v>2202</v>
@@ -28174,16 +28204,16 @@
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B1383" s="2">
-        <v>16468</v>
+        <v>16466</v>
       </c>
       <c r="C1383" t="s">
-        <v>1895</v>
+        <v>162</v>
       </c>
       <c r="D1383" t="s">
-        <v>494</v>
+        <v>2166</v>
       </c>
       <c r="I1383" t="s">
         <v>2202</v>
@@ -28191,10 +28221,10 @@
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1384" t="s">
-        <v>2159</v>
+        <v>2151</v>
+      </c>
+      <c r="B1384" s="2">
+        <v>16467</v>
       </c>
       <c r="C1384" t="s">
         <v>446</v>
@@ -28208,16 +28238,16 @@
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B1385" s="2">
-        <v>16469</v>
+        <v>16468</v>
       </c>
       <c r="C1385" t="s">
-        <v>1281</v>
+        <v>1895</v>
       </c>
       <c r="D1385" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
       <c r="I1385" t="s">
         <v>2202</v>
@@ -28225,16 +28255,16 @@
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B1386" s="2">
-        <v>16471</v>
+        <v>2153</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>2159</v>
       </c>
       <c r="C1386" t="s">
-        <v>789</v>
+        <v>446</v>
       </c>
       <c r="D1386" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I1386" t="s">
         <v>2202</v>
@@ -28242,13 +28272,13 @@
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="B1387" s="2">
         <v>16469</v>
       </c>
       <c r="C1387" t="s">
-        <v>1124</v>
+        <v>1281</v>
       </c>
       <c r="D1387" t="s">
         <v>2122</v>
@@ -28265,7 +28295,7 @@
         <v>16471</v>
       </c>
       <c r="C1388" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1388" t="s">
         <v>401</v>
@@ -28276,16 +28306,16 @@
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B1389" s="2">
-        <v>16471</v>
+        <v>16469</v>
       </c>
       <c r="C1389" t="s">
         <v>1124</v>
       </c>
       <c r="D1389" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
       <c r="I1389" t="s">
         <v>2202</v>
@@ -28293,16 +28323,16 @@
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2169</v>
+        <v>2155</v>
       </c>
       <c r="B1390" s="2">
-        <v>16472</v>
+        <v>16471</v>
       </c>
       <c r="C1390" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1390" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="I1390" t="s">
         <v>2202</v>
@@ -28310,13 +28340,13 @@
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B1391" s="2">
-        <v>16474</v>
+        <v>16471</v>
       </c>
       <c r="C1391" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1391" t="s">
         <v>494</v>
@@ -28327,16 +28357,16 @@
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="B1392" s="2">
-        <v>16475</v>
+        <v>16472</v>
       </c>
       <c r="C1392" t="s">
-        <v>2197</v>
+        <v>162</v>
       </c>
       <c r="D1392" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="I1392" t="s">
         <v>2202</v>
@@ -28344,16 +28374,16 @@
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="B1393" s="2">
-        <v>16477</v>
+        <v>16474</v>
       </c>
       <c r="C1393" t="s">
-        <v>865</v>
+        <v>822</v>
       </c>
       <c r="D1393" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1393" t="s">
         <v>2202</v>
@@ -28361,16 +28391,16 @@
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B1394" s="2">
-        <v>16478</v>
+        <v>16475</v>
       </c>
       <c r="C1394" t="s">
-        <v>2162</v>
+        <v>2197</v>
       </c>
       <c r="D1394" t="s">
-        <v>2122</v>
+        <v>86</v>
       </c>
       <c r="I1394" t="s">
         <v>2202</v>
@@ -28378,16 +28408,16 @@
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B1395" s="2">
-        <v>16478</v>
+        <v>16477</v>
       </c>
       <c r="C1395" t="s">
-        <v>446</v>
+        <v>865</v>
       </c>
       <c r="D1395" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
       <c r="I1395" t="s">
         <v>2202</v>
@@ -28395,13 +28425,16 @@
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="B1396" s="2">
-        <v>16480</v>
+        <v>16478</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>2162</v>
       </c>
       <c r="D1396" t="s">
-        <v>2026</v>
+        <v>2122</v>
       </c>
       <c r="I1396" t="s">
         <v>2202</v>
@@ -28409,16 +28442,16 @@
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B1397" t="s">
-        <v>2196</v>
+        <v>2174</v>
+      </c>
+      <c r="B1397" s="2">
+        <v>16478</v>
       </c>
       <c r="C1397" t="s">
-        <v>2198</v>
+        <v>446</v>
       </c>
       <c r="D1397" t="s">
-        <v>400</v>
+        <v>688</v>
       </c>
       <c r="I1397" t="s">
         <v>2202</v>
@@ -28426,16 +28459,13 @@
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="B1398" s="2">
-        <v>16481</v>
-      </c>
-      <c r="C1398" t="s">
-        <v>162</v>
+        <v>16480</v>
       </c>
       <c r="D1398" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1398" t="s">
         <v>2202</v>
@@ -28443,16 +28473,16 @@
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B1399" s="2">
-        <v>16482</v>
+        <v>2176</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>2196</v>
       </c>
       <c r="C1399" t="s">
-        <v>1124</v>
+        <v>2198</v>
       </c>
       <c r="D1399" t="s">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="I1399" t="s">
         <v>2202</v>
@@ -28460,16 +28490,16 @@
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="B1400" s="2">
-        <v>16482</v>
+        <v>16481</v>
       </c>
       <c r="C1400" t="s">
-        <v>2039</v>
+        <v>162</v>
       </c>
       <c r="D1400" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1400" t="s">
         <v>2202</v>
@@ -28477,16 +28507,16 @@
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="B1401" s="2">
-        <v>16483</v>
+        <v>16482</v>
       </c>
       <c r="C1401" t="s">
-        <v>2039</v>
+        <v>1124</v>
       </c>
       <c r="D1401" t="s">
-        <v>86</v>
+        <v>2200</v>
       </c>
       <c r="I1401" t="s">
         <v>2202</v>
@@ -28494,16 +28524,16 @@
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="B1402" s="2">
-        <v>16493</v>
+        <v>16482</v>
       </c>
       <c r="C1402" t="s">
-        <v>831</v>
+        <v>2039</v>
       </c>
       <c r="D1402" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1402" t="s">
         <v>2202</v>
@@ -28511,128 +28541,134 @@
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B1403" s="2">
-        <v>16493</v>
+        <v>16483</v>
       </c>
       <c r="C1403" t="s">
-        <v>41</v>
+        <v>2039</v>
       </c>
       <c r="D1403" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="I1403" t="s">
-        <v>2290</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B1404" s="2">
-        <v>16495</v>
+        <v>16493</v>
       </c>
       <c r="C1404" t="s">
-        <v>48</v>
+        <v>831</v>
       </c>
       <c r="D1404" t="s">
-        <v>2201</v>
+        <v>494</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="B1405" s="2">
-        <v>16500</v>
+        <v>16493</v>
       </c>
       <c r="C1405" t="s">
-        <v>968</v>
+        <v>41</v>
       </c>
       <c r="D1405" t="s">
-        <v>150</v>
+        <v>351</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>2290</v>
       </c>
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="B1406" s="2">
-        <v>16500</v>
+        <v>16495</v>
       </c>
       <c r="C1406" t="s">
-        <v>2039</v>
+        <v>48</v>
       </c>
       <c r="D1406" t="s">
-        <v>1248</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B1407" s="2">
-        <v>16501</v>
+        <v>16500</v>
       </c>
       <c r="C1407" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1407" t="s">
-        <v>2036</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="B1408" s="2">
-        <v>16501</v>
+        <v>16500</v>
       </c>
       <c r="C1408" t="s">
-        <v>1895</v>
+        <v>2039</v>
       </c>
       <c r="D1408" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="B1409" s="2">
-        <v>16502</v>
+        <v>16501</v>
       </c>
       <c r="C1409" t="s">
-        <v>1895</v>
+        <v>1124</v>
       </c>
       <c r="D1409" t="s">
-        <v>494</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="B1410" s="2">
-        <v>16503</v>
+        <v>16501</v>
       </c>
       <c r="C1410" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1410" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="B1411" s="2">
-        <v>16503</v>
+        <v>16502</v>
       </c>
       <c r="C1411" t="s">
-        <v>1124</v>
+        <v>1895</v>
       </c>
       <c r="D1411" t="s">
         <v>494</v>
@@ -28640,27 +28676,27 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B1412" s="2">
         <v>16503</v>
       </c>
       <c r="C1412" t="s">
-        <v>2039</v>
+        <v>822</v>
       </c>
       <c r="D1412" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B1413" s="2">
-        <v>16513</v>
+        <v>16503</v>
       </c>
       <c r="C1413" t="s">
-        <v>681</v>
+        <v>1124</v>
       </c>
       <c r="D1413" t="s">
         <v>494</v>
@@ -28668,13 +28704,13 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="B1414" s="2">
-        <v>16514</v>
+        <v>16503</v>
       </c>
       <c r="C1414" t="s">
-        <v>35</v>
+        <v>2039</v>
       </c>
       <c r="D1414" t="s">
         <v>351</v>
@@ -28682,226 +28718,226 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B1415" s="2">
-        <v>16521</v>
+        <v>16513</v>
       </c>
       <c r="C1415" t="s">
-        <v>2199</v>
+        <v>681</v>
       </c>
       <c r="D1415" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="B1416" s="2">
-        <v>16522</v>
+        <v>16514</v>
       </c>
       <c r="C1416" t="s">
-        <v>343</v>
+        <v>35</v>
       </c>
       <c r="D1416" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1416" t="s">
-        <v>2203</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="B1417" s="2">
-        <v>16523</v>
+        <v>16521</v>
       </c>
       <c r="C1417" t="s">
         <v>2199</v>
       </c>
       <c r="D1417" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="B1418" s="2">
-        <v>16524</v>
+        <v>16522</v>
       </c>
       <c r="C1418" t="s">
         <v>343</v>
       </c>
       <c r="D1418" t="s">
-        <v>2226</v>
+        <v>494</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B1419" s="2">
-        <v>16525</v>
+        <v>16523</v>
       </c>
       <c r="C1419" t="s">
-        <v>343</v>
+        <v>2199</v>
       </c>
       <c r="D1419" t="s">
-        <v>794</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B1420" s="2">
-        <v>16530</v>
+        <v>16524</v>
       </c>
       <c r="C1420" t="s">
-        <v>1895</v>
+        <v>343</v>
       </c>
       <c r="D1420" t="s">
-        <v>494</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B1421" s="2">
-        <v>16531</v>
+        <v>16525</v>
       </c>
       <c r="C1421" t="s">
-        <v>725</v>
+        <v>343</v>
       </c>
       <c r="D1421" t="s">
-        <v>351</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B1422" s="2">
-        <v>16531</v>
+        <v>16530</v>
       </c>
       <c r="C1422" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1422" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B1423" s="2">
-        <v>16532</v>
+        <v>16531</v>
       </c>
       <c r="C1423" t="s">
-        <v>968</v>
+        <v>725</v>
       </c>
       <c r="D1423" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B1424" s="2">
-        <v>16532</v>
+        <v>16531</v>
       </c>
       <c r="C1424" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1424" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="B1425" s="2">
-        <v>16537</v>
+        <v>16532</v>
       </c>
       <c r="C1425" t="s">
-        <v>1401</v>
+        <v>968</v>
       </c>
       <c r="D1425" t="s">
-        <v>2291</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="B1426" s="2">
-        <v>16537</v>
+        <v>16532</v>
       </c>
       <c r="C1426" t="s">
-        <v>2266</v>
+        <v>1895</v>
       </c>
       <c r="D1426" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="B1427" s="2">
-        <v>16538</v>
+        <v>16537</v>
       </c>
       <c r="C1427" t="s">
-        <v>1124</v>
+        <v>1401</v>
       </c>
       <c r="D1427" t="s">
-        <v>494</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B1428" s="2">
-        <v>16539</v>
+        <v>16537</v>
       </c>
       <c r="C1428" t="s">
-        <v>2225</v>
+        <v>2266</v>
       </c>
       <c r="D1428" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B1429" s="2">
-        <v>16540</v>
+        <v>16538</v>
       </c>
       <c r="C1429" t="s">
-        <v>343</v>
+        <v>1124</v>
       </c>
       <c r="D1429" t="s">
-        <v>2227</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="B1430" s="2">
-        <v>16549</v>
+        <v>16539</v>
       </c>
       <c r="C1430" t="s">
-        <v>1895</v>
+        <v>2225</v>
       </c>
       <c r="D1430" t="s">
         <v>494</v>
@@ -28909,63 +28945,63 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="B1431" s="2">
-        <v>16552</v>
+        <v>16540</v>
       </c>
       <c r="C1431" t="s">
-        <v>822</v>
+        <v>343</v>
       </c>
       <c r="D1431" t="s">
-        <v>351</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1432" s="2">
-        <v>16553</v>
+        <v>16549</v>
       </c>
       <c r="C1432" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1432" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1433" s="2">
-        <v>16553</v>
+        <v>16552</v>
       </c>
       <c r="C1433" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1433" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1434" s="2">
         <v>16553</v>
       </c>
       <c r="C1434" t="s">
-        <v>20</v>
+        <v>822</v>
       </c>
       <c r="D1434" t="s">
-        <v>2292</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1435" s="2">
         <v>16553</v>
@@ -28979,24 +29015,24 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1436" s="2">
-        <v>16556</v>
+        <v>16553</v>
       </c>
       <c r="C1436" t="s">
-        <v>1281</v>
+        <v>20</v>
       </c>
       <c r="D1436" t="s">
-        <v>2122</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1437" s="2">
-        <v>16557</v>
+        <v>16553</v>
       </c>
       <c r="C1437" t="s">
         <v>1895</v>
@@ -29007,24 +29043,24 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B1438" t="s">
-        <v>2259</v>
+        <v>2223</v>
+      </c>
+      <c r="B1438" s="2">
+        <v>16556</v>
       </c>
       <c r="C1438" t="s">
-        <v>2039</v>
+        <v>1281</v>
       </c>
       <c r="D1438" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="B1439" s="2">
-        <v>16559</v>
+        <v>16557</v>
       </c>
       <c r="C1439" t="s">
         <v>1895</v>
@@ -29035,119 +29071,119 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2230</v>
-      </c>
-      <c r="B1440" s="2">
-        <v>16560</v>
+        <v>2228</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2259</v>
       </c>
       <c r="C1440" t="s">
-        <v>2260</v>
+        <v>2039</v>
       </c>
       <c r="D1440" t="s">
-        <v>2267</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B1441" s="2">
-        <v>16560</v>
+        <v>16559</v>
       </c>
       <c r="C1441" t="s">
-        <v>1281</v>
+        <v>1895</v>
       </c>
       <c r="D1441" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="B1442" s="2">
-        <v>16562</v>
+        <v>16560</v>
       </c>
       <c r="C1442" t="s">
-        <v>1895</v>
+        <v>2260</v>
       </c>
       <c r="D1442" t="s">
-        <v>494</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="B1443" s="2">
-        <v>16565</v>
+        <v>16560</v>
       </c>
       <c r="C1443" t="s">
-        <v>2261</v>
+        <v>1281</v>
       </c>
       <c r="D1443" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B1444" s="2">
-        <v>16572</v>
+        <v>16562</v>
       </c>
       <c r="C1444" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1444" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B1445" s="2">
-        <v>16575</v>
+        <v>16565</v>
       </c>
       <c r="C1445" t="s">
-        <v>968</v>
+        <v>2261</v>
       </c>
       <c r="D1445" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B1446" s="2">
-        <v>16579</v>
+        <v>16572</v>
       </c>
       <c r="C1446" t="s">
-        <v>149</v>
+        <v>822</v>
       </c>
       <c r="D1446" t="s">
-        <v>1897</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B1447" s="2">
-        <v>16579</v>
+        <v>16575</v>
       </c>
       <c r="C1447" t="s">
-        <v>2262</v>
+        <v>968</v>
       </c>
       <c r="D1447" t="s">
-        <v>1897</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="B1448" s="2">
         <v>16579</v>
@@ -29161,35 +29197,35 @@
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B1449" s="2">
         <v>16579</v>
       </c>
       <c r="C1449" t="s">
-        <v>726</v>
+        <v>2262</v>
       </c>
       <c r="D1449" t="s">
-        <v>42</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1450" s="2">
         <v>16579</v>
       </c>
       <c r="C1450" t="s">
-        <v>789</v>
+        <v>149</v>
       </c>
       <c r="D1450" t="s">
-        <v>975</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B1451" s="2">
         <v>16579</v>
@@ -29198,12 +29234,12 @@
         <v>726</v>
       </c>
       <c r="D1451" t="s">
-        <v>2268</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1452" s="2">
         <v>16579</v>
@@ -29217,13 +29253,13 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B1453" s="2">
-        <v>16580</v>
+        <v>16579</v>
       </c>
       <c r="C1453" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1453" t="s">
         <v>2268</v>
@@ -29231,80 +29267,80 @@
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B1454" s="2">
-        <v>16581</v>
+        <v>16579</v>
       </c>
       <c r="C1454" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="D1454" t="s">
-        <v>42</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B1455" s="2">
-        <v>16583</v>
+        <v>16580</v>
       </c>
       <c r="C1455" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1455" t="s">
-        <v>2024</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B1456" s="2">
-        <v>16586</v>
+        <v>16581</v>
       </c>
       <c r="C1456" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1456" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1457" s="2">
-        <v>16586</v>
+        <v>16583</v>
       </c>
       <c r="C1457" t="s">
         <v>726</v>
       </c>
       <c r="D1457" t="s">
-        <v>42</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B1458" s="2">
-        <v>16587</v>
+        <v>16586</v>
       </c>
       <c r="C1458" t="s">
-        <v>1028</v>
+        <v>2160</v>
       </c>
       <c r="D1458" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1459" s="2">
-        <v>16587</v>
+        <v>16586</v>
       </c>
       <c r="C1459" t="s">
         <v>726</v>
@@ -29315,41 +29351,41 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B1460" s="2">
         <v>16587</v>
       </c>
       <c r="C1460" t="s">
-        <v>2263</v>
+        <v>1028</v>
       </c>
       <c r="D1460" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1461" s="2">
         <v>16587</v>
       </c>
       <c r="C1461" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1461" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B1462" s="2">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="C1462" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1462" t="s">
         <v>42</v>
@@ -29357,41 +29393,41 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B1463" s="2">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="C1463" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1463" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B1464" s="2">
         <v>16588</v>
       </c>
       <c r="C1464" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1464" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B1465" s="2">
-        <v>16589</v>
+        <v>16588</v>
       </c>
       <c r="C1465" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1465" t="s">
         <v>42</v>
@@ -29399,63 +29435,63 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B1466" s="2">
-        <v>16591</v>
+        <v>16588</v>
       </c>
       <c r="C1466" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1466" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1467" s="2">
-        <v>16592</v>
+        <v>16589</v>
       </c>
       <c r="C1467" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1467" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B1468" s="2">
-        <v>16599</v>
+        <v>16591</v>
       </c>
       <c r="C1468" t="s">
         <v>726</v>
       </c>
       <c r="D1468" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>2269</v>
+        <v>2257</v>
       </c>
       <c r="B1469" s="2">
-        <v>16599</v>
+        <v>16592</v>
       </c>
       <c r="C1469" t="s">
         <v>726</v>
       </c>
       <c r="D1469" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>2270</v>
+        <v>2258</v>
       </c>
       <c r="B1470" s="2">
         <v>16599</v>
@@ -29469,10 +29505,10 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B1471" s="2">
-        <v>16600</v>
+        <v>16599</v>
       </c>
       <c r="C1471" t="s">
         <v>726</v>
@@ -29483,136 +29519,136 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B1472" s="2">
-        <v>16600</v>
+        <v>16599</v>
       </c>
       <c r="C1472" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1472" t="s">
-        <v>2294</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B1473" s="2">
-        <v>16601</v>
+        <v>16600</v>
       </c>
       <c r="C1473" t="s">
-        <v>2293</v>
+        <v>726</v>
       </c>
       <c r="D1473" t="s">
-        <v>2122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="B1474" s="2">
-        <v>16603</v>
+        <v>16600</v>
       </c>
       <c r="C1474" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1474" t="s">
-        <v>62</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B1475" s="2">
-        <v>16605</v>
+        <v>16601</v>
       </c>
       <c r="C1475" t="s">
-        <v>726</v>
+        <v>2293</v>
       </c>
       <c r="D1475" t="s">
-        <v>2295</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B1476" s="2">
-        <v>16605</v>
+        <v>16603</v>
       </c>
       <c r="C1476" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1476" t="s">
-        <v>2296</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B1477" s="2">
-        <v>16606</v>
+        <v>16605</v>
       </c>
       <c r="C1477" t="s">
         <v>726</v>
       </c>
       <c r="D1477" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B1478" s="2">
-        <v>16606</v>
+        <v>16605</v>
       </c>
       <c r="C1478" t="s">
-        <v>623</v>
+        <v>343</v>
       </c>
       <c r="D1478" t="s">
-        <v>2122</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B1479" s="2">
-        <v>16607</v>
+        <v>16606</v>
       </c>
       <c r="C1479" t="s">
         <v>726</v>
       </c>
       <c r="D1479" t="s">
-        <v>42</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B1480" s="2">
-        <v>16609</v>
+        <v>16606</v>
       </c>
       <c r="C1480" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="D1480" t="s">
-        <v>42</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B1481" s="2">
-        <v>16611</v>
+        <v>16607</v>
       </c>
       <c r="C1481" t="s">
         <v>726</v>
@@ -29623,203 +29659,203 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="B1482" s="2">
-        <v>16613</v>
+        <v>16609</v>
       </c>
       <c r="C1482" t="s">
-        <v>789</v>
+        <v>726</v>
       </c>
       <c r="D1482" t="s">
-        <v>975</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>2298</v>
+        <v>2281</v>
       </c>
       <c r="B1483" s="2">
-        <v>16620</v>
+        <v>16611</v>
       </c>
       <c r="C1483" t="s">
-        <v>55</v>
+        <v>726</v>
       </c>
       <c r="D1483" t="s">
-        <v>2332</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>2299</v>
+        <v>2282</v>
       </c>
       <c r="B1484" s="2">
-        <v>16623</v>
+        <v>16613</v>
       </c>
       <c r="C1484" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1484" t="s">
-        <v>173</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1485" s="2">
-        <v>16627</v>
+        <v>16620</v>
       </c>
       <c r="C1485" t="s">
-        <v>2329</v>
+        <v>55</v>
       </c>
       <c r="D1485" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B1486" s="2">
-        <v>16631</v>
+        <v>16623</v>
       </c>
       <c r="C1486" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
       <c r="D1486" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B1487" s="2">
-        <v>16633</v>
+        <v>16627</v>
       </c>
       <c r="C1487" t="s">
-        <v>1895</v>
+        <v>2329</v>
       </c>
       <c r="D1487" t="s">
-        <v>494</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B1488" s="2">
-        <v>16633</v>
+        <v>16631</v>
       </c>
       <c r="C1488" t="s">
-        <v>48</v>
+        <v>968</v>
       </c>
       <c r="D1488" t="s">
-        <v>351</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B1489" s="2">
-        <v>16634</v>
+        <v>16633</v>
       </c>
       <c r="C1489" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1489" t="s">
-        <v>1248</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B1490" s="2">
-        <v>16637</v>
+        <v>16633</v>
       </c>
       <c r="C1490" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1490" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B1491" s="2">
-        <v>16639</v>
+        <v>16634</v>
       </c>
       <c r="C1491" t="s">
         <v>822</v>
       </c>
       <c r="D1491" t="s">
-        <v>351</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B1492" s="2">
-        <v>16641</v>
+        <v>16637</v>
       </c>
       <c r="C1492" t="s">
-        <v>968</v>
+        <v>55</v>
       </c>
       <c r="D1492" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B1493" s="2">
-        <v>16643</v>
+        <v>16639</v>
       </c>
       <c r="C1493" t="s">
-        <v>1281</v>
+        <v>822</v>
       </c>
       <c r="D1493" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B1494" s="2">
-        <v>16645</v>
+        <v>16641</v>
       </c>
       <c r="C1494" t="s">
-        <v>446</v>
+        <v>968</v>
       </c>
       <c r="D1494" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B1495" s="2">
-        <v>16645</v>
+        <v>16643</v>
       </c>
       <c r="C1495" t="s">
-        <v>343</v>
+        <v>1281</v>
       </c>
       <c r="D1495" t="s">
-        <v>794</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B1496" s="2">
         <v>16645</v>
@@ -29833,7 +29869,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B1497" s="2">
         <v>16645</v>
@@ -29847,13 +29883,13 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B1498" s="2">
         <v>16645</v>
       </c>
       <c r="C1498" t="s">
-        <v>645</v>
+        <v>446</v>
       </c>
       <c r="D1498" t="s">
         <v>400</v>
@@ -29861,332 +29897,332 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1499" s="2">
-        <v>16647</v>
+        <v>16645</v>
       </c>
       <c r="C1499" t="s">
-        <v>822</v>
+        <v>343</v>
       </c>
       <c r="D1499" t="s">
-        <v>351</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B1500" s="2">
-        <v>16649</v>
+        <v>16645</v>
       </c>
       <c r="C1500" t="s">
-        <v>2330</v>
+        <v>645</v>
       </c>
       <c r="D1500" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1501" s="2">
-        <v>16655</v>
+        <v>16647</v>
       </c>
       <c r="C1501" t="s">
-        <v>1866</v>
+        <v>822</v>
       </c>
       <c r="D1501" t="s">
-        <v>2334</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B1502" s="2">
-        <v>16656</v>
+        <v>16649</v>
       </c>
       <c r="C1502" t="s">
-        <v>1124</v>
+        <v>2330</v>
       </c>
       <c r="D1502" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B1503" s="2">
-        <v>16657</v>
+        <v>16655</v>
       </c>
       <c r="C1503" t="s">
-        <v>1473</v>
+        <v>1866</v>
       </c>
       <c r="D1503" t="s">
-        <v>400</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B1504" s="2">
-        <v>16658</v>
+        <v>16656</v>
       </c>
       <c r="C1504" t="s">
-        <v>726</v>
+        <v>1124</v>
       </c>
       <c r="D1504" t="s">
-        <v>689</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1505" s="2">
-        <v>16660</v>
+        <v>16657</v>
       </c>
       <c r="C1505" t="s">
-        <v>2331</v>
+        <v>1473</v>
       </c>
       <c r="D1505" t="s">
-        <v>2024</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B1506" s="2">
-        <v>16662</v>
+        <v>16658</v>
       </c>
       <c r="C1506" t="s">
-        <v>149</v>
+        <v>726</v>
       </c>
       <c r="D1506" t="s">
-        <v>150</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="B1507" s="2">
-        <v>16665</v>
+        <v>16660</v>
       </c>
       <c r="C1507" t="s">
-        <v>149</v>
+        <v>2331</v>
       </c>
       <c r="D1507" t="s">
-        <v>2335</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B1508" s="2">
-        <v>16668</v>
+        <v>16662</v>
       </c>
       <c r="C1508" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="D1508" t="s">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="B1509" s="2">
-        <v>16668</v>
+        <v>16665</v>
       </c>
       <c r="C1509" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="D1509" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B1510" s="2">
-        <v>16670</v>
+        <v>16668</v>
       </c>
       <c r="C1510" t="s">
-        <v>1281</v>
+        <v>343</v>
       </c>
       <c r="D1510" t="s">
-        <v>2122</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B1511" s="2">
-        <v>16675</v>
+        <v>16668</v>
       </c>
       <c r="C1511" t="s">
-        <v>645</v>
+        <v>343</v>
       </c>
       <c r="D1511" t="s">
-        <v>400</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B1512" s="2">
-        <v>16683</v>
+        <v>16670</v>
       </c>
       <c r="C1512" t="s">
-        <v>822</v>
+        <v>1281</v>
       </c>
       <c r="D1512" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B1513" s="2">
-        <v>16684</v>
+        <v>16675</v>
       </c>
       <c r="C1513" t="s">
-        <v>2160</v>
+        <v>645</v>
       </c>
       <c r="D1513" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2337</v>
+        <v>2327</v>
       </c>
       <c r="B1514" s="2">
-        <v>16685</v>
+        <v>16683</v>
       </c>
       <c r="C1514" t="s">
-        <v>2345</v>
+        <v>822</v>
       </c>
       <c r="D1514" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="B1515" s="2">
-        <v>16688</v>
+        <v>16684</v>
       </c>
       <c r="C1515" t="s">
-        <v>1895</v>
+        <v>2160</v>
       </c>
       <c r="D1515" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1516" s="2">
-        <v>16693</v>
+        <v>16685</v>
       </c>
       <c r="C1516" t="s">
-        <v>162</v>
+        <v>2345</v>
       </c>
       <c r="D1516" t="s">
-        <v>2346</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1517" s="2">
-        <v>16696</v>
+        <v>16688</v>
       </c>
       <c r="C1517" t="s">
-        <v>1940</v>
+        <v>1895</v>
       </c>
       <c r="D1517" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1518" s="2">
-        <v>16697</v>
+        <v>16693</v>
       </c>
       <c r="C1518" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1518" t="s">
-        <v>2026</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B1519" s="2">
-        <v>16697</v>
+        <v>16696</v>
       </c>
       <c r="C1519" t="s">
-        <v>531</v>
+        <v>1940</v>
       </c>
       <c r="D1519" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B1520" s="2">
-        <v>16698</v>
+        <v>16697</v>
       </c>
       <c r="C1520" t="s">
-        <v>35</v>
+        <v>968</v>
       </c>
       <c r="D1520" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B1521" s="2">
-        <v>16701</v>
+        <v>16697</v>
       </c>
       <c r="C1521" t="s">
-        <v>2160</v>
+        <v>531</v>
       </c>
       <c r="D1521" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="B1522" s="2">
-        <v>16718</v>
+        <v>16698</v>
       </c>
       <c r="C1522" t="s">
         <v>35</v>
@@ -30197,27 +30233,27 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
       <c r="B1523" s="2">
-        <v>16719</v>
+        <v>16701</v>
       </c>
       <c r="C1523" t="s">
-        <v>1124</v>
+        <v>2160</v>
       </c>
       <c r="D1523" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1524" s="2">
-        <v>16725</v>
+        <v>16718</v>
       </c>
       <c r="C1524" t="s">
-        <v>2365</v>
+        <v>35</v>
       </c>
       <c r="D1524" t="s">
         <v>351</v>
@@ -30225,69 +30261,69 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1525" s="2">
-        <v>16729</v>
+        <v>16719</v>
       </c>
       <c r="C1525" t="s">
-        <v>682</v>
+        <v>1124</v>
       </c>
       <c r="D1525" t="s">
-        <v>2368</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1526" s="2">
-        <v>16737</v>
+        <v>16725</v>
       </c>
       <c r="C1526" t="s">
-        <v>162</v>
+        <v>2365</v>
       </c>
       <c r="D1526" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1527" s="2">
-        <v>16742</v>
+        <v>16729</v>
       </c>
       <c r="C1527" t="s">
-        <v>822</v>
+        <v>682</v>
       </c>
       <c r="D1527" t="s">
-        <v>351</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1528" s="2">
-        <v>16752</v>
+        <v>16737</v>
       </c>
       <c r="C1528" t="s">
-        <v>2366</v>
+        <v>162</v>
       </c>
       <c r="D1528" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B1529" s="2">
-        <v>16755</v>
+        <v>16742</v>
       </c>
       <c r="C1529" t="s">
-        <v>2367</v>
+        <v>822</v>
       </c>
       <c r="D1529" t="s">
         <v>351</v>
@@ -30295,141 +30331,169 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1530" s="2">
-        <v>16767</v>
+        <v>16752</v>
       </c>
       <c r="C1530" t="s">
-        <v>1089</v>
+        <v>2366</v>
       </c>
       <c r="D1530" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B1531" s="2">
-        <v>16768</v>
+        <v>16755</v>
       </c>
       <c r="C1531" t="s">
-        <v>968</v>
+        <v>2367</v>
       </c>
       <c r="D1531" t="s">
-        <v>2369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1532" s="2">
-        <v>16773</v>
+        <v>16767</v>
       </c>
       <c r="C1532" t="s">
-        <v>865</v>
+        <v>1089</v>
       </c>
       <c r="D1532" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B1533" s="2">
-        <v>16774</v>
+        <v>16768</v>
       </c>
       <c r="C1533" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1533" t="s">
-        <v>1626</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1534" s="2">
-        <v>16774</v>
+        <v>16773</v>
       </c>
       <c r="C1534" t="s">
-        <v>968</v>
+        <v>865</v>
       </c>
       <c r="D1534" t="s">
-        <v>2026</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B1535" s="2">
-        <v>16777</v>
+        <v>16774</v>
       </c>
       <c r="C1535" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1535" t="s">
-        <v>86</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1536" s="2">
-        <v>16790</v>
+        <v>16774</v>
       </c>
       <c r="C1536" t="s">
         <v>968</v>
       </c>
       <c r="D1536" t="s">
-        <v>628</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B1537" s="2">
-        <v>16798</v>
+        <v>16777</v>
       </c>
       <c r="C1537" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1537" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B1538" s="2">
-        <v>16798</v>
+        <v>16790</v>
       </c>
       <c r="C1538" t="s">
         <v>968</v>
       </c>
       <c r="D1538" t="s">
-        <v>152</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B1539" s="2">
+        <v>16798</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>822</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1540" s="2">
+        <v>16798</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>968</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
         <v>2364</v>
       </c>
-      <c r="B1539" s="2">
+      <c r="B1541" s="2">
         <v>16802</v>
       </c>
-      <c r="C1539" t="s">
+      <c r="C1541" t="s">
         <v>968</v>
       </c>
-      <c r="D1539" t="s">
+      <c r="D1541" t="s">
         <v>2370</v>
       </c>
     </row>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5013" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -7228,15 +7228,6 @@
   </si>
   <si>
     <t>incomplete letter</t>
-  </si>
-  <si>
-    <t>J4b.19.13a</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>J4b.19.18aa</t>
   </si>
 </sst>
 </file>
@@ -8059,10 +8050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1541"/>
+  <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
-      <selection activeCell="F1081" sqref="F1081"/>
+    <sheetView tabSelected="1" topLeftCell="A1038" workbookViewId="0">
+      <selection activeCell="F1075" sqref="F1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23379,8 +23370,8 @@
       <c r="D1047" t="s">
         <v>1775</v>
       </c>
-      <c r="I1047" t="s">
-        <v>2202</v>
+      <c r="F1047" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
@@ -23453,13 +23444,16 @@
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>2403</v>
-      </c>
-      <c r="B1052" s="2" t="s">
-        <v>2404</v>
+        <v>1747</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>15715</v>
       </c>
       <c r="C1052" t="s">
-        <v>2404</v>
+        <v>1083</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>400</v>
       </c>
       <c r="F1052" t="s">
         <v>2400</v>
@@ -23467,13 +23461,13 @@
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1053" s="2">
-        <v>15715</v>
+        <v>15718</v>
       </c>
       <c r="C1053" t="s">
-        <v>1083</v>
+        <v>1771</v>
       </c>
       <c r="D1053" t="s">
         <v>400</v>
@@ -23484,16 +23478,16 @@
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1054" s="2">
-        <v>15718</v>
+        <v>15719</v>
       </c>
       <c r="C1054" t="s">
-        <v>1771</v>
+        <v>822</v>
       </c>
       <c r="D1054" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1054" t="s">
         <v>2400</v>
@@ -23501,10 +23495,10 @@
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1055" s="2">
-        <v>15719</v>
+        <v>15727</v>
       </c>
       <c r="C1055" t="s">
         <v>822</v>
@@ -23518,13 +23512,16 @@
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>2405</v>
-      </c>
-      <c r="B1056" s="2" t="s">
-        <v>2404</v>
+        <v>1751</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>15731</v>
       </c>
       <c r="C1056" t="s">
-        <v>2404</v>
+        <v>1663</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>400</v>
       </c>
       <c r="F1056" t="s">
         <v>2400</v>
@@ -23532,10 +23529,10 @@
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B1057" s="2">
-        <v>15727</v>
+        <v>15733</v>
       </c>
       <c r="C1057" t="s">
         <v>822</v>
@@ -23549,16 +23546,16 @@
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B1058" s="2">
-        <v>15731</v>
+        <v>15734</v>
       </c>
       <c r="C1058" t="s">
-        <v>1663</v>
+        <v>822</v>
       </c>
       <c r="D1058" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1058" t="s">
         <v>2400</v>
@@ -23566,16 +23563,16 @@
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B1059" s="2">
-        <v>15733</v>
+        <v>1754</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1767</v>
       </c>
       <c r="C1059" t="s">
-        <v>822</v>
+        <v>531</v>
       </c>
       <c r="D1059" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
       <c r="F1059" t="s">
         <v>2400</v>
@@ -23583,16 +23580,16 @@
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B1060" s="2">
-        <v>15734</v>
+        <v>15739</v>
       </c>
       <c r="C1060" t="s">
-        <v>822</v>
+        <v>1089</v>
       </c>
       <c r="D1060" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="F1060" t="s">
         <v>2400</v>
@@ -23600,16 +23597,16 @@
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1767</v>
+        <v>1756</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>15739</v>
       </c>
       <c r="C1061" t="s">
         <v>531</v>
       </c>
       <c r="D1061" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
       <c r="F1061" t="s">
         <v>2400</v>
@@ -23617,16 +23614,16 @@
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="B1062" s="2">
-        <v>15739</v>
+        <v>15742</v>
       </c>
       <c r="C1062" t="s">
-        <v>1089</v>
+        <v>1772</v>
       </c>
       <c r="D1062" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="F1062" t="s">
         <v>2400</v>
@@ -23634,16 +23631,16 @@
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="B1063" s="2">
-        <v>15739</v>
+        <v>15742</v>
       </c>
       <c r="C1063" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1063" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
       <c r="F1063" t="s">
         <v>2400</v>
@@ -23651,16 +23648,16 @@
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B1064" s="2">
-        <v>15742</v>
+        <v>15744</v>
       </c>
       <c r="C1064" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1064" t="s">
-        <v>86</v>
+        <v>1324</v>
       </c>
       <c r="F1064" t="s">
         <v>2400</v>
@@ -23668,10 +23665,10 @@
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B1065" s="2">
-        <v>15742</v>
+        <v>15747</v>
       </c>
       <c r="C1065" t="s">
         <v>822</v>
@@ -23685,16 +23682,16 @@
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B1066" s="2">
-        <v>15744</v>
+        <v>15749</v>
       </c>
       <c r="C1066" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1066" t="s">
-        <v>1324</v>
+        <v>400</v>
       </c>
       <c r="F1066" t="s">
         <v>2400</v>
@@ -23702,16 +23699,16 @@
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="B1067" s="2">
-        <v>15747</v>
+        <v>15749</v>
       </c>
       <c r="C1067" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1067" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="F1067" t="s">
         <v>2400</v>
@@ -23719,16 +23716,16 @@
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="B1068" s="2">
-        <v>15749</v>
+        <v>15752</v>
       </c>
       <c r="C1068" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1068" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="F1068" t="s">
         <v>2400</v>
@@ -23736,16 +23733,16 @@
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="B1069" s="2">
-        <v>15749</v>
+        <v>15753</v>
       </c>
       <c r="C1069" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1069" t="s">
-        <v>400</v>
+        <v>1777</v>
       </c>
       <c r="F1069" t="s">
         <v>2400</v>
@@ -23753,16 +23750,16 @@
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B1070" s="2">
-        <v>15752</v>
+        <v>15767</v>
       </c>
       <c r="C1070" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1070" t="s">
-        <v>351</v>
+        <v>1903</v>
       </c>
       <c r="F1070" t="s">
         <v>2400</v>
@@ -23770,16 +23767,16 @@
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
       <c r="B1071" s="2">
-        <v>15753</v>
+        <v>15767</v>
       </c>
       <c r="C1071" t="s">
-        <v>531</v>
+        <v>2034</v>
       </c>
       <c r="D1071" t="s">
-        <v>1777</v>
+        <v>150</v>
       </c>
       <c r="F1071" t="s">
         <v>2400</v>
@@ -23787,16 +23784,16 @@
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
       <c r="B1072" s="2">
-        <v>15767</v>
+        <v>15769</v>
       </c>
       <c r="C1072" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1072" t="s">
-        <v>1903</v>
+        <v>1811</v>
       </c>
       <c r="F1072" t="s">
         <v>2400</v>
@@ -23804,16 +23801,16 @@
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B1073" s="2">
-        <v>15767</v>
+        <v>15770</v>
       </c>
       <c r="C1073" t="s">
-        <v>2034</v>
+        <v>1089</v>
       </c>
       <c r="D1073" t="s">
-        <v>150</v>
+        <v>1133</v>
       </c>
       <c r="F1073" t="s">
         <v>2400</v>
@@ -23821,16 +23818,16 @@
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B1074" s="2">
-        <v>15769</v>
+        <v>15771</v>
       </c>
       <c r="C1074" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1074" t="s">
-        <v>1811</v>
+        <v>86</v>
       </c>
       <c r="F1074" t="s">
         <v>2400</v>
@@ -23838,58 +23835,52 @@
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="B1075" s="2">
-        <v>15770</v>
+        <v>15773</v>
       </c>
       <c r="C1075" t="s">
-        <v>1089</v>
+        <v>822</v>
       </c>
       <c r="D1075" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F1075" t="s">
-        <v>2400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B1076" s="2">
-        <v>15771</v>
+        <v>15774</v>
       </c>
       <c r="C1076" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1076" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1076" t="s">
-        <v>2400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="B1077" s="2">
-        <v>15773</v>
+        <v>15781</v>
       </c>
       <c r="C1077" t="s">
-        <v>822</v>
+        <v>2034</v>
       </c>
       <c r="D1077" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B1078" s="2">
-        <v>15774</v>
+        <v>15782</v>
       </c>
       <c r="C1078" t="s">
         <v>822</v>
@@ -23900,24 +23891,24 @@
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="B1079" s="2">
-        <v>15781</v>
+        <v>15788</v>
       </c>
       <c r="C1079" t="s">
-        <v>2034</v>
+        <v>831</v>
       </c>
       <c r="D1079" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="B1080" s="2">
-        <v>15782</v>
+        <v>15790</v>
       </c>
       <c r="C1080" t="s">
         <v>822</v>
@@ -23928,24 +23919,24 @@
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B1081" s="2">
-        <v>15788</v>
+        <v>15795</v>
       </c>
       <c r="C1081" t="s">
-        <v>831</v>
+        <v>1808</v>
       </c>
       <c r="D1081" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B1082" s="2">
-        <v>15790</v>
+        <v>15801</v>
       </c>
       <c r="C1082" t="s">
         <v>822</v>
@@ -23956,24 +23947,24 @@
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="B1083" s="2">
-        <v>15795</v>
+        <v>15804</v>
       </c>
       <c r="C1083" t="s">
-        <v>1808</v>
+        <v>1354</v>
       </c>
       <c r="D1083" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="B1084" s="2">
-        <v>15801</v>
+        <v>15805</v>
       </c>
       <c r="C1084" t="s">
         <v>822</v>
@@ -23984,97 +23975,97 @@
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="B1085" s="2">
-        <v>15804</v>
+        <v>15810</v>
       </c>
       <c r="C1085" t="s">
-        <v>1354</v>
+        <v>1809</v>
       </c>
       <c r="D1085" t="s">
-        <v>400</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B1086" s="2">
-        <v>15805</v>
+        <v>15810</v>
       </c>
       <c r="C1086" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1086" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B1087" s="2">
-        <v>15810</v>
+        <v>1794</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1807</v>
       </c>
       <c r="C1087" t="s">
-        <v>1809</v>
+        <v>149</v>
       </c>
       <c r="D1087" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B1088" s="2">
-        <v>15810</v>
+        <v>15824</v>
       </c>
       <c r="C1088" t="s">
         <v>35</v>
       </c>
       <c r="D1088" t="s">
-        <v>688</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1807</v>
+        <v>1796</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>15828</v>
       </c>
       <c r="C1089" t="s">
-        <v>149</v>
+        <v>1124</v>
       </c>
       <c r="D1089" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="B1090" s="2">
-        <v>15824</v>
+        <v>15841</v>
       </c>
       <c r="C1090" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="D1090" t="s">
-        <v>351</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="B1091" s="2">
-        <v>15828</v>
+        <v>15841</v>
       </c>
       <c r="C1091" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1091" t="s">
         <v>351</v>
@@ -24082,290 +24073,290 @@
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B1092" s="2">
-        <v>15841</v>
+        <v>15843</v>
       </c>
       <c r="C1092" t="s">
         <v>162</v>
       </c>
       <c r="D1092" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1093" s="2">
-        <v>15841</v>
+        <v>15843</v>
       </c>
       <c r="C1093" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1093" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1094" s="2">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="C1094" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1094" t="s">
-        <v>1813</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="B1095" s="2">
-        <v>15843</v>
+        <v>15844</v>
       </c>
       <c r="C1095" t="s">
-        <v>162</v>
+        <v>822</v>
       </c>
       <c r="D1095" t="s">
-        <v>210</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="B1096" s="2">
         <v>15844</v>
       </c>
       <c r="C1096" t="s">
-        <v>531</v>
+        <v>1810</v>
       </c>
       <c r="D1096" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B1097" s="2">
-        <v>15844</v>
+        <v>15845</v>
       </c>
       <c r="C1097" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1097" t="s">
-        <v>351</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="B1098" s="2">
-        <v>15844</v>
+        <v>15849</v>
       </c>
       <c r="C1098" t="s">
-        <v>1810</v>
+        <v>531</v>
       </c>
       <c r="D1098" t="s">
-        <v>351</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B1099" s="2">
-        <v>15845</v>
+        <v>15853</v>
       </c>
       <c r="C1099" t="s">
-        <v>831</v>
+        <v>531</v>
       </c>
       <c r="D1099" t="s">
-        <v>1904</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1805</v>
+        <v>1814</v>
       </c>
       <c r="B1100" s="2">
-        <v>15849</v>
+        <v>15853</v>
       </c>
       <c r="C1100" t="s">
         <v>531</v>
       </c>
       <c r="D1100" t="s">
-        <v>1247</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1806</v>
+        <v>1815</v>
       </c>
       <c r="B1101" s="2">
-        <v>15853</v>
+        <v>15854</v>
       </c>
       <c r="C1101" t="s">
-        <v>531</v>
+        <v>1826</v>
       </c>
       <c r="D1101" t="s">
-        <v>1247</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="B1102" s="2">
-        <v>15853</v>
+        <v>15854</v>
       </c>
       <c r="C1102" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1102" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="B1103" s="2">
-        <v>15854</v>
+        <v>15859</v>
       </c>
       <c r="C1103" t="s">
-        <v>1826</v>
+        <v>162</v>
       </c>
       <c r="D1103" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B1104" s="2">
-        <v>15854</v>
+        <v>15861</v>
       </c>
       <c r="C1104" t="s">
-        <v>822</v>
+        <v>1827</v>
       </c>
       <c r="D1104" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="B1105" s="2">
-        <v>15859</v>
+        <v>15867</v>
       </c>
       <c r="C1105" t="s">
         <v>162</v>
       </c>
       <c r="D1105" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="B1106" s="2">
-        <v>15861</v>
+        <v>15875</v>
       </c>
       <c r="C1106" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D1106" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="B1107" s="2">
-        <v>15867</v>
+        <v>15879</v>
       </c>
       <c r="C1107" t="s">
         <v>162</v>
       </c>
       <c r="D1107" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B1108" s="2">
-        <v>15875</v>
+        <v>1822</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1825</v>
       </c>
       <c r="C1108" t="s">
-        <v>1828</v>
+        <v>531</v>
       </c>
       <c r="D1108" t="s">
-        <v>351</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B1109" s="2">
-        <v>15879</v>
+        <v>15900</v>
       </c>
       <c r="C1109" t="s">
-        <v>162</v>
+        <v>1083</v>
       </c>
       <c r="D1109" t="s">
-        <v>1832</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1825</v>
+        <v>1824</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>15913</v>
       </c>
       <c r="C1110" t="s">
-        <v>531</v>
+        <v>831</v>
       </c>
       <c r="D1110" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1823</v>
+        <v>1664</v>
       </c>
       <c r="B1111" s="2">
-        <v>15900</v>
+        <v>15921</v>
       </c>
       <c r="C1111" t="s">
-        <v>1083</v>
+        <v>831</v>
       </c>
       <c r="D1111" t="s">
-        <v>1905</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1824</v>
+        <v>1665</v>
       </c>
       <c r="B1112" s="2">
-        <v>15913</v>
+        <v>15921</v>
       </c>
       <c r="C1112" t="s">
         <v>831</v>
@@ -24376,167 +24367,167 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B1113" s="2">
-        <v>15921</v>
+        <v>15922</v>
       </c>
       <c r="C1113" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1113" t="s">
-        <v>1698</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="B1114" s="2">
-        <v>15921</v>
+        <v>15928</v>
       </c>
       <c r="C1114" t="s">
-        <v>831</v>
+        <v>1694</v>
       </c>
       <c r="D1114" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B1115" s="2">
-        <v>15922</v>
+        <v>15932</v>
       </c>
       <c r="C1115" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1115" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="B1116" s="2">
-        <v>15928</v>
+        <v>15942</v>
       </c>
       <c r="C1116" t="s">
-        <v>1694</v>
+        <v>726</v>
       </c>
       <c r="D1116" t="s">
-        <v>351</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="B1117" s="2">
-        <v>15932</v>
+        <v>15945</v>
       </c>
       <c r="C1117" t="s">
-        <v>831</v>
+        <v>573</v>
       </c>
       <c r="D1117" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B1118" s="2">
-        <v>15942</v>
+        <v>15946</v>
       </c>
       <c r="C1118" t="s">
-        <v>726</v>
+        <v>531</v>
       </c>
       <c r="D1118" t="s">
-        <v>1906</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="B1119" s="2">
-        <v>15945</v>
+        <v>15947</v>
       </c>
       <c r="C1119" t="s">
         <v>573</v>
       </c>
       <c r="D1119" t="s">
-        <v>26</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B1120" s="2">
-        <v>15946</v>
+        <v>15947</v>
       </c>
       <c r="C1120" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1120" t="s">
-        <v>210</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B1121" s="2">
         <v>15947</v>
       </c>
       <c r="C1121" t="s">
-        <v>573</v>
+        <v>831</v>
       </c>
       <c r="D1121" t="s">
-        <v>2035</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="B1122" s="2">
-        <v>15947</v>
+        <v>15948</v>
       </c>
       <c r="C1122" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D1122" t="s">
-        <v>1699</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="B1123" s="2">
-        <v>15947</v>
+        <v>15948</v>
       </c>
       <c r="C1123" t="s">
-        <v>831</v>
+        <v>1695</v>
       </c>
       <c r="D1123" t="s">
-        <v>351</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="B1124" s="2">
-        <v>15948</v>
+        <v>15949</v>
       </c>
       <c r="C1124" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1124" t="s">
         <v>86</v>
@@ -24544,139 +24535,139 @@
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="B1125" s="2">
-        <v>15948</v>
+        <v>15949</v>
       </c>
       <c r="C1125" t="s">
-        <v>1695</v>
+        <v>831</v>
       </c>
       <c r="D1125" t="s">
-        <v>1700</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B1126" s="2">
-        <v>15949</v>
+        <v>1679</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1692</v>
       </c>
       <c r="C1126" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1126" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="B1127" s="2">
-        <v>15949</v>
+        <v>15950</v>
       </c>
       <c r="C1127" t="s">
         <v>831</v>
       </c>
       <c r="D1127" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1692</v>
+        <v>1681</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>15951</v>
       </c>
       <c r="C1128" t="s">
-        <v>35</v>
+        <v>1696</v>
       </c>
       <c r="D1128" t="s">
-        <v>539</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="B1129" s="2">
-        <v>15950</v>
+        <v>15952</v>
       </c>
       <c r="C1129" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1129" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B1130" s="2">
-        <v>15951</v>
+        <v>1683</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1693</v>
       </c>
       <c r="C1130" t="s">
-        <v>1696</v>
+        <v>831</v>
       </c>
       <c r="D1130" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="B1131" s="2">
-        <v>15952</v>
+        <v>15959</v>
       </c>
       <c r="C1131" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1131" t="s">
-        <v>312</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>1693</v>
+        <v>1685</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>15959</v>
       </c>
       <c r="C1132" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1132" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B1133" s="2">
-        <v>15959</v>
+        <v>15962</v>
       </c>
       <c r="C1133" t="s">
-        <v>831</v>
+        <v>1697</v>
       </c>
       <c r="D1133" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B1134" s="2">
-        <v>15959</v>
+        <v>15963</v>
       </c>
       <c r="C1134" t="s">
-        <v>725</v>
+        <v>831</v>
       </c>
       <c r="D1134" t="s">
         <v>351</v>
@@ -24684,108 +24675,108 @@
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="B1135" s="2">
-        <v>15962</v>
+        <v>15965</v>
       </c>
       <c r="C1135" t="s">
-        <v>1697</v>
+        <v>35</v>
       </c>
       <c r="D1135" t="s">
-        <v>1703</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="B1136" s="2">
-        <v>15963</v>
+        <v>15965</v>
       </c>
       <c r="C1136" t="s">
         <v>831</v>
       </c>
       <c r="D1136" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="B1137" s="2">
-        <v>15965</v>
+        <v>15968</v>
       </c>
       <c r="C1137" t="s">
-        <v>35</v>
+        <v>531</v>
       </c>
       <c r="D1137" t="s">
-        <v>539</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B1138" s="2">
-        <v>15965</v>
+        <v>15969</v>
       </c>
       <c r="C1138" t="s">
-        <v>831</v>
+        <v>35</v>
       </c>
       <c r="D1138" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
       <c r="B1139" s="2">
-        <v>15968</v>
+        <v>15971</v>
       </c>
       <c r="C1139" t="s">
-        <v>531</v>
+        <v>1124</v>
       </c>
       <c r="D1139" t="s">
-        <v>1701</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="B1140" s="2">
-        <v>15969</v>
+        <v>15973</v>
       </c>
       <c r="C1140" t="s">
-        <v>35</v>
+        <v>831</v>
       </c>
       <c r="D1140" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="B1141" s="2">
-        <v>15971</v>
+        <v>15973</v>
       </c>
       <c r="C1141" t="s">
-        <v>1124</v>
+        <v>162</v>
       </c>
       <c r="D1141" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B1142" s="2">
-        <v>15973</v>
+        <v>15974</v>
       </c>
       <c r="C1142" t="s">
         <v>831</v>
@@ -24796,83 +24787,83 @@
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B1143" s="2">
-        <v>15973</v>
+        <v>15975</v>
       </c>
       <c r="C1143" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1143" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1144" s="2">
-        <v>15974</v>
+        <v>15976</v>
       </c>
       <c r="C1144" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1144" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B1145" s="2">
-        <v>15975</v>
+        <v>1710</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1729</v>
       </c>
       <c r="C1145" t="s">
         <v>831</v>
       </c>
       <c r="D1145" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B1146" s="2">
-        <v>15976</v>
+        <v>15981</v>
       </c>
       <c r="C1146" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1146" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1729</v>
+        <v>1712</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>15985</v>
       </c>
       <c r="C1147" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="D1147" t="s">
-        <v>539</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B1148" s="2">
-        <v>15981</v>
+        <v>15986</v>
       </c>
       <c r="C1148" t="s">
-        <v>831</v>
+        <v>1732</v>
       </c>
       <c r="D1148" t="s">
         <v>86</v>
@@ -24880,41 +24871,41 @@
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B1149" s="2">
-        <v>15985</v>
+        <v>15989</v>
       </c>
       <c r="C1149" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1149" t="s">
-        <v>1734</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B1150" s="2">
-        <v>15986</v>
+        <v>15990</v>
       </c>
       <c r="C1150" t="s">
-        <v>1732</v>
+        <v>831</v>
       </c>
       <c r="D1150" t="s">
-        <v>86</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B1151" s="2">
-        <v>15989</v>
+        <v>15994</v>
       </c>
       <c r="C1151" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1151" t="s">
         <v>351</v>
@@ -24922,108 +24913,108 @@
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B1152" s="2">
-        <v>15990</v>
+        <v>15994</v>
       </c>
       <c r="C1152" t="s">
         <v>831</v>
       </c>
       <c r="D1152" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B1153" s="2">
-        <v>15994</v>
+        <v>15995</v>
       </c>
       <c r="C1153" t="s">
-        <v>831</v>
+        <v>1733</v>
       </c>
       <c r="D1153" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>1717</v>
+        <v>1730</v>
       </c>
       <c r="B1154" s="2">
-        <v>15994</v>
+        <v>15998</v>
       </c>
       <c r="C1154" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1154" t="s">
-        <v>1736</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1155" s="2">
-        <v>15995</v>
+        <v>15999</v>
       </c>
       <c r="C1155" t="s">
-        <v>1733</v>
+        <v>1164</v>
       </c>
       <c r="D1155" t="s">
-        <v>86</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="B1156" s="2">
-        <v>15998</v>
+        <v>16000</v>
       </c>
       <c r="C1156" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1156" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B1157" s="2">
-        <v>15999</v>
+        <v>16002</v>
       </c>
       <c r="C1157" t="s">
-        <v>1164</v>
+        <v>822</v>
       </c>
       <c r="D1157" t="s">
-        <v>1737</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="B1158" s="2">
-        <v>16000</v>
+        <v>16003</v>
       </c>
       <c r="C1158" t="s">
         <v>831</v>
       </c>
       <c r="D1158" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="B1159" s="2">
-        <v>16002</v>
+        <v>16003</v>
       </c>
       <c r="C1159" t="s">
         <v>822</v>
@@ -25034,38 +25025,38 @@
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="B1160" s="2">
-        <v>16003</v>
+        <v>16004</v>
       </c>
       <c r="C1160" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1160" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B1161" s="2">
-        <v>16003</v>
+        <v>16005</v>
       </c>
       <c r="C1161" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1161" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="B1162" s="2">
-        <v>16004</v>
+        <v>16005</v>
       </c>
       <c r="C1162" t="s">
         <v>822</v>
@@ -25076,105 +25067,105 @@
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1163" s="2">
-        <v>16005</v>
+        <v>16007</v>
       </c>
       <c r="C1163" t="s">
         <v>831</v>
       </c>
       <c r="D1163" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="B1164" s="2">
-        <v>16005</v>
+        <v>16008</v>
       </c>
       <c r="C1164" t="s">
-        <v>822</v>
+        <v>1164</v>
       </c>
       <c r="D1164" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="B1165" s="2">
-        <v>16007</v>
+        <v>16009</v>
       </c>
       <c r="C1165" t="s">
-        <v>831</v>
+        <v>623</v>
       </c>
       <c r="D1165" t="s">
-        <v>400</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1727</v>
+        <v>1833</v>
       </c>
       <c r="B1166" s="2">
-        <v>16008</v>
+        <v>16011</v>
       </c>
       <c r="C1166" t="s">
-        <v>1164</v>
+        <v>1865</v>
       </c>
       <c r="D1166" t="s">
-        <v>145</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1728</v>
+        <v>1834</v>
       </c>
       <c r="B1167" s="2">
-        <v>16009</v>
+        <v>16011</v>
       </c>
       <c r="C1167" t="s">
-        <v>623</v>
+        <v>822</v>
       </c>
       <c r="D1167" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="B1168" s="2">
         <v>16011</v>
       </c>
       <c r="C1168" t="s">
-        <v>1865</v>
+        <v>831</v>
       </c>
       <c r="D1168" t="s">
-        <v>2036</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="B1169" s="2">
         <v>16011</v>
       </c>
       <c r="C1169" t="s">
-        <v>822</v>
+        <v>184</v>
       </c>
       <c r="D1169" t="s">
-        <v>351</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B1170" s="2">
         <v>16011</v>
@@ -25183,250 +25174,250 @@
         <v>831</v>
       </c>
       <c r="D1170" t="s">
-        <v>1867</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B1171" s="2">
-        <v>16011</v>
+        <v>16013</v>
       </c>
       <c r="C1171" t="s">
-        <v>184</v>
+        <v>831</v>
       </c>
       <c r="D1171" t="s">
-        <v>2037</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="B1172" s="2">
-        <v>16011</v>
+        <v>16015</v>
       </c>
       <c r="C1172" t="s">
-        <v>831</v>
+        <v>681</v>
       </c>
       <c r="D1172" t="s">
-        <v>400</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="B1173" s="2">
-        <v>16013</v>
+        <v>16015</v>
       </c>
       <c r="C1173" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1173" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="B1174" s="2">
-        <v>16015</v>
+        <v>16016</v>
       </c>
       <c r="C1174" t="s">
-        <v>681</v>
+        <v>1866</v>
       </c>
       <c r="D1174" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B1175" s="2">
-        <v>16015</v>
+        <v>16017</v>
       </c>
       <c r="C1175" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1175" t="s">
-        <v>351</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="B1176" s="2">
-        <v>16016</v>
+        <v>16021</v>
       </c>
       <c r="C1176" t="s">
-        <v>1866</v>
+        <v>831</v>
       </c>
       <c r="D1176" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B1177" s="2">
-        <v>16017</v>
+        <v>16021</v>
       </c>
       <c r="C1177" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1177" t="s">
-        <v>1869</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="B1178" s="2">
-        <v>16021</v>
+        <v>16024</v>
       </c>
       <c r="C1178" t="s">
-        <v>831</v>
+        <v>968</v>
       </c>
       <c r="D1178" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="B1179" s="2">
-        <v>16021</v>
+        <v>16026</v>
       </c>
       <c r="C1179" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1179" t="s">
-        <v>351</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="B1180" s="2">
-        <v>16024</v>
+        <v>16026</v>
       </c>
       <c r="C1180" t="s">
-        <v>968</v>
+        <v>822</v>
       </c>
       <c r="D1180" t="s">
-        <v>1872</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B1181" s="2">
-        <v>16026</v>
+        <v>16027</v>
       </c>
       <c r="C1181" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1181" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="B1182" s="2">
-        <v>16026</v>
+        <v>16028</v>
       </c>
       <c r="C1182" t="s">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="D1182" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B1183" s="2">
-        <v>16027</v>
+        <v>16029</v>
       </c>
       <c r="C1183" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1183" t="s">
-        <v>173</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B1184" s="2">
-        <v>16028</v>
+        <v>16030</v>
       </c>
       <c r="C1184" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1184" t="s">
-        <v>494</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1185" s="2">
-        <v>16029</v>
+        <v>1852</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1863</v>
       </c>
       <c r="C1185" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1185" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="B1186" s="2">
-        <v>16030</v>
+        <v>16032</v>
       </c>
       <c r="C1186" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1186" t="s">
-        <v>173</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1187" t="s">
-        <v>1863</v>
+        <v>1854</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>16032</v>
       </c>
       <c r="C1187" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1187" t="s">
-        <v>86</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="B1188" s="2">
         <v>16032</v>
@@ -25435,57 +25426,57 @@
         <v>831</v>
       </c>
       <c r="D1188" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="B1189" s="2">
-        <v>16032</v>
+        <v>16033</v>
       </c>
       <c r="C1189" t="s">
-        <v>822</v>
+        <v>48</v>
       </c>
       <c r="D1189" t="s">
-        <v>1870</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="B1190" s="2">
-        <v>16032</v>
+        <v>16035</v>
       </c>
       <c r="C1190" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1190" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B1191" s="2">
-        <v>16033</v>
+        <v>16039</v>
       </c>
       <c r="C1191" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="D1191" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B1192" s="2">
-        <v>16035</v>
+        <v>1859</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1864</v>
       </c>
       <c r="C1192" t="s">
         <v>822</v>
@@ -25496,167 +25487,167 @@
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B1193" s="2">
-        <v>16039</v>
+        <v>16041</v>
       </c>
       <c r="C1193" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1193" t="s">
-        <v>692</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>1864</v>
+        <v>1861</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>16042</v>
       </c>
       <c r="C1194" t="s">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="D1194" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="B1195" s="2">
-        <v>16041</v>
+        <v>16043</v>
       </c>
       <c r="C1195" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1195" t="s">
-        <v>86</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1861</v>
+        <v>1874</v>
       </c>
       <c r="B1196" s="2">
-        <v>16042</v>
+        <v>16043</v>
       </c>
       <c r="C1196" t="s">
-        <v>35</v>
+        <v>623</v>
       </c>
       <c r="D1196" t="s">
-        <v>688</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1862</v>
+        <v>1875</v>
       </c>
       <c r="B1197" s="2">
-        <v>16043</v>
+        <v>16045</v>
       </c>
       <c r="C1197" t="s">
-        <v>162</v>
+        <v>1895</v>
       </c>
       <c r="D1197" t="s">
-        <v>1873</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1198" s="2">
-        <v>16043</v>
+        <v>1876</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1894</v>
       </c>
       <c r="C1198" t="s">
-        <v>623</v>
+        <v>1028</v>
       </c>
       <c r="D1198" t="s">
-        <v>93</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="B1199" s="2">
-        <v>16045</v>
+        <v>16047</v>
       </c>
       <c r="C1199" t="s">
-        <v>1895</v>
+        <v>681</v>
       </c>
       <c r="D1199" t="s">
-        <v>1897</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B1200" t="s">
-        <v>1894</v>
+        <v>1878</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>16047</v>
       </c>
       <c r="C1200" t="s">
-        <v>1028</v>
+        <v>831</v>
       </c>
       <c r="D1200" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="B1201" s="2">
         <v>16047</v>
       </c>
       <c r="C1201" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="D1201" t="s">
-        <v>1133</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="B1202" s="2">
-        <v>16047</v>
+        <v>16049</v>
       </c>
       <c r="C1202" t="s">
-        <v>831</v>
+        <v>2038</v>
       </c>
       <c r="D1202" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B1203" s="2">
-        <v>16047</v>
+        <v>16049</v>
       </c>
       <c r="C1203" t="s">
-        <v>831</v>
+        <v>682</v>
       </c>
       <c r="D1203" t="s">
-        <v>400</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B1204" s="2">
-        <v>16049</v>
+        <v>16054</v>
       </c>
       <c r="C1204" t="s">
-        <v>2038</v>
+        <v>822</v>
       </c>
       <c r="D1204" t="s">
         <v>351</v>
@@ -25664,503 +25655,503 @@
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="B1205" s="2">
-        <v>16049</v>
+        <v>16055</v>
       </c>
       <c r="C1205" t="s">
-        <v>682</v>
+        <v>162</v>
       </c>
       <c r="D1205" t="s">
-        <v>1907</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="B1206" s="2">
-        <v>16054</v>
+        <v>16055</v>
       </c>
       <c r="C1206" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1206" t="s">
-        <v>351</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B1207" s="2">
-        <v>16055</v>
+        <v>16058</v>
       </c>
       <c r="C1207" t="s">
-        <v>162</v>
+        <v>1473</v>
       </c>
       <c r="D1207" t="s">
-        <v>539</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="B1208" s="2">
-        <v>16055</v>
+        <v>16059</v>
       </c>
       <c r="C1208" t="s">
         <v>831</v>
       </c>
       <c r="D1208" t="s">
-        <v>1898</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B1209" s="2">
-        <v>16058</v>
+        <v>16060</v>
       </c>
       <c r="C1209" t="s">
-        <v>1473</v>
+        <v>162</v>
       </c>
       <c r="D1209" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B1210" s="2">
-        <v>16059</v>
+        <v>16063</v>
       </c>
       <c r="C1210" t="s">
-        <v>831</v>
+        <v>1896</v>
       </c>
       <c r="D1210" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B1211" s="2">
-        <v>16060</v>
+        <v>16064</v>
       </c>
       <c r="C1211" t="s">
-        <v>162</v>
+        <v>1083</v>
       </c>
       <c r="D1211" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="B1212" s="2">
-        <v>16063</v>
+        <v>16066</v>
       </c>
       <c r="C1212" t="s">
-        <v>1896</v>
+        <v>531</v>
       </c>
       <c r="D1212" t="s">
-        <v>1133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="B1213" s="2">
-        <v>16064</v>
+        <v>16067</v>
       </c>
       <c r="C1213" t="s">
-        <v>1083</v>
+        <v>1558</v>
       </c>
       <c r="D1213" t="s">
-        <v>400</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B1214" s="2">
-        <v>16066</v>
+        <v>16069</v>
       </c>
       <c r="C1214" t="s">
-        <v>531</v>
+        <v>822</v>
       </c>
       <c r="D1214" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B1215" s="2">
-        <v>16067</v>
+        <v>16071</v>
       </c>
       <c r="C1215" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1215" t="s">
-        <v>1899</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1892</v>
+        <v>1908</v>
       </c>
       <c r="B1216" s="2">
-        <v>16069</v>
+        <v>16074</v>
       </c>
       <c r="C1216" t="s">
-        <v>822</v>
+        <v>683</v>
       </c>
       <c r="D1216" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1893</v>
+        <v>1909</v>
       </c>
       <c r="B1217" s="2">
-        <v>16071</v>
+        <v>16083</v>
       </c>
       <c r="C1217" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1217" t="s">
-        <v>1869</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B1218" s="2">
-        <v>16074</v>
+        <v>16085</v>
       </c>
       <c r="C1218" t="s">
-        <v>683</v>
+        <v>2039</v>
       </c>
       <c r="D1218" t="s">
-        <v>400</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="B1219" s="2">
-        <v>16083</v>
+        <v>16085</v>
       </c>
       <c r="C1219" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1219" t="s">
-        <v>1943</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B1220" s="2">
         <v>16085</v>
       </c>
       <c r="C1220" t="s">
-        <v>2039</v>
+        <v>831</v>
       </c>
       <c r="D1220" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B1221" s="2">
-        <v>16085</v>
+        <v>16086</v>
       </c>
       <c r="C1221" t="s">
-        <v>831</v>
+        <v>2038</v>
       </c>
       <c r="D1221" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B1222" s="2">
-        <v>16085</v>
+        <v>1914</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1937</v>
       </c>
       <c r="C1222" t="s">
-        <v>831</v>
+        <v>25</v>
       </c>
       <c r="D1222" t="s">
-        <v>86</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="B1223" s="2">
-        <v>16086</v>
+        <v>16087</v>
       </c>
       <c r="C1223" t="s">
-        <v>2038</v>
+        <v>1938</v>
       </c>
       <c r="D1223" t="s">
-        <v>351</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>1937</v>
+        <v>1916</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>16089</v>
       </c>
       <c r="C1224" t="s">
-        <v>25</v>
+        <v>831</v>
       </c>
       <c r="D1224" t="s">
-        <v>1328</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="B1225" s="2">
-        <v>16087</v>
+        <v>16090</v>
       </c>
       <c r="C1225" t="s">
-        <v>1938</v>
+        <v>831</v>
       </c>
       <c r="D1225" t="s">
-        <v>1133</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B1226" s="2">
-        <v>16089</v>
+        <v>16092</v>
       </c>
       <c r="C1226" t="s">
-        <v>831</v>
+        <v>1558</v>
       </c>
       <c r="D1226" t="s">
-        <v>86</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B1227" s="2">
-        <v>16090</v>
+        <v>16096</v>
       </c>
       <c r="C1227" t="s">
-        <v>831</v>
+        <v>1087</v>
       </c>
       <c r="D1227" t="s">
-        <v>1944</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B1228" s="2">
-        <v>16092</v>
+        <v>16100</v>
       </c>
       <c r="C1228" t="s">
-        <v>1558</v>
+        <v>831</v>
       </c>
       <c r="D1228" t="s">
-        <v>1775</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B1229" s="2">
-        <v>16096</v>
+        <v>16103</v>
       </c>
       <c r="C1229" t="s">
-        <v>1087</v>
+        <v>822</v>
       </c>
       <c r="D1229" t="s">
-        <v>86</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="B1230" s="2">
-        <v>16100</v>
+        <v>16103</v>
       </c>
       <c r="C1230" t="s">
-        <v>831</v>
+        <v>683</v>
       </c>
       <c r="D1230" t="s">
-        <v>2040</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B1231" s="2">
-        <v>16103</v>
+        <v>16107</v>
       </c>
       <c r="C1231" t="s">
-        <v>822</v>
+        <v>681</v>
       </c>
       <c r="D1231" t="s">
-        <v>2283</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="B1232" s="2">
-        <v>16103</v>
+        <v>16112</v>
       </c>
       <c r="C1232" t="s">
-        <v>683</v>
+        <v>1939</v>
       </c>
       <c r="D1232" t="s">
-        <v>2284</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B1233" s="2">
-        <v>16107</v>
+        <v>16113</v>
       </c>
       <c r="C1233" t="s">
-        <v>681</v>
+        <v>2041</v>
       </c>
       <c r="D1233" t="s">
-        <v>1133</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B1234" s="2">
-        <v>16112</v>
+        <v>16113</v>
       </c>
       <c r="C1234" t="s">
-        <v>1939</v>
+        <v>831</v>
       </c>
       <c r="D1234" t="s">
-        <v>1945</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="B1235" s="2">
-        <v>16113</v>
+        <v>16114</v>
       </c>
       <c r="C1235" t="s">
-        <v>2041</v>
+        <v>831</v>
       </c>
       <c r="D1235" t="s">
-        <v>1946</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="B1236" s="2">
-        <v>16113</v>
+        <v>16117</v>
       </c>
       <c r="C1236" t="s">
         <v>831</v>
       </c>
       <c r="D1236" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B1237" s="2">
-        <v>16114</v>
+        <v>16117</v>
       </c>
       <c r="C1237" t="s">
-        <v>831</v>
+        <v>1940</v>
       </c>
       <c r="D1237" t="s">
-        <v>86</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="B1238" s="2">
-        <v>16117</v>
+        <v>16118</v>
       </c>
       <c r="C1238" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1238" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="B1239" s="2">
-        <v>16117</v>
+        <v>16118</v>
       </c>
       <c r="C1239" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D1239" t="s">
-        <v>2285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="B1240" s="2">
-        <v>16118</v>
+        <v>16120</v>
       </c>
       <c r="C1240" t="s">
-        <v>822</v>
+        <v>1942</v>
       </c>
       <c r="D1240" t="s">
         <v>351</v>
@@ -26168,52 +26159,52 @@
     </row>
     <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="B1241" s="2">
-        <v>16118</v>
+        <v>16121</v>
       </c>
       <c r="C1241" t="s">
-        <v>1941</v>
+        <v>52</v>
       </c>
       <c r="D1241" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B1242" s="2">
-        <v>16120</v>
+        <v>16123</v>
       </c>
       <c r="C1242" t="s">
-        <v>1942</v>
+        <v>831</v>
       </c>
       <c r="D1242" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B1243" s="2">
-        <v>16121</v>
+        <v>16124</v>
       </c>
       <c r="C1243" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D1243" t="s">
-        <v>86</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="B1244" s="2">
-        <v>16123</v>
+        <v>16128</v>
       </c>
       <c r="C1244" t="s">
         <v>831</v>
@@ -26224,136 +26215,136 @@
     </row>
     <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1935</v>
+        <v>1947</v>
       </c>
       <c r="B1245" s="2">
-        <v>16124</v>
+        <v>16131</v>
       </c>
       <c r="C1245" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1245" t="s">
-        <v>1563</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B1246" s="2">
-        <v>16128</v>
+        <v>1948</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1974</v>
       </c>
       <c r="C1246" t="s">
-        <v>831</v>
+        <v>1976</v>
       </c>
       <c r="D1246" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B1247" s="2">
-        <v>16131</v>
+        <v>16132</v>
       </c>
       <c r="C1247" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1247" t="s">
-        <v>86</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B1248" t="s">
-        <v>1974</v>
+        <v>1950</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>16132</v>
       </c>
       <c r="C1248" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D1248" t="s">
-        <v>539</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B1249" s="2">
-        <v>16132</v>
+        <v>16136</v>
       </c>
       <c r="C1249" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1249" t="s">
-        <v>1359</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="B1250" s="2">
-        <v>16132</v>
+        <v>16136</v>
       </c>
       <c r="C1250" t="s">
-        <v>1977</v>
+        <v>1558</v>
       </c>
       <c r="D1250" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B1251" s="2">
-        <v>16136</v>
+        <v>16140</v>
       </c>
       <c r="C1251" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1251" t="s">
-        <v>1133</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="B1252" s="2">
-        <v>16136</v>
+        <v>16141</v>
       </c>
       <c r="C1252" t="s">
-        <v>1558</v>
+        <v>1772</v>
       </c>
       <c r="D1252" t="s">
-        <v>1978</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="B1253" s="2">
-        <v>16140</v>
+        <v>16142</v>
       </c>
       <c r="C1253" t="s">
-        <v>162</v>
+        <v>1772</v>
       </c>
       <c r="D1253" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1954</v>
-      </c>
-      <c r="B1254" s="2">
-        <v>16141</v>
+        <v>1956</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1975</v>
       </c>
       <c r="C1254" t="s">
         <v>1772</v>
@@ -26364,24 +26355,24 @@
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="B1255" s="2">
-        <v>16142</v>
+        <v>16143</v>
       </c>
       <c r="C1255" t="s">
         <v>1772</v>
       </c>
       <c r="D1255" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>1975</v>
+        <v>1958</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>16144</v>
       </c>
       <c r="C1256" t="s">
         <v>1772</v>
@@ -26392,133 +26383,133 @@
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B1257" s="2">
-        <v>16143</v>
+        <v>16144</v>
       </c>
       <c r="C1257" t="s">
         <v>1772</v>
       </c>
       <c r="D1257" t="s">
-        <v>539</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B1258" s="2">
-        <v>16144</v>
+        <v>16146</v>
       </c>
       <c r="C1258" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1258" t="s">
-        <v>86</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="B1259" s="2">
-        <v>16144</v>
+        <v>16147</v>
       </c>
       <c r="C1259" t="s">
-        <v>1772</v>
+        <v>822</v>
       </c>
       <c r="D1259" t="s">
-        <v>1979</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B1260" s="2">
-        <v>16146</v>
+        <v>16150</v>
       </c>
       <c r="C1260" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1260" t="s">
-        <v>1980</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="B1261" s="2">
-        <v>16147</v>
+        <v>16150</v>
       </c>
       <c r="C1261" t="s">
-        <v>822</v>
+        <v>725</v>
       </c>
       <c r="D1261" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="B1262" s="2">
-        <v>16150</v>
+        <v>16151</v>
       </c>
       <c r="C1262" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1262" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B1263" s="2">
-        <v>16150</v>
+        <v>16152</v>
       </c>
       <c r="C1263" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="D1263" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B1264" s="2">
-        <v>16151</v>
+        <v>16154</v>
       </c>
       <c r="C1264" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1264" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B1265" s="2">
-        <v>16152</v>
+        <v>16154</v>
       </c>
       <c r="C1265" t="s">
-        <v>822</v>
+        <v>1772</v>
       </c>
       <c r="D1265" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="B1266" s="2">
         <v>16154</v>
@@ -26532,83 +26523,83 @@
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="B1267" s="2">
-        <v>16154</v>
+        <v>16155</v>
       </c>
       <c r="C1267" t="s">
-        <v>1772</v>
+        <v>681</v>
       </c>
       <c r="D1267" t="s">
-        <v>86</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B1268" s="2">
-        <v>16154</v>
+        <v>16155</v>
       </c>
       <c r="C1268" t="s">
         <v>1772</v>
       </c>
       <c r="D1268" t="s">
-        <v>86</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="B1269" s="2">
-        <v>16155</v>
+        <v>16156</v>
       </c>
       <c r="C1269" t="s">
-        <v>681</v>
+        <v>41</v>
       </c>
       <c r="D1269" t="s">
-        <v>1981</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B1270" s="2">
-        <v>16155</v>
+        <v>16157</v>
       </c>
       <c r="C1270" t="s">
         <v>1772</v>
       </c>
       <c r="D1270" t="s">
-        <v>1982</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="B1271" s="2">
-        <v>16156</v>
+        <v>16161</v>
       </c>
       <c r="C1271" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="D1271" t="s">
-        <v>400</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1972</v>
+        <v>1985</v>
       </c>
       <c r="B1272" s="2">
-        <v>16157</v>
+        <v>16163</v>
       </c>
       <c r="C1272" t="s">
-        <v>1772</v>
+        <v>2016</v>
       </c>
       <c r="D1272" t="s">
         <v>86</v>
@@ -26616,38 +26607,38 @@
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1973</v>
+        <v>1986</v>
       </c>
       <c r="B1273" s="2">
-        <v>16161</v>
+        <v>16163</v>
       </c>
       <c r="C1273" t="s">
-        <v>385</v>
+        <v>831</v>
       </c>
       <c r="D1273" t="s">
-        <v>1984</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="B1274" s="2">
-        <v>16163</v>
+        <v>16166</v>
       </c>
       <c r="C1274" t="s">
-        <v>2016</v>
+        <v>35</v>
       </c>
       <c r="D1274" t="s">
-        <v>86</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B1275" s="2">
-        <v>16163</v>
+        <v>16169</v>
       </c>
       <c r="C1275" t="s">
         <v>831</v>
@@ -26658,13 +26649,13 @@
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="B1276" s="2">
-        <v>16166</v>
+        <v>16169</v>
       </c>
       <c r="C1276" t="s">
-        <v>35</v>
+        <v>822</v>
       </c>
       <c r="D1276" t="s">
         <v>1443</v>
@@ -26672,349 +26663,349 @@
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="B1277" s="2">
-        <v>16169</v>
+        <v>16172</v>
       </c>
       <c r="C1277" t="s">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="D1277" t="s">
-        <v>86</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="B1278" s="2">
-        <v>16169</v>
+        <v>16174</v>
       </c>
       <c r="C1278" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="D1278" t="s">
-        <v>1443</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="B1279" s="2">
-        <v>16172</v>
+        <v>16174</v>
       </c>
       <c r="C1279" t="s">
-        <v>162</v>
+        <v>2017</v>
       </c>
       <c r="D1279" t="s">
-        <v>2023</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B1280" s="2">
-        <v>16174</v>
+        <v>16175</v>
       </c>
       <c r="C1280" t="s">
-        <v>831</v>
+        <v>149</v>
       </c>
       <c r="D1280" t="s">
-        <v>86</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B1281" s="2">
-        <v>16174</v>
+        <v>16177</v>
       </c>
       <c r="C1281" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1281" t="s">
-        <v>1443</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B1282" s="2">
-        <v>16175</v>
+        <v>16179</v>
       </c>
       <c r="C1282" t="s">
-        <v>149</v>
+        <v>2019</v>
       </c>
       <c r="D1282" t="s">
-        <v>2024</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B1283" s="2">
-        <v>16177</v>
+        <v>16180</v>
       </c>
       <c r="C1283" t="s">
-        <v>2018</v>
+        <v>162</v>
       </c>
       <c r="D1283" t="s">
-        <v>2025</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B1284" s="2">
-        <v>16179</v>
+        <v>16181</v>
       </c>
       <c r="C1284" t="s">
-        <v>2019</v>
+        <v>831</v>
       </c>
       <c r="D1284" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B1285" s="2">
-        <v>16180</v>
+        <v>16181</v>
       </c>
       <c r="C1285" t="s">
-        <v>162</v>
+        <v>2020</v>
       </c>
       <c r="D1285" t="s">
-        <v>86</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="B1286" s="2">
-        <v>16181</v>
+        <v>16183</v>
       </c>
       <c r="C1286" t="s">
         <v>831</v>
       </c>
       <c r="D1286" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="B1287" s="2">
-        <v>16181</v>
+        <v>16194</v>
       </c>
       <c r="C1287" t="s">
-        <v>2020</v>
+        <v>968</v>
       </c>
       <c r="D1287" t="s">
-        <v>1166</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B1288" s="2">
-        <v>16183</v>
+        <v>16197</v>
       </c>
       <c r="C1288" t="s">
-        <v>831</v>
+        <v>642</v>
       </c>
       <c r="D1288" t="s">
-        <v>210</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B1289" s="2">
-        <v>16194</v>
+        <v>16198</v>
       </c>
       <c r="C1289" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1289" t="s">
-        <v>2026</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B1290" s="2">
-        <v>16197</v>
+        <v>16209</v>
       </c>
       <c r="C1290" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1290" t="s">
-        <v>2027</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B1291" s="2">
-        <v>16198</v>
+        <v>16210</v>
       </c>
       <c r="C1291" t="s">
-        <v>162</v>
+        <v>2021</v>
       </c>
       <c r="D1291" t="s">
-        <v>1359</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B1292" s="2">
-        <v>16209</v>
+        <v>16210</v>
       </c>
       <c r="C1292" t="s">
-        <v>162</v>
+        <v>2022</v>
       </c>
       <c r="D1292" t="s">
-        <v>210</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B1293" s="2">
-        <v>16210</v>
+        <v>16213</v>
       </c>
       <c r="C1293" t="s">
-        <v>2021</v>
+        <v>831</v>
       </c>
       <c r="D1293" t="s">
-        <v>2028</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B1294" s="2">
-        <v>16210</v>
+        <v>16214</v>
       </c>
       <c r="C1294" t="s">
-        <v>2022</v>
+        <v>162</v>
       </c>
       <c r="D1294" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B1295" s="2">
-        <v>16213</v>
+        <v>16218</v>
       </c>
       <c r="C1295" t="s">
-        <v>831</v>
+        <v>725</v>
       </c>
       <c r="D1295" t="s">
-        <v>86</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B1296" s="2">
-        <v>16214</v>
+        <v>16219</v>
       </c>
       <c r="C1296" t="s">
-        <v>162</v>
+        <v>683</v>
       </c>
       <c r="D1296" t="s">
-        <v>2029</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B1297" s="2">
-        <v>16218</v>
+        <v>16226</v>
       </c>
       <c r="C1297" t="s">
-        <v>725</v>
+        <v>1085</v>
       </c>
       <c r="D1297" t="s">
-        <v>2030</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B1298" s="2">
-        <v>16219</v>
+        <v>16228</v>
       </c>
       <c r="C1298" t="s">
-        <v>683</v>
+        <v>162</v>
       </c>
       <c r="D1298" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B1299" s="2">
-        <v>16226</v>
+        <v>16228</v>
       </c>
       <c r="C1299" t="s">
-        <v>1085</v>
+        <v>162</v>
       </c>
       <c r="D1299" t="s">
-        <v>1811</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B1300" s="2">
-        <v>16228</v>
+        <v>16229</v>
       </c>
       <c r="C1300" t="s">
-        <v>162</v>
+        <v>681</v>
       </c>
       <c r="D1300" t="s">
-        <v>1359</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B1301" s="2">
-        <v>16228</v>
+        <v>16236</v>
       </c>
       <c r="C1301" t="s">
-        <v>162</v>
+        <v>725</v>
       </c>
       <c r="D1301" t="s">
         <v>1359</v>
@@ -27022,83 +27013,83 @@
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B1302" s="2">
-        <v>16229</v>
+        <v>16237</v>
       </c>
       <c r="C1302" t="s">
-        <v>681</v>
+        <v>162</v>
       </c>
       <c r="D1302" t="s">
-        <v>740</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>2014</v>
+        <v>2042</v>
       </c>
       <c r="B1303" s="2">
-        <v>16236</v>
+        <v>16254</v>
       </c>
       <c r="C1303" t="s">
-        <v>725</v>
+        <v>162</v>
       </c>
       <c r="D1303" t="s">
-        <v>1359</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>2015</v>
+        <v>2043</v>
       </c>
       <c r="B1304" s="2">
-        <v>16237</v>
+        <v>16255</v>
       </c>
       <c r="C1304" t="s">
-        <v>162</v>
+        <v>2049</v>
       </c>
       <c r="D1304" t="s">
-        <v>1359</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="B1305" s="2">
-        <v>16254</v>
+        <v>16258</v>
       </c>
       <c r="C1305" t="s">
-        <v>162</v>
+        <v>2050</v>
       </c>
       <c r="D1305" t="s">
-        <v>539</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="B1306" s="2">
-        <v>16255</v>
+        <v>16258</v>
       </c>
       <c r="C1306" t="s">
-        <v>2049</v>
+        <v>1087</v>
       </c>
       <c r="D1306" t="s">
-        <v>2024</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="B1307" s="2">
-        <v>16258</v>
+        <v>16266</v>
       </c>
       <c r="C1307" t="s">
-        <v>2050</v>
+        <v>531</v>
       </c>
       <c r="D1307" t="s">
         <v>1520</v>
@@ -27106,195 +27097,195 @@
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="B1308" s="2">
-        <v>16258</v>
+        <v>16276</v>
       </c>
       <c r="C1308" t="s">
-        <v>1087</v>
+        <v>2051</v>
       </c>
       <c r="D1308" t="s">
-        <v>2052</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B1309" s="2">
-        <v>16266</v>
+        <v>16277</v>
       </c>
       <c r="C1309" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1309" t="s">
-        <v>1520</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="B1310" s="2">
-        <v>16276</v>
+        <v>16291</v>
       </c>
       <c r="C1310" t="s">
-        <v>2051</v>
+        <v>728</v>
       </c>
       <c r="D1310" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="B1311" s="2">
-        <v>16277</v>
+        <v>16297</v>
       </c>
       <c r="C1311" t="s">
-        <v>162</v>
+        <v>531</v>
       </c>
       <c r="D1311" t="s">
-        <v>2053</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="B1312" s="2">
-        <v>16291</v>
+        <v>16299</v>
       </c>
       <c r="C1312" t="s">
-        <v>728</v>
+        <v>162</v>
       </c>
       <c r="D1312" t="s">
-        <v>2287</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="B1313" s="2">
-        <v>16297</v>
+        <v>16301</v>
       </c>
       <c r="C1313" t="s">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="D1313" t="s">
-        <v>2087</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="B1314" s="2">
-        <v>16299</v>
+        <v>16304</v>
       </c>
       <c r="C1314" t="s">
-        <v>162</v>
+        <v>642</v>
       </c>
       <c r="D1314" t="s">
-        <v>538</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="B1315" s="2">
-        <v>16301</v>
+        <v>16308</v>
       </c>
       <c r="C1315" t="s">
-        <v>184</v>
+        <v>2084</v>
       </c>
       <c r="D1315" t="s">
-        <v>1626</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="B1316" s="2">
-        <v>16304</v>
+        <v>16308</v>
       </c>
       <c r="C1316" t="s">
-        <v>642</v>
+        <v>162</v>
       </c>
       <c r="D1316" t="s">
-        <v>1205</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="B1317" s="2">
-        <v>16308</v>
+        <v>16313</v>
       </c>
       <c r="C1317" t="s">
-        <v>2084</v>
+        <v>725</v>
       </c>
       <c r="D1317" t="s">
-        <v>53</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="B1318" s="2">
-        <v>16308</v>
+        <v>16315</v>
       </c>
       <c r="C1318" t="s">
-        <v>162</v>
+        <v>2085</v>
       </c>
       <c r="D1318" t="s">
-        <v>539</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="B1319" s="2">
-        <v>16313</v>
+        <v>16333</v>
       </c>
       <c r="C1319" t="s">
-        <v>725</v>
+        <v>2086</v>
       </c>
       <c r="D1319" t="s">
-        <v>1359</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="B1320" s="2">
-        <v>16315</v>
+        <v>16333</v>
       </c>
       <c r="C1320" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D1320" t="s">
-        <v>1205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="B1321" s="2">
         <v>16333</v>
       </c>
       <c r="C1321" t="s">
-        <v>2086</v>
+        <v>831</v>
       </c>
       <c r="D1321" t="s">
         <v>210</v>
@@ -27302,24 +27293,24 @@
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="B1322" s="2">
-        <v>16333</v>
+        <v>16334</v>
       </c>
       <c r="C1322" t="s">
-        <v>2086</v>
+        <v>831</v>
       </c>
       <c r="D1322" t="s">
-        <v>210</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B1323" s="2">
-        <v>16333</v>
+        <v>2067</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2083</v>
       </c>
       <c r="C1323" t="s">
         <v>831</v>
@@ -27330,209 +27321,209 @@
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="B1324" s="2">
-        <v>16334</v>
+        <v>16340</v>
       </c>
       <c r="C1324" t="s">
-        <v>831</v>
+        <v>52</v>
       </c>
       <c r="D1324" t="s">
-        <v>2288</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B1325" t="s">
-        <v>2083</v>
+        <v>2069</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>16341</v>
       </c>
       <c r="C1325" t="s">
         <v>831</v>
       </c>
       <c r="D1325" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="B1326" s="2">
-        <v>16340</v>
+        <v>16342</v>
       </c>
       <c r="C1326" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D1326" t="s">
-        <v>2088</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="B1327" s="2">
-        <v>16341</v>
+        <v>16343</v>
       </c>
       <c r="C1327" t="s">
-        <v>831</v>
+        <v>726</v>
       </c>
       <c r="D1327" t="s">
-        <v>86</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="B1328" s="2">
-        <v>16342</v>
+        <v>16346</v>
       </c>
       <c r="C1328" t="s">
-        <v>149</v>
+        <v>726</v>
       </c>
       <c r="D1328" t="s">
-        <v>2024</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="B1329" s="2">
-        <v>16343</v>
+        <v>16347</v>
       </c>
       <c r="C1329" t="s">
         <v>726</v>
       </c>
       <c r="D1329" t="s">
-        <v>2024</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="B1330" s="2">
-        <v>16346</v>
+        <v>16347</v>
       </c>
       <c r="C1330" t="s">
-        <v>726</v>
+        <v>831</v>
       </c>
       <c r="D1330" t="s">
-        <v>2091</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="B1331" s="2">
-        <v>16347</v>
+        <v>16349</v>
       </c>
       <c r="C1331" t="s">
-        <v>726</v>
+        <v>1083</v>
       </c>
       <c r="D1331" t="s">
-        <v>2089</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="B1332" s="2">
-        <v>16347</v>
+        <v>16354</v>
       </c>
       <c r="C1332" t="s">
-        <v>831</v>
+        <v>48</v>
       </c>
       <c r="D1332" t="s">
-        <v>86</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="B1333" s="2">
-        <v>16349</v>
+        <v>16354</v>
       </c>
       <c r="C1333" t="s">
-        <v>1083</v>
+        <v>623</v>
       </c>
       <c r="D1333" t="s">
-        <v>400</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="B1334" s="2">
-        <v>16354</v>
+        <v>16356</v>
       </c>
       <c r="C1334" t="s">
-        <v>48</v>
+        <v>623</v>
       </c>
       <c r="D1334" t="s">
-        <v>1133</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="B1335" s="2">
-        <v>16354</v>
+        <v>16356</v>
       </c>
       <c r="C1335" t="s">
-        <v>623</v>
+        <v>162</v>
       </c>
       <c r="D1335" t="s">
-        <v>1248</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="B1336" s="2">
-        <v>16356</v>
+        <v>16357</v>
       </c>
       <c r="C1336" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="D1336" t="s">
-        <v>2289</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="B1337" s="2">
-        <v>16356</v>
+        <v>16357</v>
       </c>
       <c r="C1337" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1337" t="s">
-        <v>86</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="B1338" s="2">
-        <v>16357</v>
+        <v>16358</v>
       </c>
       <c r="C1338" t="s">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="D1338" t="s">
         <v>2090</v>
@@ -27540,307 +27531,307 @@
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>2081</v>
+        <v>2094</v>
       </c>
       <c r="B1339" s="2">
-        <v>16357</v>
+        <v>16359</v>
       </c>
       <c r="C1339" t="s">
-        <v>789</v>
+        <v>623</v>
       </c>
       <c r="D1339" t="s">
-        <v>975</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>2082</v>
+        <v>2095</v>
       </c>
       <c r="B1340" s="2">
-        <v>16358</v>
+        <v>16359</v>
       </c>
       <c r="C1340" t="s">
-        <v>162</v>
+        <v>789</v>
       </c>
       <c r="D1340" t="s">
-        <v>2090</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="B1341" s="2">
-        <v>16359</v>
+        <v>16360</v>
       </c>
       <c r="C1341" t="s">
-        <v>623</v>
+        <v>1558</v>
       </c>
       <c r="D1341" t="s">
-        <v>401</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="B1342" s="2">
-        <v>16359</v>
+        <v>16362</v>
       </c>
       <c r="C1342" t="s">
-        <v>789</v>
+        <v>162</v>
       </c>
       <c r="D1342" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="B1343" s="2">
-        <v>16360</v>
+        <v>16389</v>
       </c>
       <c r="C1343" t="s">
-        <v>1558</v>
+        <v>1083</v>
       </c>
       <c r="D1343" t="s">
-        <v>1899</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="B1344" s="2">
-        <v>16362</v>
+        <v>16391</v>
       </c>
       <c r="C1344" t="s">
-        <v>162</v>
+        <v>2112</v>
       </c>
       <c r="D1344" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B1345" s="2">
-        <v>16389</v>
+        <v>16405</v>
       </c>
       <c r="C1345" t="s">
-        <v>1083</v>
+        <v>149</v>
       </c>
       <c r="D1345" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="B1346" s="2">
-        <v>16391</v>
+        <v>16405</v>
       </c>
       <c r="C1346" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D1346" t="s">
-        <v>2119</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="B1347" s="2">
-        <v>16405</v>
+        <v>16406</v>
       </c>
       <c r="C1347" t="s">
-        <v>149</v>
+        <v>725</v>
       </c>
       <c r="D1347" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B1348" s="2">
-        <v>16405</v>
+        <v>16409</v>
       </c>
       <c r="C1348" t="s">
-        <v>2113</v>
+        <v>2264</v>
       </c>
       <c r="D1348" t="s">
-        <v>1290</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="B1349" s="2">
-        <v>16406</v>
+        <v>16414</v>
       </c>
       <c r="C1349" t="s">
-        <v>725</v>
+        <v>2114</v>
       </c>
       <c r="D1349" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B1350" s="2">
-        <v>16409</v>
+        <v>16415</v>
       </c>
       <c r="C1350" t="s">
-        <v>2264</v>
+        <v>52</v>
       </c>
       <c r="D1350" t="s">
-        <v>351</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B1351" s="2">
-        <v>16414</v>
+        <v>16416</v>
       </c>
       <c r="C1351" t="s">
-        <v>2114</v>
+        <v>35</v>
       </c>
       <c r="D1351" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="B1352" s="2">
-        <v>16415</v>
+        <v>16416</v>
       </c>
       <c r="C1352" t="s">
-        <v>52</v>
+        <v>789</v>
       </c>
       <c r="D1352" t="s">
-        <v>1626</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B1353" s="2">
-        <v>16416</v>
+        <v>16419</v>
       </c>
       <c r="C1353" t="s">
-        <v>35</v>
+        <v>728</v>
       </c>
       <c r="D1353" t="s">
-        <v>351</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="B1354" s="2">
-        <v>16416</v>
+        <v>16425</v>
       </c>
       <c r="C1354" t="s">
-        <v>789</v>
+        <v>1866</v>
       </c>
       <c r="D1354" t="s">
-        <v>93</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="B1355" s="2">
-        <v>16419</v>
+        <v>16431</v>
       </c>
       <c r="C1355" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D1355" t="s">
-        <v>2123</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="B1356" s="2">
-        <v>16425</v>
+        <v>16432</v>
       </c>
       <c r="C1356" t="s">
-        <v>1866</v>
+        <v>679</v>
       </c>
       <c r="D1356" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="B1357" s="2">
-        <v>16431</v>
+        <v>16432</v>
       </c>
       <c r="C1357" t="s">
-        <v>725</v>
+        <v>2115</v>
       </c>
       <c r="D1357" t="s">
-        <v>1626</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B1358" s="2">
-        <v>16432</v>
+        <v>2127</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2156</v>
       </c>
       <c r="C1358" t="s">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="D1358" t="s">
-        <v>2125</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B1359" s="2">
-        <v>16432</v>
+        <v>2128</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2156</v>
       </c>
       <c r="C1359" t="s">
-        <v>2115</v>
+        <v>728</v>
       </c>
       <c r="D1359" t="s">
-        <v>1443</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="B1360" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="C1360" t="s">
-        <v>789</v>
+        <v>623</v>
       </c>
       <c r="D1360" t="s">
         <v>1444</v>
@@ -27848,100 +27839,106 @@
     </row>
     <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="B1361" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="C1361" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D1361" t="s">
-        <v>401</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="B1362" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C1362" t="s">
-        <v>623</v>
+        <v>968</v>
       </c>
       <c r="D1362" t="s">
-        <v>1444</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="B1363" t="s">
         <v>2158</v>
       </c>
       <c r="C1363" t="s">
-        <v>726</v>
+        <v>1559</v>
       </c>
       <c r="D1363" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B1364" t="s">
-        <v>2158</v>
+        <v>2133</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>16441</v>
       </c>
       <c r="C1364" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1364" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B1365" t="s">
-        <v>2158</v>
+        <v>2134</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>16442</v>
       </c>
       <c r="C1365" t="s">
-        <v>1559</v>
+        <v>2160</v>
       </c>
       <c r="D1365" t="s">
-        <v>2164</v>
+        <v>2026</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="B1366" s="2">
-        <v>16441</v>
+        <v>16442</v>
       </c>
       <c r="C1366" t="s">
-        <v>1124</v>
+        <v>789</v>
       </c>
       <c r="D1366" t="s">
-        <v>351</v>
+        <v>975</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>2202</v>
       </c>
     </row>
     <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="B1367" s="2">
         <v>16442</v>
       </c>
       <c r="C1367" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D1367" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1367" t="s">
         <v>2202</v>
@@ -27949,16 +27946,16 @@
     </row>
     <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="B1368" s="2">
-        <v>16442</v>
+        <v>16443</v>
       </c>
       <c r="C1368" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1368" t="s">
-        <v>975</v>
+        <v>351</v>
       </c>
       <c r="I1368" t="s">
         <v>2202</v>
@@ -27966,16 +27963,16 @@
     </row>
     <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="B1369" s="2">
-        <v>16442</v>
+        <v>16448</v>
       </c>
       <c r="C1369" t="s">
-        <v>2161</v>
+        <v>2265</v>
       </c>
       <c r="D1369" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1369" t="s">
         <v>2202</v>
@@ -27983,16 +27980,16 @@
     </row>
     <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="B1370" s="2">
-        <v>16443</v>
+        <v>16449</v>
       </c>
       <c r="C1370" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D1370" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1370" t="s">
         <v>2202</v>
@@ -28000,16 +27997,16 @@
     </row>
     <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="B1371" s="2">
-        <v>16448</v>
+        <v>16449</v>
       </c>
       <c r="C1371" t="s">
-        <v>2265</v>
+        <v>623</v>
       </c>
       <c r="D1371" t="s">
-        <v>351</v>
+        <v>975</v>
       </c>
       <c r="I1371" t="s">
         <v>2202</v>
@@ -28017,16 +28014,16 @@
     </row>
     <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="B1372" s="2">
-        <v>16449</v>
+        <v>16451</v>
       </c>
       <c r="C1372" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="D1372" t="s">
-        <v>975</v>
+        <v>400</v>
       </c>
       <c r="I1372" t="s">
         <v>2202</v>
@@ -28034,16 +28031,16 @@
     </row>
     <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="B1373" s="2">
-        <v>16449</v>
+        <v>16452</v>
       </c>
       <c r="C1373" t="s">
-        <v>623</v>
+        <v>2162</v>
       </c>
       <c r="D1373" t="s">
-        <v>975</v>
+        <v>2026</v>
       </c>
       <c r="I1373" t="s">
         <v>2202</v>
@@ -28051,16 +28048,16 @@
     </row>
     <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="B1374" s="2">
-        <v>16451</v>
+        <v>16453</v>
       </c>
       <c r="C1374" t="s">
-        <v>831</v>
+        <v>1124</v>
       </c>
       <c r="D1374" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="I1374" t="s">
         <v>2202</v>
@@ -28068,16 +28065,16 @@
     </row>
     <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B1375" s="2">
-        <v>16452</v>
+        <v>16454</v>
       </c>
       <c r="C1375" t="s">
-        <v>2162</v>
+        <v>1441</v>
       </c>
       <c r="D1375" t="s">
-        <v>2026</v>
+        <v>2165</v>
       </c>
       <c r="I1375" t="s">
         <v>2202</v>
@@ -28085,10 +28082,10 @@
     </row>
     <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="B1376" s="2">
-        <v>16453</v>
+        <v>16454</v>
       </c>
       <c r="C1376" t="s">
         <v>1124</v>
@@ -28102,16 +28099,16 @@
     </row>
     <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="B1377" s="2">
-        <v>16454</v>
+        <v>16457</v>
       </c>
       <c r="C1377" t="s">
-        <v>1441</v>
+        <v>2397</v>
       </c>
       <c r="D1377" t="s">
-        <v>2165</v>
+        <v>494</v>
       </c>
       <c r="I1377" t="s">
         <v>2202</v>
@@ -28119,16 +28116,16 @@
     </row>
     <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="B1378" s="2">
-        <v>16454</v>
+        <v>16458</v>
       </c>
       <c r="C1378" t="s">
-        <v>1124</v>
+        <v>968</v>
       </c>
       <c r="D1378" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
       <c r="I1378" t="s">
         <v>2202</v>
@@ -28136,13 +28133,13 @@
     </row>
     <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="B1379" s="2">
-        <v>16457</v>
+        <v>16458</v>
       </c>
       <c r="C1379" t="s">
-        <v>2397</v>
+        <v>822</v>
       </c>
       <c r="D1379" t="s">
         <v>494</v>
@@ -28153,16 +28150,16 @@
     </row>
     <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="B1380" s="2">
-        <v>16458</v>
+        <v>16465</v>
       </c>
       <c r="C1380" t="s">
-        <v>968</v>
+        <v>35</v>
       </c>
       <c r="D1380" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1380" t="s">
         <v>2202</v>
@@ -28170,16 +28167,16 @@
     </row>
     <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="B1381" s="2">
-        <v>16458</v>
+        <v>16466</v>
       </c>
       <c r="C1381" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1381" t="s">
-        <v>494</v>
+        <v>2166</v>
       </c>
       <c r="I1381" t="s">
         <v>2202</v>
@@ -28187,16 +28184,16 @@
     </row>
     <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="B1382" s="2">
-        <v>16465</v>
+        <v>16467</v>
       </c>
       <c r="C1382" t="s">
-        <v>35</v>
+        <v>446</v>
       </c>
       <c r="D1382" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
       <c r="I1382" t="s">
         <v>2202</v>
@@ -28204,16 +28201,16 @@
     </row>
     <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="B1383" s="2">
-        <v>16466</v>
+        <v>16468</v>
       </c>
       <c r="C1383" t="s">
-        <v>162</v>
+        <v>1895</v>
       </c>
       <c r="D1383" t="s">
-        <v>2166</v>
+        <v>494</v>
       </c>
       <c r="I1383" t="s">
         <v>2202</v>
@@ -28221,10 +28218,10 @@
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B1384" s="2">
-        <v>16467</v>
+        <v>2153</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>2159</v>
       </c>
       <c r="C1384" t="s">
         <v>446</v>
@@ -28238,16 +28235,16 @@
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="B1385" s="2">
-        <v>16468</v>
+        <v>16469</v>
       </c>
       <c r="C1385" t="s">
-        <v>1895</v>
+        <v>1281</v>
       </c>
       <c r="D1385" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
       <c r="I1385" t="s">
         <v>2202</v>
@@ -28255,16 +28252,16 @@
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B1386" t="s">
-        <v>2159</v>
+        <v>2155</v>
+      </c>
+      <c r="B1386" s="2">
+        <v>16471</v>
       </c>
       <c r="C1386" t="s">
-        <v>446</v>
+        <v>789</v>
       </c>
       <c r="D1386" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I1386" t="s">
         <v>2202</v>
@@ -28272,13 +28269,13 @@
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>2154</v>
+        <v>2167</v>
       </c>
       <c r="B1387" s="2">
         <v>16469</v>
       </c>
       <c r="C1387" t="s">
-        <v>1281</v>
+        <v>1124</v>
       </c>
       <c r="D1387" t="s">
         <v>2122</v>
@@ -28295,7 +28292,7 @@
         <v>16471</v>
       </c>
       <c r="C1388" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1388" t="s">
         <v>401</v>
@@ -28306,16 +28303,16 @@
     </row>
     <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B1389" s="2">
-        <v>16469</v>
+        <v>16471</v>
       </c>
       <c r="C1389" t="s">
         <v>1124</v>
       </c>
       <c r="D1389" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
       <c r="I1389" t="s">
         <v>2202</v>
@@ -28323,16 +28320,16 @@
     </row>
     <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>2155</v>
+        <v>2169</v>
       </c>
       <c r="B1390" s="2">
-        <v>16471</v>
+        <v>16472</v>
       </c>
       <c r="C1390" t="s">
-        <v>822</v>
+        <v>162</v>
       </c>
       <c r="D1390" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
       <c r="I1390" t="s">
         <v>2202</v>
@@ -28340,13 +28337,13 @@
     </row>
     <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="B1391" s="2">
-        <v>16471</v>
+        <v>16474</v>
       </c>
       <c r="C1391" t="s">
-        <v>1124</v>
+        <v>822</v>
       </c>
       <c r="D1391" t="s">
         <v>494</v>
@@ -28357,16 +28354,16 @@
     </row>
     <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="B1392" s="2">
-        <v>16472</v>
+        <v>16475</v>
       </c>
       <c r="C1392" t="s">
-        <v>162</v>
+        <v>2197</v>
       </c>
       <c r="D1392" t="s">
-        <v>494</v>
+        <v>86</v>
       </c>
       <c r="I1392" t="s">
         <v>2202</v>
@@ -28374,16 +28371,16 @@
     </row>
     <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="B1393" s="2">
-        <v>16474</v>
+        <v>16477</v>
       </c>
       <c r="C1393" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="D1393" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1393" t="s">
         <v>2202</v>
@@ -28391,16 +28388,16 @@
     </row>
     <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="B1394" s="2">
-        <v>16475</v>
+        <v>16478</v>
       </c>
       <c r="C1394" t="s">
-        <v>2197</v>
+        <v>2162</v>
       </c>
       <c r="D1394" t="s">
-        <v>86</v>
+        <v>2122</v>
       </c>
       <c r="I1394" t="s">
         <v>2202</v>
@@ -28408,16 +28405,16 @@
     </row>
     <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="B1395" s="2">
-        <v>16477</v>
+        <v>16478</v>
       </c>
       <c r="C1395" t="s">
-        <v>865</v>
+        <v>446</v>
       </c>
       <c r="D1395" t="s">
-        <v>351</v>
+        <v>688</v>
       </c>
       <c r="I1395" t="s">
         <v>2202</v>
@@ -28425,16 +28422,13 @@
     </row>
     <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="B1396" s="2">
-        <v>16478</v>
-      </c>
-      <c r="C1396" t="s">
-        <v>2162</v>
+        <v>16480</v>
       </c>
       <c r="D1396" t="s">
-        <v>2122</v>
+        <v>2026</v>
       </c>
       <c r="I1396" t="s">
         <v>2202</v>
@@ -28442,16 +28436,16 @@
     </row>
     <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B1397" s="2">
-        <v>16478</v>
+        <v>2176</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>2196</v>
       </c>
       <c r="C1397" t="s">
-        <v>446</v>
+        <v>2198</v>
       </c>
       <c r="D1397" t="s">
-        <v>688</v>
+        <v>400</v>
       </c>
       <c r="I1397" t="s">
         <v>2202</v>
@@ -28459,13 +28453,16 @@
     </row>
     <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="B1398" s="2">
-        <v>16480</v>
+        <v>16481</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>162</v>
       </c>
       <c r="D1398" t="s">
-        <v>2026</v>
+        <v>494</v>
       </c>
       <c r="I1398" t="s">
         <v>2202</v>
@@ -28473,16 +28470,16 @@
     </row>
     <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>2176</v>
-      </c>
-      <c r="B1399" t="s">
-        <v>2196</v>
+        <v>2178</v>
+      </c>
+      <c r="B1399" s="2">
+        <v>16482</v>
       </c>
       <c r="C1399" t="s">
-        <v>2198</v>
+        <v>1124</v>
       </c>
       <c r="D1399" t="s">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="I1399" t="s">
         <v>2202</v>
@@ -28490,16 +28487,16 @@
     </row>
     <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="B1400" s="2">
-        <v>16481</v>
+        <v>16482</v>
       </c>
       <c r="C1400" t="s">
-        <v>162</v>
+        <v>2039</v>
       </c>
       <c r="D1400" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="I1400" t="s">
         <v>2202</v>
@@ -28507,16 +28504,16 @@
     </row>
     <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="B1401" s="2">
-        <v>16482</v>
+        <v>16483</v>
       </c>
       <c r="C1401" t="s">
-        <v>1124</v>
+        <v>2039</v>
       </c>
       <c r="D1401" t="s">
-        <v>2200</v>
+        <v>86</v>
       </c>
       <c r="I1401" t="s">
         <v>2202</v>
@@ -28524,16 +28521,16 @@
     </row>
     <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="B1402" s="2">
-        <v>16482</v>
+        <v>16493</v>
       </c>
       <c r="C1402" t="s">
-        <v>2039</v>
+        <v>831</v>
       </c>
       <c r="D1402" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="I1402" t="s">
         <v>2202</v>
@@ -28541,134 +28538,128 @@
     </row>
     <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="B1403" s="2">
-        <v>16483</v>
+        <v>16493</v>
       </c>
       <c r="C1403" t="s">
-        <v>2039</v>
+        <v>41</v>
       </c>
       <c r="D1403" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="I1403" t="s">
-        <v>2202</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="B1404" s="2">
-        <v>16493</v>
+        <v>16495</v>
       </c>
       <c r="C1404" t="s">
-        <v>831</v>
+        <v>48</v>
       </c>
       <c r="D1404" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1404" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="B1405" s="2">
-        <v>16493</v>
+        <v>16500</v>
       </c>
       <c r="C1405" t="s">
-        <v>41</v>
+        <v>968</v>
       </c>
       <c r="D1405" t="s">
-        <v>351</v>
-      </c>
-      <c r="I1405" t="s">
-        <v>2290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="B1406" s="2">
-        <v>16495</v>
+        <v>16500</v>
       </c>
       <c r="C1406" t="s">
-        <v>48</v>
+        <v>2039</v>
       </c>
       <c r="D1406" t="s">
-        <v>2201</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="B1407" s="2">
-        <v>16500</v>
+        <v>16501</v>
       </c>
       <c r="C1407" t="s">
-        <v>968</v>
+        <v>1124</v>
       </c>
       <c r="D1407" t="s">
-        <v>150</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="B1408" s="2">
-        <v>16500</v>
+        <v>16501</v>
       </c>
       <c r="C1408" t="s">
-        <v>2039</v>
+        <v>1895</v>
       </c>
       <c r="D1408" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="B1409" s="2">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="C1409" t="s">
-        <v>1124</v>
+        <v>1895</v>
       </c>
       <c r="D1409" t="s">
-        <v>2036</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="B1410" s="2">
-        <v>16501</v>
+        <v>16503</v>
       </c>
       <c r="C1410" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1410" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B1411" s="2">
-        <v>16502</v>
+        <v>16503</v>
       </c>
       <c r="C1411" t="s">
-        <v>1895</v>
+        <v>1124</v>
       </c>
       <c r="D1411" t="s">
         <v>494</v>
@@ -28676,27 +28667,27 @@
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="B1412" s="2">
         <v>16503</v>
       </c>
       <c r="C1412" t="s">
-        <v>822</v>
+        <v>2039</v>
       </c>
       <c r="D1412" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B1413" s="2">
-        <v>16503</v>
+        <v>16513</v>
       </c>
       <c r="C1413" t="s">
-        <v>1124</v>
+        <v>681</v>
       </c>
       <c r="D1413" t="s">
         <v>494</v>
@@ -28704,13 +28695,13 @@
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="B1414" s="2">
-        <v>16503</v>
+        <v>16514</v>
       </c>
       <c r="C1414" t="s">
-        <v>2039</v>
+        <v>35</v>
       </c>
       <c r="D1414" t="s">
         <v>351</v>
@@ -28718,226 +28709,226 @@
     </row>
     <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="B1415" s="2">
-        <v>16513</v>
+        <v>16521</v>
       </c>
       <c r="C1415" t="s">
-        <v>681</v>
+        <v>2199</v>
       </c>
       <c r="D1415" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="B1416" s="2">
-        <v>16514</v>
+        <v>16522</v>
       </c>
       <c r="C1416" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D1416" t="s">
-        <v>351</v>
+        <v>494</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>2203</v>
       </c>
     </row>
     <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>2194</v>
+        <v>2204</v>
       </c>
       <c r="B1417" s="2">
-        <v>16521</v>
+        <v>16523</v>
       </c>
       <c r="C1417" t="s">
         <v>2199</v>
       </c>
       <c r="D1417" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>2195</v>
+        <v>2205</v>
       </c>
       <c r="B1418" s="2">
-        <v>16522</v>
+        <v>16524</v>
       </c>
       <c r="C1418" t="s">
         <v>343</v>
       </c>
       <c r="D1418" t="s">
-        <v>494</v>
-      </c>
-      <c r="I1418" t="s">
-        <v>2203</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="B1419" s="2">
-        <v>16523</v>
+        <v>16525</v>
       </c>
       <c r="C1419" t="s">
-        <v>2199</v>
+        <v>343</v>
       </c>
       <c r="D1419" t="s">
-        <v>539</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="B1420" s="2">
-        <v>16524</v>
+        <v>16530</v>
       </c>
       <c r="C1420" t="s">
-        <v>343</v>
+        <v>1895</v>
       </c>
       <c r="D1420" t="s">
-        <v>2226</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="B1421" s="2">
-        <v>16525</v>
+        <v>16531</v>
       </c>
       <c r="C1421" t="s">
-        <v>343</v>
+        <v>725</v>
       </c>
       <c r="D1421" t="s">
-        <v>794</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="B1422" s="2">
-        <v>16530</v>
+        <v>16531</v>
       </c>
       <c r="C1422" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1422" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="B1423" s="2">
-        <v>16531</v>
+        <v>16532</v>
       </c>
       <c r="C1423" t="s">
-        <v>725</v>
+        <v>968</v>
       </c>
       <c r="D1423" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="B1424" s="2">
-        <v>16531</v>
+        <v>16532</v>
       </c>
       <c r="C1424" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1424" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="B1425" s="2">
-        <v>16532</v>
+        <v>16537</v>
       </c>
       <c r="C1425" t="s">
-        <v>968</v>
+        <v>1401</v>
       </c>
       <c r="D1425" t="s">
-        <v>2026</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="B1426" s="2">
-        <v>16532</v>
+        <v>16537</v>
       </c>
       <c r="C1426" t="s">
-        <v>1895</v>
+        <v>2266</v>
       </c>
       <c r="D1426" t="s">
-        <v>494</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="B1427" s="2">
-        <v>16537</v>
+        <v>16538</v>
       </c>
       <c r="C1427" t="s">
-        <v>1401</v>
+        <v>1124</v>
       </c>
       <c r="D1427" t="s">
-        <v>2291</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="B1428" s="2">
-        <v>16537</v>
+        <v>16539</v>
       </c>
       <c r="C1428" t="s">
-        <v>2266</v>
+        <v>2225</v>
       </c>
       <c r="D1428" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="B1429" s="2">
-        <v>16538</v>
+        <v>16540</v>
       </c>
       <c r="C1429" t="s">
-        <v>1124</v>
+        <v>343</v>
       </c>
       <c r="D1429" t="s">
-        <v>494</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="B1430" s="2">
-        <v>16539</v>
+        <v>16549</v>
       </c>
       <c r="C1430" t="s">
-        <v>2225</v>
+        <v>1895</v>
       </c>
       <c r="D1430" t="s">
         <v>494</v>
@@ -28945,63 +28936,63 @@
     </row>
     <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="B1431" s="2">
-        <v>16540</v>
+        <v>16552</v>
       </c>
       <c r="C1431" t="s">
-        <v>343</v>
+        <v>822</v>
       </c>
       <c r="D1431" t="s">
-        <v>2227</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B1432" s="2">
-        <v>16549</v>
+        <v>16553</v>
       </c>
       <c r="C1432" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1432" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="B1433" s="2">
-        <v>16552</v>
+        <v>16553</v>
       </c>
       <c r="C1433" t="s">
-        <v>822</v>
+        <v>1895</v>
       </c>
       <c r="D1433" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B1434" s="2">
         <v>16553</v>
       </c>
       <c r="C1434" t="s">
-        <v>822</v>
+        <v>20</v>
       </c>
       <c r="D1434" t="s">
-        <v>351</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="B1435" s="2">
         <v>16553</v>
@@ -29015,24 +29006,24 @@
     </row>
     <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="B1436" s="2">
-        <v>16553</v>
+        <v>16556</v>
       </c>
       <c r="C1436" t="s">
-        <v>20</v>
+        <v>1281</v>
       </c>
       <c r="D1436" t="s">
-        <v>2292</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="B1437" s="2">
-        <v>16553</v>
+        <v>16557</v>
       </c>
       <c r="C1437" t="s">
         <v>1895</v>
@@ -29043,24 +29034,24 @@
     </row>
     <row r="1438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B1438" s="2">
-        <v>16556</v>
+        <v>2228</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2259</v>
       </c>
       <c r="C1438" t="s">
-        <v>1281</v>
+        <v>2039</v>
       </c>
       <c r="D1438" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>2224</v>
+        <v>2229</v>
       </c>
       <c r="B1439" s="2">
-        <v>16557</v>
+        <v>16559</v>
       </c>
       <c r="C1439" t="s">
         <v>1895</v>
@@ -29071,119 +29062,119 @@
     </row>
     <row r="1440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B1440" t="s">
-        <v>2259</v>
+        <v>2230</v>
+      </c>
+      <c r="B1440" s="2">
+        <v>16560</v>
       </c>
       <c r="C1440" t="s">
-        <v>2039</v>
+        <v>2260</v>
       </c>
       <c r="D1440" t="s">
-        <v>351</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="B1441" s="2">
-        <v>16559</v>
+        <v>16560</v>
       </c>
       <c r="C1441" t="s">
-        <v>1895</v>
+        <v>1281</v>
       </c>
       <c r="D1441" t="s">
-        <v>494</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="B1442" s="2">
-        <v>16560</v>
+        <v>16562</v>
       </c>
       <c r="C1442" t="s">
-        <v>2260</v>
+        <v>1895</v>
       </c>
       <c r="D1442" t="s">
-        <v>2267</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="B1443" s="2">
-        <v>16560</v>
+        <v>16565</v>
       </c>
       <c r="C1443" t="s">
-        <v>1281</v>
+        <v>2261</v>
       </c>
       <c r="D1443" t="s">
-        <v>2122</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="B1444" s="2">
-        <v>16562</v>
+        <v>16572</v>
       </c>
       <c r="C1444" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1444" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="B1445" s="2">
-        <v>16565</v>
+        <v>16575</v>
       </c>
       <c r="C1445" t="s">
-        <v>2261</v>
+        <v>968</v>
       </c>
       <c r="D1445" t="s">
-        <v>494</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="B1446" s="2">
-        <v>16572</v>
+        <v>16579</v>
       </c>
       <c r="C1446" t="s">
-        <v>822</v>
+        <v>149</v>
       </c>
       <c r="D1446" t="s">
-        <v>351</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="B1447" s="2">
-        <v>16575</v>
+        <v>16579</v>
       </c>
       <c r="C1447" t="s">
-        <v>968</v>
+        <v>2262</v>
       </c>
       <c r="D1447" t="s">
-        <v>2026</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="B1448" s="2">
         <v>16579</v>
@@ -29197,35 +29188,35 @@
     </row>
     <row r="1449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="B1449" s="2">
         <v>16579</v>
       </c>
       <c r="C1449" t="s">
-        <v>2262</v>
+        <v>726</v>
       </c>
       <c r="D1449" t="s">
-        <v>1897</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="B1450" s="2">
         <v>16579</v>
       </c>
       <c r="C1450" t="s">
-        <v>149</v>
+        <v>789</v>
       </c>
       <c r="D1450" t="s">
-        <v>1897</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="B1451" s="2">
         <v>16579</v>
@@ -29234,12 +29225,12 @@
         <v>726</v>
       </c>
       <c r="D1451" t="s">
-        <v>42</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="B1452" s="2">
         <v>16579</v>
@@ -29253,13 +29244,13 @@
     </row>
     <row r="1453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="B1453" s="2">
-        <v>16579</v>
+        <v>16580</v>
       </c>
       <c r="C1453" t="s">
-        <v>726</v>
+        <v>2263</v>
       </c>
       <c r="D1453" t="s">
         <v>2268</v>
@@ -29267,80 +29258,80 @@
     </row>
     <row r="1454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="B1454" s="2">
-        <v>16579</v>
+        <v>16581</v>
       </c>
       <c r="C1454" t="s">
-        <v>789</v>
+        <v>726</v>
       </c>
       <c r="D1454" t="s">
-        <v>975</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="B1455" s="2">
-        <v>16580</v>
+        <v>16583</v>
       </c>
       <c r="C1455" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1455" t="s">
-        <v>2268</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="B1456" s="2">
-        <v>16581</v>
+        <v>16586</v>
       </c>
       <c r="C1456" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1456" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="B1457" s="2">
-        <v>16583</v>
+        <v>16586</v>
       </c>
       <c r="C1457" t="s">
         <v>726</v>
       </c>
       <c r="D1457" t="s">
-        <v>2024</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="B1458" s="2">
-        <v>16586</v>
+        <v>16587</v>
       </c>
       <c r="C1458" t="s">
-        <v>2160</v>
+        <v>1028</v>
       </c>
       <c r="D1458" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="B1459" s="2">
-        <v>16586</v>
+        <v>16587</v>
       </c>
       <c r="C1459" t="s">
         <v>726</v>
@@ -29351,41 +29342,41 @@
     </row>
     <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="B1460" s="2">
         <v>16587</v>
       </c>
       <c r="C1460" t="s">
-        <v>1028</v>
+        <v>2263</v>
       </c>
       <c r="D1460" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="B1461" s="2">
         <v>16587</v>
       </c>
       <c r="C1461" t="s">
-        <v>726</v>
+        <v>2160</v>
       </c>
       <c r="D1461" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B1462" s="2">
-        <v>16587</v>
+        <v>16588</v>
       </c>
       <c r="C1462" t="s">
-        <v>2263</v>
+        <v>726</v>
       </c>
       <c r="D1462" t="s">
         <v>42</v>
@@ -29393,41 +29384,41 @@
     </row>
     <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="B1463" s="2">
-        <v>16587</v>
+        <v>16588</v>
       </c>
       <c r="C1463" t="s">
-        <v>2160</v>
+        <v>726</v>
       </c>
       <c r="D1463" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="B1464" s="2">
         <v>16588</v>
       </c>
       <c r="C1464" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1464" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="B1465" s="2">
-        <v>16588</v>
+        <v>16589</v>
       </c>
       <c r="C1465" t="s">
-        <v>726</v>
+        <v>35</v>
       </c>
       <c r="D1465" t="s">
         <v>42</v>
@@ -29435,63 +29426,63 @@
     </row>
     <row r="1466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1466" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="B1466" s="2">
-        <v>16588</v>
+        <v>16591</v>
       </c>
       <c r="C1466" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1466" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="B1467" s="2">
-        <v>16589</v>
+        <v>16592</v>
       </c>
       <c r="C1467" t="s">
-        <v>35</v>
+        <v>726</v>
       </c>
       <c r="D1467" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="B1468" s="2">
-        <v>16591</v>
+        <v>16599</v>
       </c>
       <c r="C1468" t="s">
         <v>726</v>
       </c>
       <c r="D1468" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1469" t="s">
-        <v>2257</v>
+        <v>2269</v>
       </c>
       <c r="B1469" s="2">
-        <v>16592</v>
+        <v>16599</v>
       </c>
       <c r="C1469" t="s">
         <v>726</v>
       </c>
       <c r="D1469" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>2258</v>
+        <v>2270</v>
       </c>
       <c r="B1470" s="2">
         <v>16599</v>
@@ -29505,10 +29496,10 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="B1471" s="2">
-        <v>16599</v>
+        <v>16600</v>
       </c>
       <c r="C1471" t="s">
         <v>726</v>
@@ -29519,136 +29510,136 @@
     </row>
     <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="B1472" s="2">
-        <v>16599</v>
+        <v>16600</v>
       </c>
       <c r="C1472" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1472" t="s">
-        <v>36</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="B1473" s="2">
-        <v>16600</v>
+        <v>16601</v>
       </c>
       <c r="C1473" t="s">
-        <v>726</v>
+        <v>2293</v>
       </c>
       <c r="D1473" t="s">
-        <v>36</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="B1474" s="2">
-        <v>16600</v>
+        <v>16603</v>
       </c>
       <c r="C1474" t="s">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="D1474" t="s">
-        <v>2294</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="B1475" s="2">
-        <v>16601</v>
+        <v>16605</v>
       </c>
       <c r="C1475" t="s">
-        <v>2293</v>
+        <v>726</v>
       </c>
       <c r="D1475" t="s">
-        <v>2122</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="B1476" s="2">
-        <v>16603</v>
+        <v>16605</v>
       </c>
       <c r="C1476" t="s">
-        <v>726</v>
+        <v>343</v>
       </c>
       <c r="D1476" t="s">
-        <v>62</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B1477" s="2">
-        <v>16605</v>
+        <v>16606</v>
       </c>
       <c r="C1477" t="s">
         <v>726</v>
       </c>
       <c r="D1477" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="B1478" s="2">
-        <v>16605</v>
+        <v>16606</v>
       </c>
       <c r="C1478" t="s">
-        <v>343</v>
+        <v>623</v>
       </c>
       <c r="D1478" t="s">
-        <v>2296</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="B1479" s="2">
-        <v>16606</v>
+        <v>16607</v>
       </c>
       <c r="C1479" t="s">
         <v>726</v>
       </c>
       <c r="D1479" t="s">
-        <v>2297</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="B1480" s="2">
-        <v>16606</v>
+        <v>16609</v>
       </c>
       <c r="C1480" t="s">
-        <v>623</v>
+        <v>726</v>
       </c>
       <c r="D1480" t="s">
-        <v>2122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="B1481" s="2">
-        <v>16607</v>
+        <v>16611</v>
       </c>
       <c r="C1481" t="s">
         <v>726</v>
@@ -29659,203 +29650,203 @@
     </row>
     <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="B1482" s="2">
-        <v>16609</v>
+        <v>16613</v>
       </c>
       <c r="C1482" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="D1482" t="s">
-        <v>42</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>2281</v>
+        <v>2298</v>
       </c>
       <c r="B1483" s="2">
-        <v>16611</v>
+        <v>16620</v>
       </c>
       <c r="C1483" t="s">
-        <v>726</v>
+        <v>55</v>
       </c>
       <c r="D1483" t="s">
-        <v>42</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>2282</v>
+        <v>2299</v>
       </c>
       <c r="B1484" s="2">
-        <v>16613</v>
+        <v>16623</v>
       </c>
       <c r="C1484" t="s">
-        <v>789</v>
+        <v>822</v>
       </c>
       <c r="D1484" t="s">
-        <v>975</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="B1485" s="2">
-        <v>16620</v>
+        <v>16627</v>
       </c>
       <c r="C1485" t="s">
-        <v>55</v>
+        <v>2329</v>
       </c>
       <c r="D1485" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="B1486" s="2">
-        <v>16623</v>
+        <v>16631</v>
       </c>
       <c r="C1486" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1486" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="B1487" s="2">
-        <v>16627</v>
+        <v>16633</v>
       </c>
       <c r="C1487" t="s">
-        <v>2329</v>
+        <v>1895</v>
       </c>
       <c r="D1487" t="s">
-        <v>2333</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="B1488" s="2">
-        <v>16631</v>
+        <v>16633</v>
       </c>
       <c r="C1488" t="s">
-        <v>968</v>
+        <v>48</v>
       </c>
       <c r="D1488" t="s">
-        <v>152</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="B1489" s="2">
-        <v>16633</v>
+        <v>16634</v>
       </c>
       <c r="C1489" t="s">
-        <v>1895</v>
+        <v>822</v>
       </c>
       <c r="D1489" t="s">
-        <v>494</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="B1490" s="2">
-        <v>16633</v>
+        <v>16637</v>
       </c>
       <c r="C1490" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1490" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="B1491" s="2">
-        <v>16634</v>
+        <v>16639</v>
       </c>
       <c r="C1491" t="s">
         <v>822</v>
       </c>
       <c r="D1491" t="s">
-        <v>1248</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="B1492" s="2">
-        <v>16637</v>
+        <v>16641</v>
       </c>
       <c r="C1492" t="s">
-        <v>55</v>
+        <v>968</v>
       </c>
       <c r="D1492" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="B1493" s="2">
-        <v>16639</v>
+        <v>16643</v>
       </c>
       <c r="C1493" t="s">
-        <v>822</v>
+        <v>1281</v>
       </c>
       <c r="D1493" t="s">
-        <v>351</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="B1494" s="2">
-        <v>16641</v>
+        <v>16645</v>
       </c>
       <c r="C1494" t="s">
-        <v>968</v>
+        <v>446</v>
       </c>
       <c r="D1494" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="B1495" s="2">
-        <v>16643</v>
+        <v>16645</v>
       </c>
       <c r="C1495" t="s">
-        <v>1281</v>
+        <v>343</v>
       </c>
       <c r="D1495" t="s">
-        <v>2122</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="B1496" s="2">
         <v>16645</v>
@@ -29869,7 +29860,7 @@
     </row>
     <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="B1497" s="2">
         <v>16645</v>
@@ -29883,13 +29874,13 @@
     </row>
     <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="B1498" s="2">
         <v>16645</v>
       </c>
       <c r="C1498" t="s">
-        <v>446</v>
+        <v>645</v>
       </c>
       <c r="D1498" t="s">
         <v>400</v>
@@ -29897,332 +29888,332 @@
     </row>
     <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="B1499" s="2">
-        <v>16645</v>
+        <v>16647</v>
       </c>
       <c r="C1499" t="s">
-        <v>343</v>
+        <v>822</v>
       </c>
       <c r="D1499" t="s">
-        <v>794</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="B1500" s="2">
-        <v>16645</v>
+        <v>16649</v>
       </c>
       <c r="C1500" t="s">
-        <v>645</v>
+        <v>2330</v>
       </c>
       <c r="D1500" t="s">
-        <v>400</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="B1501" s="2">
-        <v>16647</v>
+        <v>16655</v>
       </c>
       <c r="C1501" t="s">
-        <v>822</v>
+        <v>1866</v>
       </c>
       <c r="D1501" t="s">
-        <v>351</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="B1502" s="2">
-        <v>16649</v>
+        <v>16656</v>
       </c>
       <c r="C1502" t="s">
-        <v>2330</v>
+        <v>1124</v>
       </c>
       <c r="D1502" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="B1503" s="2">
-        <v>16655</v>
+        <v>16657</v>
       </c>
       <c r="C1503" t="s">
-        <v>1866</v>
+        <v>1473</v>
       </c>
       <c r="D1503" t="s">
-        <v>2334</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="B1504" s="2">
-        <v>16656</v>
+        <v>16658</v>
       </c>
       <c r="C1504" t="s">
-        <v>1124</v>
+        <v>726</v>
       </c>
       <c r="D1504" t="s">
-        <v>494</v>
+        <v>689</v>
       </c>
     </row>
     <row r="1505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="B1505" s="2">
-        <v>16657</v>
+        <v>16660</v>
       </c>
       <c r="C1505" t="s">
-        <v>1473</v>
+        <v>2331</v>
       </c>
       <c r="D1505" t="s">
-        <v>400</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="B1506" s="2">
-        <v>16658</v>
+        <v>16662</v>
       </c>
       <c r="C1506" t="s">
-        <v>726</v>
+        <v>149</v>
       </c>
       <c r="D1506" t="s">
-        <v>689</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="B1507" s="2">
-        <v>16660</v>
+        <v>16665</v>
       </c>
       <c r="C1507" t="s">
-        <v>2331</v>
+        <v>149</v>
       </c>
       <c r="D1507" t="s">
-        <v>2024</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="B1508" s="2">
-        <v>16662</v>
+        <v>16668</v>
       </c>
       <c r="C1508" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="D1508" t="s">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="B1509" s="2">
-        <v>16665</v>
+        <v>16668</v>
       </c>
       <c r="C1509" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="D1509" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="B1510" s="2">
-        <v>16668</v>
+        <v>16670</v>
       </c>
       <c r="C1510" t="s">
-        <v>343</v>
+        <v>1281</v>
       </c>
       <c r="D1510" t="s">
-        <v>400</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="B1511" s="2">
-        <v>16668</v>
+        <v>16675</v>
       </c>
       <c r="C1511" t="s">
-        <v>343</v>
+        <v>645</v>
       </c>
       <c r="D1511" t="s">
-        <v>2336</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="B1512" s="2">
-        <v>16670</v>
+        <v>16683</v>
       </c>
       <c r="C1512" t="s">
-        <v>1281</v>
+        <v>822</v>
       </c>
       <c r="D1512" t="s">
-        <v>2122</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="B1513" s="2">
-        <v>16675</v>
+        <v>16684</v>
       </c>
       <c r="C1513" t="s">
-        <v>645</v>
+        <v>2160</v>
       </c>
       <c r="D1513" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2327</v>
+        <v>2337</v>
       </c>
       <c r="B1514" s="2">
-        <v>16683</v>
+        <v>16685</v>
       </c>
       <c r="C1514" t="s">
-        <v>822</v>
+        <v>2345</v>
       </c>
       <c r="D1514" t="s">
-        <v>351</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2328</v>
+        <v>2338</v>
       </c>
       <c r="B1515" s="2">
-        <v>16684</v>
+        <v>16688</v>
       </c>
       <c r="C1515" t="s">
-        <v>2160</v>
+        <v>1895</v>
       </c>
       <c r="D1515" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="B1516" s="2">
-        <v>16685</v>
+        <v>16693</v>
       </c>
       <c r="C1516" t="s">
-        <v>2345</v>
+        <v>162</v>
       </c>
       <c r="D1516" t="s">
-        <v>2026</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="B1517" s="2">
-        <v>16688</v>
+        <v>16696</v>
       </c>
       <c r="C1517" t="s">
-        <v>1895</v>
+        <v>1940</v>
       </c>
       <c r="D1517" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="B1518" s="2">
-        <v>16693</v>
+        <v>16697</v>
       </c>
       <c r="C1518" t="s">
-        <v>162</v>
+        <v>968</v>
       </c>
       <c r="D1518" t="s">
-        <v>2346</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="B1519" s="2">
-        <v>16696</v>
+        <v>16697</v>
       </c>
       <c r="C1519" t="s">
-        <v>1940</v>
+        <v>531</v>
       </c>
       <c r="D1519" t="s">
-        <v>351</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="B1520" s="2">
-        <v>16697</v>
+        <v>16698</v>
       </c>
       <c r="C1520" t="s">
-        <v>968</v>
+        <v>35</v>
       </c>
       <c r="D1520" t="s">
-        <v>2026</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="B1521" s="2">
-        <v>16697</v>
+        <v>16701</v>
       </c>
       <c r="C1521" t="s">
-        <v>531</v>
+        <v>2160</v>
       </c>
       <c r="D1521" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="B1522" s="2">
-        <v>16698</v>
+        <v>16718</v>
       </c>
       <c r="C1522" t="s">
         <v>35</v>
@@ -30233,27 +30224,27 @@
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="B1523" s="2">
-        <v>16701</v>
+        <v>16719</v>
       </c>
       <c r="C1523" t="s">
-        <v>2160</v>
+        <v>1124</v>
       </c>
       <c r="D1523" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="B1524" s="2">
-        <v>16718</v>
+        <v>16725</v>
       </c>
       <c r="C1524" t="s">
-        <v>35</v>
+        <v>2365</v>
       </c>
       <c r="D1524" t="s">
         <v>351</v>
@@ -30261,69 +30252,69 @@
     </row>
     <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="B1525" s="2">
-        <v>16719</v>
+        <v>16729</v>
       </c>
       <c r="C1525" t="s">
-        <v>1124</v>
+        <v>682</v>
       </c>
       <c r="D1525" t="s">
-        <v>173</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="B1526" s="2">
-        <v>16725</v>
+        <v>16737</v>
       </c>
       <c r="C1526" t="s">
-        <v>2365</v>
+        <v>162</v>
       </c>
       <c r="D1526" t="s">
-        <v>351</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="B1527" s="2">
-        <v>16729</v>
+        <v>16742</v>
       </c>
       <c r="C1527" t="s">
-        <v>682</v>
+        <v>822</v>
       </c>
       <c r="D1527" t="s">
-        <v>2368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="B1528" s="2">
-        <v>16737</v>
+        <v>16752</v>
       </c>
       <c r="C1528" t="s">
-        <v>162</v>
+        <v>2366</v>
       </c>
       <c r="D1528" t="s">
-        <v>1359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="B1529" s="2">
-        <v>16742</v>
+        <v>16755</v>
       </c>
       <c r="C1529" t="s">
-        <v>822</v>
+        <v>2367</v>
       </c>
       <c r="D1529" t="s">
         <v>351</v>
@@ -30331,169 +30322,141 @@
     </row>
     <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="B1530" s="2">
-        <v>16752</v>
+        <v>16767</v>
       </c>
       <c r="C1530" t="s">
-        <v>2366</v>
+        <v>1089</v>
       </c>
       <c r="D1530" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="B1531" s="2">
-        <v>16755</v>
+        <v>16768</v>
       </c>
       <c r="C1531" t="s">
-        <v>2367</v>
+        <v>968</v>
       </c>
       <c r="D1531" t="s">
-        <v>351</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="B1532" s="2">
-        <v>16767</v>
+        <v>16773</v>
       </c>
       <c r="C1532" t="s">
-        <v>1089</v>
+        <v>865</v>
       </c>
       <c r="D1532" t="s">
-        <v>400</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="B1533" s="2">
-        <v>16768</v>
+        <v>16774</v>
       </c>
       <c r="C1533" t="s">
-        <v>968</v>
+        <v>162</v>
       </c>
       <c r="D1533" t="s">
-        <v>2369</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="B1534" s="2">
-        <v>16773</v>
+        <v>16774</v>
       </c>
       <c r="C1534" t="s">
-        <v>865</v>
+        <v>968</v>
       </c>
       <c r="D1534" t="s">
-        <v>145</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="B1535" s="2">
-        <v>16774</v>
+        <v>16777</v>
       </c>
       <c r="C1535" t="s">
-        <v>162</v>
+        <v>831</v>
       </c>
       <c r="D1535" t="s">
-        <v>1626</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="B1536" s="2">
-        <v>16774</v>
+        <v>16790</v>
       </c>
       <c r="C1536" t="s">
         <v>968</v>
       </c>
       <c r="D1536" t="s">
-        <v>2026</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="B1537" s="2">
-        <v>16777</v>
+        <v>16798</v>
       </c>
       <c r="C1537" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D1537" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="B1538" s="2">
-        <v>16790</v>
+        <v>16798</v>
       </c>
       <c r="C1538" t="s">
         <v>968</v>
       </c>
       <c r="D1538" t="s">
-        <v>628</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="B1539" s="2">
-        <v>16798</v>
+        <v>16802</v>
       </c>
       <c r="C1539" t="s">
-        <v>822</v>
+        <v>968</v>
       </c>
       <c r="D1539" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1540" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B1540" s="2">
-        <v>16798</v>
-      </c>
-      <c r="C1540" t="s">
-        <v>968</v>
-      </c>
-      <c r="D1540" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1541" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B1541" s="2">
-        <v>16802</v>
-      </c>
-      <c r="C1541" t="s">
-        <v>968</v>
-      </c>
-      <c r="D1541" t="s">
         <v>2370</v>
       </c>
     </row>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5005" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="2403">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1038" workbookViewId="0">
-      <selection activeCell="F1075" sqref="F1075"/>
+    <sheetView tabSelected="1" topLeftCell="A1046" workbookViewId="0">
+      <selection activeCell="F1083" sqref="F1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23846,6 +23846,9 @@
       <c r="D1075" t="s">
         <v>351</v>
       </c>
+      <c r="F1075" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
@@ -23860,6 +23863,9 @@
       <c r="D1076" t="s">
         <v>351</v>
       </c>
+      <c r="F1076" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
@@ -23873,6 +23879,9 @@
       </c>
       <c r="D1077" t="s">
         <v>42</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1080" sqref="F1080"/>
+      <selection activeCell="F1086" sqref="F1086"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23948,6 +23948,9 @@
       <c r="D1081" t="s">
         <v>86</v>
       </c>
+      <c r="F1081" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
@@ -23962,6 +23965,9 @@
       <c r="D1082" t="s">
         <v>351</v>
       </c>
+      <c r="F1082" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
@@ -23976,6 +23982,9 @@
       <c r="D1083" t="s">
         <v>351</v>
       </c>
+      <c r="F1083" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
@@ -23990,6 +23999,9 @@
       <c r="D1084" t="s">
         <v>351</v>
       </c>
+      <c r="F1084" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
@@ -24003,6 +24015,9 @@
       </c>
       <c r="D1085" t="s">
         <v>400</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1086" sqref="F1086"/>
+      <selection activeCell="F1087" sqref="F1087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24033,6 +24033,9 @@
       <c r="D1086" t="s">
         <v>351</v>
       </c>
+      <c r="F1086" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1087" sqref="F1087"/>
+      <selection activeCell="F1088" sqref="F1088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24050,6 +24050,9 @@
       <c r="D1087" t="s">
         <v>145</v>
       </c>
+      <c r="F1087" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5025" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1088" sqref="F1088"/>
+      <selection activeCell="F1090" sqref="F1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24067,8 +24067,11 @@
       <c r="D1088" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1088" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>1793</v>
       </c>
@@ -24081,8 +24084,11 @@
       <c r="D1089" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1089" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>1794</v>
       </c>
@@ -24095,8 +24101,11 @@
       <c r="D1090" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1090" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>1795</v>
       </c>
@@ -24110,7 +24119,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>1796</v>
       </c>
@@ -24124,7 +24133,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>1797</v>
       </c>
@@ -24138,7 +24147,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>1799</v>
       </c>
@@ -24152,7 +24161,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>1798</v>
       </c>
@@ -24166,7 +24175,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>1800</v>
       </c>
@@ -24180,7 +24189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>1801</v>
       </c>
@@ -24194,7 +24203,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>1802</v>
       </c>
@@ -24208,7 +24217,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>1803</v>
       </c>
@@ -24222,7 +24231,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>1804</v>
       </c>
@@ -24236,7 +24245,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>1805</v>
       </c>
@@ -24250,7 +24259,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>1813</v>
       </c>
@@ -24264,7 +24273,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>1814</v>
       </c>
@@ -24278,7 +24287,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>1815</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5025" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1090" sqref="F1090"/>
+      <selection activeCell="F1092" sqref="F1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24118,6 +24118,9 @@
       <c r="D1091" t="s">
         <v>351</v>
       </c>
+      <c r="F1091" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1092" sqref="F1092"/>
+      <selection activeCell="F1093" sqref="F1093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24135,6 +24135,9 @@
       <c r="D1092" t="s">
         <v>1811</v>
       </c>
+      <c r="F1092" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1093" sqref="F1093"/>
+      <selection activeCell="F1097" sqref="F1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24152,6 +24152,9 @@
       <c r="D1093" t="s">
         <v>351</v>
       </c>
+      <c r="F1093" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
@@ -24166,6 +24169,9 @@
       <c r="D1094" t="s">
         <v>1812</v>
       </c>
+      <c r="F1094" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
@@ -24180,6 +24186,9 @@
       <c r="D1095" t="s">
         <v>210</v>
       </c>
+      <c r="F1095" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
@@ -24193,6 +24202,9 @@
       </c>
       <c r="D1096" t="s">
         <v>86</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5038" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8058,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1066" workbookViewId="0">
-      <selection activeCell="F1097" sqref="F1097"/>
+    <sheetView tabSelected="1" topLeftCell="A1071" workbookViewId="0">
+      <selection activeCell="C1108" sqref="C1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24220,6 +24220,9 @@
       <c r="D1097" t="s">
         <v>351</v>
       </c>
+      <c r="F1097" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
@@ -24234,6 +24237,9 @@
       <c r="D1098" t="s">
         <v>351</v>
       </c>
+      <c r="F1098" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
@@ -24248,6 +24254,9 @@
       <c r="D1099" t="s">
         <v>1903</v>
       </c>
+      <c r="F1099" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
@@ -24262,6 +24271,9 @@
       <c r="D1100" t="s">
         <v>1247</v>
       </c>
+      <c r="F1100" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
@@ -24276,6 +24288,9 @@
       <c r="D1101" t="s">
         <v>1247</v>
       </c>
+      <c r="F1101" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
@@ -24290,6 +24305,9 @@
       <c r="D1102" t="s">
         <v>539</v>
       </c>
+      <c r="F1102" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
@@ -24303,6 +24321,9 @@
       </c>
       <c r="D1103" t="s">
         <v>1828</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5038" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5039" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8058,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1071" workbookViewId="0">
-      <selection activeCell="C1108" sqref="C1108"/>
+    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
+      <selection activeCell="C1115" sqref="C1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24339,6 +24339,9 @@
       <c r="D1104" t="s">
         <v>351</v>
       </c>
+      <c r="F1104" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5039" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:K1541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="C1115" sqref="C1115"/>
+      <selection activeCell="F1109" sqref="F1109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24343,7 +24343,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>1816</v>
       </c>
@@ -24356,8 +24356,11 @@
       <c r="D1105" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1105" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>1817</v>
       </c>
@@ -24370,8 +24373,11 @@
       <c r="D1106" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1106" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>1818</v>
       </c>
@@ -24384,8 +24390,11 @@
       <c r="D1107" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1107" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>1819</v>
       </c>
@@ -24398,8 +24407,11 @@
       <c r="D1108" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1108" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>1820</v>
       </c>
@@ -24413,7 +24425,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>1821</v>
       </c>
@@ -24427,7 +24439,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>1822</v>
       </c>
@@ -24441,7 +24453,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>1823</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>1664</v>
       </c>
@@ -24469,7 +24481,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>1665</v>
       </c>
@@ -24483,7 +24495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>1666</v>
       </c>
@@ -24497,7 +24509,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>1667</v>
       </c>
@@ -24511,7 +24523,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>1668</v>
       </c>
@@ -24525,7 +24537,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>1669</v>
       </c>
@@ -24539,7 +24551,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>1670</v>
       </c>
@@ -24553,7 +24565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>1671</v>
       </c>

--- a/CSV spreadsheet/nei.j4b.xlsx
+++ b/CSV spreadsheet/nei.j4b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="2405">
   <si>
     <t xml:space="preserve">Filename </t>
   </si>
@@ -8058,8 +8058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="F1109" sqref="F1109"/>
+    <sheetView tabSelected="1" topLeftCell="A1132" workbookViewId="0">
+      <selection activeCell="F1113" sqref="F1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24424,6 +24424,9 @@
       <c r="D1109" t="s">
         <v>1831</v>
       </c>
+      <c r="F1109" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
@@ -24438,6 +24441,9 @@
       <c r="D1110" t="s">
         <v>539</v>
       </c>
+      <c r="F1110" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
@@ -24452,6 +24458,9 @@
       <c r="D1111" t="s">
         <v>1904</v>
       </c>
+      <c r="F1111" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
@@ -24466,6 +24475,9 @@
       <c r="D1112" t="s">
         <v>86</v>
       </c>
+      <c r="F1112" t="s">
+        <v>2399</v>
+      </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
@@ -24479,6 +24491,9 @@
       </c>
       <c r="D1113" t="s">
         <v>1698</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
